--- a/02_詳細設計書/02_内部レビュー/チーム2/詳細設計書_勤怠情報詳細.xlsx
+++ b/02_詳細設計書/02_内部レビュー/チーム2/詳細設計書_勤怠情報詳細.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467BBC0F-DE74-9B49-BFB1-998A8EBFCEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491FB2A3-BAEF-DB44-8B3D-94EDA38920A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" tabRatio="774" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="221">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -1298,12 +1298,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>更新日時</t>
-  </si>
-  <si>
     <t>更新者id</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1446,10 +1440,36 @@
   </si>
   <si>
     <t>情報エラー処理</t>
-    <rPh sb="6" eb="8">
+    <rPh sb="0" eb="7">
       <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>所属部門</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>employee_name</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dept_name</t>
+  </si>
+  <si>
+    <t>m_dept</t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1665,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1873,33 +1893,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -1919,7 +1913,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2162,13 +2156,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2185,6 +2173,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2381,6 +2372,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2406,15 +2406,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2470,6 +2461,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2499,18 +2499,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5634,8 +5622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT38"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:AB23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -5894,72 +5882,72 @@
     </row>
     <row r="4" spans="1:176" ht="15" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="121"/>
-      <c r="AA4" s="121"/>
-      <c r="AB4" s="121"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="120"/>
+      <c r="AC4" s="120"/>
+      <c r="AD4" s="120"/>
+      <c r="AE4" s="120"/>
       <c r="AF4" s="12"/>
     </row>
     <row r="5" spans="1:176" ht="15" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="121"/>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="121"/>
-      <c r="AE5" s="121"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="120"/>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="120"/>
+      <c r="AE5" s="120"/>
       <c r="AF5" s="12"/>
     </row>
     <row r="6" spans="1:176" ht="15" customHeight="1">
@@ -6131,124 +6119,124 @@
     </row>
     <row r="11" spans="1:176" ht="15" customHeight="1">
       <c r="A11" s="11"/>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="128" t="s">
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="128" t="s">
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="129"/>
-      <c r="V11" s="129"/>
-      <c r="W11" s="129"/>
-      <c r="X11" s="129"/>
-      <c r="Y11" s="129"/>
-      <c r="Z11" s="129"/>
-      <c r="AA11" s="130"/>
-      <c r="AB11" s="128" t="s">
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="128"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="128"/>
+      <c r="Z11" s="128"/>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AC11" s="130"/>
-      <c r="AD11" s="128" t="s">
+      <c r="AC11" s="129"/>
+      <c r="AD11" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AE11" s="130"/>
+      <c r="AE11" s="129"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="11"/>
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="122" t="s">
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="131" t="s">
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="132"/>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="133"/>
-      <c r="AB12" s="131" t="s">
+      <c r="N12" s="131"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="131"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="AC12" s="133"/>
-      <c r="AD12" s="122" t="s">
+      <c r="AC12" s="132"/>
+      <c r="AD12" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="AE12" s="124"/>
+      <c r="AE12" s="123"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="135"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="135"/>
-      <c r="AA13" s="136"/>
-      <c r="AB13" s="134"/>
-      <c r="AC13" s="136"/>
-      <c r="AD13" s="125"/>
-      <c r="AE13" s="127"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="134"/>
+      <c r="Z13" s="134"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="133"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="124"/>
+      <c r="AE13" s="126"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
@@ -6453,630 +6441,630 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="140" t="s">
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="140" t="s">
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="141"/>
-      <c r="T20" s="141"/>
-      <c r="U20" s="141"/>
-      <c r="V20" s="141"/>
-      <c r="W20" s="141"/>
-      <c r="X20" s="141"/>
-      <c r="Y20" s="141"/>
-      <c r="Z20" s="141"/>
-      <c r="AA20" s="141"/>
-      <c r="AB20" s="142"/>
-      <c r="AC20" s="140" t="s">
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="140"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="140"/>
+      <c r="S20" s="140"/>
+      <c r="T20" s="140"/>
+      <c r="U20" s="140"/>
+      <c r="V20" s="140"/>
+      <c r="W20" s="140"/>
+      <c r="X20" s="140"/>
+      <c r="Y20" s="140"/>
+      <c r="Z20" s="140"/>
+      <c r="AA20" s="140"/>
+      <c r="AB20" s="141"/>
+      <c r="AC20" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="AD20" s="141"/>
-      <c r="AE20" s="142"/>
+      <c r="AD20" s="140"/>
+      <c r="AE20" s="141"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="137" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="118" t="s">
+      <c r="B21" s="136" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="118" t="s">
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
-      <c r="T21" s="119"/>
-      <c r="U21" s="119"/>
-      <c r="V21" s="119"/>
-      <c r="W21" s="119"/>
-      <c r="X21" s="119"/>
-      <c r="Y21" s="119"/>
-      <c r="Z21" s="119"/>
-      <c r="AA21" s="119"/>
-      <c r="AB21" s="120"/>
-      <c r="AC21" s="118" t="s">
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="118"/>
+      <c r="Z21" s="118"/>
+      <c r="AA21" s="118"/>
+      <c r="AB21" s="119"/>
+      <c r="AC21" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="120"/>
+      <c r="AD21" s="118"/>
+      <c r="AE21" s="119"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="119"/>
-      <c r="S22" s="119"/>
-      <c r="T22" s="119"/>
-      <c r="U22" s="119"/>
-      <c r="V22" s="119"/>
-      <c r="W22" s="119"/>
-      <c r="X22" s="119"/>
-      <c r="Y22" s="119"/>
-      <c r="Z22" s="119"/>
-      <c r="AA22" s="119"/>
-      <c r="AB22" s="120"/>
-      <c r="AC22" s="118"/>
-      <c r="AD22" s="119"/>
-      <c r="AE22" s="120"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="118"/>
+      <c r="X22" s="118"/>
+      <c r="Y22" s="118"/>
+      <c r="Z22" s="118"/>
+      <c r="AA22" s="118"/>
+      <c r="AB22" s="119"/>
+      <c r="AC22" s="117"/>
+      <c r="AD22" s="118"/>
+      <c r="AE22" s="119"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="119"/>
-      <c r="T23" s="119"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="119"/>
-      <c r="W23" s="119"/>
-      <c r="X23" s="119"/>
-      <c r="Y23" s="119"/>
-      <c r="Z23" s="119"/>
-      <c r="AA23" s="119"/>
-      <c r="AB23" s="120"/>
-      <c r="AC23" s="118"/>
-      <c r="AD23" s="119"/>
-      <c r="AE23" s="120"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="118"/>
+      <c r="AB23" s="119"/>
+      <c r="AC23" s="117"/>
+      <c r="AD23" s="118"/>
+      <c r="AE23" s="119"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="119"/>
-      <c r="T24" s="119"/>
-      <c r="U24" s="119"/>
-      <c r="V24" s="119"/>
-      <c r="W24" s="119"/>
-      <c r="X24" s="119"/>
-      <c r="Y24" s="119"/>
-      <c r="Z24" s="119"/>
-      <c r="AA24" s="119"/>
-      <c r="AB24" s="120"/>
-      <c r="AC24" s="118"/>
-      <c r="AD24" s="119"/>
-      <c r="AE24" s="120"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="118"/>
+      <c r="Y24" s="118"/>
+      <c r="Z24" s="118"/>
+      <c r="AA24" s="118"/>
+      <c r="AB24" s="119"/>
+      <c r="AC24" s="117"/>
+      <c r="AD24" s="118"/>
+      <c r="AE24" s="119"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="119"/>
-      <c r="T25" s="119"/>
-      <c r="U25" s="119"/>
-      <c r="V25" s="119"/>
-      <c r="W25" s="119"/>
-      <c r="X25" s="119"/>
-      <c r="Y25" s="119"/>
-      <c r="Z25" s="119"/>
-      <c r="AA25" s="119"/>
-      <c r="AB25" s="120"/>
-      <c r="AC25" s="118"/>
-      <c r="AD25" s="119"/>
-      <c r="AE25" s="120"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="119"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="118"/>
+      <c r="AB25" s="119"/>
+      <c r="AC25" s="117"/>
+      <c r="AD25" s="118"/>
+      <c r="AE25" s="119"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="119"/>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="119"/>
-      <c r="W26" s="119"/>
-      <c r="X26" s="119"/>
-      <c r="Y26" s="119"/>
-      <c r="Z26" s="119"/>
-      <c r="AA26" s="119"/>
-      <c r="AB26" s="120"/>
-      <c r="AC26" s="118"/>
-      <c r="AD26" s="119"/>
-      <c r="AE26" s="120"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="118"/>
+      <c r="Z26" s="118"/>
+      <c r="AA26" s="118"/>
+      <c r="AB26" s="119"/>
+      <c r="AC26" s="117"/>
+      <c r="AD26" s="118"/>
+      <c r="AE26" s="119"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="119"/>
-      <c r="T27" s="119"/>
-      <c r="U27" s="119"/>
-      <c r="V27" s="119"/>
-      <c r="W27" s="119"/>
-      <c r="X27" s="119"/>
-      <c r="Y27" s="119"/>
-      <c r="Z27" s="119"/>
-      <c r="AA27" s="119"/>
-      <c r="AB27" s="120"/>
-      <c r="AC27" s="118"/>
-      <c r="AD27" s="119"/>
-      <c r="AE27" s="120"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="118"/>
+      <c r="R27" s="118"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="118"/>
+      <c r="U27" s="118"/>
+      <c r="V27" s="118"/>
+      <c r="W27" s="118"/>
+      <c r="X27" s="118"/>
+      <c r="Y27" s="118"/>
+      <c r="Z27" s="118"/>
+      <c r="AA27" s="118"/>
+      <c r="AB27" s="119"/>
+      <c r="AC27" s="117"/>
+      <c r="AD27" s="118"/>
+      <c r="AE27" s="119"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="119"/>
-      <c r="T28" s="119"/>
-      <c r="U28" s="119"/>
-      <c r="V28" s="119"/>
-      <c r="W28" s="119"/>
-      <c r="X28" s="119"/>
-      <c r="Y28" s="119"/>
-      <c r="Z28" s="119"/>
-      <c r="AA28" s="119"/>
-      <c r="AB28" s="120"/>
-      <c r="AC28" s="118"/>
-      <c r="AD28" s="119"/>
-      <c r="AE28" s="120"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="118"/>
+      <c r="Y28" s="118"/>
+      <c r="Z28" s="118"/>
+      <c r="AA28" s="118"/>
+      <c r="AB28" s="119"/>
+      <c r="AC28" s="117"/>
+      <c r="AD28" s="118"/>
+      <c r="AE28" s="119"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="119"/>
-      <c r="S29" s="119"/>
-      <c r="T29" s="119"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="119"/>
-      <c r="W29" s="119"/>
-      <c r="X29" s="119"/>
-      <c r="Y29" s="119"/>
-      <c r="Z29" s="119"/>
-      <c r="AA29" s="119"/>
-      <c r="AB29" s="120"/>
-      <c r="AC29" s="118"/>
-      <c r="AD29" s="119"/>
-      <c r="AE29" s="120"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="118"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="118"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="118"/>
+      <c r="S29" s="118"/>
+      <c r="T29" s="118"/>
+      <c r="U29" s="118"/>
+      <c r="V29" s="118"/>
+      <c r="W29" s="118"/>
+      <c r="X29" s="118"/>
+      <c r="Y29" s="118"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="118"/>
+      <c r="AB29" s="119"/>
+      <c r="AC29" s="117"/>
+      <c r="AD29" s="118"/>
+      <c r="AE29" s="119"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="147"/>
-      <c r="N30" s="147"/>
-      <c r="O30" s="147"/>
-      <c r="P30" s="147"/>
-      <c r="Q30" s="147"/>
-      <c r="R30" s="147"/>
-      <c r="S30" s="147"/>
-      <c r="T30" s="147"/>
-      <c r="U30" s="147"/>
-      <c r="V30" s="147"/>
-      <c r="W30" s="147"/>
-      <c r="X30" s="147"/>
-      <c r="Y30" s="147"/>
-      <c r="Z30" s="147"/>
-      <c r="AA30" s="147"/>
-      <c r="AB30" s="148"/>
-      <c r="AC30" s="146"/>
-      <c r="AD30" s="147"/>
-      <c r="AE30" s="148"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="146"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="146"/>
+      <c r="S30" s="146"/>
+      <c r="T30" s="146"/>
+      <c r="U30" s="146"/>
+      <c r="V30" s="146"/>
+      <c r="W30" s="146"/>
+      <c r="X30" s="146"/>
+      <c r="Y30" s="146"/>
+      <c r="Z30" s="146"/>
+      <c r="AA30" s="146"/>
+      <c r="AB30" s="147"/>
+      <c r="AC30" s="145"/>
+      <c r="AD30" s="146"/>
+      <c r="AE30" s="147"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="147"/>
-      <c r="O31" s="147"/>
-      <c r="P31" s="147"/>
-      <c r="Q31" s="147"/>
-      <c r="R31" s="147"/>
-      <c r="S31" s="147"/>
-      <c r="T31" s="147"/>
-      <c r="U31" s="147"/>
-      <c r="V31" s="147"/>
-      <c r="W31" s="147"/>
-      <c r="X31" s="147"/>
-      <c r="Y31" s="147"/>
-      <c r="Z31" s="147"/>
-      <c r="AA31" s="147"/>
-      <c r="AB31" s="148"/>
-      <c r="AC31" s="146"/>
-      <c r="AD31" s="147"/>
-      <c r="AE31" s="148"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="146"/>
+      <c r="S31" s="146"/>
+      <c r="T31" s="146"/>
+      <c r="U31" s="146"/>
+      <c r="V31" s="146"/>
+      <c r="W31" s="146"/>
+      <c r="X31" s="146"/>
+      <c r="Y31" s="146"/>
+      <c r="Z31" s="146"/>
+      <c r="AA31" s="146"/>
+      <c r="AB31" s="147"/>
+      <c r="AC31" s="145"/>
+      <c r="AD31" s="146"/>
+      <c r="AE31" s="147"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="147"/>
-      <c r="O32" s="147"/>
-      <c r="P32" s="147"/>
-      <c r="Q32" s="147"/>
-      <c r="R32" s="147"/>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="147"/>
-      <c r="V32" s="147"/>
-      <c r="W32" s="147"/>
-      <c r="X32" s="147"/>
-      <c r="Y32" s="147"/>
-      <c r="Z32" s="147"/>
-      <c r="AA32" s="147"/>
-      <c r="AB32" s="148"/>
-      <c r="AC32" s="146"/>
-      <c r="AD32" s="147"/>
-      <c r="AE32" s="148"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="146"/>
+      <c r="S32" s="146"/>
+      <c r="T32" s="146"/>
+      <c r="U32" s="146"/>
+      <c r="V32" s="146"/>
+      <c r="W32" s="146"/>
+      <c r="X32" s="146"/>
+      <c r="Y32" s="146"/>
+      <c r="Z32" s="146"/>
+      <c r="AA32" s="146"/>
+      <c r="AB32" s="147"/>
+      <c r="AC32" s="145"/>
+      <c r="AD32" s="146"/>
+      <c r="AE32" s="147"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="147"/>
-      <c r="P33" s="147"/>
-      <c r="Q33" s="147"/>
-      <c r="R33" s="147"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="147"/>
-      <c r="V33" s="147"/>
-      <c r="W33" s="147"/>
-      <c r="X33" s="147"/>
-      <c r="Y33" s="147"/>
-      <c r="Z33" s="147"/>
-      <c r="AA33" s="147"/>
-      <c r="AB33" s="148"/>
-      <c r="AC33" s="146"/>
-      <c r="AD33" s="147"/>
-      <c r="AE33" s="148"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="146"/>
+      <c r="N33" s="146"/>
+      <c r="O33" s="146"/>
+      <c r="P33" s="146"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="146"/>
+      <c r="S33" s="146"/>
+      <c r="T33" s="146"/>
+      <c r="U33" s="146"/>
+      <c r="V33" s="146"/>
+      <c r="W33" s="146"/>
+      <c r="X33" s="146"/>
+      <c r="Y33" s="146"/>
+      <c r="Z33" s="146"/>
+      <c r="AA33" s="146"/>
+      <c r="AB33" s="147"/>
+      <c r="AC33" s="145"/>
+      <c r="AD33" s="146"/>
+      <c r="AE33" s="147"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="143"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="147"/>
-      <c r="M34" s="147"/>
-      <c r="N34" s="147"/>
-      <c r="O34" s="147"/>
-      <c r="P34" s="147"/>
-      <c r="Q34" s="147"/>
-      <c r="R34" s="147"/>
-      <c r="S34" s="147"/>
-      <c r="T34" s="147"/>
-      <c r="U34" s="147"/>
-      <c r="V34" s="147"/>
-      <c r="W34" s="147"/>
-      <c r="X34" s="147"/>
-      <c r="Y34" s="147"/>
-      <c r="Z34" s="147"/>
-      <c r="AA34" s="147"/>
-      <c r="AB34" s="148"/>
-      <c r="AC34" s="146"/>
-      <c r="AD34" s="147"/>
-      <c r="AE34" s="148"/>
+      <c r="B34" s="142"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="146"/>
+      <c r="N34" s="146"/>
+      <c r="O34" s="146"/>
+      <c r="P34" s="146"/>
+      <c r="Q34" s="146"/>
+      <c r="R34" s="146"/>
+      <c r="S34" s="146"/>
+      <c r="T34" s="146"/>
+      <c r="U34" s="146"/>
+      <c r="V34" s="146"/>
+      <c r="W34" s="146"/>
+      <c r="X34" s="146"/>
+      <c r="Y34" s="146"/>
+      <c r="Z34" s="146"/>
+      <c r="AA34" s="146"/>
+      <c r="AB34" s="147"/>
+      <c r="AC34" s="145"/>
+      <c r="AD34" s="146"/>
+      <c r="AE34" s="147"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="146"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="147"/>
-      <c r="N35" s="147"/>
-      <c r="O35" s="147"/>
-      <c r="P35" s="147"/>
-      <c r="Q35" s="147"/>
-      <c r="R35" s="147"/>
-      <c r="S35" s="147"/>
-      <c r="T35" s="147"/>
-      <c r="U35" s="147"/>
-      <c r="V35" s="147"/>
-      <c r="W35" s="147"/>
-      <c r="X35" s="147"/>
-      <c r="Y35" s="147"/>
-      <c r="Z35" s="147"/>
-      <c r="AA35" s="147"/>
-      <c r="AB35" s="148"/>
-      <c r="AC35" s="146"/>
-      <c r="AD35" s="147"/>
-      <c r="AE35" s="148"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="146"/>
+      <c r="N35" s="146"/>
+      <c r="O35" s="146"/>
+      <c r="P35" s="146"/>
+      <c r="Q35" s="146"/>
+      <c r="R35" s="146"/>
+      <c r="S35" s="146"/>
+      <c r="T35" s="146"/>
+      <c r="U35" s="146"/>
+      <c r="V35" s="146"/>
+      <c r="W35" s="146"/>
+      <c r="X35" s="146"/>
+      <c r="Y35" s="146"/>
+      <c r="Z35" s="146"/>
+      <c r="AA35" s="146"/>
+      <c r="AB35" s="147"/>
+      <c r="AC35" s="145"/>
+      <c r="AD35" s="146"/>
+      <c r="AE35" s="147"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="146"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="147"/>
-      <c r="M36" s="147"/>
-      <c r="N36" s="147"/>
-      <c r="O36" s="147"/>
-      <c r="P36" s="147"/>
-      <c r="Q36" s="147"/>
-      <c r="R36" s="147"/>
-      <c r="S36" s="147"/>
-      <c r="T36" s="147"/>
-      <c r="U36" s="147"/>
-      <c r="V36" s="147"/>
-      <c r="W36" s="147"/>
-      <c r="X36" s="147"/>
-      <c r="Y36" s="147"/>
-      <c r="Z36" s="147"/>
-      <c r="AA36" s="147"/>
-      <c r="AB36" s="148"/>
-      <c r="AC36" s="146"/>
-      <c r="AD36" s="147"/>
-      <c r="AE36" s="148"/>
+      <c r="B36" s="142"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="146"/>
+      <c r="M36" s="146"/>
+      <c r="N36" s="146"/>
+      <c r="O36" s="146"/>
+      <c r="P36" s="146"/>
+      <c r="Q36" s="146"/>
+      <c r="R36" s="146"/>
+      <c r="S36" s="146"/>
+      <c r="T36" s="146"/>
+      <c r="U36" s="146"/>
+      <c r="V36" s="146"/>
+      <c r="W36" s="146"/>
+      <c r="X36" s="146"/>
+      <c r="Y36" s="146"/>
+      <c r="Z36" s="146"/>
+      <c r="AA36" s="146"/>
+      <c r="AB36" s="147"/>
+      <c r="AC36" s="145"/>
+      <c r="AD36" s="146"/>
+      <c r="AE36" s="147"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="146"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="146"/>
-      <c r="K37" s="147"/>
-      <c r="L37" s="147"/>
-      <c r="M37" s="147"/>
-      <c r="N37" s="147"/>
-      <c r="O37" s="147"/>
-      <c r="P37" s="147"/>
-      <c r="Q37" s="147"/>
-      <c r="R37" s="147"/>
-      <c r="S37" s="147"/>
-      <c r="T37" s="147"/>
-      <c r="U37" s="147"/>
-      <c r="V37" s="147"/>
-      <c r="W37" s="147"/>
-      <c r="X37" s="147"/>
-      <c r="Y37" s="147"/>
-      <c r="Z37" s="147"/>
-      <c r="AA37" s="147"/>
-      <c r="AB37" s="148"/>
-      <c r="AC37" s="146"/>
-      <c r="AD37" s="147"/>
-      <c r="AE37" s="148"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="146"/>
+      <c r="L37" s="146"/>
+      <c r="M37" s="146"/>
+      <c r="N37" s="146"/>
+      <c r="O37" s="146"/>
+      <c r="P37" s="146"/>
+      <c r="Q37" s="146"/>
+      <c r="R37" s="146"/>
+      <c r="S37" s="146"/>
+      <c r="T37" s="146"/>
+      <c r="U37" s="146"/>
+      <c r="V37" s="146"/>
+      <c r="W37" s="146"/>
+      <c r="X37" s="146"/>
+      <c r="Y37" s="146"/>
+      <c r="Z37" s="146"/>
+      <c r="AA37" s="146"/>
+      <c r="AB37" s="147"/>
+      <c r="AC37" s="145"/>
+      <c r="AD37" s="146"/>
+      <c r="AE37" s="147"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -7232,171 +7220,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="222"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="222"/>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="222"/>
-      <c r="AA1" s="222"/>
-      <c r="AB1" s="222"/>
-      <c r="AC1" s="222"/>
-      <c r="AD1" s="222"/>
-      <c r="AE1" s="222"/>
-      <c r="AF1" s="222"/>
-      <c r="AG1" s="222"/>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="224"/>
+      <c r="T1" s="224"/>
+      <c r="U1" s="224"/>
+      <c r="V1" s="224"/>
+      <c r="W1" s="224"/>
+      <c r="X1" s="224"/>
+      <c r="Y1" s="224"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="224"/>
+      <c r="AB1" s="224"/>
+      <c r="AC1" s="224"/>
+      <c r="AD1" s="224"/>
+      <c r="AE1" s="224"/>
+      <c r="AF1" s="224"/>
+      <c r="AG1" s="224"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="223" t="s">
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="225"/>
-      <c r="M2" s="223" t="s">
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="224"/>
-      <c r="AB2" s="224"/>
-      <c r="AC2" s="225"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="226"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="226"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="226"/>
+      <c r="AB2" s="226"/>
+      <c r="AC2" s="227"/>
       <c r="AD2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="17"/>
-      <c r="AF2" s="223" t="s">
+      <c r="AF2" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="225"/>
+      <c r="AG2" s="227"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="216" t="str">
+      <c r="A3" s="218" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="216" t="str">
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="218" t="str">
         <f>表紙!G12</f>
         <v>勤怠情報・一覧登録</v>
       </c>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="216" t="str">
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="218" t="str">
         <f>表紙!M12</f>
         <v>勤怠管理情報詳細一覧 / 更新 / 削除</v>
       </c>
-      <c r="N3" s="220"/>
-      <c r="O3" s="220"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="220"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="220"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="220"/>
-      <c r="V3" s="220"/>
-      <c r="W3" s="220"/>
-      <c r="X3" s="220"/>
-      <c r="Y3" s="220"/>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="220"/>
-      <c r="AB3" s="220"/>
-      <c r="AC3" s="217"/>
-      <c r="AD3" s="216" t="str">
+      <c r="N3" s="222"/>
+      <c r="O3" s="222"/>
+      <c r="P3" s="222"/>
+      <c r="Q3" s="222"/>
+      <c r="R3" s="222"/>
+      <c r="S3" s="222"/>
+      <c r="T3" s="222"/>
+      <c r="U3" s="222"/>
+      <c r="V3" s="222"/>
+      <c r="W3" s="222"/>
+      <c r="X3" s="222"/>
+      <c r="Y3" s="222"/>
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="222"/>
+      <c r="AB3" s="222"/>
+      <c r="AC3" s="219"/>
+      <c r="AD3" s="218" t="str">
         <f>表紙!AB12</f>
         <v>NTS</v>
       </c>
-      <c r="AE3" s="217"/>
-      <c r="AF3" s="216" t="str">
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="218" t="str">
         <f>表紙!AD12</f>
         <v>司徒 健斌</v>
       </c>
-      <c r="AG3" s="217"/>
+      <c r="AG3" s="219"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="218"/>
-      <c r="B4" s="221"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="219"/>
-      <c r="M4" s="218"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="221"/>
-      <c r="P4" s="221"/>
-      <c r="Q4" s="221"/>
-      <c r="R4" s="221"/>
-      <c r="S4" s="221"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
-      <c r="V4" s="221"/>
-      <c r="W4" s="221"/>
-      <c r="X4" s="221"/>
-      <c r="Y4" s="221"/>
-      <c r="Z4" s="221"/>
-      <c r="AA4" s="221"/>
-      <c r="AB4" s="221"/>
-      <c r="AC4" s="219"/>
-      <c r="AD4" s="218"/>
-      <c r="AE4" s="219"/>
-      <c r="AF4" s="218"/>
-      <c r="AG4" s="219"/>
+      <c r="A4" s="220"/>
+      <c r="B4" s="223"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="223"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="223"/>
+      <c r="O4" s="223"/>
+      <c r="P4" s="223"/>
+      <c r="Q4" s="223"/>
+      <c r="R4" s="223"/>
+      <c r="S4" s="223"/>
+      <c r="T4" s="223"/>
+      <c r="U4" s="223"/>
+      <c r="V4" s="223"/>
+      <c r="W4" s="223"/>
+      <c r="X4" s="223"/>
+      <c r="Y4" s="223"/>
+      <c r="Z4" s="223"/>
+      <c r="AA4" s="223"/>
+      <c r="AB4" s="223"/>
+      <c r="AC4" s="221"/>
+      <c r="AD4" s="220"/>
+      <c r="AE4" s="221"/>
+      <c r="AF4" s="220"/>
+      <c r="AG4" s="221"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -7609,94 +7597,94 @@
     </row>
     <row r="7" spans="1:177" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="30"/>
-      <c r="B7" s="205" t="s">
+      <c r="B7" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="205" t="s">
+      <c r="C7" s="214"/>
+      <c r="D7" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="205" t="s">
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="214"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="205" t="s">
+      <c r="I7" s="213"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="214"/>
-      <c r="M7" s="215"/>
-      <c r="N7" s="205" t="s">
+      <c r="L7" s="213"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="206"/>
-      <c r="P7" s="207"/>
-      <c r="Q7" s="205" t="s">
+      <c r="O7" s="205"/>
+      <c r="P7" s="206"/>
+      <c r="Q7" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="207"/>
-      <c r="S7" s="205" t="s">
+      <c r="R7" s="206"/>
+      <c r="S7" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="206"/>
-      <c r="U7" s="207"/>
-      <c r="V7" s="205" t="s">
+      <c r="T7" s="205"/>
+      <c r="U7" s="206"/>
+      <c r="V7" s="204" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="206"/>
-      <c r="X7" s="207"/>
-      <c r="Y7" s="205" t="s">
+      <c r="W7" s="205"/>
+      <c r="X7" s="206"/>
+      <c r="Y7" s="204" t="s">
         <v>23</v>
       </c>
-      <c r="Z7" s="206"/>
-      <c r="AA7" s="206"/>
-      <c r="AB7" s="206"/>
-      <c r="AC7" s="206"/>
-      <c r="AD7" s="206"/>
-      <c r="AE7" s="207"/>
+      <c r="Z7" s="205"/>
+      <c r="AA7" s="205"/>
+      <c r="AB7" s="205"/>
+      <c r="AC7" s="205"/>
+      <c r="AD7" s="205"/>
+      <c r="AE7" s="206"/>
       <c r="AG7" s="32"/>
     </row>
     <row r="8" spans="1:177" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="30"/>
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="204"/>
+      <c r="C8" s="203"/>
       <c r="D8" s="30" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="32"/>
-      <c r="H8" s="208" t="s">
+      <c r="H8" s="207" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="209"/>
-      <c r="J8" s="210"/>
-      <c r="K8" s="211" t="s">
+      <c r="I8" s="208"/>
+      <c r="J8" s="209"/>
+      <c r="K8" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="212"/>
-      <c r="M8" s="213"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="212"/>
       <c r="N8" s="30" t="s">
         <v>19</v>
       </c>
       <c r="P8" s="32"/>
-      <c r="Q8" s="211" t="s">
+      <c r="Q8" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="213"/>
-      <c r="S8" s="226" t="s">
+      <c r="R8" s="212"/>
+      <c r="S8" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="227"/>
-      <c r="U8" s="228"/>
-      <c r="V8" s="208" t="s">
+      <c r="T8" s="216"/>
+      <c r="U8" s="217"/>
+      <c r="V8" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="209"/>
-      <c r="X8" s="210"/>
+      <c r="W8" s="208"/>
+      <c r="X8" s="209"/>
       <c r="Y8" s="33" t="s">
         <v>24</v>
       </c>
@@ -8418,178 +8406,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="222"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="222"/>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="222"/>
-      <c r="AA1" s="222"/>
-      <c r="AB1" s="222"/>
-      <c r="AC1" s="222"/>
-      <c r="AD1" s="222"/>
-      <c r="AE1" s="222"/>
-      <c r="AF1" s="222"/>
-      <c r="AG1" s="222"/>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="224"/>
+      <c r="T1" s="224"/>
+      <c r="U1" s="224"/>
+      <c r="V1" s="224"/>
+      <c r="W1" s="224"/>
+      <c r="X1" s="224"/>
+      <c r="Y1" s="224"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="224"/>
+      <c r="AB1" s="224"/>
+      <c r="AC1" s="224"/>
+      <c r="AD1" s="224"/>
+      <c r="AE1" s="224"/>
+      <c r="AF1" s="224"/>
+      <c r="AG1" s="224"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="223" t="s">
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="225"/>
-      <c r="N2" s="223" t="s">
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="226"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="223" t="s">
+      <c r="O2" s="226"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="226"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="227"/>
+      <c r="Y2" s="225" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="224"/>
-      <c r="AB2" s="224"/>
-      <c r="AC2" s="224"/>
-      <c r="AD2" s="225"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="226"/>
+      <c r="AB2" s="226"/>
+      <c r="AC2" s="226"/>
+      <c r="AD2" s="227"/>
       <c r="AE2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="17"/>
-      <c r="AG2" s="223" t="s">
+      <c r="AG2" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="225"/>
+      <c r="AH2" s="227"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="216" t="str">
+      <c r="A3" s="218" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="216" t="str">
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="218" t="str">
         <f>表紙!G12</f>
         <v>勤怠情報・一覧登録</v>
       </c>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="220"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="216" t="str">
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="218" t="str">
         <f>表紙!M12</f>
         <v>勤怠管理情報詳細一覧 / 更新 / 削除</v>
       </c>
-      <c r="O3" s="220"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="220"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="220"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="220"/>
-      <c r="V3" s="220"/>
-      <c r="W3" s="220"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="216" t="s">
+      <c r="O3" s="222"/>
+      <c r="P3" s="222"/>
+      <c r="Q3" s="222"/>
+      <c r="R3" s="222"/>
+      <c r="S3" s="222"/>
+      <c r="T3" s="222"/>
+      <c r="U3" s="222"/>
+      <c r="V3" s="222"/>
+      <c r="W3" s="222"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="220"/>
-      <c r="AA3" s="220"/>
-      <c r="AB3" s="220"/>
-      <c r="AC3" s="220"/>
-      <c r="AD3" s="217"/>
-      <c r="AE3" s="216" t="str">
+      <c r="Z3" s="222"/>
+      <c r="AA3" s="222"/>
+      <c r="AB3" s="222"/>
+      <c r="AC3" s="222"/>
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="218" t="str">
         <f>表紙!AB12</f>
         <v>NTS</v>
       </c>
-      <c r="AF3" s="217"/>
-      <c r="AG3" s="216" t="str">
+      <c r="AF3" s="219"/>
+      <c r="AG3" s="218" t="str">
         <f>表紙!AD12</f>
         <v>司徒 健斌</v>
       </c>
-      <c r="AH3" s="217"/>
+      <c r="AH3" s="219"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="218"/>
-      <c r="B4" s="221"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="221"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="219"/>
-      <c r="N4" s="218"/>
-      <c r="O4" s="221"/>
-      <c r="P4" s="221"/>
-      <c r="Q4" s="221"/>
-      <c r="R4" s="221"/>
-      <c r="S4" s="221"/>
-      <c r="T4" s="221"/>
-      <c r="U4" s="221"/>
-      <c r="V4" s="221"/>
-      <c r="W4" s="221"/>
-      <c r="X4" s="219"/>
-      <c r="Y4" s="218"/>
-      <c r="Z4" s="221"/>
-      <c r="AA4" s="221"/>
-      <c r="AB4" s="221"/>
-      <c r="AC4" s="221"/>
-      <c r="AD4" s="219"/>
-      <c r="AE4" s="218"/>
-      <c r="AF4" s="219"/>
-      <c r="AG4" s="218"/>
-      <c r="AH4" s="219"/>
+      <c r="A4" s="220"/>
+      <c r="B4" s="223"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="223"/>
+      <c r="L4" s="223"/>
+      <c r="M4" s="221"/>
+      <c r="N4" s="220"/>
+      <c r="O4" s="223"/>
+      <c r="P4" s="223"/>
+      <c r="Q4" s="223"/>
+      <c r="R4" s="223"/>
+      <c r="S4" s="223"/>
+      <c r="T4" s="223"/>
+      <c r="U4" s="223"/>
+      <c r="V4" s="223"/>
+      <c r="W4" s="223"/>
+      <c r="X4" s="221"/>
+      <c r="Y4" s="220"/>
+      <c r="Z4" s="223"/>
+      <c r="AA4" s="223"/>
+      <c r="AB4" s="223"/>
+      <c r="AC4" s="223"/>
+      <c r="AD4" s="221"/>
+      <c r="AE4" s="220"/>
+      <c r="AF4" s="221"/>
+      <c r="AG4" s="220"/>
+      <c r="AH4" s="221"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -10069,174 +10057,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="149"/>
-      <c r="AH1" s="149"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="148"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="128" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="128" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="128" t="s">
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="130"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="129"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="128" t="s">
+      <c r="AG2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="130"/>
+      <c r="AH2" s="129"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="130" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="122" t="s">
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="122" t="s">
-        <v>194</v>
-      </c>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="122" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="122" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH3" s="124"/>
+      <c r="AH3" s="123"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="125"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="125"/>
-      <c r="AH4" s="127"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="126"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="126"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="45"/>
@@ -10272,7 +10260,7 @@
       <c r="AE5" s="46"/>
       <c r="AF5" s="46"/>
       <c r="AG5" s="46"/>
-      <c r="AH5" s="229"/>
+      <c r="AH5" s="116"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="23"/>
       <c r="AK5" s="23"/>
@@ -10914,7 +10902,7 @@
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
       <c r="C19" s="89" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D19" s="89"/>
       <c r="E19" s="89"/>
@@ -10952,7 +10940,7 @@
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
       <c r="C20" s="89" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D20" s="89"/>
       <c r="E20" s="89"/>
@@ -10990,7 +10978,7 @@
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
       <c r="C21" s="89" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D21" s="89"/>
       <c r="E21" s="89"/>
@@ -11028,7 +11016,7 @@
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
       <c r="C22" s="89" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D22" s="89"/>
       <c r="E22" s="89"/>
@@ -11066,7 +11054,7 @@
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
       <c r="C23" s="92" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D23" s="89"/>
       <c r="E23" s="89"/>
@@ -11104,7 +11092,7 @@
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
       <c r="C24" s="89" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D24" s="89"/>
       <c r="E24" s="89"/>
@@ -11903,166 +11891,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="149"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="128" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="128" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="130"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="129"/>
       <c r="AD2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="87"/>
-      <c r="AF2" s="128" t="s">
+      <c r="AF2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="130"/>
+      <c r="AG2" s="129"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="122" t="s">
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE3" s="123"/>
+      <c r="AF3" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="122" t="s">
-        <v>194</v>
-      </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="122" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="122" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG3" s="124"/>
+      <c r="AG3" s="123"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="125"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="125"/>
-      <c r="AG4" s="127"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="126"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="126"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="126"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="58"/>
@@ -13639,7 +13627,7 @@
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="T24" sqref="T24:U24"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -13652,166 +13640,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="149"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="128" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="128" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="130"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="129"/>
       <c r="AD2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="87"/>
-      <c r="AF2" s="128" t="s">
+      <c r="AF2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="130"/>
+      <c r="AG2" s="129"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="122" t="s">
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE3" s="123"/>
+      <c r="AF3" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="122" t="s">
-        <v>194</v>
-      </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="122" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="122" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG3" s="124"/>
+      <c r="AG3" s="123"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="125"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="125"/>
-      <c r="AG4" s="127"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="126"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="126"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="126"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -14133,18 +14121,18 @@
       <c r="AG9" s="67"/>
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="155" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="177">
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="176">
         <v>1</v>
       </c>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
       <c r="I10" s="77"/>
       <c r="J10" s="78"/>
       <c r="K10" s="83"/>
@@ -14172,18 +14160,18 @@
       <c r="AG10" s="67"/>
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A11" s="178" t="s">
+      <c r="A11" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156" t="s">
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
       <c r="I11" s="77"/>
       <c r="J11" s="78"/>
       <c r="K11" s="79"/>
@@ -14211,18 +14199,18 @@
       <c r="AG11" s="67"/>
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A12" s="178" t="s">
+      <c r="A12" s="177" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="156"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156" t="s">
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
       <c r="I12" s="77"/>
       <c r="J12" s="78"/>
       <c r="K12" s="79"/>
@@ -14333,17 +14321,17 @@
       <c r="K15" s="79"/>
       <c r="L15" s="79"/>
       <c r="M15" s="81"/>
-      <c r="N15" s="171" t="s">
+      <c r="N15" s="170" t="s">
         <v>94</v>
       </c>
-      <c r="O15" s="171"/>
-      <c r="P15" s="171"/>
-      <c r="Q15" s="172" t="s">
+      <c r="O15" s="170"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="R15" s="172"/>
-      <c r="S15" s="173"/>
-      <c r="T15" s="174"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="172"/>
+      <c r="T15" s="173"/>
       <c r="U15" s="79"/>
       <c r="V15" s="79"/>
       <c r="W15" s="79"/>
@@ -14372,13 +14360,13 @@
       <c r="K16" s="79"/>
       <c r="L16" s="79"/>
       <c r="M16" s="79"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="171"/>
-      <c r="P16" s="171"/>
-      <c r="Q16" s="172"/>
-      <c r="R16" s="172"/>
-      <c r="S16" s="175"/>
-      <c r="T16" s="176"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="171"/>
+      <c r="R16" s="171"/>
+      <c r="S16" s="174"/>
+      <c r="T16" s="175"/>
       <c r="U16" s="79"/>
       <c r="V16" s="79"/>
       <c r="W16" s="79"/>
@@ -14429,779 +14417,779 @@
       <c r="AG17" s="67"/>
     </row>
     <row r="18" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A18" s="168" t="s">
+      <c r="A18" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="168" t="s">
+      <c r="B18" s="168"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="167" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="168" t="s">
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="167" t="s">
         <v>114</v>
       </c>
-      <c r="I18" s="169"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="168" t="s">
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="167" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="169"/>
-      <c r="M18" s="169"/>
-      <c r="N18" s="168" t="s">
+      <c r="L18" s="168"/>
+      <c r="M18" s="168"/>
+      <c r="N18" s="167" t="s">
         <v>116</v>
       </c>
-      <c r="O18" s="169"/>
-      <c r="P18" s="168" t="s">
+      <c r="O18" s="168"/>
+      <c r="P18" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="Q18" s="169"/>
-      <c r="R18" s="168" t="s">
+      <c r="Q18" s="168"/>
+      <c r="R18" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="S18" s="169"/>
-      <c r="T18" s="168" t="s">
+      <c r="S18" s="168"/>
+      <c r="T18" s="167" t="s">
         <v>119</v>
       </c>
-      <c r="U18" s="169"/>
-      <c r="V18" s="168" t="s">
+      <c r="U18" s="168"/>
+      <c r="V18" s="167" t="s">
         <v>98</v>
       </c>
-      <c r="W18" s="169"/>
-      <c r="X18" s="169"/>
-      <c r="Y18" s="169"/>
-      <c r="Z18" s="169"/>
-      <c r="AA18" s="169"/>
-      <c r="AB18" s="168" t="s">
+      <c r="W18" s="168"/>
+      <c r="X18" s="168"/>
+      <c r="Y18" s="168"/>
+      <c r="Z18" s="168"/>
+      <c r="AA18" s="168"/>
+      <c r="AB18" s="167" t="s">
         <v>99</v>
       </c>
-      <c r="AC18" s="168"/>
-      <c r="AD18" s="170" t="s">
+      <c r="AC18" s="167"/>
+      <c r="AD18" s="169" t="s">
         <v>100</v>
       </c>
-      <c r="AE18" s="170"/>
+      <c r="AE18" s="169"/>
       <c r="AF18" s="68"/>
       <c r="AG18" s="67"/>
     </row>
     <row r="19" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A19" s="166">
+      <c r="A19" s="165">
         <v>2022090101</v>
       </c>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="156" t="s">
+      <c r="B19" s="165"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="167">
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="166">
         <v>0.375</v>
       </c>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="167">
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L19" s="167"/>
-      <c r="M19" s="167"/>
-      <c r="N19" s="159">
+      <c r="L19" s="166"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="158">
         <v>1</v>
       </c>
-      <c r="O19" s="159"/>
-      <c r="P19" s="159">
+      <c r="O19" s="158"/>
+      <c r="P19" s="158">
         <v>1</v>
       </c>
-      <c r="Q19" s="159"/>
-      <c r="R19" s="159">
+      <c r="Q19" s="158"/>
+      <c r="R19" s="158">
         <v>9</v>
       </c>
-      <c r="S19" s="159"/>
-      <c r="T19" s="156" t="s">
+      <c r="S19" s="158"/>
+      <c r="T19" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="156"/>
-      <c r="V19" s="156" t="s">
+      <c r="U19" s="155"/>
+      <c r="V19" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="W19" s="156"/>
-      <c r="X19" s="156"/>
-      <c r="Y19" s="156"/>
-      <c r="Z19" s="156"/>
-      <c r="AA19" s="156"/>
-      <c r="AB19" s="157"/>
-      <c r="AC19" s="157"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="158"/>
+      <c r="W19" s="155"/>
+      <c r="X19" s="155"/>
+      <c r="Y19" s="155"/>
+      <c r="Z19" s="155"/>
+      <c r="AA19" s="155"/>
+      <c r="AB19" s="156"/>
+      <c r="AC19" s="156"/>
+      <c r="AD19" s="157"/>
+      <c r="AE19" s="157"/>
       <c r="AF19" s="68"/>
       <c r="AG19" s="67"/>
     </row>
     <row r="20" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A20" s="166">
+      <c r="A20" s="165">
         <v>2022090201</v>
       </c>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="156" t="s">
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="167">
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="166">
         <v>0.375</v>
       </c>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="167">
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166">
         <v>0.75</v>
       </c>
-      <c r="L20" s="167"/>
-      <c r="M20" s="167"/>
-      <c r="N20" s="159">
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="158">
         <v>1</v>
       </c>
-      <c r="O20" s="159"/>
-      <c r="P20" s="159">
+      <c r="O20" s="158"/>
+      <c r="P20" s="158">
         <v>0</v>
       </c>
-      <c r="Q20" s="159"/>
-      <c r="R20" s="159">
+      <c r="Q20" s="158"/>
+      <c r="R20" s="158">
         <v>8</v>
       </c>
-      <c r="S20" s="159"/>
-      <c r="T20" s="156" t="s">
+      <c r="S20" s="158"/>
+      <c r="T20" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="U20" s="156"/>
-      <c r="V20" s="156" t="s">
+      <c r="U20" s="155"/>
+      <c r="V20" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="W20" s="156"/>
-      <c r="X20" s="156"/>
-      <c r="Y20" s="156"/>
-      <c r="Z20" s="156"/>
-      <c r="AA20" s="156"/>
-      <c r="AB20" s="157"/>
-      <c r="AC20" s="157"/>
-      <c r="AD20" s="158"/>
-      <c r="AE20" s="158"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="155"/>
+      <c r="Y20" s="155"/>
+      <c r="Z20" s="155"/>
+      <c r="AA20" s="155"/>
+      <c r="AB20" s="156"/>
+      <c r="AC20" s="156"/>
+      <c r="AD20" s="157"/>
+      <c r="AE20" s="157"/>
       <c r="AF20" s="68"/>
       <c r="AG20" s="67"/>
     </row>
     <row r="21" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A21" s="166">
+      <c r="A21" s="165">
         <v>2022090301</v>
       </c>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="156" t="s">
+      <c r="B21" s="165"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="167">
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="166">
         <v>0.375</v>
       </c>
-      <c r="I21" s="167"/>
-      <c r="J21" s="167"/>
-      <c r="K21" s="167">
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L21" s="167"/>
-      <c r="M21" s="167"/>
-      <c r="N21" s="159">
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="158">
         <v>1</v>
       </c>
-      <c r="O21" s="159"/>
-      <c r="P21" s="159">
+      <c r="O21" s="158"/>
+      <c r="P21" s="158">
         <v>1</v>
       </c>
-      <c r="Q21" s="159"/>
-      <c r="R21" s="159">
+      <c r="Q21" s="158"/>
+      <c r="R21" s="158">
         <v>9</v>
       </c>
-      <c r="S21" s="159"/>
-      <c r="T21" s="156" t="s">
+      <c r="S21" s="158"/>
+      <c r="T21" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="U21" s="156"/>
-      <c r="V21" s="156" t="s">
+      <c r="U21" s="155"/>
+      <c r="V21" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="W21" s="156"/>
-      <c r="X21" s="156"/>
-      <c r="Y21" s="156"/>
-      <c r="Z21" s="156"/>
-      <c r="AA21" s="156"/>
-      <c r="AB21" s="157"/>
-      <c r="AC21" s="157"/>
-      <c r="AD21" s="158"/>
-      <c r="AE21" s="158"/>
+      <c r="W21" s="155"/>
+      <c r="X21" s="155"/>
+      <c r="Y21" s="155"/>
+      <c r="Z21" s="155"/>
+      <c r="AA21" s="155"/>
+      <c r="AB21" s="156"/>
+      <c r="AC21" s="156"/>
+      <c r="AD21" s="157"/>
+      <c r="AE21" s="157"/>
       <c r="AF21" s="68"/>
       <c r="AG21" s="67"/>
     </row>
     <row r="22" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A22" s="166">
+      <c r="A22" s="165">
         <v>2022090401</v>
       </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="159"/>
-      <c r="P22" s="159"/>
-      <c r="Q22" s="159"/>
-      <c r="R22" s="155"/>
-      <c r="S22" s="155"/>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="156"/>
-      <c r="W22" s="156"/>
-      <c r="X22" s="156"/>
-      <c r="Y22" s="156"/>
-      <c r="Z22" s="156"/>
-      <c r="AA22" s="156"/>
-      <c r="AB22" s="157"/>
-      <c r="AC22" s="157"/>
-      <c r="AD22" s="158"/>
-      <c r="AE22" s="158"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="155"/>
+      <c r="U22" s="155"/>
+      <c r="V22" s="155"/>
+      <c r="W22" s="155"/>
+      <c r="X22" s="155"/>
+      <c r="Y22" s="155"/>
+      <c r="Z22" s="155"/>
+      <c r="AA22" s="155"/>
+      <c r="AB22" s="156"/>
+      <c r="AC22" s="156"/>
+      <c r="AD22" s="157"/>
+      <c r="AE22" s="157"/>
       <c r="AF22" s="68"/>
       <c r="AG22" s="67"/>
     </row>
     <row r="23" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A23" s="166">
+      <c r="A23" s="165">
         <v>2022090501</v>
       </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="159"/>
-      <c r="O23" s="159"/>
-      <c r="P23" s="159"/>
-      <c r="Q23" s="159"/>
-      <c r="R23" s="155"/>
-      <c r="S23" s="155"/>
-      <c r="T23" s="156"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="156"/>
-      <c r="W23" s="156"/>
-      <c r="X23" s="156"/>
-      <c r="Y23" s="156"/>
-      <c r="Z23" s="156"/>
-      <c r="AA23" s="156"/>
-      <c r="AB23" s="157"/>
-      <c r="AC23" s="157"/>
-      <c r="AD23" s="158"/>
-      <c r="AE23" s="158"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="158"/>
+      <c r="Q23" s="158"/>
+      <c r="R23" s="154"/>
+      <c r="S23" s="154"/>
+      <c r="T23" s="155"/>
+      <c r="U23" s="155"/>
+      <c r="V23" s="155"/>
+      <c r="W23" s="155"/>
+      <c r="X23" s="155"/>
+      <c r="Y23" s="155"/>
+      <c r="Z23" s="155"/>
+      <c r="AA23" s="155"/>
+      <c r="AB23" s="156"/>
+      <c r="AC23" s="156"/>
+      <c r="AD23" s="157"/>
+      <c r="AE23" s="157"/>
       <c r="AF23" s="68"/>
       <c r="AG23" s="67"/>
     </row>
     <row r="24" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A24" s="166">
+      <c r="A24" s="165">
         <v>2022090601</v>
       </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="159"/>
-      <c r="O24" s="159"/>
-      <c r="P24" s="159"/>
-      <c r="Q24" s="159"/>
-      <c r="R24" s="155"/>
-      <c r="S24" s="155"/>
-      <c r="T24" s="156"/>
-      <c r="U24" s="156"/>
-      <c r="V24" s="156"/>
-      <c r="W24" s="156"/>
-      <c r="X24" s="156"/>
-      <c r="Y24" s="156"/>
-      <c r="Z24" s="156"/>
-      <c r="AA24" s="156"/>
-      <c r="AB24" s="157"/>
-      <c r="AC24" s="157"/>
-      <c r="AD24" s="158"/>
-      <c r="AE24" s="158"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="158"/>
+      <c r="Q24" s="158"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="154"/>
+      <c r="T24" s="155"/>
+      <c r="U24" s="155"/>
+      <c r="V24" s="155"/>
+      <c r="W24" s="155"/>
+      <c r="X24" s="155"/>
+      <c r="Y24" s="155"/>
+      <c r="Z24" s="155"/>
+      <c r="AA24" s="155"/>
+      <c r="AB24" s="156"/>
+      <c r="AC24" s="156"/>
+      <c r="AD24" s="157"/>
+      <c r="AE24" s="157"/>
       <c r="AF24" s="68"/>
       <c r="AG24" s="67"/>
     </row>
     <row r="25" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A25" s="166">
+      <c r="A25" s="165">
         <v>2022090701</v>
       </c>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="159"/>
-      <c r="O25" s="159"/>
-      <c r="P25" s="159"/>
-      <c r="Q25" s="159"/>
-      <c r="R25" s="155"/>
-      <c r="S25" s="155"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="156"/>
-      <c r="W25" s="156"/>
-      <c r="X25" s="156"/>
-      <c r="Y25" s="156"/>
-      <c r="Z25" s="156"/>
-      <c r="AA25" s="156"/>
-      <c r="AB25" s="157"/>
-      <c r="AC25" s="157"/>
-      <c r="AD25" s="158"/>
-      <c r="AE25" s="158"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
+      <c r="P25" s="158"/>
+      <c r="Q25" s="158"/>
+      <c r="R25" s="154"/>
+      <c r="S25" s="154"/>
+      <c r="T25" s="155"/>
+      <c r="U25" s="155"/>
+      <c r="V25" s="155"/>
+      <c r="W25" s="155"/>
+      <c r="X25" s="155"/>
+      <c r="Y25" s="155"/>
+      <c r="Z25" s="155"/>
+      <c r="AA25" s="155"/>
+      <c r="AB25" s="156"/>
+      <c r="AC25" s="156"/>
+      <c r="AD25" s="157"/>
+      <c r="AE25" s="157"/>
       <c r="AF25" s="68"/>
       <c r="AG25" s="67"/>
     </row>
     <row r="26" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A26" s="166">
+      <c r="A26" s="165">
         <v>2022090801</v>
       </c>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="159"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="159"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="156"/>
-      <c r="U26" s="156"/>
-      <c r="V26" s="156"/>
-      <c r="W26" s="156"/>
-      <c r="X26" s="156"/>
-      <c r="Y26" s="156"/>
-      <c r="Z26" s="156"/>
-      <c r="AA26" s="156"/>
-      <c r="AB26" s="157"/>
-      <c r="AC26" s="157"/>
-      <c r="AD26" s="158"/>
-      <c r="AE26" s="158"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="154"/>
+      <c r="S26" s="154"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="156"/>
+      <c r="AD26" s="157"/>
+      <c r="AE26" s="157"/>
       <c r="AF26" s="68"/>
       <c r="AG26" s="67"/>
     </row>
     <row r="27" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A27" s="166">
+      <c r="A27" s="165">
         <v>2022090901</v>
       </c>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="159"/>
-      <c r="O27" s="159"/>
-      <c r="P27" s="159"/>
-      <c r="Q27" s="159"/>
-      <c r="R27" s="155"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="156"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="156"/>
-      <c r="W27" s="156"/>
-      <c r="X27" s="156"/>
-      <c r="Y27" s="156"/>
-      <c r="Z27" s="156"/>
-      <c r="AA27" s="156"/>
-      <c r="AB27" s="157"/>
-      <c r="AC27" s="157"/>
-      <c r="AD27" s="158"/>
-      <c r="AE27" s="158"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="154"/>
+      <c r="S27" s="154"/>
+      <c r="T27" s="155"/>
+      <c r="U27" s="155"/>
+      <c r="V27" s="155"/>
+      <c r="W27" s="155"/>
+      <c r="X27" s="155"/>
+      <c r="Y27" s="155"/>
+      <c r="Z27" s="155"/>
+      <c r="AA27" s="155"/>
+      <c r="AB27" s="156"/>
+      <c r="AC27" s="156"/>
+      <c r="AD27" s="157"/>
+      <c r="AE27" s="157"/>
       <c r="AF27" s="68"/>
       <c r="AG27" s="67"/>
     </row>
     <row r="28" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A28" s="166">
+      <c r="A28" s="165">
         <v>2022091001</v>
       </c>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="159"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="159"/>
-      <c r="Q28" s="159"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="156"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="156"/>
-      <c r="W28" s="156"/>
-      <c r="X28" s="156"/>
-      <c r="Y28" s="156"/>
-      <c r="Z28" s="156"/>
-      <c r="AA28" s="156"/>
-      <c r="AB28" s="157"/>
-      <c r="AC28" s="157"/>
-      <c r="AD28" s="158"/>
-      <c r="AE28" s="158"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="158"/>
+      <c r="O28" s="158"/>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="154"/>
+      <c r="S28" s="154"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="156"/>
+      <c r="AD28" s="157"/>
+      <c r="AE28" s="157"/>
       <c r="AF28" s="68"/>
       <c r="AG28" s="67"/>
     </row>
     <row r="29" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A29" s="166">
+      <c r="A29" s="165">
         <v>2022091101</v>
       </c>
-      <c r="B29" s="166"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="159"/>
-      <c r="R29" s="155"/>
-      <c r="S29" s="155"/>
-      <c r="T29" s="156"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="156"/>
-      <c r="W29" s="156"/>
-      <c r="X29" s="156"/>
-      <c r="Y29" s="156"/>
-      <c r="Z29" s="156"/>
-      <c r="AA29" s="156"/>
-      <c r="AB29" s="157"/>
-      <c r="AC29" s="157"/>
-      <c r="AD29" s="158"/>
-      <c r="AE29" s="158"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="158"/>
+      <c r="O29" s="158"/>
+      <c r="P29" s="158"/>
+      <c r="Q29" s="158"/>
+      <c r="R29" s="154"/>
+      <c r="S29" s="154"/>
+      <c r="T29" s="155"/>
+      <c r="U29" s="155"/>
+      <c r="V29" s="155"/>
+      <c r="W29" s="155"/>
+      <c r="X29" s="155"/>
+      <c r="Y29" s="155"/>
+      <c r="Z29" s="155"/>
+      <c r="AA29" s="155"/>
+      <c r="AB29" s="156"/>
+      <c r="AC29" s="156"/>
+      <c r="AD29" s="157"/>
+      <c r="AE29" s="157"/>
       <c r="AF29" s="68"/>
       <c r="AG29" s="67"/>
     </row>
     <row r="30" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A30" s="166">
+      <c r="A30" s="165">
         <v>2022091201</v>
       </c>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="159"/>
-      <c r="P30" s="159"/>
-      <c r="Q30" s="159"/>
-      <c r="R30" s="155"/>
-      <c r="S30" s="155"/>
-      <c r="T30" s="156"/>
-      <c r="U30" s="156"/>
-      <c r="V30" s="156"/>
-      <c r="W30" s="156"/>
-      <c r="X30" s="156"/>
-      <c r="Y30" s="156"/>
-      <c r="Z30" s="156"/>
-      <c r="AA30" s="156"/>
-      <c r="AB30" s="157"/>
-      <c r="AC30" s="157"/>
-      <c r="AD30" s="158"/>
-      <c r="AE30" s="158"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="158"/>
+      <c r="Q30" s="158"/>
+      <c r="R30" s="154"/>
+      <c r="S30" s="154"/>
+      <c r="T30" s="155"/>
+      <c r="U30" s="155"/>
+      <c r="V30" s="155"/>
+      <c r="W30" s="155"/>
+      <c r="X30" s="155"/>
+      <c r="Y30" s="155"/>
+      <c r="Z30" s="155"/>
+      <c r="AA30" s="155"/>
+      <c r="AB30" s="156"/>
+      <c r="AC30" s="156"/>
+      <c r="AD30" s="157"/>
+      <c r="AE30" s="157"/>
       <c r="AF30" s="68"/>
       <c r="AG30" s="67"/>
     </row>
     <row r="31" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A31" s="166">
+      <c r="A31" s="165">
         <v>2022091301</v>
       </c>
-      <c r="B31" s="166"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="159"/>
-      <c r="O31" s="159"/>
-      <c r="P31" s="159"/>
-      <c r="Q31" s="159"/>
-      <c r="R31" s="155"/>
-      <c r="S31" s="155"/>
-      <c r="T31" s="156"/>
-      <c r="U31" s="156"/>
-      <c r="V31" s="156"/>
-      <c r="W31" s="156"/>
-      <c r="X31" s="156"/>
-      <c r="Y31" s="156"/>
-      <c r="Z31" s="156"/>
-      <c r="AA31" s="156"/>
-      <c r="AB31" s="157"/>
-      <c r="AC31" s="157"/>
-      <c r="AD31" s="158"/>
-      <c r="AE31" s="158"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="154"/>
+      <c r="S31" s="154"/>
+      <c r="T31" s="155"/>
+      <c r="U31" s="155"/>
+      <c r="V31" s="155"/>
+      <c r="W31" s="155"/>
+      <c r="X31" s="155"/>
+      <c r="Y31" s="155"/>
+      <c r="Z31" s="155"/>
+      <c r="AA31" s="155"/>
+      <c r="AB31" s="156"/>
+      <c r="AC31" s="156"/>
+      <c r="AD31" s="157"/>
+      <c r="AE31" s="157"/>
       <c r="AF31" s="68"/>
       <c r="AG31" s="67"/>
     </row>
     <row r="32" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A32" s="166">
+      <c r="A32" s="165">
         <v>2022091401</v>
       </c>
-      <c r="B32" s="166"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="159"/>
-      <c r="O32" s="159"/>
-      <c r="P32" s="159"/>
-      <c r="Q32" s="159"/>
-      <c r="R32" s="155"/>
-      <c r="S32" s="155"/>
-      <c r="T32" s="156"/>
-      <c r="U32" s="156"/>
-      <c r="V32" s="156"/>
-      <c r="W32" s="156"/>
-      <c r="X32" s="156"/>
-      <c r="Y32" s="156"/>
-      <c r="Z32" s="156"/>
-      <c r="AA32" s="156"/>
-      <c r="AB32" s="157"/>
-      <c r="AC32" s="157"/>
-      <c r="AD32" s="158"/>
-      <c r="AE32" s="158"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="158"/>
+      <c r="Q32" s="158"/>
+      <c r="R32" s="154"/>
+      <c r="S32" s="154"/>
+      <c r="T32" s="155"/>
+      <c r="U32" s="155"/>
+      <c r="V32" s="155"/>
+      <c r="W32" s="155"/>
+      <c r="X32" s="155"/>
+      <c r="Y32" s="155"/>
+      <c r="Z32" s="155"/>
+      <c r="AA32" s="155"/>
+      <c r="AB32" s="156"/>
+      <c r="AC32" s="156"/>
+      <c r="AD32" s="157"/>
+      <c r="AE32" s="157"/>
       <c r="AF32" s="68"/>
       <c r="AG32" s="67"/>
     </row>
     <row r="33" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A33" s="166">
+      <c r="A33" s="165">
         <v>2022091501</v>
       </c>
-      <c r="B33" s="166"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="159"/>
-      <c r="O33" s="159"/>
-      <c r="P33" s="159"/>
-      <c r="Q33" s="159"/>
-      <c r="R33" s="155"/>
-      <c r="S33" s="155"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="156"/>
-      <c r="V33" s="156"/>
-      <c r="W33" s="156"/>
-      <c r="X33" s="156"/>
-      <c r="Y33" s="156"/>
-      <c r="Z33" s="156"/>
-      <c r="AA33" s="156"/>
-      <c r="AB33" s="157"/>
-      <c r="AC33" s="157"/>
-      <c r="AD33" s="158"/>
-      <c r="AE33" s="158"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="158"/>
+      <c r="Q33" s="158"/>
+      <c r="R33" s="154"/>
+      <c r="S33" s="154"/>
+      <c r="T33" s="155"/>
+      <c r="U33" s="155"/>
+      <c r="V33" s="155"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="155"/>
+      <c r="Y33" s="155"/>
+      <c r="Z33" s="155"/>
+      <c r="AA33" s="155"/>
+      <c r="AB33" s="156"/>
+      <c r="AC33" s="156"/>
+      <c r="AD33" s="157"/>
+      <c r="AE33" s="157"/>
       <c r="AF33" s="68"/>
       <c r="AG33" s="67"/>
     </row>
     <row r="34" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A34" s="166">
+      <c r="A34" s="165">
         <v>2022091601</v>
       </c>
-      <c r="B34" s="166"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="159"/>
-      <c r="O34" s="159"/>
-      <c r="P34" s="159"/>
-      <c r="Q34" s="159"/>
-      <c r="R34" s="155"/>
-      <c r="S34" s="155"/>
-      <c r="T34" s="156"/>
-      <c r="U34" s="156"/>
-      <c r="V34" s="156"/>
-      <c r="W34" s="156"/>
-      <c r="X34" s="156"/>
-      <c r="Y34" s="156"/>
-      <c r="Z34" s="156"/>
-      <c r="AA34" s="156"/>
-      <c r="AB34" s="157"/>
-      <c r="AC34" s="157"/>
-      <c r="AD34" s="158"/>
-      <c r="AE34" s="158"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="155"/>
+      <c r="N34" s="158"/>
+      <c r="O34" s="158"/>
+      <c r="P34" s="158"/>
+      <c r="Q34" s="158"/>
+      <c r="R34" s="154"/>
+      <c r="S34" s="154"/>
+      <c r="T34" s="155"/>
+      <c r="U34" s="155"/>
+      <c r="V34" s="155"/>
+      <c r="W34" s="155"/>
+      <c r="X34" s="155"/>
+      <c r="Y34" s="155"/>
+      <c r="Z34" s="155"/>
+      <c r="AA34" s="155"/>
+      <c r="AB34" s="156"/>
+      <c r="AC34" s="156"/>
+      <c r="AD34" s="157"/>
+      <c r="AE34" s="157"/>
       <c r="AF34" s="68"/>
       <c r="AG34" s="67"/>
     </row>
     <row r="35" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A35" s="166">
+      <c r="A35" s="165">
         <v>2022091701</v>
       </c>
-      <c r="B35" s="166"/>
-      <c r="C35" s="166"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="159"/>
-      <c r="O35" s="159"/>
-      <c r="P35" s="159"/>
-      <c r="Q35" s="159"/>
-      <c r="R35" s="155"/>
-      <c r="S35" s="155"/>
-      <c r="T35" s="156"/>
-      <c r="U35" s="156"/>
-      <c r="V35" s="156"/>
-      <c r="W35" s="156"/>
-      <c r="X35" s="156"/>
-      <c r="Y35" s="156"/>
-      <c r="Z35" s="156"/>
-      <c r="AA35" s="156"/>
-      <c r="AB35" s="157"/>
-      <c r="AC35" s="157"/>
-      <c r="AD35" s="158"/>
-      <c r="AE35" s="158"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="158"/>
+      <c r="O35" s="158"/>
+      <c r="P35" s="158"/>
+      <c r="Q35" s="158"/>
+      <c r="R35" s="154"/>
+      <c r="S35" s="154"/>
+      <c r="T35" s="155"/>
+      <c r="U35" s="155"/>
+      <c r="V35" s="155"/>
+      <c r="W35" s="155"/>
+      <c r="X35" s="155"/>
+      <c r="Y35" s="155"/>
+      <c r="Z35" s="155"/>
+      <c r="AA35" s="155"/>
+      <c r="AB35" s="156"/>
+      <c r="AC35" s="156"/>
+      <c r="AD35" s="157"/>
+      <c r="AE35" s="157"/>
       <c r="AF35" s="68"/>
       <c r="AG35" s="67"/>
     </row>
     <row r="36" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="161"/>
-      <c r="C36" s="162"/>
-      <c r="D36" s="163"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="152"/>
-      <c r="K36" s="152"/>
-      <c r="L36" s="152"/>
-      <c r="M36" s="152"/>
-      <c r="N36" s="152"/>
-      <c r="O36" s="152"/>
-      <c r="P36" s="150">
+      <c r="B36" s="160"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="162"/>
+      <c r="E36" s="163"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="151"/>
+      <c r="N36" s="151"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="149">
         <f>SUM(P19:Q35)</f>
         <v>2</v>
       </c>
-      <c r="Q36" s="150"/>
-      <c r="R36" s="151">
+      <c r="Q36" s="149"/>
+      <c r="R36" s="150">
         <f>SUM(R19:S35)</f>
         <v>26</v>
       </c>
-      <c r="S36" s="151"/>
-      <c r="T36" s="152"/>
-      <c r="U36" s="152"/>
-      <c r="V36" s="152"/>
-      <c r="W36" s="152"/>
-      <c r="X36" s="152"/>
-      <c r="Y36" s="152"/>
-      <c r="Z36" s="152"/>
-      <c r="AA36" s="152"/>
-      <c r="AB36" s="153"/>
-      <c r="AC36" s="153"/>
-      <c r="AD36" s="154"/>
-      <c r="AE36" s="154"/>
+      <c r="S36" s="150"/>
+      <c r="T36" s="151"/>
+      <c r="U36" s="151"/>
+      <c r="V36" s="151"/>
+      <c r="W36" s="151"/>
+      <c r="X36" s="151"/>
+      <c r="Y36" s="151"/>
+      <c r="Z36" s="151"/>
+      <c r="AA36" s="151"/>
+      <c r="AB36" s="152"/>
+      <c r="AC36" s="152"/>
+      <c r="AD36" s="153"/>
+      <c r="AE36" s="153"/>
       <c r="AF36" s="68"/>
       <c r="AG36" s="67"/>
     </row>
@@ -15742,7 +15730,7 @@
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="Z25" sqref="Z25"/>
+      <selection pane="bottomLeft" activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -15755,174 +15743,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="149"/>
-      <c r="AH1" s="149"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="148"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="128" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="128" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="128" t="s">
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="130"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="129"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="128" t="s">
+      <c r="AG2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="130"/>
+      <c r="AH2" s="129"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="122" t="s">
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="122" t="s">
-        <v>194</v>
-      </c>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="122" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="122" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="122" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH3" s="124"/>
+      <c r="AH3" s="123"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="125"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="125"/>
-      <c r="AH4" s="127"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="126"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="126"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="93"/>
@@ -17156,170 +17144,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="149"/>
-      <c r="AH1" s="149"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="148"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="128" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="128" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="130"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="129"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="128" t="s">
+      <c r="AG2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="130"/>
+      <c r="AH2" s="129"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="122" t="s">
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="122" t="s">
-        <v>194</v>
-      </c>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="122" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="122" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH3" s="124"/>
+      <c r="AH3" s="123"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="125"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="125"/>
-      <c r="AH4" s="127"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="126"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="93" t="s">
@@ -17621,7 +17609,7 @@
     </row>
     <row r="9" spans="1:178" ht="12.75" customHeight="1">
       <c r="A9" s="98" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B9" s="99"/>
       <c r="C9" s="99"/>
@@ -17697,7 +17685,7 @@
     </row>
     <row r="11" spans="1:178" ht="12.75" customHeight="1">
       <c r="A11" s="98" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B11" s="99"/>
       <c r="C11" s="99"/>
@@ -17773,7 +17761,7 @@
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="98" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B13" s="99"/>
       <c r="C13" s="99"/>
@@ -17849,7 +17837,7 @@
     </row>
     <row r="15" spans="1:178" ht="12.75" customHeight="1">
       <c r="A15" s="98" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B15" s="99"/>
       <c r="C15" s="99"/>
@@ -17925,7 +17913,7 @@
     </row>
     <row r="17" spans="1:34" ht="12.75" customHeight="1">
       <c r="A17" s="98" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B17" s="99"/>
       <c r="C17" s="99"/>
@@ -17933,7 +17921,7 @@
       <c r="E17" s="99"/>
       <c r="F17" s="100"/>
       <c r="G17" s="99" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H17" s="99"/>
       <c r="I17" s="99"/>
@@ -17972,7 +17960,7 @@
       <c r="F18" s="102"/>
       <c r="G18" s="99"/>
       <c r="H18" s="99" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I18" s="99"/>
       <c r="J18" s="99"/>
@@ -18011,7 +17999,7 @@
       <c r="G19" s="99"/>
       <c r="H19" s="99"/>
       <c r="I19" s="99" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J19" s="99"/>
       <c r="K19" s="99"/>
@@ -18048,7 +18036,7 @@
       <c r="F20" s="100"/>
       <c r="G20" s="99"/>
       <c r="H20" s="99" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I20" s="99"/>
       <c r="J20" s="99"/>
@@ -18087,7 +18075,7 @@
       <c r="G21" s="99"/>
       <c r="H21" s="99"/>
       <c r="I21" s="99" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J21" s="99"/>
       <c r="K21" s="99"/>
@@ -18228,180 +18216,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="149"/>
-      <c r="AH1" s="149"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="148"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="128" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="128" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="128" t="s">
+      <c r="AG2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="130"/>
+      <c r="AH2" s="129"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="122" t="s">
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="122" t="s">
-        <v>194</v>
-      </c>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="122" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="122" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH3" s="124"/>
+      <c r="AH3" s="123"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="125"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="125"/>
-      <c r="AH4" s="127"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="125"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="126"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="179" t="s">
+      <c r="A5" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="181"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="180"/>
       <c r="G5" s="103" t="s">
         <v>160</v>
       </c>
@@ -18582,12 +18570,12 @@
       <c r="FV5" s="23"/>
     </row>
     <row r="6" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A6" s="182"/>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="184"/>
+      <c r="A6" s="181"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="106" t="s">
         <v>46</v>
       </c>
@@ -19378,7 +19366,7 @@
   <dimension ref="A1:FV27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+      <selection activeCell="AL30" sqref="AL30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -19391,227 +19379,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="149"/>
-      <c r="AH1" s="149"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="148"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="128" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="128" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="128" t="s">
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="130"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="129"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="128" t="s">
+      <c r="AG2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="130"/>
+      <c r="AH2" s="129"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="122" t="s">
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="121" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="122" t="s">
-        <v>194</v>
-      </c>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="122" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="122" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="122" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH3" s="124"/>
+      <c r="AH3" s="123"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="125"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="125"/>
-      <c r="AH4" s="127"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="126"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="126"/>
     </row>
     <row r="5" spans="1:178" ht="14.25" customHeight="1">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="184" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="196"/>
-      <c r="K5" s="197" t="s">
+      <c r="B5" s="185"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="196" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="199"/>
-      <c r="Q5" s="194" t="s">
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="198"/>
+      <c r="Q5" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="195"/>
-      <c r="S5" s="195"/>
-      <c r="T5" s="195"/>
-      <c r="U5" s="195"/>
-      <c r="V5" s="195"/>
-      <c r="W5" s="195"/>
-      <c r="X5" s="195"/>
-      <c r="Y5" s="195"/>
-      <c r="Z5" s="195"/>
-      <c r="AA5" s="196"/>
-      <c r="AB5" s="188" t="s">
+      <c r="R5" s="185"/>
+      <c r="S5" s="185"/>
+      <c r="T5" s="185"/>
+      <c r="U5" s="185"/>
+      <c r="V5" s="185"/>
+      <c r="W5" s="185"/>
+      <c r="X5" s="185"/>
+      <c r="Y5" s="185"/>
+      <c r="Z5" s="185"/>
+      <c r="AA5" s="186"/>
+      <c r="AB5" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="189"/>
-      <c r="AD5" s="189"/>
-      <c r="AE5" s="189"/>
-      <c r="AF5" s="189"/>
-      <c r="AG5" s="189"/>
-      <c r="AH5" s="190"/>
+      <c r="AC5" s="191"/>
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="192"/>
     </row>
     <row r="6" spans="1:178" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="187" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="187"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="189"/>
       <c r="F6" s="109" t="s">
         <v>37</v>
       </c>
@@ -19625,19 +19613,19 @@
         <v>56</v>
       </c>
       <c r="J6" s="95"/>
-      <c r="K6" s="200"/>
-      <c r="L6" s="201"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="202"/>
-      <c r="Q6" s="185" t="s">
+      <c r="K6" s="199"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="201"/>
+      <c r="Q6" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="186"/>
-      <c r="S6" s="186"/>
-      <c r="T6" s="186"/>
-      <c r="U6" s="187"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
+      <c r="T6" s="188"/>
+      <c r="U6" s="189"/>
       <c r="V6" s="93" t="s">
         <v>61</v>
       </c>
@@ -19648,13 +19636,13 @@
       <c r="AA6" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" s="191"/>
-      <c r="AC6" s="192"/>
-      <c r="AD6" s="192"/>
-      <c r="AE6" s="192"/>
-      <c r="AF6" s="192"/>
-      <c r="AG6" s="192"/>
-      <c r="AH6" s="193"/>
+      <c r="AB6" s="193"/>
+      <c r="AC6" s="194"/>
+      <c r="AD6" s="194"/>
+      <c r="AE6" s="194"/>
+      <c r="AF6" s="194"/>
+      <c r="AG6" s="194"/>
+      <c r="AH6" s="195"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="23"/>
       <c r="AK6" s="23"/>
@@ -19851,24 +19839,24 @@
       <c r="AH7" s="100"/>
     </row>
     <row r="8" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A8" s="111" t="s">
-        <v>180</v>
+      <c r="A8" s="110" t="s">
+        <v>214</v>
       </c>
       <c r="B8" s="99"/>
       <c r="C8" s="99"/>
       <c r="D8" s="99"/>
       <c r="E8" s="100"/>
       <c r="F8" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="84"/>
+        <v>41</v>
+      </c>
+      <c r="G8" s="101"/>
       <c r="H8" s="101"/>
       <c r="I8" s="99" t="s">
         <v>181</v>
       </c>
       <c r="J8" s="100"/>
       <c r="K8" s="98" t="s">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="L8" s="99"/>
       <c r="M8" s="99"/>
@@ -19876,24 +19864,22 @@
       <c r="O8" s="99"/>
       <c r="P8" s="100"/>
       <c r="Q8" s="98" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="R8" s="99"/>
       <c r="S8" s="99"/>
       <c r="T8" s="99"/>
       <c r="U8" s="99"/>
       <c r="V8" s="98" t="s">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="W8" s="99"/>
       <c r="X8" s="99"/>
       <c r="Y8" s="99"/>
       <c r="Z8" s="100"/>
-      <c r="AA8" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB8" s="111" t="s">
-        <v>180</v>
+      <c r="AA8" s="84"/>
+      <c r="AB8" s="110" t="s">
+        <v>214</v>
       </c>
       <c r="AC8" s="99"/>
       <c r="AD8" s="99"/>
@@ -19903,24 +19889,24 @@
       <c r="AH8" s="100"/>
     </row>
     <row r="9" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A9" s="111" t="s">
-        <v>172</v>
+      <c r="A9" s="110" t="s">
+        <v>215</v>
       </c>
       <c r="B9" s="99"/>
       <c r="C9" s="99"/>
       <c r="D9" s="99"/>
       <c r="E9" s="100"/>
       <c r="F9" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="84"/>
+        <v>41</v>
+      </c>
+      <c r="G9" s="101"/>
       <c r="H9" s="101"/>
       <c r="I9" s="99" t="s">
         <v>181</v>
       </c>
       <c r="J9" s="100"/>
-      <c r="K9" s="111" t="s">
-        <v>146</v>
+      <c r="K9" s="98" t="s">
+        <v>144</v>
       </c>
       <c r="L9" s="99"/>
       <c r="M9" s="99"/>
@@ -19928,24 +19914,22 @@
       <c r="O9" s="99"/>
       <c r="P9" s="100"/>
       <c r="Q9" s="98" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="R9" s="99"/>
       <c r="S9" s="99"/>
       <c r="T9" s="99"/>
       <c r="U9" s="99"/>
-      <c r="V9" s="111" t="s">
-        <v>146</v>
+      <c r="V9" s="98" t="s">
+        <v>219</v>
       </c>
       <c r="W9" s="99"/>
       <c r="X9" s="99"/>
       <c r="Y9" s="99"/>
       <c r="Z9" s="100"/>
-      <c r="AA9" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB9" s="111" t="s">
-        <v>172</v>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="110" t="s">
+        <v>215</v>
       </c>
       <c r="AC9" s="99"/>
       <c r="AD9" s="99"/>
@@ -19955,8 +19939,8 @@
       <c r="AH9" s="100"/>
     </row>
     <row r="10" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A10" s="111" t="s">
-        <v>173</v>
+      <c r="A10" s="110" t="s">
+        <v>180</v>
       </c>
       <c r="B10" s="99"/>
       <c r="C10" s="99"/>
@@ -19971,8 +19955,8 @@
         <v>181</v>
       </c>
       <c r="J10" s="100"/>
-      <c r="K10" s="111" t="s">
-        <v>147</v>
+      <c r="K10" s="98" t="s">
+        <v>129</v>
       </c>
       <c r="L10" s="99"/>
       <c r="M10" s="99"/>
@@ -19986,18 +19970,18 @@
       <c r="S10" s="99"/>
       <c r="T10" s="99"/>
       <c r="U10" s="99"/>
-      <c r="V10" s="111" t="s">
-        <v>147</v>
+      <c r="V10" s="98" t="s">
+        <v>129</v>
       </c>
       <c r="W10" s="99"/>
       <c r="X10" s="99"/>
       <c r="Y10" s="99"/>
       <c r="Z10" s="100"/>
-      <c r="AA10" s="85" t="s">
+      <c r="AA10" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="AB10" s="111" t="s">
-        <v>173</v>
+      <c r="AB10" s="110" t="s">
+        <v>180</v>
       </c>
       <c r="AC10" s="99"/>
       <c r="AD10" s="99"/>
@@ -20007,8 +19991,8 @@
       <c r="AH10" s="100"/>
     </row>
     <row r="11" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A11" s="111" t="s">
-        <v>174</v>
+      <c r="A11" s="110" t="s">
+        <v>172</v>
       </c>
       <c r="B11" s="99"/>
       <c r="C11" s="99"/>
@@ -20020,11 +20004,11 @@
       <c r="G11" s="101"/>
       <c r="H11" s="101"/>
       <c r="I11" s="99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J11" s="100"/>
-      <c r="K11" s="111" t="s">
-        <v>145</v>
+      <c r="K11" s="98" t="s">
+        <v>146</v>
       </c>
       <c r="L11" s="99"/>
       <c r="M11" s="99"/>
@@ -20038,18 +20022,18 @@
       <c r="S11" s="99"/>
       <c r="T11" s="99"/>
       <c r="U11" s="99"/>
-      <c r="V11" s="111" t="s">
-        <v>145</v>
+      <c r="V11" s="98" t="s">
+        <v>146</v>
       </c>
       <c r="W11" s="99"/>
       <c r="X11" s="99"/>
       <c r="Y11" s="99"/>
       <c r="Z11" s="100"/>
-      <c r="AA11" s="85" t="s">
+      <c r="AA11" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="AB11" s="111" t="s">
-        <v>174</v>
+      <c r="AB11" s="110" t="s">
+        <v>172</v>
       </c>
       <c r="AC11" s="99"/>
       <c r="AD11" s="99"/>
@@ -20059,8 +20043,8 @@
       <c r="AH11" s="100"/>
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A12" s="111" t="s">
-        <v>175</v>
+      <c r="A12" s="110" t="s">
+        <v>173</v>
       </c>
       <c r="B12" s="99"/>
       <c r="C12" s="99"/>
@@ -20072,11 +20056,11 @@
       <c r="G12" s="101"/>
       <c r="H12" s="101"/>
       <c r="I12" s="99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J12" s="100"/>
-      <c r="K12" s="111" t="s">
-        <v>149</v>
+      <c r="K12" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="L12" s="99"/>
       <c r="M12" s="99"/>
@@ -20090,18 +20074,18 @@
       <c r="S12" s="99"/>
       <c r="T12" s="99"/>
       <c r="U12" s="99"/>
-      <c r="V12" s="111" t="s">
-        <v>149</v>
+      <c r="V12" s="98" t="s">
+        <v>147</v>
       </c>
       <c r="W12" s="99"/>
-      <c r="X12" s="87"/>
+      <c r="X12" s="99"/>
       <c r="Y12" s="99"/>
       <c r="Z12" s="100"/>
-      <c r="AA12" s="85" t="s">
+      <c r="AA12" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="AB12" s="111" t="s">
-        <v>175</v>
+      <c r="AB12" s="110" t="s">
+        <v>173</v>
       </c>
       <c r="AC12" s="99"/>
       <c r="AD12" s="99"/>
@@ -20111,8 +20095,8 @@
       <c r="AH12" s="100"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A13" s="111" t="s">
-        <v>176</v>
+      <c r="A13" s="110" t="s">
+        <v>174</v>
       </c>
       <c r="B13" s="99"/>
       <c r="C13" s="99"/>
@@ -20127,8 +20111,8 @@
         <v>182</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="111" t="s">
-        <v>148</v>
+      <c r="K13" s="98" t="s">
+        <v>145</v>
       </c>
       <c r="L13" s="99"/>
       <c r="M13" s="99"/>
@@ -20142,18 +20126,18 @@
       <c r="S13" s="99"/>
       <c r="T13" s="99"/>
       <c r="U13" s="99"/>
-      <c r="V13" s="111" t="s">
-        <v>148</v>
+      <c r="V13" s="98" t="s">
+        <v>145</v>
       </c>
       <c r="W13" s="99"/>
       <c r="X13" s="99"/>
       <c r="Y13" s="99"/>
       <c r="Z13" s="100"/>
-      <c r="AA13" s="85" t="s">
+      <c r="AA13" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="AB13" s="111" t="s">
-        <v>176</v>
+      <c r="AB13" s="110" t="s">
+        <v>174</v>
       </c>
       <c r="AC13" s="99"/>
       <c r="AD13" s="99"/>
@@ -20163,8 +20147,8 @@
       <c r="AH13" s="100"/>
     </row>
     <row r="14" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A14" s="111" t="s">
-        <v>177</v>
+      <c r="A14" s="110" t="s">
+        <v>175</v>
       </c>
       <c r="B14" s="99"/>
       <c r="C14" s="99"/>
@@ -20179,8 +20163,8 @@
         <v>182</v>
       </c>
       <c r="J14" s="100"/>
-      <c r="K14" s="111" t="s">
-        <v>169</v>
+      <c r="K14" s="98" t="s">
+        <v>149</v>
       </c>
       <c r="L14" s="99"/>
       <c r="M14" s="99"/>
@@ -20194,18 +20178,18 @@
       <c r="S14" s="99"/>
       <c r="T14" s="99"/>
       <c r="U14" s="99"/>
-      <c r="V14" s="111" t="s">
-        <v>169</v>
+      <c r="V14" s="98" t="s">
+        <v>149</v>
       </c>
       <c r="W14" s="99"/>
       <c r="X14" s="99"/>
       <c r="Y14" s="99"/>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="85" t="s">
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="AB14" s="111" t="s">
-        <v>177</v>
+      <c r="AB14" s="110" t="s">
+        <v>175</v>
       </c>
       <c r="AC14" s="99"/>
       <c r="AD14" s="99"/>
@@ -20215,8 +20199,8 @@
       <c r="AH14" s="100"/>
     </row>
     <row r="15" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A15" s="111" t="s">
-        <v>178</v>
+      <c r="A15" s="110" t="s">
+        <v>176</v>
       </c>
       <c r="B15" s="99"/>
       <c r="C15" s="99"/>
@@ -20228,11 +20212,11 @@
       <c r="G15" s="101"/>
       <c r="H15" s="101"/>
       <c r="I15" s="99" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="111" t="s">
-        <v>170</v>
+      <c r="K15" s="98" t="s">
+        <v>148</v>
       </c>
       <c r="L15" s="99"/>
       <c r="M15" s="99"/>
@@ -20246,18 +20230,18 @@
       <c r="S15" s="99"/>
       <c r="T15" s="99"/>
       <c r="U15" s="99"/>
-      <c r="V15" s="111" t="s">
-        <v>170</v>
+      <c r="V15" s="98" t="s">
+        <v>148</v>
       </c>
       <c r="W15" s="99"/>
       <c r="X15" s="99"/>
       <c r="Y15" s="99"/>
       <c r="Z15" s="100"/>
-      <c r="AA15" s="85" t="s">
+      <c r="AA15" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="AB15" s="111" t="s">
-        <v>178</v>
+      <c r="AB15" s="110" t="s">
+        <v>176</v>
       </c>
       <c r="AC15" s="99"/>
       <c r="AD15" s="99"/>
@@ -20267,8 +20251,8 @@
       <c r="AH15" s="100"/>
     </row>
     <row r="16" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A16" s="111" t="s">
-        <v>179</v>
+      <c r="A16" s="110" t="s">
+        <v>177</v>
       </c>
       <c r="B16" s="99"/>
       <c r="C16" s="99"/>
@@ -20280,11 +20264,11 @@
       <c r="G16" s="101"/>
       <c r="H16" s="101"/>
       <c r="I16" s="99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="111" t="s">
-        <v>171</v>
+      <c r="K16" s="98" t="s">
+        <v>169</v>
       </c>
       <c r="L16" s="99"/>
       <c r="M16" s="99"/>
@@ -20298,18 +20282,18 @@
       <c r="S16" s="99"/>
       <c r="T16" s="99"/>
       <c r="U16" s="99"/>
-      <c r="V16" s="111" t="s">
-        <v>171</v>
+      <c r="V16" s="98" t="s">
+        <v>169</v>
       </c>
       <c r="W16" s="99"/>
       <c r="X16" s="99"/>
       <c r="Y16" s="99"/>
       <c r="Z16" s="100"/>
-      <c r="AA16" s="85" t="s">
+      <c r="AA16" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="AB16" s="111" t="s">
-        <v>179</v>
+      <c r="AB16" s="110" t="s">
+        <v>177</v>
       </c>
       <c r="AC16" s="99"/>
       <c r="AD16" s="99"/>
@@ -20319,8 +20303,8 @@
       <c r="AH16" s="100"/>
     </row>
     <row r="17" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A17" s="111" t="s">
-        <v>187</v>
+      <c r="A17" s="110" t="s">
+        <v>178</v>
       </c>
       <c r="B17" s="99"/>
       <c r="C17" s="99"/>
@@ -20331,18 +20315,18 @@
       </c>
       <c r="G17" s="101"/>
       <c r="H17" s="101"/>
-      <c r="I17" s="111" t="s">
-        <v>186</v>
+      <c r="I17" s="99" t="s">
+        <v>183</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="111" t="s">
-        <v>184</v>
+      <c r="K17" s="98" t="s">
+        <v>170</v>
       </c>
       <c r="L17" s="99"/>
       <c r="M17" s="99"/>
       <c r="N17" s="99"/>
       <c r="O17" s="99"/>
-      <c r="P17" s="102"/>
+      <c r="P17" s="100"/>
       <c r="Q17" s="98" t="s">
         <v>127</v>
       </c>
@@ -20350,18 +20334,18 @@
       <c r="S17" s="99"/>
       <c r="T17" s="99"/>
       <c r="U17" s="99"/>
-      <c r="V17" s="111" t="s">
-        <v>184</v>
+      <c r="V17" s="98" t="s">
+        <v>170</v>
       </c>
       <c r="W17" s="99"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="102"/>
-      <c r="AA17" s="85" t="s">
+      <c r="X17" s="99"/>
+      <c r="Y17" s="99"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="AB17" s="111" t="s">
-        <v>187</v>
+      <c r="AB17" s="110" t="s">
+        <v>178</v>
       </c>
       <c r="AC17" s="99"/>
       <c r="AD17" s="99"/>
@@ -20371,8 +20355,8 @@
       <c r="AH17" s="100"/>
     </row>
     <row r="18" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A18" s="111" t="s">
-        <v>188</v>
+      <c r="A18" s="110" t="s">
+        <v>179</v>
       </c>
       <c r="B18" s="99"/>
       <c r="C18" s="99"/>
@@ -20383,18 +20367,18 @@
       </c>
       <c r="G18" s="101"/>
       <c r="H18" s="101"/>
-      <c r="I18" s="111" t="s">
-        <v>183</v>
+      <c r="I18" s="99" t="s">
+        <v>181</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="111" t="s">
-        <v>185</v>
+      <c r="K18" s="98" t="s">
+        <v>171</v>
       </c>
       <c r="L18" s="99"/>
       <c r="M18" s="99"/>
       <c r="N18" s="99"/>
       <c r="O18" s="99"/>
-      <c r="P18" s="102"/>
+      <c r="P18" s="100"/>
       <c r="Q18" s="98" t="s">
         <v>127</v>
       </c>
@@ -20402,31 +20386,29 @@
       <c r="S18" s="99"/>
       <c r="T18" s="99"/>
       <c r="U18" s="99"/>
-      <c r="V18" s="111" t="s">
-        <v>185</v>
+      <c r="V18" s="98" t="s">
+        <v>171</v>
       </c>
       <c r="W18" s="99"/>
       <c r="X18" s="99"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="85" t="s">
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="AB18" s="111" t="s">
-        <v>188</v>
+      <c r="AB18" s="110" t="s">
+        <v>179</v>
       </c>
       <c r="AC18" s="99"/>
       <c r="AD18" s="99"/>
-      <c r="AE18" s="112" t="s">
-        <v>189</v>
-      </c>
+      <c r="AE18" s="99"/>
       <c r="AF18" s="99"/>
       <c r="AG18" s="99"/>
       <c r="AH18" s="100"/>
     </row>
     <row r="19" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A19" s="111" t="s">
-        <v>191</v>
+      <c r="A19" s="110" t="s">
+        <v>216</v>
       </c>
       <c r="B19" s="99"/>
       <c r="C19" s="99"/>
@@ -20437,18 +20419,18 @@
       </c>
       <c r="G19" s="101"/>
       <c r="H19" s="101"/>
-      <c r="I19" s="111" t="s">
-        <v>183</v>
+      <c r="I19" s="99" t="s">
+        <v>217</v>
       </c>
       <c r="J19" s="100"/>
-      <c r="K19" s="111" t="s">
-        <v>190</v>
+      <c r="K19" s="98" t="s">
+        <v>184</v>
       </c>
       <c r="L19" s="99"/>
       <c r="M19" s="99"/>
       <c r="N19" s="99"/>
       <c r="O19" s="99"/>
-      <c r="P19" s="102"/>
+      <c r="P19" s="100"/>
       <c r="Q19" s="98" t="s">
         <v>127</v>
       </c>
@@ -20456,18 +20438,18 @@
       <c r="S19" s="99"/>
       <c r="T19" s="99"/>
       <c r="U19" s="99"/>
-      <c r="V19" s="111" t="s">
-        <v>190</v>
+      <c r="V19" s="98" t="s">
+        <v>184</v>
       </c>
       <c r="W19" s="99"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="102"/>
-      <c r="AA19" s="85" t="s">
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="AB19" s="111" t="s">
-        <v>191</v>
+      <c r="AB19" s="110" t="s">
+        <v>216</v>
       </c>
       <c r="AC19" s="99"/>
       <c r="AD19" s="99"/>
@@ -20477,70 +20459,104 @@
       <c r="AH19" s="100"/>
     </row>
     <row r="20" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A20" s="98"/>
+      <c r="A20" s="110" t="s">
+        <v>186</v>
+      </c>
       <c r="B20" s="99"/>
       <c r="C20" s="99"/>
       <c r="D20" s="99"/>
       <c r="E20" s="100"/>
-      <c r="F20" s="101"/>
+      <c r="F20" s="101" t="s">
+        <v>39</v>
+      </c>
       <c r="G20" s="101"/>
       <c r="H20" s="101"/>
-      <c r="I20" s="99"/>
+      <c r="I20" s="99" t="s">
+        <v>183</v>
+      </c>
       <c r="J20" s="100"/>
-      <c r="K20" s="98"/>
+      <c r="K20" s="98" t="s">
+        <v>185</v>
+      </c>
       <c r="L20" s="99"/>
       <c r="M20" s="99"/>
       <c r="N20" s="99"/>
       <c r="O20" s="99"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="98"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="98" t="s">
+        <v>127</v>
+      </c>
       <c r="R20" s="99"/>
       <c r="S20" s="99"/>
       <c r="T20" s="99"/>
       <c r="U20" s="99"/>
-      <c r="V20" s="98"/>
+      <c r="V20" s="98" t="s">
+        <v>185</v>
+      </c>
       <c r="W20" s="99"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="102"/>
-      <c r="AA20" s="85"/>
-      <c r="AB20" s="99"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="100"/>
+      <c r="AA20" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB20" s="110" t="s">
+        <v>186</v>
+      </c>
       <c r="AC20" s="99"/>
       <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
+      <c r="AE20" s="99" t="s">
+        <v>187</v>
+      </c>
       <c r="AF20" s="99"/>
       <c r="AG20" s="99"/>
       <c r="AH20" s="100"/>
     </row>
     <row r="21" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A21" s="98"/>
+      <c r="A21" s="110" t="s">
+        <v>189</v>
+      </c>
       <c r="B21" s="99"/>
       <c r="C21" s="99"/>
       <c r="D21" s="99"/>
       <c r="E21" s="100"/>
-      <c r="F21" s="101"/>
+      <c r="F21" s="101" t="s">
+        <v>39</v>
+      </c>
       <c r="G21" s="101"/>
       <c r="H21" s="101"/>
-      <c r="I21" s="99"/>
+      <c r="I21" s="99" t="s">
+        <v>183</v>
+      </c>
       <c r="J21" s="100"/>
-      <c r="K21" s="98"/>
+      <c r="K21" s="98" t="s">
+        <v>188</v>
+      </c>
       <c r="L21" s="99"/>
       <c r="M21" s="99"/>
       <c r="N21" s="99"/>
       <c r="O21" s="99"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="98"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="98" t="s">
+        <v>127</v>
+      </c>
       <c r="R21" s="99"/>
       <c r="S21" s="99"/>
       <c r="T21" s="99"/>
       <c r="U21" s="99"/>
-      <c r="V21" s="98"/>
+      <c r="V21" s="98" t="s">
+        <v>188</v>
+      </c>
       <c r="W21" s="99"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="102"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="99"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="100"/>
+      <c r="AA21" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB21" s="110" t="s">
+        <v>189</v>
+      </c>
       <c r="AC21" s="99"/>
       <c r="AD21" s="99"/>
       <c r="AE21" s="99"/>
@@ -20549,7 +20565,7 @@
       <c r="AH21" s="100"/>
     </row>
     <row r="22" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A22" s="98"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="99"/>
       <c r="C22" s="99"/>
       <c r="D22" s="99"/>
@@ -20576,7 +20592,7 @@
       <c r="Y22" s="99"/>
       <c r="Z22" s="100"/>
       <c r="AA22" s="84"/>
-      <c r="AB22" s="99"/>
+      <c r="AB22" s="110"/>
       <c r="AC22" s="99"/>
       <c r="AD22" s="99"/>
       <c r="AE22" s="99"/>
@@ -20585,7 +20601,7 @@
       <c r="AH22" s="100"/>
     </row>
     <row r="23" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A23" s="98"/>
+      <c r="A23" s="110"/>
       <c r="B23" s="99"/>
       <c r="C23" s="99"/>
       <c r="D23" s="99"/>
@@ -20612,7 +20628,7 @@
       <c r="Y23" s="99"/>
       <c r="Z23" s="100"/>
       <c r="AA23" s="84"/>
-      <c r="AB23" s="99"/>
+      <c r="AB23" s="110"/>
       <c r="AC23" s="99"/>
       <c r="AD23" s="99"/>
       <c r="AE23" s="99"/>
@@ -20621,7 +20637,7 @@
       <c r="AH23" s="100"/>
     </row>
     <row r="24" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A24" s="98"/>
+      <c r="A24" s="110"/>
       <c r="B24" s="99"/>
       <c r="C24" s="99"/>
       <c r="D24" s="99"/>
@@ -20648,7 +20664,7 @@
       <c r="Y24" s="99"/>
       <c r="Z24" s="100"/>
       <c r="AA24" s="84"/>
-      <c r="AB24" s="99"/>
+      <c r="AB24" s="110"/>
       <c r="AC24" s="99"/>
       <c r="AD24" s="99"/>
       <c r="AE24" s="99"/>
@@ -20657,7 +20673,7 @@
       <c r="AH24" s="100"/>
     </row>
     <row r="25" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A25" s="98"/>
+      <c r="A25" s="110"/>
       <c r="B25" s="99"/>
       <c r="C25" s="99"/>
       <c r="D25" s="99"/>
@@ -20684,7 +20700,7 @@
       <c r="Y25" s="99"/>
       <c r="Z25" s="100"/>
       <c r="AA25" s="84"/>
-      <c r="AB25" s="99"/>
+      <c r="AB25" s="110"/>
       <c r="AC25" s="99"/>
       <c r="AD25" s="99"/>
       <c r="AE25" s="99"/>
@@ -20693,7 +20709,7 @@
       <c r="AH25" s="100"/>
     </row>
     <row r="26" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A26" s="98"/>
+      <c r="A26" s="110"/>
       <c r="B26" s="99"/>
       <c r="C26" s="99"/>
       <c r="D26" s="99"/>
@@ -20720,7 +20736,7 @@
       <c r="Y26" s="99"/>
       <c r="Z26" s="100"/>
       <c r="AA26" s="84"/>
-      <c r="AB26" s="99"/>
+      <c r="AB26" s="110"/>
       <c r="AC26" s="99"/>
       <c r="AD26" s="99"/>
       <c r="AE26" s="99"/>
@@ -20766,10 +20782,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="Q6:U6"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="AB5:AH6"/>
@@ -20784,6 +20796,10 @@
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="Q6:U6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -20800,8 +20816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:FV41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -20814,210 +20830,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="149"/>
-      <c r="AH1" s="149"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="148"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="128" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="128" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="128" t="s">
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="130"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="129"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="128" t="s">
+      <c r="AG2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="130"/>
+      <c r="AH2" s="129"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="122" t="s">
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="123"/>
+      <c r="AE3" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="122" t="s">
-        <v>194</v>
-      </c>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="124"/>
-      <c r="Y3" s="122" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="122" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="124"/>
-      <c r="AG3" s="122" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH3" s="124"/>
+      <c r="AH3" s="123"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="125"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="125"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="125"/>
-      <c r="AH4" s="127"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="126"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="126"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="113"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="115"/>
-      <c r="AF5" s="115"/>
-      <c r="AG5" s="115"/>
-      <c r="AH5" s="117"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="115"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="23"/>
       <c r="AK5" s="23"/>
@@ -21355,7 +21371,7 @@
       <c r="A11" s="65"/>
       <c r="B11" s="73"/>
       <c r="C11" s="71" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D11" s="71"/>
       <c r="E11" s="73"/>

--- a/02_詳細設計書/02_内部レビュー/チーム2/詳細設計書_勤怠情報詳細.xlsx
+++ b/02_詳細設計書/02_内部レビュー/チーム2/詳細設計書_勤怠情報詳細.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491FB2A3-BAEF-DB44-8B3D-94EDA38920A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFB6E97-52C5-874A-9C31-72910B8A9D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" tabRatio="774" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="228">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -1471,6 +1471,40 @@
   <si>
     <t>m_dept</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>状態</t>
+    </r>
+  </si>
+  <si>
+    <t>0. 出勤</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 有給休暇</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 特別休暇</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 欠勤</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>9. その他</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>1. 出勤</t>
+  </si>
 </sst>
 </file>
 
@@ -1482,7 +1516,7 @@
     <numFmt numFmtId="178" formatCode="0;[Red]0"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1637,6 +1671,11 @@
       <name val="MS Gothic"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1913,7 +1952,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -2186,7 +2225,34 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2207,13 +2273,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2234,59 +2303,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2294,7 +2357,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2315,44 +2378,20 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2370,24 +2409,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2408,6 +2429,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2425,6 +2455,45 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2470,35 +2539,14 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5622,7 +5670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5882,72 +5930,72 @@
     </row>
     <row r="4" spans="1:176" ht="15" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="120"/>
-      <c r="V4" s="120"/>
-      <c r="W4" s="120"/>
-      <c r="X4" s="120"/>
-      <c r="Y4" s="120"/>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="120"/>
-      <c r="AB4" s="120"/>
-      <c r="AC4" s="120"/>
-      <c r="AD4" s="120"/>
-      <c r="AE4" s="120"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="141"/>
+      <c r="S4" s="141"/>
+      <c r="T4" s="141"/>
+      <c r="U4" s="141"/>
+      <c r="V4" s="141"/>
+      <c r="W4" s="141"/>
+      <c r="X4" s="141"/>
+      <c r="Y4" s="141"/>
+      <c r="Z4" s="141"/>
+      <c r="AA4" s="141"/>
+      <c r="AB4" s="141"/>
+      <c r="AC4" s="141"/>
+      <c r="AD4" s="141"/>
+      <c r="AE4" s="141"/>
       <c r="AF4" s="12"/>
     </row>
     <row r="5" spans="1:176" ht="15" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="120"/>
-      <c r="AA5" s="120"/>
-      <c r="AB5" s="120"/>
-      <c r="AC5" s="120"/>
-      <c r="AD5" s="120"/>
-      <c r="AE5" s="120"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="141"/>
+      <c r="T5" s="141"/>
+      <c r="U5" s="141"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="141"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="141"/>
+      <c r="AC5" s="141"/>
+      <c r="AD5" s="141"/>
+      <c r="AE5" s="141"/>
       <c r="AF5" s="12"/>
     </row>
     <row r="6" spans="1:176" ht="15" customHeight="1">
@@ -6119,124 +6167,124 @@
     </row>
     <row r="11" spans="1:176" ht="15" customHeight="1">
       <c r="A11" s="11"/>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="127" t="s">
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="127" t="s">
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="129"/>
-      <c r="AB11" s="127" t="s">
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="130"/>
+      <c r="T11" s="130"/>
+      <c r="U11" s="130"/>
+      <c r="V11" s="130"/>
+      <c r="W11" s="130"/>
+      <c r="X11" s="130"/>
+      <c r="Y11" s="130"/>
+      <c r="Z11" s="130"/>
+      <c r="AA11" s="131"/>
+      <c r="AB11" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="127" t="s">
+      <c r="AC11" s="131"/>
+      <c r="AD11" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AE11" s="129"/>
+      <c r="AE11" s="131"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="11"/>
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="121" t="s">
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="130" t="s">
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="131"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="131"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
-      <c r="S12" s="131"/>
-      <c r="T12" s="131"/>
-      <c r="U12" s="131"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="131"/>
-      <c r="X12" s="131"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="131"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="130" t="s">
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="143"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143"/>
+      <c r="U12" s="143"/>
+      <c r="V12" s="143"/>
+      <c r="W12" s="143"/>
+      <c r="X12" s="143"/>
+      <c r="Y12" s="143"/>
+      <c r="Z12" s="143"/>
+      <c r="AA12" s="144"/>
+      <c r="AB12" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="AC12" s="132"/>
-      <c r="AD12" s="121" t="s">
+      <c r="AC12" s="144"/>
+      <c r="AD12" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="AE12" s="123"/>
+      <c r="AE12" s="134"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="134"/>
-      <c r="R13" s="134"/>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="134"/>
-      <c r="V13" s="134"/>
-      <c r="W13" s="134"/>
-      <c r="X13" s="134"/>
-      <c r="Y13" s="134"/>
-      <c r="Z13" s="134"/>
-      <c r="AA13" s="135"/>
-      <c r="AB13" s="133"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="124"/>
-      <c r="AE13" s="126"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="146"/>
+      <c r="P13" s="146"/>
+      <c r="Q13" s="146"/>
+      <c r="R13" s="146"/>
+      <c r="S13" s="146"/>
+      <c r="T13" s="146"/>
+      <c r="U13" s="146"/>
+      <c r="V13" s="146"/>
+      <c r="W13" s="146"/>
+      <c r="X13" s="146"/>
+      <c r="Y13" s="146"/>
+      <c r="Z13" s="146"/>
+      <c r="AA13" s="147"/>
+      <c r="AB13" s="145"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="137"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
@@ -6441,54 +6489,54 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="139" t="s">
+      <c r="B20" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="139" t="s">
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="139" t="s">
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="140"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="140"/>
-      <c r="O20" s="140"/>
-      <c r="P20" s="140"/>
-      <c r="Q20" s="140"/>
-      <c r="R20" s="140"/>
-      <c r="S20" s="140"/>
-      <c r="T20" s="140"/>
-      <c r="U20" s="140"/>
-      <c r="V20" s="140"/>
-      <c r="W20" s="140"/>
-      <c r="X20" s="140"/>
-      <c r="Y20" s="140"/>
-      <c r="Z20" s="140"/>
-      <c r="AA20" s="140"/>
-      <c r="AB20" s="141"/>
-      <c r="AC20" s="139" t="s">
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="139"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="139"/>
+      <c r="U20" s="139"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="140"/>
+      <c r="AC20" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="AD20" s="140"/>
-      <c r="AE20" s="141"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="140"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="120" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="138"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="117" t="s">
         <v>89</v>
       </c>
@@ -6525,10 +6573,10 @@
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="136"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="138"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="117"/>
       <c r="G22" s="118"/>
       <c r="H22" s="118"/>
@@ -6559,10 +6607,10 @@
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="136"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="138"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="117"/>
       <c r="G23" s="118"/>
       <c r="H23" s="118"/>
@@ -6593,10 +6641,10 @@
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="136"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="138"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="122"/>
       <c r="F24" s="117"/>
       <c r="G24" s="118"/>
       <c r="H24" s="118"/>
@@ -6627,10 +6675,10 @@
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="136"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="138"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="122"/>
       <c r="F25" s="117"/>
       <c r="G25" s="118"/>
       <c r="H25" s="118"/>
@@ -6661,10 +6709,10 @@
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="136"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="138"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="122"/>
       <c r="F26" s="117"/>
       <c r="G26" s="118"/>
       <c r="H26" s="118"/>
@@ -6695,10 +6743,10 @@
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="138"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="117"/>
       <c r="G27" s="118"/>
       <c r="H27" s="118"/>
@@ -6729,10 +6777,10 @@
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="136"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="138"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="122"/>
       <c r="F28" s="117"/>
       <c r="G28" s="118"/>
       <c r="H28" s="118"/>
@@ -6763,10 +6811,10 @@
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="136"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="138"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="122"/>
       <c r="F29" s="117"/>
       <c r="G29" s="118"/>
       <c r="H29" s="118"/>
@@ -6797,274 +6845,274 @@
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="146"/>
-      <c r="S30" s="146"/>
-      <c r="T30" s="146"/>
-      <c r="U30" s="146"/>
-      <c r="V30" s="146"/>
-      <c r="W30" s="146"/>
-      <c r="X30" s="146"/>
-      <c r="Y30" s="146"/>
-      <c r="Z30" s="146"/>
-      <c r="AA30" s="146"/>
-      <c r="AB30" s="147"/>
-      <c r="AC30" s="145"/>
-      <c r="AD30" s="146"/>
-      <c r="AE30" s="147"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="127"/>
+      <c r="R30" s="127"/>
+      <c r="S30" s="127"/>
+      <c r="T30" s="127"/>
+      <c r="U30" s="127"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="127"/>
+      <c r="X30" s="127"/>
+      <c r="Y30" s="127"/>
+      <c r="Z30" s="127"/>
+      <c r="AA30" s="127"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="126"/>
+      <c r="AD30" s="127"/>
+      <c r="AE30" s="128"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="146"/>
-      <c r="S31" s="146"/>
-      <c r="T31" s="146"/>
-      <c r="U31" s="146"/>
-      <c r="V31" s="146"/>
-      <c r="W31" s="146"/>
-      <c r="X31" s="146"/>
-      <c r="Y31" s="146"/>
-      <c r="Z31" s="146"/>
-      <c r="AA31" s="146"/>
-      <c r="AB31" s="147"/>
-      <c r="AC31" s="145"/>
-      <c r="AD31" s="146"/>
-      <c r="AE31" s="147"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="127"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="127"/>
+      <c r="U31" s="127"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="127"/>
+      <c r="X31" s="127"/>
+      <c r="Y31" s="127"/>
+      <c r="Z31" s="127"/>
+      <c r="AA31" s="127"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="126"/>
+      <c r="AD31" s="127"/>
+      <c r="AE31" s="128"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="146"/>
-      <c r="S32" s="146"/>
-      <c r="T32" s="146"/>
-      <c r="U32" s="146"/>
-      <c r="V32" s="146"/>
-      <c r="W32" s="146"/>
-      <c r="X32" s="146"/>
-      <c r="Y32" s="146"/>
-      <c r="Z32" s="146"/>
-      <c r="AA32" s="146"/>
-      <c r="AB32" s="147"/>
-      <c r="AC32" s="145"/>
-      <c r="AD32" s="146"/>
-      <c r="AE32" s="147"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127"/>
+      <c r="R32" s="127"/>
+      <c r="S32" s="127"/>
+      <c r="T32" s="127"/>
+      <c r="U32" s="127"/>
+      <c r="V32" s="127"/>
+      <c r="W32" s="127"/>
+      <c r="X32" s="127"/>
+      <c r="Y32" s="127"/>
+      <c r="Z32" s="127"/>
+      <c r="AA32" s="127"/>
+      <c r="AB32" s="128"/>
+      <c r="AC32" s="126"/>
+      <c r="AD32" s="127"/>
+      <c r="AE32" s="128"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="142"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="146"/>
-      <c r="S33" s="146"/>
-      <c r="T33" s="146"/>
-      <c r="U33" s="146"/>
-      <c r="V33" s="146"/>
-      <c r="W33" s="146"/>
-      <c r="X33" s="146"/>
-      <c r="Y33" s="146"/>
-      <c r="Z33" s="146"/>
-      <c r="AA33" s="146"/>
-      <c r="AB33" s="147"/>
-      <c r="AC33" s="145"/>
-      <c r="AD33" s="146"/>
-      <c r="AE33" s="147"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="127"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="127"/>
+      <c r="P33" s="127"/>
+      <c r="Q33" s="127"/>
+      <c r="R33" s="127"/>
+      <c r="S33" s="127"/>
+      <c r="T33" s="127"/>
+      <c r="U33" s="127"/>
+      <c r="V33" s="127"/>
+      <c r="W33" s="127"/>
+      <c r="X33" s="127"/>
+      <c r="Y33" s="127"/>
+      <c r="Z33" s="127"/>
+      <c r="AA33" s="127"/>
+      <c r="AB33" s="128"/>
+      <c r="AC33" s="126"/>
+      <c r="AD33" s="127"/>
+      <c r="AE33" s="128"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="142"/>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="146"/>
-      <c r="M34" s="146"/>
-      <c r="N34" s="146"/>
-      <c r="O34" s="146"/>
-      <c r="P34" s="146"/>
-      <c r="Q34" s="146"/>
-      <c r="R34" s="146"/>
-      <c r="S34" s="146"/>
-      <c r="T34" s="146"/>
-      <c r="U34" s="146"/>
-      <c r="V34" s="146"/>
-      <c r="W34" s="146"/>
-      <c r="X34" s="146"/>
-      <c r="Y34" s="146"/>
-      <c r="Z34" s="146"/>
-      <c r="AA34" s="146"/>
-      <c r="AB34" s="147"/>
-      <c r="AC34" s="145"/>
-      <c r="AD34" s="146"/>
-      <c r="AE34" s="147"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="127"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="127"/>
+      <c r="N34" s="127"/>
+      <c r="O34" s="127"/>
+      <c r="P34" s="127"/>
+      <c r="Q34" s="127"/>
+      <c r="R34" s="127"/>
+      <c r="S34" s="127"/>
+      <c r="T34" s="127"/>
+      <c r="U34" s="127"/>
+      <c r="V34" s="127"/>
+      <c r="W34" s="127"/>
+      <c r="X34" s="127"/>
+      <c r="Y34" s="127"/>
+      <c r="Z34" s="127"/>
+      <c r="AA34" s="127"/>
+      <c r="AB34" s="128"/>
+      <c r="AC34" s="126"/>
+      <c r="AD34" s="127"/>
+      <c r="AE34" s="128"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="142"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="146"/>
-      <c r="M35" s="146"/>
-      <c r="N35" s="146"/>
-      <c r="O35" s="146"/>
-      <c r="P35" s="146"/>
-      <c r="Q35" s="146"/>
-      <c r="R35" s="146"/>
-      <c r="S35" s="146"/>
-      <c r="T35" s="146"/>
-      <c r="U35" s="146"/>
-      <c r="V35" s="146"/>
-      <c r="W35" s="146"/>
-      <c r="X35" s="146"/>
-      <c r="Y35" s="146"/>
-      <c r="Z35" s="146"/>
-      <c r="AA35" s="146"/>
-      <c r="AB35" s="147"/>
-      <c r="AC35" s="145"/>
-      <c r="AD35" s="146"/>
-      <c r="AE35" s="147"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="127"/>
+      <c r="L35" s="127"/>
+      <c r="M35" s="127"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="127"/>
+      <c r="P35" s="127"/>
+      <c r="Q35" s="127"/>
+      <c r="R35" s="127"/>
+      <c r="S35" s="127"/>
+      <c r="T35" s="127"/>
+      <c r="U35" s="127"/>
+      <c r="V35" s="127"/>
+      <c r="W35" s="127"/>
+      <c r="X35" s="127"/>
+      <c r="Y35" s="127"/>
+      <c r="Z35" s="127"/>
+      <c r="AA35" s="127"/>
+      <c r="AB35" s="128"/>
+      <c r="AC35" s="126"/>
+      <c r="AD35" s="127"/>
+      <c r="AE35" s="128"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="142"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="146"/>
-      <c r="M36" s="146"/>
-      <c r="N36" s="146"/>
-      <c r="O36" s="146"/>
-      <c r="P36" s="146"/>
-      <c r="Q36" s="146"/>
-      <c r="R36" s="146"/>
-      <c r="S36" s="146"/>
-      <c r="T36" s="146"/>
-      <c r="U36" s="146"/>
-      <c r="V36" s="146"/>
-      <c r="W36" s="146"/>
-      <c r="X36" s="146"/>
-      <c r="Y36" s="146"/>
-      <c r="Z36" s="146"/>
-      <c r="AA36" s="146"/>
-      <c r="AB36" s="147"/>
-      <c r="AC36" s="145"/>
-      <c r="AD36" s="146"/>
-      <c r="AE36" s="147"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="127"/>
+      <c r="O36" s="127"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="127"/>
+      <c r="S36" s="127"/>
+      <c r="T36" s="127"/>
+      <c r="U36" s="127"/>
+      <c r="V36" s="127"/>
+      <c r="W36" s="127"/>
+      <c r="X36" s="127"/>
+      <c r="Y36" s="127"/>
+      <c r="Z36" s="127"/>
+      <c r="AA36" s="127"/>
+      <c r="AB36" s="128"/>
+      <c r="AC36" s="126"/>
+      <c r="AD36" s="127"/>
+      <c r="AE36" s="128"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="145"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="145"/>
-      <c r="K37" s="146"/>
-      <c r="L37" s="146"/>
-      <c r="M37" s="146"/>
-      <c r="N37" s="146"/>
-      <c r="O37" s="146"/>
-      <c r="P37" s="146"/>
-      <c r="Q37" s="146"/>
-      <c r="R37" s="146"/>
-      <c r="S37" s="146"/>
-      <c r="T37" s="146"/>
-      <c r="U37" s="146"/>
-      <c r="V37" s="146"/>
-      <c r="W37" s="146"/>
-      <c r="X37" s="146"/>
-      <c r="Y37" s="146"/>
-      <c r="Z37" s="146"/>
-      <c r="AA37" s="146"/>
-      <c r="AB37" s="147"/>
-      <c r="AC37" s="145"/>
-      <c r="AD37" s="146"/>
-      <c r="AE37" s="147"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="127"/>
+      <c r="L37" s="127"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="127"/>
+      <c r="O37" s="127"/>
+      <c r="P37" s="127"/>
+      <c r="Q37" s="127"/>
+      <c r="R37" s="127"/>
+      <c r="S37" s="127"/>
+      <c r="T37" s="127"/>
+      <c r="U37" s="127"/>
+      <c r="V37" s="127"/>
+      <c r="W37" s="127"/>
+      <c r="X37" s="127"/>
+      <c r="Y37" s="127"/>
+      <c r="Z37" s="127"/>
+      <c r="AA37" s="127"/>
+      <c r="AB37" s="128"/>
+      <c r="AC37" s="126"/>
+      <c r="AD37" s="127"/>
+      <c r="AE37" s="128"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -7103,62 +7151,17 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B4:AE5"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AB12:AC13"/>
     <mergeCell ref="J23:AB23"/>
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="AD11:AE11"/>
@@ -7175,17 +7178,62 @@
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="AC20:AE20"/>
     <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="B4:AE5"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="M12:AA13"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7220,171 +7268,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="224"/>
-      <c r="AB1" s="224"/>
-      <c r="AC1" s="224"/>
-      <c r="AD1" s="224"/>
-      <c r="AE1" s="224"/>
-      <c r="AF1" s="224"/>
-      <c r="AG1" s="224"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="208"/>
+      <c r="AB1" s="208"/>
+      <c r="AC1" s="208"/>
+      <c r="AD1" s="208"/>
+      <c r="AE1" s="208"/>
+      <c r="AF1" s="208"/>
+      <c r="AG1" s="208"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="225" t="s">
+      <c r="A2" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="225" t="s">
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="227"/>
-      <c r="M2" s="225" t="s">
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="226"/>
-      <c r="O2" s="226"/>
-      <c r="P2" s="226"/>
-      <c r="Q2" s="226"/>
-      <c r="R2" s="226"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="226"/>
-      <c r="Y2" s="226"/>
-      <c r="Z2" s="226"/>
-      <c r="AA2" s="226"/>
-      <c r="AB2" s="226"/>
-      <c r="AC2" s="227"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="210"/>
+      <c r="AA2" s="210"/>
+      <c r="AB2" s="210"/>
+      <c r="AC2" s="211"/>
       <c r="AD2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="17"/>
-      <c r="AF2" s="225" t="s">
+      <c r="AF2" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="227"/>
+      <c r="AG2" s="211"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="218" t="str">
+      <c r="A3" s="202" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="218" t="str">
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="202" t="str">
         <f>表紙!G12</f>
         <v>勤怠情報・一覧登録</v>
       </c>
-      <c r="H3" s="222"/>
-      <c r="I3" s="222"/>
-      <c r="J3" s="222"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="219"/>
-      <c r="M3" s="218" t="str">
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="202" t="str">
         <f>表紙!M12</f>
         <v>勤怠管理情報詳細一覧 / 更新 / 削除</v>
       </c>
-      <c r="N3" s="222"/>
-      <c r="O3" s="222"/>
-      <c r="P3" s="222"/>
-      <c r="Q3" s="222"/>
-      <c r="R3" s="222"/>
-      <c r="S3" s="222"/>
-      <c r="T3" s="222"/>
-      <c r="U3" s="222"/>
-      <c r="V3" s="222"/>
-      <c r="W3" s="222"/>
-      <c r="X3" s="222"/>
-      <c r="Y3" s="222"/>
-      <c r="Z3" s="222"/>
-      <c r="AA3" s="222"/>
-      <c r="AB3" s="222"/>
-      <c r="AC3" s="219"/>
-      <c r="AD3" s="218" t="str">
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="206"/>
+      <c r="AA3" s="206"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="203"/>
+      <c r="AD3" s="202" t="str">
         <f>表紙!AB12</f>
         <v>NTS</v>
       </c>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="218" t="str">
+      <c r="AE3" s="203"/>
+      <c r="AF3" s="202" t="str">
         <f>表紙!AD12</f>
         <v>司徒 健斌</v>
       </c>
-      <c r="AG3" s="219"/>
+      <c r="AG3" s="203"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="220"/>
-      <c r="B4" s="223"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="221"/>
-      <c r="M4" s="220"/>
-      <c r="N4" s="223"/>
-      <c r="O4" s="223"/>
-      <c r="P4" s="223"/>
-      <c r="Q4" s="223"/>
-      <c r="R4" s="223"/>
-      <c r="S4" s="223"/>
-      <c r="T4" s="223"/>
-      <c r="U4" s="223"/>
-      <c r="V4" s="223"/>
-      <c r="W4" s="223"/>
-      <c r="X4" s="223"/>
-      <c r="Y4" s="223"/>
-      <c r="Z4" s="223"/>
-      <c r="AA4" s="223"/>
-      <c r="AB4" s="223"/>
-      <c r="AC4" s="221"/>
-      <c r="AD4" s="220"/>
-      <c r="AE4" s="221"/>
-      <c r="AF4" s="220"/>
-      <c r="AG4" s="221"/>
+      <c r="A4" s="204"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="205"/>
+      <c r="AD4" s="204"/>
+      <c r="AE4" s="205"/>
+      <c r="AF4" s="204"/>
+      <c r="AG4" s="205"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -7597,94 +7645,94 @@
     </row>
     <row r="7" spans="1:177" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="30"/>
-      <c r="B7" s="204" t="s">
+      <c r="B7" s="214" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="204" t="s">
+      <c r="C7" s="224"/>
+      <c r="D7" s="214" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="204" t="s">
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="213"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="204" t="s">
+      <c r="I7" s="223"/>
+      <c r="J7" s="224"/>
+      <c r="K7" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="213"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="204" t="s">
+      <c r="L7" s="223"/>
+      <c r="M7" s="224"/>
+      <c r="N7" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="205"/>
-      <c r="P7" s="206"/>
-      <c r="Q7" s="204" t="s">
+      <c r="O7" s="215"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="214" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="206"/>
-      <c r="S7" s="204" t="s">
+      <c r="R7" s="216"/>
+      <c r="S7" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="205"/>
-      <c r="U7" s="206"/>
-      <c r="V7" s="204" t="s">
+      <c r="T7" s="215"/>
+      <c r="U7" s="216"/>
+      <c r="V7" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="205"/>
-      <c r="X7" s="206"/>
-      <c r="Y7" s="204" t="s">
+      <c r="W7" s="215"/>
+      <c r="X7" s="216"/>
+      <c r="Y7" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="Z7" s="205"/>
-      <c r="AA7" s="205"/>
-      <c r="AB7" s="205"/>
-      <c r="AC7" s="205"/>
-      <c r="AD7" s="205"/>
-      <c r="AE7" s="206"/>
+      <c r="Z7" s="215"/>
+      <c r="AA7" s="215"/>
+      <c r="AB7" s="215"/>
+      <c r="AC7" s="215"/>
+      <c r="AD7" s="215"/>
+      <c r="AE7" s="216"/>
       <c r="AG7" s="32"/>
     </row>
     <row r="8" spans="1:177" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="30"/>
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="203"/>
+      <c r="C8" s="213"/>
       <c r="D8" s="30" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="32"/>
-      <c r="H8" s="207" t="s">
+      <c r="H8" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="208"/>
-      <c r="J8" s="209"/>
-      <c r="K8" s="210" t="s">
+      <c r="I8" s="218"/>
+      <c r="J8" s="219"/>
+      <c r="K8" s="220" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="211"/>
-      <c r="M8" s="212"/>
+      <c r="L8" s="221"/>
+      <c r="M8" s="222"/>
       <c r="N8" s="30" t="s">
         <v>19</v>
       </c>
       <c r="P8" s="32"/>
-      <c r="Q8" s="210" t="s">
+      <c r="Q8" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="212"/>
-      <c r="S8" s="215" t="s">
+      <c r="R8" s="222"/>
+      <c r="S8" s="225" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="216"/>
-      <c r="U8" s="217"/>
-      <c r="V8" s="207" t="s">
+      <c r="T8" s="226"/>
+      <c r="U8" s="227"/>
+      <c r="V8" s="217" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="208"/>
-      <c r="X8" s="209"/>
+      <c r="W8" s="218"/>
+      <c r="X8" s="219"/>
       <c r="Y8" s="33" t="s">
         <v>24</v>
       </c>
@@ -8347,16 +8395,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="Y7:AE7"/>
     <mergeCell ref="H8:J8"/>
@@ -8372,6 +8410,16 @@
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8406,178 +8454,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="224"/>
-      <c r="AB1" s="224"/>
-      <c r="AC1" s="224"/>
-      <c r="AD1" s="224"/>
-      <c r="AE1" s="224"/>
-      <c r="AF1" s="224"/>
-      <c r="AG1" s="224"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="208"/>
+      <c r="AB1" s="208"/>
+      <c r="AC1" s="208"/>
+      <c r="AD1" s="208"/>
+      <c r="AE1" s="208"/>
+      <c r="AF1" s="208"/>
+      <c r="AG1" s="208"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="225" t="s">
+      <c r="A2" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="225" t="s">
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="227"/>
-      <c r="N2" s="225" t="s">
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="226"/>
-      <c r="P2" s="226"/>
-      <c r="Q2" s="226"/>
-      <c r="R2" s="226"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="225" t="s">
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="209" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="226"/>
-      <c r="AA2" s="226"/>
-      <c r="AB2" s="226"/>
-      <c r="AC2" s="226"/>
-      <c r="AD2" s="227"/>
+      <c r="Z2" s="210"/>
+      <c r="AA2" s="210"/>
+      <c r="AB2" s="210"/>
+      <c r="AC2" s="210"/>
+      <c r="AD2" s="211"/>
       <c r="AE2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="17"/>
-      <c r="AG2" s="225" t="s">
+      <c r="AG2" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="227"/>
+      <c r="AH2" s="211"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="218" t="str">
+      <c r="A3" s="202" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="218" t="str">
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="202" t="str">
         <f>表紙!G12</f>
         <v>勤怠情報・一覧登録</v>
       </c>
-      <c r="H3" s="222"/>
-      <c r="I3" s="222"/>
-      <c r="J3" s="222"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="222"/>
-      <c r="M3" s="219"/>
-      <c r="N3" s="218" t="str">
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="202" t="str">
         <f>表紙!M12</f>
         <v>勤怠管理情報詳細一覧 / 更新 / 削除</v>
       </c>
-      <c r="O3" s="222"/>
-      <c r="P3" s="222"/>
-      <c r="Q3" s="222"/>
-      <c r="R3" s="222"/>
-      <c r="S3" s="222"/>
-      <c r="T3" s="222"/>
-      <c r="U3" s="222"/>
-      <c r="V3" s="222"/>
-      <c r="W3" s="222"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="218" t="s">
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="222"/>
-      <c r="AA3" s="222"/>
-      <c r="AB3" s="222"/>
-      <c r="AC3" s="222"/>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="218" t="str">
+      <c r="Z3" s="206"/>
+      <c r="AA3" s="206"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="206"/>
+      <c r="AD3" s="203"/>
+      <c r="AE3" s="202" t="str">
         <f>表紙!AB12</f>
         <v>NTS</v>
       </c>
-      <c r="AF3" s="219"/>
-      <c r="AG3" s="218" t="str">
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="202" t="str">
         <f>表紙!AD12</f>
         <v>司徒 健斌</v>
       </c>
-      <c r="AH3" s="219"/>
+      <c r="AH3" s="203"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="220"/>
-      <c r="B4" s="223"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="223"/>
-      <c r="M4" s="221"/>
-      <c r="N4" s="220"/>
-      <c r="O4" s="223"/>
-      <c r="P4" s="223"/>
-      <c r="Q4" s="223"/>
-      <c r="R4" s="223"/>
-      <c r="S4" s="223"/>
-      <c r="T4" s="223"/>
-      <c r="U4" s="223"/>
-      <c r="V4" s="223"/>
-      <c r="W4" s="223"/>
-      <c r="X4" s="221"/>
-      <c r="Y4" s="220"/>
-      <c r="Z4" s="223"/>
-      <c r="AA4" s="223"/>
-      <c r="AB4" s="223"/>
-      <c r="AC4" s="223"/>
-      <c r="AD4" s="221"/>
-      <c r="AE4" s="220"/>
-      <c r="AF4" s="221"/>
-      <c r="AG4" s="220"/>
-      <c r="AH4" s="221"/>
+      <c r="A4" s="204"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="205"/>
+      <c r="Y4" s="204"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="205"/>
+      <c r="AE4" s="204"/>
+      <c r="AF4" s="205"/>
+      <c r="AG4" s="204"/>
+      <c r="AH4" s="205"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -10015,18 +10063,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10095,136 +10143,136 @@
       <c r="AH1" s="148"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="127" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="127" t="s">
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="127" t="s">
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="129"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="131"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="127" t="s">
+      <c r="AG2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="129"/>
+      <c r="AH2" s="131"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="142" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="121" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="121" t="s">
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="121" t="s">
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="121" t="s">
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="133"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="121" t="s">
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="AH3" s="123"/>
+      <c r="AH3" s="134"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="124"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="125"/>
-      <c r="AC4" s="125"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="126"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="135"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="135"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="135"/>
+      <c r="AH4" s="137"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="45"/>
@@ -11848,18 +11896,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11928,129 +11976,129 @@
       <c r="AG1" s="148"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="127" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="127" t="s">
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="131"/>
       <c r="AD2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="87"/>
-      <c r="AF2" s="127" t="s">
+      <c r="AF2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="129"/>
+      <c r="AG2" s="131"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="121" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="121" t="s">
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="121" t="s">
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="133"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="133"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="121" t="s">
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="AG3" s="123"/>
+      <c r="AG3" s="134"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="124"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="125"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="126"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="135"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="135"/>
+      <c r="AG4" s="137"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="58"/>
@@ -13598,16 +13646,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13624,10 +13672,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:D12"/>
+      <selection pane="bottomLeft" activeCell="V26" sqref="V26:AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -13677,129 +13725,129 @@
       <c r="AG1" s="148"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="127" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="127" t="s">
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="131"/>
       <c r="AD2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="87"/>
-      <c r="AF2" s="127" t="s">
+      <c r="AF2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="129"/>
+      <c r="AG2" s="131"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="121" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="121" t="s">
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="121" t="s">
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="133"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="133"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="121" t="s">
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="AG3" s="123"/>
+      <c r="AG3" s="134"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="124"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="125"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="126"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="135"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="135"/>
+      <c r="AG4" s="137"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -14127,12 +14175,12 @@
       <c r="B10" s="155"/>
       <c r="C10" s="155"/>
       <c r="D10" s="155"/>
-      <c r="E10" s="176">
+      <c r="E10" s="156">
         <v>1</v>
       </c>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
       <c r="I10" s="77"/>
       <c r="J10" s="78"/>
       <c r="K10" s="83"/>
@@ -14160,7 +14208,7 @@
       <c r="AG10" s="67"/>
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="157" t="s">
         <v>108</v>
       </c>
       <c r="B11" s="155"/>
@@ -14199,7 +14247,7 @@
       <c r="AG11" s="67"/>
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A12" s="177" t="s">
+      <c r="A12" s="157" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="155"/>
@@ -14321,17 +14369,17 @@
       <c r="K15" s="79"/>
       <c r="L15" s="79"/>
       <c r="M15" s="81"/>
-      <c r="N15" s="170" t="s">
+      <c r="N15" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="O15" s="170"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="171" t="s">
+      <c r="O15" s="149"/>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="R15" s="171"/>
-      <c r="S15" s="172"/>
-      <c r="T15" s="173"/>
+      <c r="R15" s="150"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="152"/>
       <c r="U15" s="79"/>
       <c r="V15" s="79"/>
       <c r="W15" s="79"/>
@@ -14360,13 +14408,13 @@
       <c r="K16" s="79"/>
       <c r="L16" s="79"/>
       <c r="M16" s="79"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="171"/>
-      <c r="R16" s="171"/>
-      <c r="S16" s="174"/>
-      <c r="T16" s="175"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="149"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="150"/>
+      <c r="R16" s="150"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="154"/>
       <c r="U16" s="79"/>
       <c r="V16" s="79"/>
       <c r="W16" s="79"/>
@@ -14380,8 +14428,15 @@
       <c r="AE16" s="79"/>
       <c r="AF16" s="68"/>
       <c r="AG16" s="67"/>
-    </row>
-    <row r="17" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AT16" s="228" t="s">
+        <v>221</v>
+      </c>
+      <c r="AU16" s="228"/>
+      <c r="AV16" s="71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" ht="12.75" customHeight="1">
       <c r="A17" s="80"/>
       <c r="B17" s="79"/>
       <c r="C17" s="79"/>
@@ -14415,98 +14470,108 @@
       <c r="AE17" s="79"/>
       <c r="AF17" s="68"/>
       <c r="AG17" s="67"/>
-    </row>
-    <row r="18" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A18" s="167" t="s">
+      <c r="AT17" s="229"/>
+      <c r="AU17" s="230"/>
+      <c r="AV17" s="71" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" ht="12.75" customHeight="1">
+      <c r="A18" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="168"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="167" t="s">
+      <c r="B18" s="162"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="167" t="s">
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="167" t="s">
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="168"/>
-      <c r="M18" s="168"/>
-      <c r="N18" s="167" t="s">
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="161" t="s">
         <v>116</v>
       </c>
-      <c r="O18" s="168"/>
-      <c r="P18" s="167" t="s">
+      <c r="O18" s="162"/>
+      <c r="P18" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="Q18" s="168"/>
-      <c r="R18" s="167" t="s">
+      <c r="Q18" s="162"/>
+      <c r="R18" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="S18" s="168"/>
-      <c r="T18" s="167" t="s">
+      <c r="S18" s="162"/>
+      <c r="T18" s="161" t="s">
         <v>119</v>
       </c>
-      <c r="U18" s="168"/>
-      <c r="V18" s="167" t="s">
+      <c r="U18" s="162"/>
+      <c r="V18" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="W18" s="168"/>
-      <c r="X18" s="168"/>
-      <c r="Y18" s="168"/>
-      <c r="Z18" s="168"/>
-      <c r="AA18" s="168"/>
-      <c r="AB18" s="167" t="s">
+      <c r="W18" s="162"/>
+      <c r="X18" s="162"/>
+      <c r="Y18" s="162"/>
+      <c r="Z18" s="162"/>
+      <c r="AA18" s="162"/>
+      <c r="AB18" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="AC18" s="167"/>
-      <c r="AD18" s="169" t="s">
+      <c r="AC18" s="161"/>
+      <c r="AD18" s="163" t="s">
         <v>100</v>
       </c>
-      <c r="AE18" s="169"/>
+      <c r="AE18" s="163"/>
       <c r="AF18" s="68"/>
       <c r="AG18" s="67"/>
-    </row>
-    <row r="19" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A19" s="165">
+      <c r="AT18" s="229"/>
+      <c r="AU18" s="230"/>
+      <c r="AV18" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" ht="12.75" customHeight="1">
+      <c r="A19" s="158">
         <v>2022090101</v>
       </c>
-      <c r="B19" s="165"/>
-      <c r="C19" s="165"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="158"/>
       <c r="D19" s="155" t="s">
         <v>101</v>
       </c>
       <c r="E19" s="155"/>
       <c r="F19" s="155"/>
       <c r="G19" s="155"/>
-      <c r="H19" s="166">
+      <c r="H19" s="159">
         <v>0.375</v>
       </c>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="166">
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="159">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L19" s="166"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="158">
+      <c r="L19" s="159"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="160">
         <v>1</v>
       </c>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158">
+      <c r="O19" s="160"/>
+      <c r="P19" s="160">
         <v>1</v>
       </c>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="158">
+      <c r="Q19" s="160"/>
+      <c r="R19" s="160">
         <v>9</v>
       </c>
-      <c r="S19" s="158"/>
+      <c r="S19" s="160"/>
       <c r="T19" s="155" t="s">
         <v>95</v>
       </c>
@@ -14519,49 +14584,54 @@
       <c r="Y19" s="155"/>
       <c r="Z19" s="155"/>
       <c r="AA19" s="155"/>
-      <c r="AB19" s="156"/>
-      <c r="AC19" s="156"/>
-      <c r="AD19" s="157"/>
-      <c r="AE19" s="157"/>
+      <c r="AB19" s="164"/>
+      <c r="AC19" s="164"/>
+      <c r="AD19" s="165"/>
+      <c r="AE19" s="165"/>
       <c r="AF19" s="68"/>
       <c r="AG19" s="67"/>
-    </row>
-    <row r="20" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A20" s="165">
+      <c r="AT19" s="230"/>
+      <c r="AU19" s="230"/>
+      <c r="AV19" s="230" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" ht="12.75" customHeight="1">
+      <c r="A20" s="158">
         <v>2022090201</v>
       </c>
-      <c r="B20" s="165"/>
-      <c r="C20" s="165"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
       <c r="D20" s="155" t="s">
         <v>103</v>
       </c>
       <c r="E20" s="155"/>
       <c r="F20" s="155"/>
       <c r="G20" s="155"/>
-      <c r="H20" s="166">
+      <c r="H20" s="159">
         <v>0.375</v>
       </c>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166">
+      <c r="I20" s="159"/>
+      <c r="J20" s="159"/>
+      <c r="K20" s="159">
         <v>0.75</v>
       </c>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="158">
+      <c r="L20" s="159"/>
+      <c r="M20" s="159"/>
+      <c r="N20" s="160">
         <v>1</v>
       </c>
-      <c r="O20" s="158"/>
-      <c r="P20" s="158">
+      <c r="O20" s="160"/>
+      <c r="P20" s="160">
         <v>0</v>
       </c>
-      <c r="Q20" s="158"/>
-      <c r="R20" s="158">
+      <c r="Q20" s="160"/>
+      <c r="R20" s="160">
         <v>8</v>
       </c>
-      <c r="S20" s="158"/>
+      <c r="S20" s="160"/>
       <c r="T20" s="155" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="U20" s="155"/>
       <c r="V20" s="155" t="s">
@@ -14572,47 +14642,52 @@
       <c r="Y20" s="155"/>
       <c r="Z20" s="155"/>
       <c r="AA20" s="155"/>
-      <c r="AB20" s="156"/>
-      <c r="AC20" s="156"/>
-      <c r="AD20" s="157"/>
-      <c r="AE20" s="157"/>
+      <c r="AB20" s="164"/>
+      <c r="AC20" s="164"/>
+      <c r="AD20" s="165"/>
+      <c r="AE20" s="165"/>
       <c r="AF20" s="68"/>
       <c r="AG20" s="67"/>
-    </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A21" s="165">
+      <c r="AT20" s="230"/>
+      <c r="AU20" s="230"/>
+      <c r="AV20" s="230" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" ht="12.75" customHeight="1">
+      <c r="A21" s="158">
         <v>2022090301</v>
       </c>
-      <c r="B21" s="165"/>
-      <c r="C21" s="165"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="158"/>
       <c r="D21" s="155" t="s">
         <v>105</v>
       </c>
       <c r="E21" s="155"/>
       <c r="F21" s="155"/>
       <c r="G21" s="155"/>
-      <c r="H21" s="166">
+      <c r="H21" s="159">
         <v>0.375</v>
       </c>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="166">
+      <c r="I21" s="159"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="159">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L21" s="166"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="158">
+      <c r="L21" s="159"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="160">
         <v>1</v>
       </c>
-      <c r="O21" s="158"/>
-      <c r="P21" s="158">
+      <c r="O21" s="160"/>
+      <c r="P21" s="160">
         <v>1</v>
       </c>
-      <c r="Q21" s="158"/>
-      <c r="R21" s="158">
+      <c r="Q21" s="160"/>
+      <c r="R21" s="160">
         <v>9</v>
       </c>
-      <c r="S21" s="158"/>
+      <c r="S21" s="160"/>
       <c r="T21" s="155" t="s">
         <v>106</v>
       </c>
@@ -14625,19 +14700,19 @@
       <c r="Y21" s="155"/>
       <c r="Z21" s="155"/>
       <c r="AA21" s="155"/>
-      <c r="AB21" s="156"/>
-      <c r="AC21" s="156"/>
-      <c r="AD21" s="157"/>
-      <c r="AE21" s="157"/>
+      <c r="AB21" s="164"/>
+      <c r="AC21" s="164"/>
+      <c r="AD21" s="165"/>
+      <c r="AE21" s="165"/>
       <c r="AF21" s="68"/>
       <c r="AG21" s="67"/>
     </row>
-    <row r="22" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A22" s="165">
+    <row r="22" spans="1:48" ht="12.75" customHeight="1">
+      <c r="A22" s="158">
         <v>2022090401</v>
       </c>
-      <c r="B22" s="165"/>
-      <c r="C22" s="165"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
       <c r="D22" s="155"/>
       <c r="E22" s="155"/>
       <c r="F22" s="155"/>
@@ -14648,12 +14723,12 @@
       <c r="K22" s="155"/>
       <c r="L22" s="155"/>
       <c r="M22" s="155"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="158"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="154"/>
-      <c r="S22" s="154"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="160"/>
+      <c r="R22" s="166"/>
+      <c r="S22" s="166"/>
       <c r="T22" s="155"/>
       <c r="U22" s="155"/>
       <c r="V22" s="155"/>
@@ -14662,19 +14737,19 @@
       <c r="Y22" s="155"/>
       <c r="Z22" s="155"/>
       <c r="AA22" s="155"/>
-      <c r="AB22" s="156"/>
-      <c r="AC22" s="156"/>
-      <c r="AD22" s="157"/>
-      <c r="AE22" s="157"/>
+      <c r="AB22" s="164"/>
+      <c r="AC22" s="164"/>
+      <c r="AD22" s="165"/>
+      <c r="AE22" s="165"/>
       <c r="AF22" s="68"/>
       <c r="AG22" s="67"/>
     </row>
-    <row r="23" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A23" s="165">
+    <row r="23" spans="1:48" ht="12.75" customHeight="1">
+      <c r="A23" s="158">
         <v>2022090501</v>
       </c>
-      <c r="B23" s="165"/>
-      <c r="C23" s="165"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="158"/>
       <c r="D23" s="155"/>
       <c r="E23" s="155"/>
       <c r="F23" s="155"/>
@@ -14685,12 +14760,12 @@
       <c r="K23" s="155"/>
       <c r="L23" s="155"/>
       <c r="M23" s="155"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="158"/>
-      <c r="Q23" s="158"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="154"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="160"/>
+      <c r="R23" s="166"/>
+      <c r="S23" s="166"/>
       <c r="T23" s="155"/>
       <c r="U23" s="155"/>
       <c r="V23" s="155"/>
@@ -14699,19 +14774,19 @@
       <c r="Y23" s="155"/>
       <c r="Z23" s="155"/>
       <c r="AA23" s="155"/>
-      <c r="AB23" s="156"/>
-      <c r="AC23" s="156"/>
-      <c r="AD23" s="157"/>
-      <c r="AE23" s="157"/>
+      <c r="AB23" s="164"/>
+      <c r="AC23" s="164"/>
+      <c r="AD23" s="165"/>
+      <c r="AE23" s="165"/>
       <c r="AF23" s="68"/>
       <c r="AG23" s="67"/>
     </row>
-    <row r="24" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A24" s="165">
+    <row r="24" spans="1:48" ht="12.75" customHeight="1">
+      <c r="A24" s="158">
         <v>2022090601</v>
       </c>
-      <c r="B24" s="165"/>
-      <c r="C24" s="165"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="158"/>
       <c r="D24" s="155"/>
       <c r="E24" s="155"/>
       <c r="F24" s="155"/>
@@ -14722,12 +14797,12 @@
       <c r="K24" s="155"/>
       <c r="L24" s="155"/>
       <c r="M24" s="155"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="158"/>
-      <c r="Q24" s="158"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="154"/>
+      <c r="N24" s="160"/>
+      <c r="O24" s="160"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="160"/>
+      <c r="R24" s="166"/>
+      <c r="S24" s="166"/>
       <c r="T24" s="155"/>
       <c r="U24" s="155"/>
       <c r="V24" s="155"/>
@@ -14736,19 +14811,19 @@
       <c r="Y24" s="155"/>
       <c r="Z24" s="155"/>
       <c r="AA24" s="155"/>
-      <c r="AB24" s="156"/>
-      <c r="AC24" s="156"/>
-      <c r="AD24" s="157"/>
-      <c r="AE24" s="157"/>
+      <c r="AB24" s="164"/>
+      <c r="AC24" s="164"/>
+      <c r="AD24" s="165"/>
+      <c r="AE24" s="165"/>
       <c r="AF24" s="68"/>
       <c r="AG24" s="67"/>
     </row>
-    <row r="25" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A25" s="165">
+    <row r="25" spans="1:48" ht="12.75" customHeight="1">
+      <c r="A25" s="158">
         <v>2022090701</v>
       </c>
-      <c r="B25" s="165"/>
-      <c r="C25" s="165"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="158"/>
       <c r="D25" s="155"/>
       <c r="E25" s="155"/>
       <c r="F25" s="155"/>
@@ -14759,12 +14834,12 @@
       <c r="K25" s="155"/>
       <c r="L25" s="155"/>
       <c r="M25" s="155"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="154"/>
-      <c r="S25" s="154"/>
+      <c r="N25" s="160"/>
+      <c r="O25" s="160"/>
+      <c r="P25" s="160"/>
+      <c r="Q25" s="160"/>
+      <c r="R25" s="166"/>
+      <c r="S25" s="166"/>
       <c r="T25" s="155"/>
       <c r="U25" s="155"/>
       <c r="V25" s="155"/>
@@ -14773,19 +14848,19 @@
       <c r="Y25" s="155"/>
       <c r="Z25" s="155"/>
       <c r="AA25" s="155"/>
-      <c r="AB25" s="156"/>
-      <c r="AC25" s="156"/>
-      <c r="AD25" s="157"/>
-      <c r="AE25" s="157"/>
+      <c r="AB25" s="164"/>
+      <c r="AC25" s="164"/>
+      <c r="AD25" s="165"/>
+      <c r="AE25" s="165"/>
       <c r="AF25" s="68"/>
       <c r="AG25" s="67"/>
     </row>
-    <row r="26" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A26" s="165">
+    <row r="26" spans="1:48" ht="12.75" customHeight="1">
+      <c r="A26" s="158">
         <v>2022090801</v>
       </c>
-      <c r="B26" s="165"/>
-      <c r="C26" s="165"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
       <c r="D26" s="155"/>
       <c r="E26" s="155"/>
       <c r="F26" s="155"/>
@@ -14796,12 +14871,12 @@
       <c r="K26" s="155"/>
       <c r="L26" s="155"/>
       <c r="M26" s="155"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="154"/>
-      <c r="S26" s="154"/>
+      <c r="N26" s="160"/>
+      <c r="O26" s="160"/>
+      <c r="P26" s="160"/>
+      <c r="Q26" s="160"/>
+      <c r="R26" s="166"/>
+      <c r="S26" s="166"/>
       <c r="T26" s="155"/>
       <c r="U26" s="155"/>
       <c r="V26" s="155"/>
@@ -14810,19 +14885,19 @@
       <c r="Y26" s="155"/>
       <c r="Z26" s="155"/>
       <c r="AA26" s="155"/>
-      <c r="AB26" s="156"/>
-      <c r="AC26" s="156"/>
-      <c r="AD26" s="157"/>
-      <c r="AE26" s="157"/>
+      <c r="AB26" s="164"/>
+      <c r="AC26" s="164"/>
+      <c r="AD26" s="165"/>
+      <c r="AE26" s="165"/>
       <c r="AF26" s="68"/>
       <c r="AG26" s="67"/>
     </row>
-    <row r="27" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A27" s="165">
+    <row r="27" spans="1:48" ht="12.75" customHeight="1">
+      <c r="A27" s="158">
         <v>2022090901</v>
       </c>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
       <c r="D27" s="155"/>
       <c r="E27" s="155"/>
       <c r="F27" s="155"/>
@@ -14833,12 +14908,12 @@
       <c r="K27" s="155"/>
       <c r="L27" s="155"/>
       <c r="M27" s="155"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="158"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="154"/>
+      <c r="N27" s="160"/>
+      <c r="O27" s="160"/>
+      <c r="P27" s="160"/>
+      <c r="Q27" s="160"/>
+      <c r="R27" s="166"/>
+      <c r="S27" s="166"/>
       <c r="T27" s="155"/>
       <c r="U27" s="155"/>
       <c r="V27" s="155"/>
@@ -14847,19 +14922,19 @@
       <c r="Y27" s="155"/>
       <c r="Z27" s="155"/>
       <c r="AA27" s="155"/>
-      <c r="AB27" s="156"/>
-      <c r="AC27" s="156"/>
-      <c r="AD27" s="157"/>
-      <c r="AE27" s="157"/>
+      <c r="AB27" s="164"/>
+      <c r="AC27" s="164"/>
+      <c r="AD27" s="165"/>
+      <c r="AE27" s="165"/>
       <c r="AF27" s="68"/>
       <c r="AG27" s="67"/>
     </row>
-    <row r="28" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A28" s="165">
+    <row r="28" spans="1:48" ht="12.75" customHeight="1">
+      <c r="A28" s="158">
         <v>2022091001</v>
       </c>
-      <c r="B28" s="165"/>
-      <c r="C28" s="165"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
       <c r="D28" s="155"/>
       <c r="E28" s="155"/>
       <c r="F28" s="155"/>
@@ -14870,12 +14945,12 @@
       <c r="K28" s="155"/>
       <c r="L28" s="155"/>
       <c r="M28" s="155"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="158"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="154"/>
+      <c r="N28" s="160"/>
+      <c r="O28" s="160"/>
+      <c r="P28" s="160"/>
+      <c r="Q28" s="160"/>
+      <c r="R28" s="166"/>
+      <c r="S28" s="166"/>
       <c r="T28" s="155"/>
       <c r="U28" s="155"/>
       <c r="V28" s="155"/>
@@ -14884,19 +14959,19 @@
       <c r="Y28" s="155"/>
       <c r="Z28" s="155"/>
       <c r="AA28" s="155"/>
-      <c r="AB28" s="156"/>
-      <c r="AC28" s="156"/>
-      <c r="AD28" s="157"/>
-      <c r="AE28" s="157"/>
+      <c r="AB28" s="164"/>
+      <c r="AC28" s="164"/>
+      <c r="AD28" s="165"/>
+      <c r="AE28" s="165"/>
       <c r="AF28" s="68"/>
       <c r="AG28" s="67"/>
     </row>
-    <row r="29" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A29" s="165">
+    <row r="29" spans="1:48" ht="12.75" customHeight="1">
+      <c r="A29" s="158">
         <v>2022091101</v>
       </c>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
       <c r="D29" s="155"/>
       <c r="E29" s="155"/>
       <c r="F29" s="155"/>
@@ -14907,12 +14982,12 @@
       <c r="K29" s="155"/>
       <c r="L29" s="155"/>
       <c r="M29" s="155"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="158"/>
-      <c r="Q29" s="158"/>
-      <c r="R29" s="154"/>
-      <c r="S29" s="154"/>
+      <c r="N29" s="160"/>
+      <c r="O29" s="160"/>
+      <c r="P29" s="160"/>
+      <c r="Q29" s="160"/>
+      <c r="R29" s="166"/>
+      <c r="S29" s="166"/>
       <c r="T29" s="155"/>
       <c r="U29" s="155"/>
       <c r="V29" s="155"/>
@@ -14921,19 +14996,19 @@
       <c r="Y29" s="155"/>
       <c r="Z29" s="155"/>
       <c r="AA29" s="155"/>
-      <c r="AB29" s="156"/>
-      <c r="AC29" s="156"/>
-      <c r="AD29" s="157"/>
-      <c r="AE29" s="157"/>
+      <c r="AB29" s="164"/>
+      <c r="AC29" s="164"/>
+      <c r="AD29" s="165"/>
+      <c r="AE29" s="165"/>
       <c r="AF29" s="68"/>
       <c r="AG29" s="67"/>
     </row>
-    <row r="30" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A30" s="165">
+    <row r="30" spans="1:48" ht="12.75" customHeight="1">
+      <c r="A30" s="158">
         <v>2022091201</v>
       </c>
-      <c r="B30" s="165"/>
-      <c r="C30" s="165"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
       <c r="D30" s="155"/>
       <c r="E30" s="155"/>
       <c r="F30" s="155"/>
@@ -14944,12 +15019,12 @@
       <c r="K30" s="155"/>
       <c r="L30" s="155"/>
       <c r="M30" s="155"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="158"/>
-      <c r="Q30" s="158"/>
-      <c r="R30" s="154"/>
-      <c r="S30" s="154"/>
+      <c r="N30" s="160"/>
+      <c r="O30" s="160"/>
+      <c r="P30" s="160"/>
+      <c r="Q30" s="160"/>
+      <c r="R30" s="166"/>
+      <c r="S30" s="166"/>
       <c r="T30" s="155"/>
       <c r="U30" s="155"/>
       <c r="V30" s="155"/>
@@ -14958,19 +15033,19 @@
       <c r="Y30" s="155"/>
       <c r="Z30" s="155"/>
       <c r="AA30" s="155"/>
-      <c r="AB30" s="156"/>
-      <c r="AC30" s="156"/>
-      <c r="AD30" s="157"/>
-      <c r="AE30" s="157"/>
+      <c r="AB30" s="164"/>
+      <c r="AC30" s="164"/>
+      <c r="AD30" s="165"/>
+      <c r="AE30" s="165"/>
       <c r="AF30" s="68"/>
       <c r="AG30" s="67"/>
     </row>
-    <row r="31" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A31" s="165">
+    <row r="31" spans="1:48" ht="12.75" customHeight="1">
+      <c r="A31" s="158">
         <v>2022091301</v>
       </c>
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="158"/>
       <c r="D31" s="155"/>
       <c r="E31" s="155"/>
       <c r="F31" s="155"/>
@@ -14981,12 +15056,12 @@
       <c r="K31" s="155"/>
       <c r="L31" s="155"/>
       <c r="M31" s="155"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="158"/>
-      <c r="Q31" s="158"/>
-      <c r="R31" s="154"/>
-      <c r="S31" s="154"/>
+      <c r="N31" s="160"/>
+      <c r="O31" s="160"/>
+      <c r="P31" s="160"/>
+      <c r="Q31" s="160"/>
+      <c r="R31" s="166"/>
+      <c r="S31" s="166"/>
       <c r="T31" s="155"/>
       <c r="U31" s="155"/>
       <c r="V31" s="155"/>
@@ -14995,19 +15070,19 @@
       <c r="Y31" s="155"/>
       <c r="Z31" s="155"/>
       <c r="AA31" s="155"/>
-      <c r="AB31" s="156"/>
-      <c r="AC31" s="156"/>
-      <c r="AD31" s="157"/>
-      <c r="AE31" s="157"/>
+      <c r="AB31" s="164"/>
+      <c r="AC31" s="164"/>
+      <c r="AD31" s="165"/>
+      <c r="AE31" s="165"/>
       <c r="AF31" s="68"/>
       <c r="AG31" s="67"/>
     </row>
-    <row r="32" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A32" s="165">
+    <row r="32" spans="1:48" ht="12.75" customHeight="1">
+      <c r="A32" s="158">
         <v>2022091401</v>
       </c>
-      <c r="B32" s="165"/>
-      <c r="C32" s="165"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
       <c r="D32" s="155"/>
       <c r="E32" s="155"/>
       <c r="F32" s="155"/>
@@ -15018,12 +15093,12 @@
       <c r="K32" s="155"/>
       <c r="L32" s="155"/>
       <c r="M32" s="155"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="158"/>
-      <c r="Q32" s="158"/>
-      <c r="R32" s="154"/>
-      <c r="S32" s="154"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="160"/>
+      <c r="P32" s="160"/>
+      <c r="Q32" s="160"/>
+      <c r="R32" s="166"/>
+      <c r="S32" s="166"/>
       <c r="T32" s="155"/>
       <c r="U32" s="155"/>
       <c r="V32" s="155"/>
@@ -15032,19 +15107,19 @@
       <c r="Y32" s="155"/>
       <c r="Z32" s="155"/>
       <c r="AA32" s="155"/>
-      <c r="AB32" s="156"/>
-      <c r="AC32" s="156"/>
-      <c r="AD32" s="157"/>
-      <c r="AE32" s="157"/>
+      <c r="AB32" s="164"/>
+      <c r="AC32" s="164"/>
+      <c r="AD32" s="165"/>
+      <c r="AE32" s="165"/>
       <c r="AF32" s="68"/>
       <c r="AG32" s="67"/>
     </row>
     <row r="33" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A33" s="165">
+      <c r="A33" s="158">
         <v>2022091501</v>
       </c>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
       <c r="D33" s="155"/>
       <c r="E33" s="155"/>
       <c r="F33" s="155"/>
@@ -15055,12 +15130,12 @@
       <c r="K33" s="155"/>
       <c r="L33" s="155"/>
       <c r="M33" s="155"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="158"/>
-      <c r="R33" s="154"/>
-      <c r="S33" s="154"/>
+      <c r="N33" s="160"/>
+      <c r="O33" s="160"/>
+      <c r="P33" s="160"/>
+      <c r="Q33" s="160"/>
+      <c r="R33" s="166"/>
+      <c r="S33" s="166"/>
       <c r="T33" s="155"/>
       <c r="U33" s="155"/>
       <c r="V33" s="155"/>
@@ -15069,19 +15144,19 @@
       <c r="Y33" s="155"/>
       <c r="Z33" s="155"/>
       <c r="AA33" s="155"/>
-      <c r="AB33" s="156"/>
-      <c r="AC33" s="156"/>
-      <c r="AD33" s="157"/>
-      <c r="AE33" s="157"/>
+      <c r="AB33" s="164"/>
+      <c r="AC33" s="164"/>
+      <c r="AD33" s="165"/>
+      <c r="AE33" s="165"/>
       <c r="AF33" s="68"/>
       <c r="AG33" s="67"/>
     </row>
     <row r="34" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A34" s="165">
+      <c r="A34" s="158">
         <v>2022091601</v>
       </c>
-      <c r="B34" s="165"/>
-      <c r="C34" s="165"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
       <c r="D34" s="155"/>
       <c r="E34" s="155"/>
       <c r="F34" s="155"/>
@@ -15092,12 +15167,12 @@
       <c r="K34" s="155"/>
       <c r="L34" s="155"/>
       <c r="M34" s="155"/>
-      <c r="N34" s="158"/>
-      <c r="O34" s="158"/>
-      <c r="P34" s="158"/>
-      <c r="Q34" s="158"/>
-      <c r="R34" s="154"/>
-      <c r="S34" s="154"/>
+      <c r="N34" s="160"/>
+      <c r="O34" s="160"/>
+      <c r="P34" s="160"/>
+      <c r="Q34" s="160"/>
+      <c r="R34" s="166"/>
+      <c r="S34" s="166"/>
       <c r="T34" s="155"/>
       <c r="U34" s="155"/>
       <c r="V34" s="155"/>
@@ -15106,19 +15181,19 @@
       <c r="Y34" s="155"/>
       <c r="Z34" s="155"/>
       <c r="AA34" s="155"/>
-      <c r="AB34" s="156"/>
-      <c r="AC34" s="156"/>
-      <c r="AD34" s="157"/>
-      <c r="AE34" s="157"/>
+      <c r="AB34" s="164"/>
+      <c r="AC34" s="164"/>
+      <c r="AD34" s="165"/>
+      <c r="AE34" s="165"/>
       <c r="AF34" s="68"/>
       <c r="AG34" s="67"/>
     </row>
     <row r="35" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A35" s="165">
+      <c r="A35" s="158">
         <v>2022091701</v>
       </c>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
       <c r="D35" s="155"/>
       <c r="E35" s="155"/>
       <c r="F35" s="155"/>
@@ -15129,12 +15204,12 @@
       <c r="K35" s="155"/>
       <c r="L35" s="155"/>
       <c r="M35" s="155"/>
-      <c r="N35" s="158"/>
-      <c r="O35" s="158"/>
-      <c r="P35" s="158"/>
-      <c r="Q35" s="158"/>
-      <c r="R35" s="154"/>
-      <c r="S35" s="154"/>
+      <c r="N35" s="160"/>
+      <c r="O35" s="160"/>
+      <c r="P35" s="160"/>
+      <c r="Q35" s="160"/>
+      <c r="R35" s="166"/>
+      <c r="S35" s="166"/>
       <c r="T35" s="155"/>
       <c r="U35" s="155"/>
       <c r="V35" s="155"/>
@@ -15143,53 +15218,53 @@
       <c r="Y35" s="155"/>
       <c r="Z35" s="155"/>
       <c r="AA35" s="155"/>
-      <c r="AB35" s="156"/>
-      <c r="AC35" s="156"/>
-      <c r="AD35" s="157"/>
-      <c r="AE35" s="157"/>
+      <c r="AB35" s="164"/>
+      <c r="AC35" s="164"/>
+      <c r="AD35" s="165"/>
+      <c r="AE35" s="165"/>
       <c r="AF35" s="68"/>
       <c r="AG35" s="67"/>
     </row>
     <row r="36" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A36" s="159" t="s">
+      <c r="A36" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="160"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="162"/>
-      <c r="E36" s="163"/>
-      <c r="F36" s="163"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
-      <c r="N36" s="151"/>
-      <c r="O36" s="151"/>
-      <c r="P36" s="149">
+      <c r="B36" s="168"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="170"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="173"/>
+      <c r="K36" s="173"/>
+      <c r="L36" s="173"/>
+      <c r="M36" s="173"/>
+      <c r="N36" s="173"/>
+      <c r="O36" s="173"/>
+      <c r="P36" s="174">
         <f>SUM(P19:Q35)</f>
         <v>2</v>
       </c>
-      <c r="Q36" s="149"/>
-      <c r="R36" s="150">
+      <c r="Q36" s="174"/>
+      <c r="R36" s="175">
         <f>SUM(R19:S35)</f>
         <v>26</v>
       </c>
-      <c r="S36" s="150"/>
-      <c r="T36" s="151"/>
-      <c r="U36" s="151"/>
-      <c r="V36" s="151"/>
-      <c r="W36" s="151"/>
-      <c r="X36" s="151"/>
-      <c r="Y36" s="151"/>
-      <c r="Z36" s="151"/>
-      <c r="AA36" s="151"/>
-      <c r="AB36" s="152"/>
-      <c r="AC36" s="152"/>
-      <c r="AD36" s="153"/>
-      <c r="AE36" s="153"/>
+      <c r="S36" s="175"/>
+      <c r="T36" s="173"/>
+      <c r="U36" s="173"/>
+      <c r="V36" s="173"/>
+      <c r="W36" s="173"/>
+      <c r="X36" s="173"/>
+      <c r="Y36" s="173"/>
+      <c r="Z36" s="173"/>
+      <c r="AA36" s="173"/>
+      <c r="AB36" s="176"/>
+      <c r="AC36" s="176"/>
+      <c r="AD36" s="177"/>
+      <c r="AE36" s="177"/>
       <c r="AF36" s="68"/>
       <c r="AG36" s="67"/>
     </row>
@@ -15475,25 +15550,191 @@
     </row>
   </sheetData>
   <mergeCells count="228">
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="N15:P16"/>
-    <mergeCell ref="Q15:R16"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="H20:J20"/>
@@ -15518,199 +15759,36 @@
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="Q15:R16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q15 T19:U21" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q15" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$AO$22:$AO$26</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T22:U36" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T19:U21" xr:uid="{6612CEEE-10E1-CD4A-A4BD-BBDEF010EEF0}">
+      <formula1>$AV$16:$AV$20</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -15781,136 +15859,136 @@
       <c r="AH1" s="148"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="127" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="127" t="s">
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="127" t="s">
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="129"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="131"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="127" t="s">
+      <c r="AG2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="129"/>
+      <c r="AH2" s="131"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="121" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="121" t="s">
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="121" t="s">
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="121" t="s">
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="133"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="121" t="s">
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="AH3" s="123"/>
+      <c r="AH3" s="134"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="124"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="125"/>
-      <c r="AC4" s="125"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="126"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="135"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="135"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="135"/>
+      <c r="AH4" s="137"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="93"/>
@@ -17100,18 +17178,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="G3:M4"/>
+    <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="G3:M4"/>
-    <mergeCell ref="AE3:AF4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -17182,132 +17260,132 @@
       <c r="AH1" s="148"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="127" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="127" t="s">
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="129"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="131"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="127" t="s">
+      <c r="AG2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="129"/>
+      <c r="AH2" s="131"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="121" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="121" t="s">
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="121" t="s">
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="133"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="133"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="121" t="s">
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="AH3" s="123"/>
+      <c r="AH3" s="134"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="124"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="125"/>
-      <c r="AC4" s="125"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="126"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="135"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="135"/>
+      <c r="AH4" s="137"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="93" t="s">
@@ -18177,16 +18255,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
+    <mergeCell ref="N3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:AD2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
-    <mergeCell ref="N3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -18254,132 +18332,132 @@
       <c r="AH1" s="148"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="127" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="127" t="s">
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="130"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="127" t="s">
+      <c r="AG2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="129"/>
+      <c r="AH2" s="131"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="121" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="121" t="s">
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="121" t="s">
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="133"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="133"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="121" t="s">
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="AH3" s="123"/>
+      <c r="AH3" s="134"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="124"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="125"/>
-      <c r="AC4" s="125"/>
-      <c r="AD4" s="125"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="126"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="135"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="135"/>
+      <c r="AH4" s="137"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="178" t="s">
@@ -19339,17 +19417,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="N3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="A5:F6"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -19417,189 +19495,189 @@
       <c r="AH1" s="148"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="127" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="127" t="s">
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="127" t="s">
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="129"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="131"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="127" t="s">
+      <c r="AG2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="129"/>
+      <c r="AH2" s="131"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="121" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="121" t="s">
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="121" t="s">
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="132" t="s">
         <v>212</v>
       </c>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="121" t="s">
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="133"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="121" t="s">
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="AH3" s="123"/>
+      <c r="AH3" s="134"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="124"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="125"/>
-      <c r="AC4" s="125"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="126"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="135"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="135"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="135"/>
+      <c r="AH4" s="137"/>
     </row>
     <row r="5" spans="1:178" ht="14.25" customHeight="1">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="190" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="196" t="s">
+      <c r="B5" s="191"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="197"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="184" t="s">
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="194"/>
+      <c r="O5" s="194"/>
+      <c r="P5" s="195"/>
+      <c r="Q5" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="185"/>
-      <c r="S5" s="185"/>
-      <c r="T5" s="185"/>
-      <c r="U5" s="185"/>
-      <c r="V5" s="185"/>
-      <c r="W5" s="185"/>
-      <c r="X5" s="185"/>
-      <c r="Y5" s="185"/>
-      <c r="Z5" s="185"/>
-      <c r="AA5" s="186"/>
-      <c r="AB5" s="190" t="s">
+      <c r="R5" s="191"/>
+      <c r="S5" s="191"/>
+      <c r="T5" s="191"/>
+      <c r="U5" s="191"/>
+      <c r="V5" s="191"/>
+      <c r="W5" s="191"/>
+      <c r="X5" s="191"/>
+      <c r="Y5" s="191"/>
+      <c r="Z5" s="191"/>
+      <c r="AA5" s="192"/>
+      <c r="AB5" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="191"/>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="192"/>
+      <c r="AC5" s="185"/>
+      <c r="AD5" s="185"/>
+      <c r="AE5" s="185"/>
+      <c r="AF5" s="185"/>
+      <c r="AG5" s="185"/>
+      <c r="AH5" s="186"/>
     </row>
     <row r="6" spans="1:178" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="199" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="189"/>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="201"/>
       <c r="F6" s="109" t="s">
         <v>37</v>
       </c>
@@ -19613,19 +19691,19 @@
         <v>56</v>
       </c>
       <c r="J6" s="95"/>
-      <c r="K6" s="199"/>
-      <c r="L6" s="200"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="200"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="187" t="s">
+      <c r="K6" s="196"/>
+      <c r="L6" s="197"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="197"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="198"/>
+      <c r="Q6" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="188"/>
-      <c r="S6" s="188"/>
-      <c r="T6" s="188"/>
-      <c r="U6" s="189"/>
+      <c r="R6" s="200"/>
+      <c r="S6" s="200"/>
+      <c r="T6" s="200"/>
+      <c r="U6" s="201"/>
       <c r="V6" s="93" t="s">
         <v>61</v>
       </c>
@@ -19636,13 +19714,13 @@
       <c r="AA6" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" s="193"/>
-      <c r="AC6" s="194"/>
-      <c r="AD6" s="194"/>
-      <c r="AE6" s="194"/>
-      <c r="AF6" s="194"/>
-      <c r="AG6" s="194"/>
-      <c r="AH6" s="195"/>
+      <c r="AB6" s="187"/>
+      <c r="AC6" s="188"/>
+      <c r="AD6" s="188"/>
+      <c r="AE6" s="188"/>
+      <c r="AF6" s="188"/>
+      <c r="AG6" s="188"/>
+      <c r="AH6" s="189"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="23"/>
       <c r="AK6" s="23"/>
@@ -20782,6 +20860,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="Q6:U6"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="AB5:AH6"/>
@@ -20798,8 +20878,6 @@
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="Q6:U6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -20868,136 +20946,136 @@
       <c r="AH1" s="148"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="127" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="127" t="s">
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="127" t="s">
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="129"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="131"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="127" t="s">
+      <c r="AG2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="129"/>
+      <c r="AH2" s="131"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="121" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="121" t="s">
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="121" t="s">
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="132" t="s">
         <v>213</v>
       </c>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="121" t="s">
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="133"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="121" t="s">
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="AH3" s="123"/>
+      <c r="AH3" s="134"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="124"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="125"/>
-      <c r="AC4" s="125"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="124"/>
-      <c r="AH4" s="126"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="135"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="135"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="135"/>
+      <c r="AH4" s="137"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="111"/>
@@ -22489,18 +22567,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/02_詳細設計書/02_内部レビュー/チーム2/詳細設計書_勤怠情報詳細.xlsx
+++ b/02_詳細設計書/02_内部レビュー/チーム2/詳細設計書_勤怠情報詳細.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFB6E97-52C5-874A-9C31-72910B8A9D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7251AE83-EFD7-CA44-A1C0-49E6DC2FB5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" tabRatio="774" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="229">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -1100,13 +1100,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>勤怠情報一覧画面から月を条件検索し、その結果を一覧表示する</t>
-    <rPh sb="0" eb="29">
-      <t>ショキヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>勤怠情報一覧に戻る</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1504,6 +1497,17 @@
   </si>
   <si>
     <t>1. 出勤</t>
+  </si>
+  <si>
+    <t>勤怠情報一覧画面から月ごとに検索すると、画面レイアウトと同様に一覧形式で結果が表示され、社員IDや氏名、所属などの情報が表示されます。</t>
+    <rPh sb="0" eb="29">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>日付検索選択ボックスや状態検索選択ボックスを選択するチェック</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -2216,6 +2220,15 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2411,6 +2424,24 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2429,15 +2460,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2454,15 +2476,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2538,15 +2551,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5930,72 +5934,72 @@
     </row>
     <row r="4" spans="1:176" ht="15" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="141"/>
-      <c r="S4" s="141"/>
-      <c r="T4" s="141"/>
-      <c r="U4" s="141"/>
-      <c r="V4" s="141"/>
-      <c r="W4" s="141"/>
-      <c r="X4" s="141"/>
-      <c r="Y4" s="141"/>
-      <c r="Z4" s="141"/>
-      <c r="AA4" s="141"/>
-      <c r="AB4" s="141"/>
-      <c r="AC4" s="141"/>
-      <c r="AD4" s="141"/>
-      <c r="AE4" s="141"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="144"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="144"/>
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="144"/>
+      <c r="AC4" s="144"/>
+      <c r="AD4" s="144"/>
+      <c r="AE4" s="144"/>
       <c r="AF4" s="12"/>
     </row>
     <row r="5" spans="1:176" ht="15" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="141"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="141"/>
-      <c r="AB5" s="141"/>
-      <c r="AC5" s="141"/>
-      <c r="AD5" s="141"/>
-      <c r="AE5" s="141"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="144"/>
+      <c r="AA5" s="144"/>
+      <c r="AB5" s="144"/>
+      <c r="AC5" s="144"/>
+      <c r="AD5" s="144"/>
+      <c r="AE5" s="144"/>
       <c r="AF5" s="12"/>
     </row>
     <row r="6" spans="1:176" ht="15" customHeight="1">
@@ -6167,124 +6171,124 @@
     </row>
     <row r="11" spans="1:176" ht="15" customHeight="1">
       <c r="A11" s="11"/>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="129" t="s">
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="129" t="s">
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
-      <c r="V11" s="130"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="130"/>
-      <c r="Z11" s="130"/>
-      <c r="AA11" s="131"/>
-      <c r="AB11" s="129" t="s">
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
+      <c r="AA11" s="134"/>
+      <c r="AB11" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="AC11" s="131"/>
-      <c r="AD11" s="129" t="s">
+      <c r="AC11" s="134"/>
+      <c r="AD11" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AE11" s="131"/>
+      <c r="AE11" s="134"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="11"/>
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="132" t="s">
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="142" t="s">
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="143"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="143"/>
-      <c r="Q12" s="143"/>
-      <c r="R12" s="143"/>
-      <c r="S12" s="143"/>
-      <c r="T12" s="143"/>
-      <c r="U12" s="143"/>
-      <c r="V12" s="143"/>
-      <c r="W12" s="143"/>
-      <c r="X12" s="143"/>
-      <c r="Y12" s="143"/>
-      <c r="Z12" s="143"/>
-      <c r="AA12" s="144"/>
-      <c r="AB12" s="142" t="s">
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="146"/>
+      <c r="S12" s="146"/>
+      <c r="T12" s="146"/>
+      <c r="U12" s="146"/>
+      <c r="V12" s="146"/>
+      <c r="W12" s="146"/>
+      <c r="X12" s="146"/>
+      <c r="Y12" s="146"/>
+      <c r="Z12" s="146"/>
+      <c r="AA12" s="147"/>
+      <c r="AB12" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="AC12" s="144"/>
-      <c r="AD12" s="132" t="s">
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="AE12" s="134"/>
+      <c r="AE12" s="137"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="146"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="146"/>
-      <c r="S13" s="146"/>
-      <c r="T13" s="146"/>
-      <c r="U13" s="146"/>
-      <c r="V13" s="146"/>
-      <c r="W13" s="146"/>
-      <c r="X13" s="146"/>
-      <c r="Y13" s="146"/>
-      <c r="Z13" s="146"/>
-      <c r="AA13" s="147"/>
-      <c r="AB13" s="145"/>
-      <c r="AC13" s="147"/>
-      <c r="AD13" s="135"/>
-      <c r="AE13" s="137"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="149"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="150"/>
+      <c r="AB13" s="148"/>
+      <c r="AC13" s="150"/>
+      <c r="AD13" s="138"/>
+      <c r="AE13" s="140"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
@@ -6489,630 +6493,630 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="138" t="s">
+      <c r="B20" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="138" t="s">
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="138" t="s">
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="139"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="139"/>
-      <c r="O20" s="139"/>
-      <c r="P20" s="139"/>
-      <c r="Q20" s="139"/>
-      <c r="R20" s="139"/>
-      <c r="S20" s="139"/>
-      <c r="T20" s="139"/>
-      <c r="U20" s="139"/>
-      <c r="V20" s="139"/>
-      <c r="W20" s="139"/>
-      <c r="X20" s="139"/>
-      <c r="Y20" s="139"/>
-      <c r="Z20" s="139"/>
-      <c r="AA20" s="139"/>
-      <c r="AB20" s="140"/>
-      <c r="AC20" s="138" t="s">
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
+      <c r="S20" s="142"/>
+      <c r="T20" s="142"/>
+      <c r="U20" s="142"/>
+      <c r="V20" s="142"/>
+      <c r="W20" s="142"/>
+      <c r="X20" s="142"/>
+      <c r="Y20" s="142"/>
+      <c r="Z20" s="142"/>
+      <c r="AA20" s="142"/>
+      <c r="AB20" s="143"/>
+      <c r="AC20" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="AD20" s="139"/>
-      <c r="AE20" s="140"/>
+      <c r="AD20" s="142"/>
+      <c r="AE20" s="143"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="120" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="117" t="s">
+      <c r="B21" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="117" t="s">
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="118"/>
-      <c r="AB21" s="119"/>
-      <c r="AC21" s="117" t="s">
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="121"/>
+      <c r="R21" s="121"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="121"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="121"/>
+      <c r="W21" s="121"/>
+      <c r="X21" s="121"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="121"/>
+      <c r="AA21" s="121"/>
+      <c r="AB21" s="122"/>
+      <c r="AC21" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="AD21" s="118"/>
-      <c r="AE21" s="119"/>
+      <c r="AD21" s="121"/>
+      <c r="AE21" s="122"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="118"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="118"/>
-      <c r="AB22" s="119"/>
-      <c r="AC22" s="117"/>
-      <c r="AD22" s="118"/>
-      <c r="AE22" s="119"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="121"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="121"/>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="121"/>
+      <c r="AA22" s="121"/>
+      <c r="AB22" s="122"/>
+      <c r="AC22" s="120"/>
+      <c r="AD22" s="121"/>
+      <c r="AE22" s="122"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="119"/>
-      <c r="AC23" s="117"/>
-      <c r="AD23" s="118"/>
-      <c r="AE23" s="119"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="121"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="121"/>
+      <c r="U23" s="121"/>
+      <c r="V23" s="121"/>
+      <c r="W23" s="121"/>
+      <c r="X23" s="121"/>
+      <c r="Y23" s="121"/>
+      <c r="Z23" s="121"/>
+      <c r="AA23" s="121"/>
+      <c r="AB23" s="122"/>
+      <c r="AC23" s="120"/>
+      <c r="AD23" s="121"/>
+      <c r="AE23" s="122"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="118"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="118"/>
-      <c r="X24" s="118"/>
-      <c r="Y24" s="118"/>
-      <c r="Z24" s="118"/>
-      <c r="AA24" s="118"/>
-      <c r="AB24" s="119"/>
-      <c r="AC24" s="117"/>
-      <c r="AD24" s="118"/>
-      <c r="AE24" s="119"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="121"/>
+      <c r="AA24" s="121"/>
+      <c r="AB24" s="122"/>
+      <c r="AC24" s="120"/>
+      <c r="AD24" s="121"/>
+      <c r="AE24" s="122"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="118"/>
-      <c r="Z25" s="118"/>
-      <c r="AA25" s="118"/>
-      <c r="AB25" s="119"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="118"/>
-      <c r="AE25" s="119"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="121"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="121"/>
+      <c r="AA25" s="121"/>
+      <c r="AB25" s="122"/>
+      <c r="AC25" s="120"/>
+      <c r="AD25" s="121"/>
+      <c r="AE25" s="122"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="118"/>
-      <c r="X26" s="118"/>
-      <c r="Y26" s="118"/>
-      <c r="Z26" s="118"/>
-      <c r="AA26" s="118"/>
-      <c r="AB26" s="119"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="118"/>
-      <c r="AE26" s="119"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="121"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="121"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="121"/>
+      <c r="W26" s="121"/>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="121"/>
+      <c r="Z26" s="121"/>
+      <c r="AA26" s="121"/>
+      <c r="AB26" s="122"/>
+      <c r="AC26" s="120"/>
+      <c r="AD26" s="121"/>
+      <c r="AE26" s="122"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="118"/>
-      <c r="X27" s="118"/>
-      <c r="Y27" s="118"/>
-      <c r="Z27" s="118"/>
-      <c r="AA27" s="118"/>
-      <c r="AB27" s="119"/>
-      <c r="AC27" s="117"/>
-      <c r="AD27" s="118"/>
-      <c r="AE27" s="119"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="121"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="121"/>
+      <c r="W27" s="121"/>
+      <c r="X27" s="121"/>
+      <c r="Y27" s="121"/>
+      <c r="Z27" s="121"/>
+      <c r="AA27" s="121"/>
+      <c r="AB27" s="122"/>
+      <c r="AC27" s="120"/>
+      <c r="AD27" s="121"/>
+      <c r="AE27" s="122"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="118"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="118"/>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="118"/>
-      <c r="X28" s="118"/>
-      <c r="Y28" s="118"/>
-      <c r="Z28" s="118"/>
-      <c r="AA28" s="118"/>
-      <c r="AB28" s="119"/>
-      <c r="AC28" s="117"/>
-      <c r="AD28" s="118"/>
-      <c r="AE28" s="119"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="121"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="121"/>
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="121"/>
+      <c r="AB28" s="122"/>
+      <c r="AC28" s="120"/>
+      <c r="AD28" s="121"/>
+      <c r="AE28" s="122"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="118"/>
-      <c r="N29" s="118"/>
-      <c r="O29" s="118"/>
-      <c r="P29" s="118"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="118"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="118"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="118"/>
-      <c r="W29" s="118"/>
-      <c r="X29" s="118"/>
-      <c r="Y29" s="118"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="118"/>
-      <c r="AB29" s="119"/>
-      <c r="AC29" s="117"/>
-      <c r="AD29" s="118"/>
-      <c r="AE29" s="119"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
+      <c r="Y29" s="121"/>
+      <c r="Z29" s="121"/>
+      <c r="AA29" s="121"/>
+      <c r="AB29" s="122"/>
+      <c r="AC29" s="120"/>
+      <c r="AD29" s="121"/>
+      <c r="AE29" s="122"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="127"/>
-      <c r="U30" s="127"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="127"/>
-      <c r="X30" s="127"/>
-      <c r="Y30" s="127"/>
-      <c r="Z30" s="127"/>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="126"/>
-      <c r="AD30" s="127"/>
-      <c r="AE30" s="128"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="130"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="130"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="130"/>
+      <c r="R30" s="130"/>
+      <c r="S30" s="130"/>
+      <c r="T30" s="130"/>
+      <c r="U30" s="130"/>
+      <c r="V30" s="130"/>
+      <c r="W30" s="130"/>
+      <c r="X30" s="130"/>
+      <c r="Y30" s="130"/>
+      <c r="Z30" s="130"/>
+      <c r="AA30" s="130"/>
+      <c r="AB30" s="131"/>
+      <c r="AC30" s="129"/>
+      <c r="AD30" s="130"/>
+      <c r="AE30" s="131"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="127"/>
-      <c r="U31" s="127"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="127"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="126"/>
-      <c r="AD31" s="127"/>
-      <c r="AE31" s="128"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="130"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="130"/>
+      <c r="T31" s="130"/>
+      <c r="U31" s="130"/>
+      <c r="V31" s="130"/>
+      <c r="W31" s="130"/>
+      <c r="X31" s="130"/>
+      <c r="Y31" s="130"/>
+      <c r="Z31" s="130"/>
+      <c r="AA31" s="130"/>
+      <c r="AB31" s="131"/>
+      <c r="AC31" s="129"/>
+      <c r="AD31" s="130"/>
+      <c r="AE31" s="131"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="123"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="127"/>
-      <c r="T32" s="127"/>
-      <c r="U32" s="127"/>
-      <c r="V32" s="127"/>
-      <c r="W32" s="127"/>
-      <c r="X32" s="127"/>
-      <c r="Y32" s="127"/>
-      <c r="Z32" s="127"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="126"/>
-      <c r="AD32" s="127"/>
-      <c r="AE32" s="128"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="130"/>
+      <c r="N32" s="130"/>
+      <c r="O32" s="130"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="130"/>
+      <c r="R32" s="130"/>
+      <c r="S32" s="130"/>
+      <c r="T32" s="130"/>
+      <c r="U32" s="130"/>
+      <c r="V32" s="130"/>
+      <c r="W32" s="130"/>
+      <c r="X32" s="130"/>
+      <c r="Y32" s="130"/>
+      <c r="Z32" s="130"/>
+      <c r="AA32" s="130"/>
+      <c r="AB32" s="131"/>
+      <c r="AC32" s="129"/>
+      <c r="AD32" s="130"/>
+      <c r="AE32" s="131"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="123"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="127"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="127"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="127"/>
-      <c r="T33" s="127"/>
-      <c r="U33" s="127"/>
-      <c r="V33" s="127"/>
-      <c r="W33" s="127"/>
-      <c r="X33" s="127"/>
-      <c r="Y33" s="127"/>
-      <c r="Z33" s="127"/>
-      <c r="AA33" s="127"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="126"/>
-      <c r="AD33" s="127"/>
-      <c r="AE33" s="128"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="130"/>
+      <c r="R33" s="130"/>
+      <c r="S33" s="130"/>
+      <c r="T33" s="130"/>
+      <c r="U33" s="130"/>
+      <c r="V33" s="130"/>
+      <c r="W33" s="130"/>
+      <c r="X33" s="130"/>
+      <c r="Y33" s="130"/>
+      <c r="Z33" s="130"/>
+      <c r="AA33" s="130"/>
+      <c r="AB33" s="131"/>
+      <c r="AC33" s="129"/>
+      <c r="AD33" s="130"/>
+      <c r="AE33" s="131"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="123"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="126"/>
-      <c r="K34" s="127"/>
-      <c r="L34" s="127"/>
-      <c r="M34" s="127"/>
-      <c r="N34" s="127"/>
-      <c r="O34" s="127"/>
-      <c r="P34" s="127"/>
-      <c r="Q34" s="127"/>
-      <c r="R34" s="127"/>
-      <c r="S34" s="127"/>
-      <c r="T34" s="127"/>
-      <c r="U34" s="127"/>
-      <c r="V34" s="127"/>
-      <c r="W34" s="127"/>
-      <c r="X34" s="127"/>
-      <c r="Y34" s="127"/>
-      <c r="Z34" s="127"/>
-      <c r="AA34" s="127"/>
-      <c r="AB34" s="128"/>
-      <c r="AC34" s="126"/>
-      <c r="AD34" s="127"/>
-      <c r="AE34" s="128"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="130"/>
+      <c r="L34" s="130"/>
+      <c r="M34" s="130"/>
+      <c r="N34" s="130"/>
+      <c r="O34" s="130"/>
+      <c r="P34" s="130"/>
+      <c r="Q34" s="130"/>
+      <c r="R34" s="130"/>
+      <c r="S34" s="130"/>
+      <c r="T34" s="130"/>
+      <c r="U34" s="130"/>
+      <c r="V34" s="130"/>
+      <c r="W34" s="130"/>
+      <c r="X34" s="130"/>
+      <c r="Y34" s="130"/>
+      <c r="Z34" s="130"/>
+      <c r="AA34" s="130"/>
+      <c r="AB34" s="131"/>
+      <c r="AC34" s="129"/>
+      <c r="AD34" s="130"/>
+      <c r="AE34" s="131"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="123"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="127"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="127"/>
-      <c r="O35" s="127"/>
-      <c r="P35" s="127"/>
-      <c r="Q35" s="127"/>
-      <c r="R35" s="127"/>
-      <c r="S35" s="127"/>
-      <c r="T35" s="127"/>
-      <c r="U35" s="127"/>
-      <c r="V35" s="127"/>
-      <c r="W35" s="127"/>
-      <c r="X35" s="127"/>
-      <c r="Y35" s="127"/>
-      <c r="Z35" s="127"/>
-      <c r="AA35" s="127"/>
-      <c r="AB35" s="128"/>
-      <c r="AC35" s="126"/>
-      <c r="AD35" s="127"/>
-      <c r="AE35" s="128"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="130"/>
+      <c r="O35" s="130"/>
+      <c r="P35" s="130"/>
+      <c r="Q35" s="130"/>
+      <c r="R35" s="130"/>
+      <c r="S35" s="130"/>
+      <c r="T35" s="130"/>
+      <c r="U35" s="130"/>
+      <c r="V35" s="130"/>
+      <c r="W35" s="130"/>
+      <c r="X35" s="130"/>
+      <c r="Y35" s="130"/>
+      <c r="Z35" s="130"/>
+      <c r="AA35" s="130"/>
+      <c r="AB35" s="131"/>
+      <c r="AC35" s="129"/>
+      <c r="AD35" s="130"/>
+      <c r="AE35" s="131"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="127"/>
-      <c r="L36" s="127"/>
-      <c r="M36" s="127"/>
-      <c r="N36" s="127"/>
-      <c r="O36" s="127"/>
-      <c r="P36" s="127"/>
-      <c r="Q36" s="127"/>
-      <c r="R36" s="127"/>
-      <c r="S36" s="127"/>
-      <c r="T36" s="127"/>
-      <c r="U36" s="127"/>
-      <c r="V36" s="127"/>
-      <c r="W36" s="127"/>
-      <c r="X36" s="127"/>
-      <c r="Y36" s="127"/>
-      <c r="Z36" s="127"/>
-      <c r="AA36" s="127"/>
-      <c r="AB36" s="128"/>
-      <c r="AC36" s="126"/>
-      <c r="AD36" s="127"/>
-      <c r="AE36" s="128"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="130"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="130"/>
+      <c r="O36" s="130"/>
+      <c r="P36" s="130"/>
+      <c r="Q36" s="130"/>
+      <c r="R36" s="130"/>
+      <c r="S36" s="130"/>
+      <c r="T36" s="130"/>
+      <c r="U36" s="130"/>
+      <c r="V36" s="130"/>
+      <c r="W36" s="130"/>
+      <c r="X36" s="130"/>
+      <c r="Y36" s="130"/>
+      <c r="Z36" s="130"/>
+      <c r="AA36" s="130"/>
+      <c r="AB36" s="131"/>
+      <c r="AC36" s="129"/>
+      <c r="AD36" s="130"/>
+      <c r="AE36" s="131"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="126"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="127"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="127"/>
-      <c r="N37" s="127"/>
-      <c r="O37" s="127"/>
-      <c r="P37" s="127"/>
-      <c r="Q37" s="127"/>
-      <c r="R37" s="127"/>
-      <c r="S37" s="127"/>
-      <c r="T37" s="127"/>
-      <c r="U37" s="127"/>
-      <c r="V37" s="127"/>
-      <c r="W37" s="127"/>
-      <c r="X37" s="127"/>
-      <c r="Y37" s="127"/>
-      <c r="Z37" s="127"/>
-      <c r="AA37" s="127"/>
-      <c r="AB37" s="128"/>
-      <c r="AC37" s="126"/>
-      <c r="AD37" s="127"/>
-      <c r="AE37" s="128"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="129"/>
+      <c r="K37" s="130"/>
+      <c r="L37" s="130"/>
+      <c r="M37" s="130"/>
+      <c r="N37" s="130"/>
+      <c r="O37" s="130"/>
+      <c r="P37" s="130"/>
+      <c r="Q37" s="130"/>
+      <c r="R37" s="130"/>
+      <c r="S37" s="130"/>
+      <c r="T37" s="130"/>
+      <c r="U37" s="130"/>
+      <c r="V37" s="130"/>
+      <c r="W37" s="130"/>
+      <c r="X37" s="130"/>
+      <c r="Y37" s="130"/>
+      <c r="Z37" s="130"/>
+      <c r="AA37" s="130"/>
+      <c r="AB37" s="131"/>
+      <c r="AC37" s="129"/>
+      <c r="AD37" s="130"/>
+      <c r="AE37" s="131"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -7268,171 +7272,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="208"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="211"/>
+      <c r="AB1" s="211"/>
+      <c r="AC1" s="211"/>
+      <c r="AD1" s="211"/>
+      <c r="AE1" s="211"/>
+      <c r="AF1" s="211"/>
+      <c r="AG1" s="211"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="209" t="s">
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="209" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="210"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="210"/>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="211"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="213"/>
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
       <c r="AD2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="17"/>
-      <c r="AF2" s="209" t="s">
+      <c r="AF2" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="211"/>
+      <c r="AG2" s="214"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="202" t="str">
+      <c r="A3" s="205" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="202" t="str">
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="205" t="str">
         <f>表紙!G12</f>
         <v>勤怠情報・一覧登録</v>
       </c>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="202" t="str">
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="205" t="str">
         <f>表紙!M12</f>
         <v>勤怠管理情報詳細一覧 / 更新 / 削除</v>
       </c>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="206"/>
-      <c r="Z3" s="206"/>
-      <c r="AA3" s="206"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="203"/>
-      <c r="AD3" s="202" t="str">
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="209"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="206"/>
+      <c r="AD3" s="205" t="str">
         <f>表紙!AB12</f>
         <v>NTS</v>
       </c>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="202" t="str">
+      <c r="AE3" s="206"/>
+      <c r="AF3" s="205" t="str">
         <f>表紙!AD12</f>
         <v>司徒 健斌</v>
       </c>
-      <c r="AG3" s="203"/>
+      <c r="AG3" s="206"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="204"/>
-      <c r="B4" s="207"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="205"/>
-      <c r="AD4" s="204"/>
-      <c r="AE4" s="205"/>
-      <c r="AF4" s="204"/>
-      <c r="AG4" s="205"/>
+      <c r="A4" s="207"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="210"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="210"/>
+      <c r="O4" s="210"/>
+      <c r="P4" s="210"/>
+      <c r="Q4" s="210"/>
+      <c r="R4" s="210"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="210"/>
+      <c r="U4" s="210"/>
+      <c r="V4" s="210"/>
+      <c r="W4" s="210"/>
+      <c r="X4" s="210"/>
+      <c r="Y4" s="210"/>
+      <c r="Z4" s="210"/>
+      <c r="AA4" s="210"/>
+      <c r="AB4" s="210"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="208"/>
+      <c r="AF4" s="207"/>
+      <c r="AG4" s="208"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -7645,94 +7649,94 @@
     </row>
     <row r="7" spans="1:177" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="30"/>
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="217" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="224"/>
-      <c r="D7" s="214" t="s">
+      <c r="C7" s="227"/>
+      <c r="D7" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="224"/>
-      <c r="H7" s="214" t="s">
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="217" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="223"/>
-      <c r="J7" s="224"/>
-      <c r="K7" s="214" t="s">
+      <c r="I7" s="226"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="223"/>
-      <c r="M7" s="224"/>
-      <c r="N7" s="214" t="s">
+      <c r="L7" s="226"/>
+      <c r="M7" s="227"/>
+      <c r="N7" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="215"/>
-      <c r="P7" s="216"/>
-      <c r="Q7" s="214" t="s">
+      <c r="O7" s="218"/>
+      <c r="P7" s="219"/>
+      <c r="Q7" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="216"/>
-      <c r="S7" s="214" t="s">
+      <c r="R7" s="219"/>
+      <c r="S7" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="215"/>
-      <c r="U7" s="216"/>
-      <c r="V7" s="214" t="s">
+      <c r="T7" s="218"/>
+      <c r="U7" s="219"/>
+      <c r="V7" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="215"/>
-      <c r="X7" s="216"/>
-      <c r="Y7" s="214" t="s">
+      <c r="W7" s="218"/>
+      <c r="X7" s="219"/>
+      <c r="Y7" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="Z7" s="215"/>
-      <c r="AA7" s="215"/>
-      <c r="AB7" s="215"/>
-      <c r="AC7" s="215"/>
-      <c r="AD7" s="215"/>
-      <c r="AE7" s="216"/>
+      <c r="Z7" s="218"/>
+      <c r="AA7" s="218"/>
+      <c r="AB7" s="218"/>
+      <c r="AC7" s="218"/>
+      <c r="AD7" s="218"/>
+      <c r="AE7" s="219"/>
       <c r="AG7" s="32"/>
     </row>
     <row r="8" spans="1:177" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="30"/>
-      <c r="B8" s="212" t="s">
+      <c r="B8" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="213"/>
+      <c r="C8" s="216"/>
       <c r="D8" s="30" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="32"/>
-      <c r="H8" s="217" t="s">
+      <c r="H8" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="218"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="220" t="s">
+      <c r="I8" s="221"/>
+      <c r="J8" s="222"/>
+      <c r="K8" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="221"/>
-      <c r="M8" s="222"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="225"/>
       <c r="N8" s="30" t="s">
         <v>19</v>
       </c>
       <c r="P8" s="32"/>
-      <c r="Q8" s="220" t="s">
+      <c r="Q8" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="222"/>
-      <c r="S8" s="225" t="s">
+      <c r="R8" s="225"/>
+      <c r="S8" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="226"/>
-      <c r="U8" s="227"/>
-      <c r="V8" s="217" t="s">
+      <c r="T8" s="229"/>
+      <c r="U8" s="230"/>
+      <c r="V8" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="218"/>
-      <c r="X8" s="219"/>
+      <c r="W8" s="221"/>
+      <c r="X8" s="222"/>
       <c r="Y8" s="33" t="s">
         <v>24</v>
       </c>
@@ -8454,178 +8458,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="208"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="211"/>
+      <c r="AB1" s="211"/>
+      <c r="AC1" s="211"/>
+      <c r="AD1" s="211"/>
+      <c r="AE1" s="211"/>
+      <c r="AF1" s="211"/>
+      <c r="AG1" s="211"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="209" t="s">
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="209" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="209" t="s">
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="212" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="210"/>
-      <c r="AA2" s="210"/>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="210"/>
-      <c r="AD2" s="211"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="213"/>
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="213"/>
+      <c r="AD2" s="214"/>
       <c r="AE2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="17"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AG2" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="211"/>
+      <c r="AH2" s="214"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="202" t="str">
+      <c r="A3" s="205" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="202" t="str">
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="205" t="str">
         <f>表紙!G12</f>
         <v>勤怠情報・一覧登録</v>
       </c>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="202" t="str">
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="205" t="str">
         <f>表紙!M12</f>
         <v>勤怠管理情報詳細一覧 / 更新 / 削除</v>
       </c>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="206"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="202" t="s">
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="206"/>
-      <c r="AA3" s="206"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="206"/>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="202" t="str">
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="209"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="209"/>
+      <c r="AD3" s="206"/>
+      <c r="AE3" s="205" t="str">
         <f>表紙!AB12</f>
         <v>NTS</v>
       </c>
-      <c r="AF3" s="203"/>
-      <c r="AG3" s="202" t="str">
+      <c r="AF3" s="206"/>
+      <c r="AG3" s="205" t="str">
         <f>表紙!AD12</f>
         <v>司徒 健斌</v>
       </c>
-      <c r="AH3" s="203"/>
+      <c r="AH3" s="206"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="204"/>
-      <c r="B4" s="207"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="204"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="207"/>
-      <c r="X4" s="205"/>
-      <c r="Y4" s="204"/>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="205"/>
-      <c r="AE4" s="204"/>
-      <c r="AF4" s="205"/>
-      <c r="AG4" s="204"/>
-      <c r="AH4" s="205"/>
+      <c r="A4" s="207"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="210"/>
+      <c r="L4" s="210"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="210"/>
+      <c r="P4" s="210"/>
+      <c r="Q4" s="210"/>
+      <c r="R4" s="210"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="210"/>
+      <c r="U4" s="210"/>
+      <c r="V4" s="210"/>
+      <c r="W4" s="210"/>
+      <c r="X4" s="208"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="210"/>
+      <c r="AA4" s="210"/>
+      <c r="AB4" s="210"/>
+      <c r="AC4" s="210"/>
+      <c r="AD4" s="208"/>
+      <c r="AE4" s="207"/>
+      <c r="AF4" s="208"/>
+      <c r="AG4" s="207"/>
+      <c r="AH4" s="208"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -10105,174 +10109,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="151"/>
+      <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="129" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="129" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="129" t="s">
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="131"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="134"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="129" t="s">
+      <c r="AG2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="131"/>
+      <c r="AH2" s="134"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="145" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="132" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="132" t="s">
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="135" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="135" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="132" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="133"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="133"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="132" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH3" s="134"/>
+      <c r="AH3" s="137"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="137"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="137"/>
-      <c r="AG4" s="135"/>
-      <c r="AH4" s="137"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="140"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="45"/>
@@ -10950,7 +10954,7 @@
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
       <c r="C19" s="89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D19" s="89"/>
       <c r="E19" s="89"/>
@@ -10988,7 +10992,7 @@
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
       <c r="C20" s="89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D20" s="89"/>
       <c r="E20" s="89"/>
@@ -11026,7 +11030,7 @@
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
       <c r="C21" s="89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D21" s="89"/>
       <c r="E21" s="89"/>
@@ -11064,7 +11068,7 @@
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
       <c r="C22" s="89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D22" s="89"/>
       <c r="E22" s="89"/>
@@ -11102,7 +11106,7 @@
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
       <c r="C23" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D23" s="89"/>
       <c r="E23" s="89"/>
@@ -11140,7 +11144,7 @@
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
       <c r="C24" s="89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D24" s="89"/>
       <c r="E24" s="89"/>
@@ -11939,166 +11943,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="151"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="129" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="129" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="131"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="134"/>
       <c r="AD2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="87"/>
-      <c r="AF2" s="129" t="s">
+      <c r="AF2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="131"/>
+      <c r="AG2" s="134"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="135" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="132" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="132" t="s">
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="137"/>
+      <c r="AD3" s="135" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE3" s="137"/>
+      <c r="AF3" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="133"/>
-      <c r="Y3" s="133"/>
-      <c r="Z3" s="133"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="132" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG3" s="134"/>
+      <c r="AG3" s="137"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="137"/>
-      <c r="AD4" s="135"/>
-      <c r="AE4" s="137"/>
-      <c r="AF4" s="135"/>
-      <c r="AG4" s="137"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="140"/>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="140"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="140"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="58"/>
@@ -13672,10 +13676,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="V26" sqref="V26:AA26"/>
+      <selection pane="bottomLeft" activeCell="AA53" sqref="AA53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -13688,166 +13692,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="151"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="129" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="129" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="131"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="134"/>
       <c r="AD2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="87"/>
-      <c r="AF2" s="129" t="s">
+      <c r="AF2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="131"/>
+      <c r="AG2" s="134"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="135" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="132" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="132" t="s">
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="137"/>
+      <c r="AD3" s="135" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE3" s="137"/>
+      <c r="AF3" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="133"/>
-      <c r="Y3" s="133"/>
-      <c r="Z3" s="133"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="132" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG3" s="134"/>
+      <c r="AG3" s="137"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="137"/>
-      <c r="AD4" s="135"/>
-      <c r="AE4" s="137"/>
-      <c r="AF4" s="135"/>
-      <c r="AG4" s="137"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="140"/>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="140"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="140"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -14169,18 +14173,18 @@
       <c r="AG9" s="67"/>
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A10" s="155" t="s">
+      <c r="A10" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="156">
+      <c r="B10" s="158"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="159">
         <v>1</v>
       </c>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
       <c r="I10" s="77"/>
       <c r="J10" s="78"/>
       <c r="K10" s="83"/>
@@ -14208,18 +14212,18 @@
       <c r="AG10" s="67"/>
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A11" s="157" t="s">
+      <c r="A11" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="155"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155" t="s">
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
       <c r="I11" s="77"/>
       <c r="J11" s="78"/>
       <c r="K11" s="79"/>
@@ -14247,18 +14251,18 @@
       <c r="AG11" s="67"/>
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="155"/>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155" t="s">
+      <c r="B12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
       <c r="I12" s="77"/>
       <c r="J12" s="78"/>
       <c r="K12" s="79"/>
@@ -14369,17 +14373,17 @@
       <c r="K15" s="79"/>
       <c r="L15" s="79"/>
       <c r="M15" s="81"/>
-      <c r="N15" s="149" t="s">
+      <c r="N15" s="152" t="s">
         <v>94</v>
       </c>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="150" t="s">
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="R15" s="150"/>
-      <c r="S15" s="151"/>
-      <c r="T15" s="152"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="154"/>
+      <c r="T15" s="155"/>
       <c r="U15" s="79"/>
       <c r="V15" s="79"/>
       <c r="W15" s="79"/>
@@ -14408,13 +14412,13 @@
       <c r="K16" s="79"/>
       <c r="L16" s="79"/>
       <c r="M16" s="79"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="149"/>
-      <c r="P16" s="149"/>
-      <c r="Q16" s="150"/>
-      <c r="R16" s="150"/>
-      <c r="S16" s="153"/>
-      <c r="T16" s="154"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="157"/>
       <c r="U16" s="79"/>
       <c r="V16" s="79"/>
       <c r="W16" s="79"/>
@@ -14428,12 +14432,12 @@
       <c r="AE16" s="79"/>
       <c r="AF16" s="68"/>
       <c r="AG16" s="67"/>
-      <c r="AT16" s="228" t="s">
+      <c r="AT16" s="117" t="s">
+        <v>220</v>
+      </c>
+      <c r="AU16" s="117"/>
+      <c r="AV16" s="71" t="s">
         <v>221</v>
-      </c>
-      <c r="AU16" s="228"/>
-      <c r="AV16" s="71" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="12.75" customHeight="1">
@@ -14470,801 +14474,801 @@
       <c r="AE17" s="79"/>
       <c r="AF17" s="68"/>
       <c r="AG17" s="67"/>
-      <c r="AT17" s="229"/>
-      <c r="AU17" s="230"/>
+      <c r="AT17" s="118"/>
+      <c r="AU17" s="119"/>
       <c r="AV17" s="71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A18" s="161" t="s">
+      <c r="A18" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="162"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="161" t="s">
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="164" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="161" t="s">
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="161" t="s">
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="162"/>
-      <c r="M18" s="162"/>
-      <c r="N18" s="161" t="s">
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="164" t="s">
         <v>116</v>
       </c>
-      <c r="O18" s="162"/>
-      <c r="P18" s="161" t="s">
+      <c r="O18" s="165"/>
+      <c r="P18" s="164" t="s">
         <v>96</v>
       </c>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="161" t="s">
+      <c r="Q18" s="165"/>
+      <c r="R18" s="164" t="s">
         <v>97</v>
       </c>
-      <c r="S18" s="162"/>
-      <c r="T18" s="161" t="s">
+      <c r="S18" s="165"/>
+      <c r="T18" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="U18" s="162"/>
-      <c r="V18" s="161" t="s">
+      <c r="U18" s="165"/>
+      <c r="V18" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="W18" s="162"/>
-      <c r="X18" s="162"/>
-      <c r="Y18" s="162"/>
-      <c r="Z18" s="162"/>
-      <c r="AA18" s="162"/>
-      <c r="AB18" s="161" t="s">
+      <c r="W18" s="165"/>
+      <c r="X18" s="165"/>
+      <c r="Y18" s="165"/>
+      <c r="Z18" s="165"/>
+      <c r="AA18" s="165"/>
+      <c r="AB18" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="AC18" s="161"/>
-      <c r="AD18" s="163" t="s">
+      <c r="AC18" s="164"/>
+      <c r="AD18" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="AE18" s="163"/>
+      <c r="AE18" s="166"/>
       <c r="AF18" s="68"/>
       <c r="AG18" s="67"/>
-      <c r="AT18" s="229"/>
-      <c r="AU18" s="230"/>
+      <c r="AT18" s="118"/>
+      <c r="AU18" s="119"/>
       <c r="AV18" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A19" s="158">
+      <c r="A19" s="161">
         <v>2022090101</v>
       </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="155" t="s">
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="159">
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="162">
         <v>0.375</v>
       </c>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="159">
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
+      <c r="K19" s="162">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L19" s="159"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="160">
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="163">
         <v>1</v>
       </c>
-      <c r="O19" s="160"/>
-      <c r="P19" s="160">
+      <c r="O19" s="163"/>
+      <c r="P19" s="163">
         <v>1</v>
       </c>
-      <c r="Q19" s="160"/>
-      <c r="R19" s="160">
+      <c r="Q19" s="163"/>
+      <c r="R19" s="163">
         <v>9</v>
       </c>
-      <c r="S19" s="160"/>
-      <c r="T19" s="155" t="s">
+      <c r="S19" s="163"/>
+      <c r="T19" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="155"/>
-      <c r="V19" s="155" t="s">
+      <c r="U19" s="158"/>
+      <c r="V19" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="W19" s="155"/>
-      <c r="X19" s="155"/>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="155"/>
-      <c r="AA19" s="155"/>
-      <c r="AB19" s="164"/>
-      <c r="AC19" s="164"/>
-      <c r="AD19" s="165"/>
-      <c r="AE19" s="165"/>
+      <c r="W19" s="158"/>
+      <c r="X19" s="158"/>
+      <c r="Y19" s="158"/>
+      <c r="Z19" s="158"/>
+      <c r="AA19" s="158"/>
+      <c r="AB19" s="167"/>
+      <c r="AC19" s="167"/>
+      <c r="AD19" s="168"/>
+      <c r="AE19" s="168"/>
       <c r="AF19" s="68"/>
       <c r="AG19" s="67"/>
-      <c r="AT19" s="230"/>
-      <c r="AU19" s="230"/>
-      <c r="AV19" s="230" t="s">
-        <v>225</v>
+      <c r="AT19" s="119"/>
+      <c r="AU19" s="119"/>
+      <c r="AV19" s="119" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A20" s="158">
+      <c r="A20" s="161">
         <v>2022090201</v>
       </c>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="155" t="s">
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="159">
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="162">
         <v>0.375</v>
       </c>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="159">
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162">
         <v>0.75</v>
       </c>
-      <c r="L20" s="159"/>
-      <c r="M20" s="159"/>
-      <c r="N20" s="160">
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="163">
         <v>1</v>
       </c>
-      <c r="O20" s="160"/>
-      <c r="P20" s="160">
+      <c r="O20" s="163"/>
+      <c r="P20" s="163">
         <v>0</v>
       </c>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="160">
+      <c r="Q20" s="163"/>
+      <c r="R20" s="163">
         <v>8</v>
       </c>
-      <c r="S20" s="160"/>
-      <c r="T20" s="155" t="s">
-        <v>227</v>
-      </c>
-      <c r="U20" s="155"/>
-      <c r="V20" s="155" t="s">
+      <c r="S20" s="163"/>
+      <c r="T20" s="158" t="s">
+        <v>226</v>
+      </c>
+      <c r="U20" s="158"/>
+      <c r="V20" s="158" t="s">
         <v>104</v>
       </c>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
-      <c r="Z20" s="155"/>
-      <c r="AA20" s="155"/>
-      <c r="AB20" s="164"/>
-      <c r="AC20" s="164"/>
-      <c r="AD20" s="165"/>
-      <c r="AE20" s="165"/>
+      <c r="W20" s="158"/>
+      <c r="X20" s="158"/>
+      <c r="Y20" s="158"/>
+      <c r="Z20" s="158"/>
+      <c r="AA20" s="158"/>
+      <c r="AB20" s="167"/>
+      <c r="AC20" s="167"/>
+      <c r="AD20" s="168"/>
+      <c r="AE20" s="168"/>
       <c r="AF20" s="68"/>
       <c r="AG20" s="67"/>
-      <c r="AT20" s="230"/>
-      <c r="AU20" s="230"/>
-      <c r="AV20" s="230" t="s">
-        <v>226</v>
+      <c r="AT20" s="119"/>
+      <c r="AU20" s="119"/>
+      <c r="AV20" s="119" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A21" s="158">
+      <c r="A21" s="161">
         <v>2022090301</v>
       </c>
-      <c r="B21" s="158"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="155" t="s">
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="158" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="159">
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="162">
         <v>0.375</v>
       </c>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="159">
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="162">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L21" s="159"/>
-      <c r="M21" s="159"/>
-      <c r="N21" s="160">
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="163">
         <v>1</v>
       </c>
-      <c r="O21" s="160"/>
-      <c r="P21" s="160">
+      <c r="O21" s="163"/>
+      <c r="P21" s="163">
         <v>1</v>
       </c>
-      <c r="Q21" s="160"/>
-      <c r="R21" s="160">
+      <c r="Q21" s="163"/>
+      <c r="R21" s="163">
         <v>9</v>
       </c>
-      <c r="S21" s="160"/>
-      <c r="T21" s="155" t="s">
+      <c r="S21" s="163"/>
+      <c r="T21" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="U21" s="155"/>
-      <c r="V21" s="155" t="s">
+      <c r="U21" s="158"/>
+      <c r="V21" s="158" t="s">
         <v>104</v>
       </c>
-      <c r="W21" s="155"/>
-      <c r="X21" s="155"/>
-      <c r="Y21" s="155"/>
-      <c r="Z21" s="155"/>
-      <c r="AA21" s="155"/>
-      <c r="AB21" s="164"/>
-      <c r="AC21" s="164"/>
-      <c r="AD21" s="165"/>
-      <c r="AE21" s="165"/>
+      <c r="W21" s="158"/>
+      <c r="X21" s="158"/>
+      <c r="Y21" s="158"/>
+      <c r="Z21" s="158"/>
+      <c r="AA21" s="158"/>
+      <c r="AB21" s="167"/>
+      <c r="AC21" s="167"/>
+      <c r="AD21" s="168"/>
+      <c r="AE21" s="168"/>
       <c r="AF21" s="68"/>
       <c r="AG21" s="67"/>
     </row>
     <row r="22" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A22" s="158">
+      <c r="A22" s="161">
         <v>2022090401</v>
       </c>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="166"/>
-      <c r="S22" s="166"/>
-      <c r="T22" s="155"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="155"/>
-      <c r="Y22" s="155"/>
-      <c r="Z22" s="155"/>
-      <c r="AA22" s="155"/>
-      <c r="AB22" s="164"/>
-      <c r="AC22" s="164"/>
-      <c r="AD22" s="165"/>
-      <c r="AE22" s="165"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="163"/>
+      <c r="P22" s="163"/>
+      <c r="Q22" s="163"/>
+      <c r="R22" s="169"/>
+      <c r="S22" s="169"/>
+      <c r="T22" s="158"/>
+      <c r="U22" s="158"/>
+      <c r="V22" s="158"/>
+      <c r="W22" s="158"/>
+      <c r="X22" s="158"/>
+      <c r="Y22" s="158"/>
+      <c r="Z22" s="158"/>
+      <c r="AA22" s="158"/>
+      <c r="AB22" s="167"/>
+      <c r="AC22" s="167"/>
+      <c r="AD22" s="168"/>
+      <c r="AE22" s="168"/>
       <c r="AF22" s="68"/>
       <c r="AG22" s="67"/>
     </row>
     <row r="23" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A23" s="158">
+      <c r="A23" s="161">
         <v>2022090501</v>
       </c>
-      <c r="B23" s="158"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="166"/>
-      <c r="S23" s="166"/>
-      <c r="T23" s="155"/>
-      <c r="U23" s="155"/>
-      <c r="V23" s="155"/>
-      <c r="W23" s="155"/>
-      <c r="X23" s="155"/>
-      <c r="Y23" s="155"/>
-      <c r="Z23" s="155"/>
-      <c r="AA23" s="155"/>
-      <c r="AB23" s="164"/>
-      <c r="AC23" s="164"/>
-      <c r="AD23" s="165"/>
-      <c r="AE23" s="165"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="158"/>
+      <c r="M23" s="158"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="163"/>
+      <c r="R23" s="169"/>
+      <c r="S23" s="169"/>
+      <c r="T23" s="158"/>
+      <c r="U23" s="158"/>
+      <c r="V23" s="158"/>
+      <c r="W23" s="158"/>
+      <c r="X23" s="158"/>
+      <c r="Y23" s="158"/>
+      <c r="Z23" s="158"/>
+      <c r="AA23" s="158"/>
+      <c r="AB23" s="167"/>
+      <c r="AC23" s="167"/>
+      <c r="AD23" s="168"/>
+      <c r="AE23" s="168"/>
       <c r="AF23" s="68"/>
       <c r="AG23" s="67"/>
     </row>
     <row r="24" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A24" s="158">
+      <c r="A24" s="161">
         <v>2022090601</v>
       </c>
-      <c r="B24" s="158"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="160"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="160"/>
-      <c r="R24" s="166"/>
-      <c r="S24" s="166"/>
-      <c r="T24" s="155"/>
-      <c r="U24" s="155"/>
-      <c r="V24" s="155"/>
-      <c r="W24" s="155"/>
-      <c r="X24" s="155"/>
-      <c r="Y24" s="155"/>
-      <c r="Z24" s="155"/>
-      <c r="AA24" s="155"/>
-      <c r="AB24" s="164"/>
-      <c r="AC24" s="164"/>
-      <c r="AD24" s="165"/>
-      <c r="AE24" s="165"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="163"/>
+      <c r="R24" s="169"/>
+      <c r="S24" s="169"/>
+      <c r="T24" s="158"/>
+      <c r="U24" s="158"/>
+      <c r="V24" s="158"/>
+      <c r="W24" s="158"/>
+      <c r="X24" s="158"/>
+      <c r="Y24" s="158"/>
+      <c r="Z24" s="158"/>
+      <c r="AA24" s="158"/>
+      <c r="AB24" s="167"/>
+      <c r="AC24" s="167"/>
+      <c r="AD24" s="168"/>
+      <c r="AE24" s="168"/>
       <c r="AF24" s="68"/>
       <c r="AG24" s="67"/>
     </row>
     <row r="25" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A25" s="158">
+      <c r="A25" s="161">
         <v>2022090701</v>
       </c>
-      <c r="B25" s="158"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="160"/>
-      <c r="P25" s="160"/>
-      <c r="Q25" s="160"/>
-      <c r="R25" s="166"/>
-      <c r="S25" s="166"/>
-      <c r="T25" s="155"/>
-      <c r="U25" s="155"/>
-      <c r="V25" s="155"/>
-      <c r="W25" s="155"/>
-      <c r="X25" s="155"/>
-      <c r="Y25" s="155"/>
-      <c r="Z25" s="155"/>
-      <c r="AA25" s="155"/>
-      <c r="AB25" s="164"/>
-      <c r="AC25" s="164"/>
-      <c r="AD25" s="165"/>
-      <c r="AE25" s="165"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="158"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="163"/>
+      <c r="O25" s="163"/>
+      <c r="P25" s="163"/>
+      <c r="Q25" s="163"/>
+      <c r="R25" s="169"/>
+      <c r="S25" s="169"/>
+      <c r="T25" s="158"/>
+      <c r="U25" s="158"/>
+      <c r="V25" s="158"/>
+      <c r="W25" s="158"/>
+      <c r="X25" s="158"/>
+      <c r="Y25" s="158"/>
+      <c r="Z25" s="158"/>
+      <c r="AA25" s="158"/>
+      <c r="AB25" s="167"/>
+      <c r="AC25" s="167"/>
+      <c r="AD25" s="168"/>
+      <c r="AE25" s="168"/>
       <c r="AF25" s="68"/>
       <c r="AG25" s="67"/>
     </row>
     <row r="26" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A26" s="158">
+      <c r="A26" s="161">
         <v>2022090801</v>
       </c>
-      <c r="B26" s="158"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="160"/>
-      <c r="O26" s="160"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="160"/>
-      <c r="R26" s="166"/>
-      <c r="S26" s="166"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="155"/>
-      <c r="AA26" s="155"/>
-      <c r="AB26" s="164"/>
-      <c r="AC26" s="164"/>
-      <c r="AD26" s="165"/>
-      <c r="AE26" s="165"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="163"/>
+      <c r="Q26" s="163"/>
+      <c r="R26" s="169"/>
+      <c r="S26" s="169"/>
+      <c r="T26" s="158"/>
+      <c r="U26" s="158"/>
+      <c r="V26" s="158"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="158"/>
+      <c r="Y26" s="158"/>
+      <c r="Z26" s="158"/>
+      <c r="AA26" s="158"/>
+      <c r="AB26" s="167"/>
+      <c r="AC26" s="167"/>
+      <c r="AD26" s="168"/>
+      <c r="AE26" s="168"/>
       <c r="AF26" s="68"/>
       <c r="AG26" s="67"/>
     </row>
     <row r="27" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A27" s="158">
+      <c r="A27" s="161">
         <v>2022090901</v>
       </c>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="160"/>
-      <c r="P27" s="160"/>
-      <c r="Q27" s="160"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="166"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="164"/>
-      <c r="AC27" s="164"/>
-      <c r="AD27" s="165"/>
-      <c r="AE27" s="165"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="158"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="163"/>
+      <c r="P27" s="163"/>
+      <c r="Q27" s="163"/>
+      <c r="R27" s="169"/>
+      <c r="S27" s="169"/>
+      <c r="T27" s="158"/>
+      <c r="U27" s="158"/>
+      <c r="V27" s="158"/>
+      <c r="W27" s="158"/>
+      <c r="X27" s="158"/>
+      <c r="Y27" s="158"/>
+      <c r="Z27" s="158"/>
+      <c r="AA27" s="158"/>
+      <c r="AB27" s="167"/>
+      <c r="AC27" s="167"/>
+      <c r="AD27" s="168"/>
+      <c r="AE27" s="168"/>
       <c r="AF27" s="68"/>
       <c r="AG27" s="67"/>
     </row>
     <row r="28" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A28" s="158">
+      <c r="A28" s="161">
         <v>2022091001</v>
       </c>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="160"/>
-      <c r="O28" s="160"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="160"/>
-      <c r="R28" s="166"/>
-      <c r="S28" s="166"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="164"/>
-      <c r="AC28" s="164"/>
-      <c r="AD28" s="165"/>
-      <c r="AE28" s="165"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="158"/>
+      <c r="M28" s="158"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="163"/>
+      <c r="P28" s="163"/>
+      <c r="Q28" s="163"/>
+      <c r="R28" s="169"/>
+      <c r="S28" s="169"/>
+      <c r="T28" s="158"/>
+      <c r="U28" s="158"/>
+      <c r="V28" s="158"/>
+      <c r="W28" s="158"/>
+      <c r="X28" s="158"/>
+      <c r="Y28" s="158"/>
+      <c r="Z28" s="158"/>
+      <c r="AA28" s="158"/>
+      <c r="AB28" s="167"/>
+      <c r="AC28" s="167"/>
+      <c r="AD28" s="168"/>
+      <c r="AE28" s="168"/>
       <c r="AF28" s="68"/>
       <c r="AG28" s="67"/>
     </row>
     <row r="29" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A29" s="158">
+      <c r="A29" s="161">
         <v>2022091101</v>
       </c>
-      <c r="B29" s="158"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="160"/>
-      <c r="O29" s="160"/>
-      <c r="P29" s="160"/>
-      <c r="Q29" s="160"/>
-      <c r="R29" s="166"/>
-      <c r="S29" s="166"/>
-      <c r="T29" s="155"/>
-      <c r="U29" s="155"/>
-      <c r="V29" s="155"/>
-      <c r="W29" s="155"/>
-      <c r="X29" s="155"/>
-      <c r="Y29" s="155"/>
-      <c r="Z29" s="155"/>
-      <c r="AA29" s="155"/>
-      <c r="AB29" s="164"/>
-      <c r="AC29" s="164"/>
-      <c r="AD29" s="165"/>
-      <c r="AE29" s="165"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="158"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="158"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="163"/>
+      <c r="P29" s="163"/>
+      <c r="Q29" s="163"/>
+      <c r="R29" s="169"/>
+      <c r="S29" s="169"/>
+      <c r="T29" s="158"/>
+      <c r="U29" s="158"/>
+      <c r="V29" s="158"/>
+      <c r="W29" s="158"/>
+      <c r="X29" s="158"/>
+      <c r="Y29" s="158"/>
+      <c r="Z29" s="158"/>
+      <c r="AA29" s="158"/>
+      <c r="AB29" s="167"/>
+      <c r="AC29" s="167"/>
+      <c r="AD29" s="168"/>
+      <c r="AE29" s="168"/>
       <c r="AF29" s="68"/>
       <c r="AG29" s="67"/>
     </row>
     <row r="30" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A30" s="158">
+      <c r="A30" s="161">
         <v>2022091201</v>
       </c>
-      <c r="B30" s="158"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="155"/>
-      <c r="N30" s="160"/>
-      <c r="O30" s="160"/>
-      <c r="P30" s="160"/>
-      <c r="Q30" s="160"/>
-      <c r="R30" s="166"/>
-      <c r="S30" s="166"/>
-      <c r="T30" s="155"/>
-      <c r="U30" s="155"/>
-      <c r="V30" s="155"/>
-      <c r="W30" s="155"/>
-      <c r="X30" s="155"/>
-      <c r="Y30" s="155"/>
-      <c r="Z30" s="155"/>
-      <c r="AA30" s="155"/>
-      <c r="AB30" s="164"/>
-      <c r="AC30" s="164"/>
-      <c r="AD30" s="165"/>
-      <c r="AE30" s="165"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="163"/>
+      <c r="O30" s="163"/>
+      <c r="P30" s="163"/>
+      <c r="Q30" s="163"/>
+      <c r="R30" s="169"/>
+      <c r="S30" s="169"/>
+      <c r="T30" s="158"/>
+      <c r="U30" s="158"/>
+      <c r="V30" s="158"/>
+      <c r="W30" s="158"/>
+      <c r="X30" s="158"/>
+      <c r="Y30" s="158"/>
+      <c r="Z30" s="158"/>
+      <c r="AA30" s="158"/>
+      <c r="AB30" s="167"/>
+      <c r="AC30" s="167"/>
+      <c r="AD30" s="168"/>
+      <c r="AE30" s="168"/>
       <c r="AF30" s="68"/>
       <c r="AG30" s="67"/>
     </row>
     <row r="31" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A31" s="158">
+      <c r="A31" s="161">
         <v>2022091301</v>
       </c>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="155"/>
-      <c r="N31" s="160"/>
-      <c r="O31" s="160"/>
-      <c r="P31" s="160"/>
-      <c r="Q31" s="160"/>
-      <c r="R31" s="166"/>
-      <c r="S31" s="166"/>
-      <c r="T31" s="155"/>
-      <c r="U31" s="155"/>
-      <c r="V31" s="155"/>
-      <c r="W31" s="155"/>
-      <c r="X31" s="155"/>
-      <c r="Y31" s="155"/>
-      <c r="Z31" s="155"/>
-      <c r="AA31" s="155"/>
-      <c r="AB31" s="164"/>
-      <c r="AC31" s="164"/>
-      <c r="AD31" s="165"/>
-      <c r="AE31" s="165"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="163"/>
+      <c r="P31" s="163"/>
+      <c r="Q31" s="163"/>
+      <c r="R31" s="169"/>
+      <c r="S31" s="169"/>
+      <c r="T31" s="158"/>
+      <c r="U31" s="158"/>
+      <c r="V31" s="158"/>
+      <c r="W31" s="158"/>
+      <c r="X31" s="158"/>
+      <c r="Y31" s="158"/>
+      <c r="Z31" s="158"/>
+      <c r="AA31" s="158"/>
+      <c r="AB31" s="167"/>
+      <c r="AC31" s="167"/>
+      <c r="AD31" s="168"/>
+      <c r="AE31" s="168"/>
       <c r="AF31" s="68"/>
       <c r="AG31" s="67"/>
     </row>
     <row r="32" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A32" s="158">
+      <c r="A32" s="161">
         <v>2022091401</v>
       </c>
-      <c r="B32" s="158"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="155"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="160"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="160"/>
-      <c r="R32" s="166"/>
-      <c r="S32" s="166"/>
-      <c r="T32" s="155"/>
-      <c r="U32" s="155"/>
-      <c r="V32" s="155"/>
-      <c r="W32" s="155"/>
-      <c r="X32" s="155"/>
-      <c r="Y32" s="155"/>
-      <c r="Z32" s="155"/>
-      <c r="AA32" s="155"/>
-      <c r="AB32" s="164"/>
-      <c r="AC32" s="164"/>
-      <c r="AD32" s="165"/>
-      <c r="AE32" s="165"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="158"/>
+      <c r="M32" s="158"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="163"/>
+      <c r="P32" s="163"/>
+      <c r="Q32" s="163"/>
+      <c r="R32" s="169"/>
+      <c r="S32" s="169"/>
+      <c r="T32" s="158"/>
+      <c r="U32" s="158"/>
+      <c r="V32" s="158"/>
+      <c r="W32" s="158"/>
+      <c r="X32" s="158"/>
+      <c r="Y32" s="158"/>
+      <c r="Z32" s="158"/>
+      <c r="AA32" s="158"/>
+      <c r="AB32" s="167"/>
+      <c r="AC32" s="167"/>
+      <c r="AD32" s="168"/>
+      <c r="AE32" s="168"/>
       <c r="AF32" s="68"/>
       <c r="AG32" s="67"/>
     </row>
     <row r="33" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A33" s="158">
+      <c r="A33" s="161">
         <v>2022091501</v>
       </c>
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="155"/>
-      <c r="N33" s="160"/>
-      <c r="O33" s="160"/>
-      <c r="P33" s="160"/>
-      <c r="Q33" s="160"/>
-      <c r="R33" s="166"/>
-      <c r="S33" s="166"/>
-      <c r="T33" s="155"/>
-      <c r="U33" s="155"/>
-      <c r="V33" s="155"/>
-      <c r="W33" s="155"/>
-      <c r="X33" s="155"/>
-      <c r="Y33" s="155"/>
-      <c r="Z33" s="155"/>
-      <c r="AA33" s="155"/>
-      <c r="AB33" s="164"/>
-      <c r="AC33" s="164"/>
-      <c r="AD33" s="165"/>
-      <c r="AE33" s="165"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="158"/>
+      <c r="N33" s="163"/>
+      <c r="O33" s="163"/>
+      <c r="P33" s="163"/>
+      <c r="Q33" s="163"/>
+      <c r="R33" s="169"/>
+      <c r="S33" s="169"/>
+      <c r="T33" s="158"/>
+      <c r="U33" s="158"/>
+      <c r="V33" s="158"/>
+      <c r="W33" s="158"/>
+      <c r="X33" s="158"/>
+      <c r="Y33" s="158"/>
+      <c r="Z33" s="158"/>
+      <c r="AA33" s="158"/>
+      <c r="AB33" s="167"/>
+      <c r="AC33" s="167"/>
+      <c r="AD33" s="168"/>
+      <c r="AE33" s="168"/>
       <c r="AF33" s="68"/>
       <c r="AG33" s="67"/>
     </row>
     <row r="34" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A34" s="158">
+      <c r="A34" s="161">
         <v>2022091601</v>
       </c>
-      <c r="B34" s="158"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="155"/>
-      <c r="N34" s="160"/>
-      <c r="O34" s="160"/>
-      <c r="P34" s="160"/>
-      <c r="Q34" s="160"/>
-      <c r="R34" s="166"/>
-      <c r="S34" s="166"/>
-      <c r="T34" s="155"/>
-      <c r="U34" s="155"/>
-      <c r="V34" s="155"/>
-      <c r="W34" s="155"/>
-      <c r="X34" s="155"/>
-      <c r="Y34" s="155"/>
-      <c r="Z34" s="155"/>
-      <c r="AA34" s="155"/>
-      <c r="AB34" s="164"/>
-      <c r="AC34" s="164"/>
-      <c r="AD34" s="165"/>
-      <c r="AE34" s="165"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
+      <c r="K34" s="158"/>
+      <c r="L34" s="158"/>
+      <c r="M34" s="158"/>
+      <c r="N34" s="163"/>
+      <c r="O34" s="163"/>
+      <c r="P34" s="163"/>
+      <c r="Q34" s="163"/>
+      <c r="R34" s="169"/>
+      <c r="S34" s="169"/>
+      <c r="T34" s="158"/>
+      <c r="U34" s="158"/>
+      <c r="V34" s="158"/>
+      <c r="W34" s="158"/>
+      <c r="X34" s="158"/>
+      <c r="Y34" s="158"/>
+      <c r="Z34" s="158"/>
+      <c r="AA34" s="158"/>
+      <c r="AB34" s="167"/>
+      <c r="AC34" s="167"/>
+      <c r="AD34" s="168"/>
+      <c r="AE34" s="168"/>
       <c r="AF34" s="68"/>
       <c r="AG34" s="67"/>
     </row>
     <row r="35" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A35" s="158">
+      <c r="A35" s="161">
         <v>2022091701</v>
       </c>
-      <c r="B35" s="158"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
-      <c r="N35" s="160"/>
-      <c r="O35" s="160"/>
-      <c r="P35" s="160"/>
-      <c r="Q35" s="160"/>
-      <c r="R35" s="166"/>
-      <c r="S35" s="166"/>
-      <c r="T35" s="155"/>
-      <c r="U35" s="155"/>
-      <c r="V35" s="155"/>
-      <c r="W35" s="155"/>
-      <c r="X35" s="155"/>
-      <c r="Y35" s="155"/>
-      <c r="Z35" s="155"/>
-      <c r="AA35" s="155"/>
-      <c r="AB35" s="164"/>
-      <c r="AC35" s="164"/>
-      <c r="AD35" s="165"/>
-      <c r="AE35" s="165"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
+      <c r="K35" s="158"/>
+      <c r="L35" s="158"/>
+      <c r="M35" s="158"/>
+      <c r="N35" s="163"/>
+      <c r="O35" s="163"/>
+      <c r="P35" s="163"/>
+      <c r="Q35" s="163"/>
+      <c r="R35" s="169"/>
+      <c r="S35" s="169"/>
+      <c r="T35" s="158"/>
+      <c r="U35" s="158"/>
+      <c r="V35" s="158"/>
+      <c r="W35" s="158"/>
+      <c r="X35" s="158"/>
+      <c r="Y35" s="158"/>
+      <c r="Z35" s="158"/>
+      <c r="AA35" s="158"/>
+      <c r="AB35" s="167"/>
+      <c r="AC35" s="167"/>
+      <c r="AD35" s="168"/>
+      <c r="AE35" s="168"/>
       <c r="AF35" s="68"/>
       <c r="AG35" s="67"/>
     </row>
     <row r="36" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A36" s="167" t="s">
+      <c r="A36" s="170" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="168"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="173"/>
-      <c r="K36" s="173"/>
-      <c r="L36" s="173"/>
-      <c r="M36" s="173"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="173"/>
-      <c r="P36" s="174">
+      <c r="B36" s="171"/>
+      <c r="C36" s="172"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="176"/>
+      <c r="K36" s="176"/>
+      <c r="L36" s="176"/>
+      <c r="M36" s="176"/>
+      <c r="N36" s="176"/>
+      <c r="O36" s="176"/>
+      <c r="P36" s="177">
         <f>SUM(P19:Q35)</f>
         <v>2</v>
       </c>
-      <c r="Q36" s="174"/>
-      <c r="R36" s="175">
+      <c r="Q36" s="177"/>
+      <c r="R36" s="178">
         <f>SUM(R19:S35)</f>
         <v>26</v>
       </c>
-      <c r="S36" s="175"/>
-      <c r="T36" s="173"/>
-      <c r="U36" s="173"/>
-      <c r="V36" s="173"/>
-      <c r="W36" s="173"/>
-      <c r="X36" s="173"/>
-      <c r="Y36" s="173"/>
-      <c r="Z36" s="173"/>
-      <c r="AA36" s="173"/>
-      <c r="AB36" s="176"/>
-      <c r="AC36" s="176"/>
-      <c r="AD36" s="177"/>
-      <c r="AE36" s="177"/>
+      <c r="S36" s="178"/>
+      <c r="T36" s="176"/>
+      <c r="U36" s="176"/>
+      <c r="V36" s="176"/>
+      <c r="W36" s="176"/>
+      <c r="X36" s="176"/>
+      <c r="Y36" s="176"/>
+      <c r="Z36" s="176"/>
+      <c r="AA36" s="176"/>
+      <c r="AB36" s="179"/>
+      <c r="AC36" s="179"/>
+      <c r="AD36" s="180"/>
+      <c r="AE36" s="180"/>
       <c r="AF36" s="68"/>
       <c r="AG36" s="67"/>
     </row>
@@ -15808,7 +15812,7 @@
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="T42" sqref="T42"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -15821,174 +15825,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="151"/>
+      <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="129" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="129" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="129" t="s">
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="131"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="134"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="129" t="s">
+      <c r="AG2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="131"/>
+      <c r="AH2" s="134"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="135" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="132" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="132" t="s">
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="135" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="132" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="133"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="133"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="132" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH3" s="134"/>
+      <c r="AH3" s="137"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="137"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="137"/>
-      <c r="AG4" s="135"/>
-      <c r="AH4" s="137"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="140"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="93"/>
@@ -16850,7 +16854,7 @@
     </row>
     <row r="21" spans="1:34" ht="12.75" customHeight="1">
       <c r="A21" s="98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="99"/>
       <c r="C21" s="99"/>
@@ -16900,7 +16904,7 @@
     </row>
     <row r="22" spans="1:34" ht="12.75" customHeight="1">
       <c r="A22" s="98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" s="99"/>
       <c r="C22" s="99"/>
@@ -17206,10 +17210,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:FV23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="X12" sqref="X12"/>
+      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -17222,170 +17226,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="151"/>
+      <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="129" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="129" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="131"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="134"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="129" t="s">
+      <c r="AG2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="131"/>
+      <c r="AH2" s="134"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="135" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="132" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="132" t="s">
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="135" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="133"/>
-      <c r="Y3" s="133"/>
-      <c r="Z3" s="133"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="133"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="132" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH3" s="134"/>
+      <c r="AH3" s="137"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="137"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="137"/>
-      <c r="AG4" s="135"/>
-      <c r="AH4" s="137"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="140"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="93" t="s">
@@ -17583,7 +17587,7 @@
       <c r="E6" s="99"/>
       <c r="F6" s="100"/>
       <c r="G6" s="99" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="H6" s="99"/>
       <c r="I6" s="99"/>
@@ -17687,16 +17691,13 @@
     </row>
     <row r="9" spans="1:178" ht="12.75" customHeight="1">
       <c r="A9" s="98" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" s="99"/>
       <c r="C9" s="99"/>
       <c r="D9" s="99"/>
       <c r="E9" s="99"/>
       <c r="F9" s="100"/>
-      <c r="G9" s="98" t="s">
-        <v>154</v>
-      </c>
       <c r="H9" s="99"/>
       <c r="I9" s="87"/>
       <c r="J9" s="99"/>
@@ -17718,7 +17719,9 @@
       <c r="Z9" s="99"/>
       <c r="AA9" s="99"/>
       <c r="AB9" s="100"/>
-      <c r="AC9" s="98"/>
+      <c r="AC9" s="98" t="s">
+        <v>153</v>
+      </c>
       <c r="AD9" s="99"/>
       <c r="AE9" s="99"/>
       <c r="AF9" s="99"/>
@@ -17763,16 +17766,13 @@
     </row>
     <row r="11" spans="1:178" ht="12.75" customHeight="1">
       <c r="A11" s="98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="99"/>
       <c r="C11" s="99"/>
       <c r="D11" s="99"/>
       <c r="E11" s="99"/>
       <c r="F11" s="100"/>
-      <c r="G11" s="99" t="s">
-        <v>153</v>
-      </c>
       <c r="H11" s="99"/>
       <c r="I11" s="99"/>
       <c r="J11" s="99"/>
@@ -17794,7 +17794,9 @@
       <c r="Z11" s="99"/>
       <c r="AA11" s="99"/>
       <c r="AB11" s="100"/>
-      <c r="AC11" s="99"/>
+      <c r="AC11" s="99" t="s">
+        <v>152</v>
+      </c>
       <c r="AD11" s="99"/>
       <c r="AE11" s="99"/>
       <c r="AF11" s="99"/>
@@ -17830,7 +17832,6 @@
       <c r="Z12" s="99"/>
       <c r="AA12" s="99"/>
       <c r="AB12" s="100"/>
-      <c r="AC12" s="99"/>
       <c r="AD12" s="99"/>
       <c r="AE12" s="99"/>
       <c r="AF12" s="99"/>
@@ -17839,7 +17840,7 @@
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="99"/>
       <c r="C13" s="99"/>
@@ -17847,7 +17848,7 @@
       <c r="E13" s="99"/>
       <c r="F13" s="102"/>
       <c r="G13" s="98" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="H13" s="99"/>
       <c r="I13" s="99"/>
@@ -17870,7 +17871,9 @@
       <c r="Z13" s="99"/>
       <c r="AA13" s="99"/>
       <c r="AB13" s="100"/>
-      <c r="AC13" s="99"/>
+      <c r="AC13" s="98" t="s">
+        <v>154</v>
+      </c>
       <c r="AD13" s="99"/>
       <c r="AE13" s="99"/>
       <c r="AF13" s="99"/>
@@ -17884,7 +17887,7 @@
       <c r="D14" s="71"/>
       <c r="E14" s="72"/>
       <c r="F14" s="72"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="98"/>
       <c r="H14" s="71"/>
       <c r="I14" s="71"/>
       <c r="J14" s="99"/>
@@ -17915,16 +17918,13 @@
     </row>
     <row r="15" spans="1:178" ht="12.75" customHeight="1">
       <c r="A15" s="98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="99"/>
       <c r="C15" s="99"/>
       <c r="D15" s="99"/>
       <c r="E15" s="99"/>
       <c r="F15" s="102"/>
-      <c r="G15" s="99" t="s">
-        <v>156</v>
-      </c>
       <c r="H15" s="99"/>
       <c r="I15" s="99"/>
       <c r="J15" s="99"/>
@@ -17946,7 +17946,9 @@
       <c r="Z15" s="87"/>
       <c r="AA15" s="99"/>
       <c r="AB15" s="102"/>
-      <c r="AC15" s="99"/>
+      <c r="AC15" s="99" t="s">
+        <v>155</v>
+      </c>
       <c r="AD15" s="99"/>
       <c r="AE15" s="99"/>
       <c r="AF15" s="99"/>
@@ -17991,16 +17993,13 @@
     </row>
     <row r="17" spans="1:34" ht="12.75" customHeight="1">
       <c r="A17" s="98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="99"/>
       <c r="C17" s="99"/>
       <c r="D17" s="99"/>
       <c r="E17" s="99"/>
       <c r="F17" s="100"/>
-      <c r="G17" s="99" t="s">
-        <v>208</v>
-      </c>
       <c r="H17" s="99"/>
       <c r="I17" s="99"/>
       <c r="J17" s="99"/>
@@ -18014,7 +18013,7 @@
       <c r="R17" s="99"/>
       <c r="S17" s="99"/>
       <c r="T17" s="99"/>
-      <c r="U17" s="99"/>
+      <c r="U17" s="87"/>
       <c r="V17" s="99"/>
       <c r="W17" s="99"/>
       <c r="X17" s="99"/>
@@ -18022,7 +18021,9 @@
       <c r="Z17" s="99"/>
       <c r="AA17" s="99"/>
       <c r="AB17" s="100"/>
-      <c r="AC17" s="99"/>
+      <c r="AC17" s="99" t="s">
+        <v>207</v>
+      </c>
       <c r="AD17" s="99"/>
       <c r="AE17" s="99"/>
       <c r="AF17" s="99"/>
@@ -18037,9 +18038,7 @@
       <c r="E18" s="99"/>
       <c r="F18" s="102"/>
       <c r="G18" s="99"/>
-      <c r="H18" s="99" t="s">
-        <v>206</v>
-      </c>
+      <c r="H18" s="99"/>
       <c r="I18" s="99"/>
       <c r="J18" s="99"/>
       <c r="K18" s="99"/>
@@ -18052,7 +18051,7 @@
       <c r="R18" s="99"/>
       <c r="S18" s="99"/>
       <c r="T18" s="99"/>
-      <c r="U18" s="87"/>
+      <c r="U18" s="99"/>
       <c r="V18" s="99"/>
       <c r="W18" s="99"/>
       <c r="X18" s="99"/>
@@ -18060,8 +18059,10 @@
       <c r="Z18" s="87"/>
       <c r="AA18" s="99"/>
       <c r="AB18" s="102"/>
-      <c r="AC18" s="98"/>
-      <c r="AD18" s="99"/>
+      <c r="AC18" s="99"/>
+      <c r="AD18" s="99" t="s">
+        <v>205</v>
+      </c>
       <c r="AE18" s="99"/>
       <c r="AF18" s="99"/>
       <c r="AG18" s="99"/>
@@ -18074,11 +18075,8 @@
       <c r="D19" s="99"/>
       <c r="E19" s="99"/>
       <c r="F19" s="100"/>
-      <c r="G19" s="99"/>
       <c r="H19" s="99"/>
-      <c r="I19" s="99" t="s">
-        <v>209</v>
-      </c>
+      <c r="I19" s="99"/>
       <c r="J19" s="99"/>
       <c r="K19" s="99"/>
       <c r="L19" s="99"/>
@@ -18090,7 +18088,7 @@
       <c r="R19" s="99"/>
       <c r="S19" s="99"/>
       <c r="T19" s="99"/>
-      <c r="U19" s="99"/>
+      <c r="U19" s="87"/>
       <c r="V19" s="99"/>
       <c r="W19" s="99"/>
       <c r="X19" s="99"/>
@@ -18100,7 +18098,9 @@
       <c r="AB19" s="100"/>
       <c r="AC19" s="99"/>
       <c r="AD19" s="99"/>
-      <c r="AE19" s="99"/>
+      <c r="AE19" s="99" t="s">
+        <v>208</v>
+      </c>
       <c r="AF19" s="99"/>
       <c r="AG19" s="99"/>
       <c r="AH19" s="100"/>
@@ -18113,9 +18113,7 @@
       <c r="E20" s="99"/>
       <c r="F20" s="100"/>
       <c r="G20" s="99"/>
-      <c r="H20" s="99" t="s">
-        <v>207</v>
-      </c>
+      <c r="H20" s="99"/>
       <c r="I20" s="99"/>
       <c r="J20" s="99"/>
       <c r="K20" s="99"/>
@@ -18137,7 +18135,9 @@
       <c r="AA20" s="99"/>
       <c r="AB20" s="100"/>
       <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
+      <c r="AD20" s="99" t="s">
+        <v>206</v>
+      </c>
       <c r="AE20" s="99"/>
       <c r="AF20" s="99"/>
       <c r="AG20" s="99"/>
@@ -18150,11 +18150,8 @@
       <c r="D21" s="99"/>
       <c r="E21" s="99"/>
       <c r="F21" s="102"/>
-      <c r="G21" s="99"/>
       <c r="H21" s="99"/>
-      <c r="I21" s="99" t="s">
-        <v>210</v>
-      </c>
+      <c r="I21" s="99"/>
       <c r="J21" s="99"/>
       <c r="K21" s="99"/>
       <c r="L21" s="99"/>
@@ -18176,7 +18173,9 @@
       <c r="AB21" s="102"/>
       <c r="AC21" s="99"/>
       <c r="AD21" s="99"/>
-      <c r="AE21" s="99"/>
+      <c r="AE21" s="99" t="s">
+        <v>209</v>
+      </c>
       <c r="AF21" s="99"/>
       <c r="AG21" s="99"/>
       <c r="AH21" s="100"/>
@@ -18294,194 +18293,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="151"/>
+      <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="129" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="129" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="133"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="129" t="s">
+      <c r="AG2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="131"/>
+      <c r="AH2" s="134"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="135" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="132" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="132" t="s">
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="135" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="133"/>
-      <c r="Y3" s="133"/>
-      <c r="Z3" s="133"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="133"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="132" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH3" s="134"/>
+      <c r="AH3" s="137"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="137"/>
-      <c r="AG4" s="135"/>
-      <c r="AH4" s="137"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="139"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="140"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="178" t="s">
+      <c r="A5" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="180"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="183"/>
       <c r="G5" s="103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
       <c r="J5" s="105"/>
       <c r="K5" s="103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L5" s="104"/>
       <c r="M5" s="104"/>
       <c r="N5" s="105"/>
       <c r="O5" s="103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P5" s="104"/>
       <c r="Q5" s="104"/>
@@ -18648,12 +18647,12 @@
       <c r="FV5" s="23"/>
     </row>
     <row r="6" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A6" s="181"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="183"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="186"/>
       <c r="G6" s="106" t="s">
         <v>46</v>
       </c>
@@ -18783,7 +18782,7 @@
     </row>
     <row r="8" spans="1:178" ht="12.75" customHeight="1">
       <c r="A8" s="98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="99"/>
       <c r="C8" s="99"/>
@@ -18831,7 +18830,7 @@
     </row>
     <row r="9" spans="1:178" ht="12.75" customHeight="1">
       <c r="A9" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="99"/>
       <c r="C9" s="99"/>
@@ -18871,7 +18870,7 @@
     </row>
     <row r="10" spans="1:178" ht="12.75" customHeight="1">
       <c r="A10" s="98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="99"/>
       <c r="C10" s="99"/>
@@ -19457,227 +19456,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="151" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="151"/>
+      <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="129" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="129" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="129" t="s">
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="131"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="134"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="129" t="s">
+      <c r="AG2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="131"/>
+      <c r="AH2" s="134"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="135" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="132" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="132" t="s">
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="135" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="135" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="132" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z3" s="133"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="133"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="132" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH3" s="134"/>
+      <c r="AH3" s="137"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="137"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="137"/>
-      <c r="AG4" s="135"/>
-      <c r="AH4" s="137"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="140"/>
     </row>
     <row r="5" spans="1:178" ht="14.25" customHeight="1">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="191"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="191"/>
-      <c r="I5" s="191"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="193" t="s">
+      <c r="B5" s="188"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="194"/>
-      <c r="P5" s="195"/>
-      <c r="Q5" s="190" t="s">
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="201"/>
+      <c r="Q5" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="191"/>
-      <c r="S5" s="191"/>
-      <c r="T5" s="191"/>
-      <c r="U5" s="191"/>
-      <c r="V5" s="191"/>
-      <c r="W5" s="191"/>
-      <c r="X5" s="191"/>
-      <c r="Y5" s="191"/>
-      <c r="Z5" s="191"/>
-      <c r="AA5" s="192"/>
-      <c r="AB5" s="184" t="s">
+      <c r="R5" s="188"/>
+      <c r="S5" s="188"/>
+      <c r="T5" s="188"/>
+      <c r="U5" s="188"/>
+      <c r="V5" s="188"/>
+      <c r="W5" s="188"/>
+      <c r="X5" s="188"/>
+      <c r="Y5" s="188"/>
+      <c r="Z5" s="188"/>
+      <c r="AA5" s="189"/>
+      <c r="AB5" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="185"/>
-      <c r="AD5" s="185"/>
-      <c r="AE5" s="185"/>
-      <c r="AF5" s="185"/>
-      <c r="AG5" s="185"/>
-      <c r="AH5" s="186"/>
+      <c r="AC5" s="194"/>
+      <c r="AD5" s="194"/>
+      <c r="AE5" s="194"/>
+      <c r="AF5" s="194"/>
+      <c r="AG5" s="194"/>
+      <c r="AH5" s="195"/>
     </row>
     <row r="6" spans="1:178" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="199" t="s">
+      <c r="A6" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="200"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="201"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="192"/>
       <c r="F6" s="109" t="s">
         <v>37</v>
       </c>
@@ -19691,19 +19690,19 @@
         <v>56</v>
       </c>
       <c r="J6" s="95"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="198"/>
-      <c r="Q6" s="199" t="s">
+      <c r="K6" s="202"/>
+      <c r="L6" s="203"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="204"/>
+      <c r="Q6" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="200"/>
-      <c r="S6" s="200"/>
-      <c r="T6" s="200"/>
-      <c r="U6" s="201"/>
+      <c r="R6" s="191"/>
+      <c r="S6" s="191"/>
+      <c r="T6" s="191"/>
+      <c r="U6" s="192"/>
       <c r="V6" s="93" t="s">
         <v>61</v>
       </c>
@@ -19714,13 +19713,13 @@
       <c r="AA6" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" s="187"/>
-      <c r="AC6" s="188"/>
-      <c r="AD6" s="188"/>
-      <c r="AE6" s="188"/>
-      <c r="AF6" s="188"/>
-      <c r="AG6" s="188"/>
-      <c r="AH6" s="189"/>
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="197"/>
+      <c r="AD6" s="197"/>
+      <c r="AE6" s="197"/>
+      <c r="AF6" s="197"/>
+      <c r="AG6" s="197"/>
+      <c r="AH6" s="198"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="23"/>
       <c r="AK6" s="23"/>
@@ -19880,7 +19879,7 @@
       <c r="G7" s="101"/>
       <c r="H7" s="101"/>
       <c r="I7" s="99" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J7" s="100"/>
       <c r="K7" s="98" t="s">
@@ -19918,7 +19917,7 @@
     </row>
     <row r="8" spans="1:178" ht="12.75" customHeight="1">
       <c r="A8" s="110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="99"/>
       <c r="C8" s="99"/>
@@ -19930,11 +19929,11 @@
       <c r="G8" s="101"/>
       <c r="H8" s="101"/>
       <c r="I8" s="99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J8" s="100"/>
       <c r="K8" s="98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L8" s="99"/>
       <c r="M8" s="99"/>
@@ -19949,7 +19948,7 @@
       <c r="T8" s="99"/>
       <c r="U8" s="99"/>
       <c r="V8" s="98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W8" s="99"/>
       <c r="X8" s="99"/>
@@ -19957,7 +19956,7 @@
       <c r="Z8" s="100"/>
       <c r="AA8" s="84"/>
       <c r="AB8" s="110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC8" s="99"/>
       <c r="AD8" s="99"/>
@@ -19968,7 +19967,7 @@
     </row>
     <row r="9" spans="1:178" ht="12.75" customHeight="1">
       <c r="A9" s="110" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="99"/>
       <c r="C9" s="99"/>
@@ -19980,7 +19979,7 @@
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
       <c r="I9" s="99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J9" s="100"/>
       <c r="K9" s="98" t="s">
@@ -19992,14 +19991,14 @@
       <c r="O9" s="99"/>
       <c r="P9" s="100"/>
       <c r="Q9" s="98" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R9" s="99"/>
       <c r="S9" s="99"/>
       <c r="T9" s="99"/>
       <c r="U9" s="99"/>
       <c r="V9" s="98" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W9" s="99"/>
       <c r="X9" s="99"/>
@@ -20007,7 +20006,7 @@
       <c r="Z9" s="100"/>
       <c r="AA9" s="84"/>
       <c r="AB9" s="110" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC9" s="99"/>
       <c r="AD9" s="99"/>
@@ -20018,7 +20017,7 @@
     </row>
     <row r="10" spans="1:178" ht="12.75" customHeight="1">
       <c r="A10" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="99"/>
       <c r="C10" s="99"/>
@@ -20030,7 +20029,7 @@
       <c r="G10" s="101"/>
       <c r="H10" s="101"/>
       <c r="I10" s="99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J10" s="100"/>
       <c r="K10" s="98" t="s">
@@ -20059,7 +20058,7 @@
         <v>41</v>
       </c>
       <c r="AB10" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AC10" s="99"/>
       <c r="AD10" s="99"/>
@@ -20070,7 +20069,7 @@
     </row>
     <row r="11" spans="1:178" ht="12.75" customHeight="1">
       <c r="A11" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" s="99"/>
       <c r="C11" s="99"/>
@@ -20082,7 +20081,7 @@
       <c r="G11" s="101"/>
       <c r="H11" s="101"/>
       <c r="I11" s="99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J11" s="100"/>
       <c r="K11" s="98" t="s">
@@ -20111,7 +20110,7 @@
         <v>41</v>
       </c>
       <c r="AB11" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC11" s="99"/>
       <c r="AD11" s="99"/>
@@ -20122,7 +20121,7 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" s="99"/>
       <c r="C12" s="99"/>
@@ -20134,7 +20133,7 @@
       <c r="G12" s="101"/>
       <c r="H12" s="101"/>
       <c r="I12" s="99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J12" s="100"/>
       <c r="K12" s="98" t="s">
@@ -20163,7 +20162,7 @@
         <v>41</v>
       </c>
       <c r="AB12" s="110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC12" s="99"/>
       <c r="AD12" s="99"/>
@@ -20174,7 +20173,7 @@
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" s="99"/>
       <c r="C13" s="99"/>
@@ -20186,7 +20185,7 @@
       <c r="G13" s="101"/>
       <c r="H13" s="101"/>
       <c r="I13" s="99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J13" s="100"/>
       <c r="K13" s="98" t="s">
@@ -20215,7 +20214,7 @@
         <v>41</v>
       </c>
       <c r="AB13" s="110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC13" s="99"/>
       <c r="AD13" s="99"/>
@@ -20226,7 +20225,7 @@
     </row>
     <row r="14" spans="1:178" ht="12.75" customHeight="1">
       <c r="A14" s="110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" s="99"/>
       <c r="C14" s="99"/>
@@ -20238,7 +20237,7 @@
       <c r="G14" s="101"/>
       <c r="H14" s="101"/>
       <c r="I14" s="99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J14" s="100"/>
       <c r="K14" s="98" t="s">
@@ -20267,7 +20266,7 @@
         <v>41</v>
       </c>
       <c r="AB14" s="110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC14" s="99"/>
       <c r="AD14" s="99"/>
@@ -20278,7 +20277,7 @@
     </row>
     <row r="15" spans="1:178" ht="12.75" customHeight="1">
       <c r="A15" s="110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="99"/>
       <c r="C15" s="99"/>
@@ -20290,7 +20289,7 @@
       <c r="G15" s="101"/>
       <c r="H15" s="101"/>
       <c r="I15" s="99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J15" s="100"/>
       <c r="K15" s="98" t="s">
@@ -20319,7 +20318,7 @@
         <v>41</v>
       </c>
       <c r="AB15" s="110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC15" s="99"/>
       <c r="AD15" s="99"/>
@@ -20330,7 +20329,7 @@
     </row>
     <row r="16" spans="1:178" ht="12.75" customHeight="1">
       <c r="A16" s="110" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="99"/>
       <c r="C16" s="99"/>
@@ -20342,11 +20341,11 @@
       <c r="G16" s="101"/>
       <c r="H16" s="101"/>
       <c r="I16" s="99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J16" s="100"/>
       <c r="K16" s="98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L16" s="99"/>
       <c r="M16" s="99"/>
@@ -20361,7 +20360,7 @@
       <c r="T16" s="99"/>
       <c r="U16" s="99"/>
       <c r="V16" s="98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W16" s="99"/>
       <c r="X16" s="99"/>
@@ -20371,7 +20370,7 @@
         <v>41</v>
       </c>
       <c r="AB16" s="110" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC16" s="99"/>
       <c r="AD16" s="99"/>
@@ -20382,7 +20381,7 @@
     </row>
     <row r="17" spans="1:34" ht="12.75" customHeight="1">
       <c r="A17" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" s="99"/>
       <c r="C17" s="99"/>
@@ -20394,11 +20393,11 @@
       <c r="G17" s="101"/>
       <c r="H17" s="101"/>
       <c r="I17" s="99" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J17" s="100"/>
       <c r="K17" s="98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L17" s="99"/>
       <c r="M17" s="99"/>
@@ -20413,7 +20412,7 @@
       <c r="T17" s="99"/>
       <c r="U17" s="99"/>
       <c r="V17" s="98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W17" s="99"/>
       <c r="X17" s="99"/>
@@ -20423,7 +20422,7 @@
         <v>41</v>
       </c>
       <c r="AB17" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC17" s="99"/>
       <c r="AD17" s="99"/>
@@ -20434,7 +20433,7 @@
     </row>
     <row r="18" spans="1:34" ht="12.75" customHeight="1">
       <c r="A18" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="99"/>
       <c r="C18" s="99"/>
@@ -20446,11 +20445,11 @@
       <c r="G18" s="101"/>
       <c r="H18" s="101"/>
       <c r="I18" s="99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J18" s="100"/>
       <c r="K18" s="98" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L18" s="99"/>
       <c r="M18" s="99"/>
@@ -20465,7 +20464,7 @@
       <c r="T18" s="99"/>
       <c r="U18" s="99"/>
       <c r="V18" s="98" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W18" s="99"/>
       <c r="X18" s="99"/>
@@ -20475,7 +20474,7 @@
         <v>41</v>
       </c>
       <c r="AB18" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC18" s="99"/>
       <c r="AD18" s="99"/>
@@ -20486,7 +20485,7 @@
     </row>
     <row r="19" spans="1:34" ht="12.75" customHeight="1">
       <c r="A19" s="110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" s="99"/>
       <c r="C19" s="99"/>
@@ -20498,11 +20497,11 @@
       <c r="G19" s="101"/>
       <c r="H19" s="101"/>
       <c r="I19" s="99" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J19" s="100"/>
       <c r="K19" s="98" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L19" s="99"/>
       <c r="M19" s="99"/>
@@ -20517,7 +20516,7 @@
       <c r="T19" s="99"/>
       <c r="U19" s="99"/>
       <c r="V19" s="98" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W19" s="99"/>
       <c r="X19" s="99"/>
@@ -20527,7 +20526,7 @@
         <v>41</v>
       </c>
       <c r="AB19" s="110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AC19" s="99"/>
       <c r="AD19" s="99"/>
@@ -20538,7 +20537,7 @@
     </row>
     <row r="20" spans="1:34" ht="12.75" customHeight="1">
       <c r="A20" s="110" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="99"/>
       <c r="C20" s="99"/>
@@ -20550,11 +20549,11 @@
       <c r="G20" s="101"/>
       <c r="H20" s="101"/>
       <c r="I20" s="99" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J20" s="100"/>
       <c r="K20" s="98" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L20" s="99"/>
       <c r="M20" s="99"/>
@@ -20569,7 +20568,7 @@
       <c r="T20" s="99"/>
       <c r="U20" s="99"/>
       <c r="V20" s="98" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W20" s="99"/>
       <c r="X20" s="99"/>
@@ -20579,12 +20578,12 @@
         <v>41</v>
       </c>
       <c r="AB20" s="110" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AC20" s="99"/>
       <c r="AD20" s="99"/>
       <c r="AE20" s="99" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF20" s="99"/>
       <c r="AG20" s="99"/>
@@ -20592,7 +20591,7 @@
     </row>
     <row r="21" spans="1:34" ht="12.75" customHeight="1">
       <c r="A21" s="110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" s="99"/>
       <c r="C21" s="99"/>
@@ -20604,11 +20603,11 @@
       <c r="G21" s="101"/>
       <c r="H21" s="101"/>
       <c r="I21" s="99" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J21" s="100"/>
       <c r="K21" s="98" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L21" s="99"/>
       <c r="M21" s="99"/>
@@ -20623,7 +20622,7 @@
       <c r="T21" s="99"/>
       <c r="U21" s="99"/>
       <c r="V21" s="98" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W21" s="99"/>
       <c r="X21" s="99"/>
@@ -20633,7 +20632,7 @@
         <v>41</v>
       </c>
       <c r="AB21" s="110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC21" s="99"/>
       <c r="AD21" s="99"/>
@@ -20860,6 +20859,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="Q6:U6"/>
     <mergeCell ref="A1:AH1"/>
@@ -20874,10 +20877,6 @@
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="N2:X2"/>
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -20908,174 +20907,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="151"/>
+      <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="129" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="129" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="129" t="s">
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="131"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="134"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="129" t="s">
+      <c r="AG2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="131"/>
+      <c r="AH2" s="134"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="135" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="132" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="132" t="s">
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="135" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="135" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="132" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z3" s="133"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="133"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="132" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH3" s="134"/>
+      <c r="AH3" s="137"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="137"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="137"/>
-      <c r="AG4" s="135"/>
-      <c r="AH4" s="137"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="140"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="111"/>
@@ -21299,7 +21298,7 @@
       <c r="A7" s="65"/>
       <c r="B7" s="73"/>
       <c r="C7" s="73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
@@ -21337,7 +21336,7 @@
       <c r="A8" s="65"/>
       <c r="B8" s="73"/>
       <c r="C8" s="73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
@@ -21410,7 +21409,7 @@
     <row r="10" spans="1:178" ht="12.75" customHeight="1">
       <c r="A10" s="65"/>
       <c r="B10" s="73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
@@ -21449,7 +21448,7 @@
       <c r="A11" s="65"/>
       <c r="B11" s="73"/>
       <c r="C11" s="71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11" s="71"/>
       <c r="E11" s="73"/>
@@ -21488,7 +21487,7 @@
       <c r="B12" s="73"/>
       <c r="C12" s="71"/>
       <c r="D12" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="73"/>
       <c r="F12" s="73"/>

--- a/02_詳細設計書/02_内部レビュー/チーム2/詳細設計書_勤怠情報詳細.xlsx
+++ b/02_詳細設計書/02_内部レビュー/チーム2/詳細設計書_勤怠情報詳細.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7251AE83-EFD7-CA44-A1C0-49E6DC2FB5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14139DED-830E-364D-8001-A98B7639D40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" tabRatio="774" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" tabRatio="774" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -1176,10 +1176,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>データがございません</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>absence_hours</t>
   </si>
   <si>
@@ -1507,6 +1503,10 @@
   </si>
   <si>
     <t>日付検索選択ボックスや状態検索選択ボックスを選択するチェック</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データがありません</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2238,34 +2238,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2286,16 +2259,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2316,7 +2286,100 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2337,74 +2400,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2478,36 +2478,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2551,6 +2521,36 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2653,91 +2653,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>268699</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="フローチャート: 準備 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB10F73-908E-9440-8F93-898AF51D126F}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{05D91BA2-18BB-0B60-0E81-013995D0DB1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1736725" y="2663825"/>
-          <a:ext cx="1071974" cy="955675"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPreparation">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>ログイン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>26183</xdr:rowOff>
+      <xdr:rowOff>13483</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2755,7 +2680,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3765550" y="1000125"/>
+          <a:off x="5340350" y="1139825"/>
           <a:ext cx="1098550" cy="931058"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
@@ -2803,16 +2728,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>250824</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>253999</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>27073</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>101599</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1673</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2830,12 +2755,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8023224" y="977900"/>
+          <a:off x="5330824" y="2933700"/>
           <a:ext cx="1120775" cy="954173"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2878,16 +2806,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>56740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2905,8 +2833,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5775325" y="5029200"/>
-          <a:ext cx="1108075" cy="1209675"/>
+          <a:off x="5051425" y="4838700"/>
+          <a:ext cx="1692275" cy="1847440"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -2934,6 +2862,86 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>社員マスタ</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>t_attendance</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>m_dept</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
             <a:rPr lang="en" altLang="ja-JP" sz="1100">
@@ -2944,7 +2952,7 @@
               <a:ea typeface="+mn-lt"/>
               <a:cs typeface="+mn-lt"/>
             </a:rPr>
-            <a:t>t_attendance</a:t>
+            <a:t>t_employee</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -2961,211 +2969,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE39222E-40A9-2346-A4DA-359515D80ABC}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8BBF201B-5833-47D7-AAF7-223CF13AE424}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{05D91BA2-18BB-0B60-0E81-013995D0DB1E}" end="{23B3B3C4-C910-3F06-160F-9E5CB8627852}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1003300" y="3138488"/>
-          <a:ext cx="733425" cy="3175"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>50212</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>17854</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72921B3D-4D43-4B40-B94F-A9A5F1B16417}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{50242D42-C0C8-4E4E-A0BD-C0A6E039BEF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="3" idx="0"/>
-          <a:endCxn id="4" idx="1"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2272712" y="1465654"/>
-          <a:ext cx="1492838" cy="1198171"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>50212</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CD79CA-CE4E-AA47-87CD-B5FFB5D7A588}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{328FC0F7-B903-F9F8-BDEF-E67922485143}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="3" idx="2"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{23B3B3C4-C910-3F06-160F-9E5CB8627852}" end="{D96658B0-555E-906A-4BD7-51D01064C717}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2272712" y="3771900"/>
-          <a:ext cx="3502613" cy="1862138"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>27073</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>11112</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:colOff>182563</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3182,7 +2995,7 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="6" idx="4"/>
+          <a:endCxn id="6" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
               <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}" end="{00000000-0000-0000-0000-000000000000}"/>
@@ -3191,9 +3004,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6883400" y="2084473"/>
-          <a:ext cx="1700212" cy="3549565"/>
+        <a:xfrm>
+          <a:off x="5891212" y="3887873"/>
+          <a:ext cx="6351" cy="950827"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3222,16 +3035,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>143658</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3249,7 +3062,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5816600" y="2641600"/>
+          <a:off x="8356600" y="2057400"/>
           <a:ext cx="1098550" cy="931058"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPreparation">
@@ -3297,44 +3110,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>26183</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>101599</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>296863</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>134187</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線コネクタ 8">
+        <xdr:cNvPr id="28" name="直線コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F0666C-4AA8-0B46-A0D9-1E346A17A4FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA44BDB-82D8-C440-B8CD-809999E96CC5}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{50242D42-C0C8-4E4E-A0BD-C0A6E039BEF2}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B2FE6171-3072-7E1D-D381-E8BE6D46BEA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="6" idx="1"/>
-          <a:endCxn id="4" idx="2"/>
+          <a:stCxn id="12" idx="1"/>
+          <a:endCxn id="5" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}" end="{76DF78F0-E7FA-868D-AE16-F942DFC82B78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4314825" y="2083583"/>
-          <a:ext cx="2014538" cy="2945617"/>
+        <a:xfrm flipH="1">
+          <a:off x="6451599" y="2522929"/>
+          <a:ext cx="1905001" cy="887858"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3362,49 +3175,50 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>296863</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>143658</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>13483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線コネクタ 11">
+        <xdr:cNvPr id="14" name="直線コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049B6F5E-56AC-0046-929C-280558CF897F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29DC2E5-B953-F44F-8D98-9655D370CDD2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0BE38CFA-FF44-0DA7-2F94-B96627AA6F03}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{689D7005-639B-6D1F-942C-9CC6F35F8E51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="12" idx="2"/>
-          <a:endCxn id="6" idx="1"/>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="4" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{76DF78F0-E7FA-868D-AE16-F942DFC82B78}" end="{00000000-0000-0000-0000-000000000000}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}" end="{00000000-0000-0000-0000-000000000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6329363" y="3725058"/>
-          <a:ext cx="36512" cy="1304142"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5889625" y="2070883"/>
+          <a:ext cx="1587" cy="862817"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3427,49 +3241,50 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>17854</xdr:rowOff>
+      <xdr:rowOff>5154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 9">
+        <xdr:cNvPr id="57" name="直線コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13D773D-B7F6-1249-9479-8E266249C6D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06E82A1-AD21-504B-B95C-2563F45374E8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B2FE6171-3072-7E1D-D381-E8BE6D46BEA1}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{689D7005-639B-6D1F-942C-9CC6F35F8E51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="12" idx="0"/>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}" end="{76DF78F0-E7FA-868D-AE16-F942DFC82B78}"/>
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}" end="{00000000-0000-0000-0000-000000000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4864100" y="1465654"/>
-          <a:ext cx="1501775" cy="1175946"/>
+        <a:xfrm flipV="1">
+          <a:off x="1003300" y="1605354"/>
+          <a:ext cx="4337050" cy="1685534"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3493,22 +3308,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>7187</xdr:rowOff>
+      <xdr:rowOff>5154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8329</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線コネクタ 9">
+        <xdr:cNvPr id="81" name="直線コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA44BDB-82D8-C440-B8CD-809999E96CC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7E00F4-CE1B-EA46-9BB0-0CCE864130FB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B2FE6171-3072-7E1D-D381-E8BE6D46BEA1}"/>
@@ -3517,8 +3332,8 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="12" idx="0"/>
-          <a:endCxn id="5" idx="1"/>
+          <a:stCxn id="12" idx="1"/>
+          <a:endCxn id="4" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
               <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}" end="{76DF78F0-E7FA-868D-AE16-F942DFC82B78}"/>
@@ -3527,80 +3342,14 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6365875" y="1454987"/>
-          <a:ext cx="1657349" cy="1186613"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6438900" y="1605354"/>
+          <a:ext cx="1917700" cy="917575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7187</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>17854</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29DC2E5-B953-F44F-8D98-9655D370CDD2}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{689D7005-639B-6D1F-942C-9CC6F35F8E51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="5" idx="1"/>
-          <a:endCxn id="4" idx="3"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}" end="{00000000-0000-0000-0000-000000000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4864100" y="1607387"/>
-          <a:ext cx="3159124" cy="10667"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -5934,72 +5683,72 @@
     </row>
     <row r="4" spans="1:176" ht="15" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="144"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123"/>
+      <c r="AE4" s="123"/>
       <c r="AF4" s="12"/>
     </row>
     <row r="5" spans="1:176" ht="15" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="144"/>
-      <c r="AA5" s="144"/>
-      <c r="AB5" s="144"/>
-      <c r="AC5" s="144"/>
-      <c r="AD5" s="144"/>
-      <c r="AE5" s="144"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="123"/>
+      <c r="W5" s="123"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="123"/>
+      <c r="AA5" s="123"/>
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="123"/>
+      <c r="AD5" s="123"/>
+      <c r="AE5" s="123"/>
       <c r="AF5" s="12"/>
     </row>
     <row r="6" spans="1:176" ht="15" customHeight="1">
@@ -6171,124 +5920,124 @@
     </row>
     <row r="11" spans="1:176" ht="15" customHeight="1">
       <c r="A11" s="11"/>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="132" t="s">
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="132" t="s">
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="133"/>
-      <c r="U11" s="133"/>
-      <c r="V11" s="133"/>
-      <c r="W11" s="133"/>
-      <c r="X11" s="133"/>
-      <c r="Y11" s="133"/>
-      <c r="Z11" s="133"/>
-      <c r="AA11" s="134"/>
-      <c r="AB11" s="132" t="s">
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="131"/>
+      <c r="Y11" s="131"/>
+      <c r="Z11" s="131"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="AC11" s="134"/>
-      <c r="AD11" s="132" t="s">
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AE11" s="134"/>
+      <c r="AE11" s="132"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="11"/>
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="135" t="s">
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="145" t="s">
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="146"/>
-      <c r="U12" s="146"/>
-      <c r="V12" s="146"/>
-      <c r="W12" s="146"/>
-      <c r="X12" s="146"/>
-      <c r="Y12" s="146"/>
-      <c r="Z12" s="146"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="145" t="s">
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="134"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="134"/>
+      <c r="Y12" s="134"/>
+      <c r="Z12" s="134"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="135" t="s">
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="AE12" s="137"/>
+      <c r="AE12" s="126"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="149"/>
-      <c r="R13" s="149"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="149"/>
-      <c r="U13" s="149"/>
-      <c r="V13" s="149"/>
-      <c r="W13" s="149"/>
-      <c r="X13" s="149"/>
-      <c r="Y13" s="149"/>
-      <c r="Z13" s="149"/>
-      <c r="AA13" s="150"/>
-      <c r="AB13" s="148"/>
-      <c r="AC13" s="150"/>
-      <c r="AD13" s="138"/>
-      <c r="AE13" s="140"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="138"/>
+      <c r="AB13" s="136"/>
+      <c r="AC13" s="138"/>
+      <c r="AD13" s="127"/>
+      <c r="AE13" s="129"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
@@ -6493,54 +6242,54 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="141" t="s">
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="141" t="s">
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
-      <c r="S20" s="142"/>
-      <c r="T20" s="142"/>
-      <c r="U20" s="142"/>
-      <c r="V20" s="142"/>
-      <c r="W20" s="142"/>
-      <c r="X20" s="142"/>
-      <c r="Y20" s="142"/>
-      <c r="Z20" s="142"/>
-      <c r="AA20" s="142"/>
-      <c r="AB20" s="143"/>
-      <c r="AC20" s="141" t="s">
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="143"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="143"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="143"/>
+      <c r="X20" s="143"/>
+      <c r="Y20" s="143"/>
+      <c r="Z20" s="143"/>
+      <c r="AA20" s="143"/>
+      <c r="AB20" s="144"/>
+      <c r="AC20" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="AD20" s="142"/>
-      <c r="AE20" s="143"/>
+      <c r="AD20" s="143"/>
+      <c r="AE20" s="144"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="123" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
+      <c r="B21" s="139" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="141"/>
       <c r="F21" s="120" t="s">
         <v>89</v>
       </c>
@@ -6577,10 +6326,10 @@
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="125"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="141"/>
       <c r="F22" s="120"/>
       <c r="G22" s="121"/>
       <c r="H22" s="121"/>
@@ -6611,10 +6360,10 @@
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="141"/>
       <c r="F23" s="120"/>
       <c r="G23" s="121"/>
       <c r="H23" s="121"/>
@@ -6645,10 +6394,10 @@
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="125"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="141"/>
       <c r="F24" s="120"/>
       <c r="G24" s="121"/>
       <c r="H24" s="121"/>
@@ -6679,10 +6428,10 @@
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="125"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="141"/>
       <c r="F25" s="120"/>
       <c r="G25" s="121"/>
       <c r="H25" s="121"/>
@@ -6713,10 +6462,10 @@
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="125"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="141"/>
       <c r="F26" s="120"/>
       <c r="G26" s="121"/>
       <c r="H26" s="121"/>
@@ -6747,10 +6496,10 @@
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="125"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="141"/>
       <c r="F27" s="120"/>
       <c r="G27" s="121"/>
       <c r="H27" s="121"/>
@@ -6781,10 +6530,10 @@
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="125"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="141"/>
       <c r="F28" s="120"/>
       <c r="G28" s="121"/>
       <c r="H28" s="121"/>
@@ -6815,10 +6564,10 @@
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="125"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="141"/>
       <c r="F29" s="120"/>
       <c r="G29" s="121"/>
       <c r="H29" s="121"/>
@@ -6849,274 +6598,274 @@
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="130"/>
-      <c r="R30" s="130"/>
-      <c r="S30" s="130"/>
-      <c r="T30" s="130"/>
-      <c r="U30" s="130"/>
-      <c r="V30" s="130"/>
-      <c r="W30" s="130"/>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="130"/>
-      <c r="AA30" s="130"/>
-      <c r="AB30" s="131"/>
-      <c r="AC30" s="129"/>
-      <c r="AD30" s="130"/>
-      <c r="AE30" s="131"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="149"/>
+      <c r="P30" s="149"/>
+      <c r="Q30" s="149"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="149"/>
+      <c r="T30" s="149"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="149"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="149"/>
+      <c r="Z30" s="149"/>
+      <c r="AA30" s="149"/>
+      <c r="AB30" s="150"/>
+      <c r="AC30" s="148"/>
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="150"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="126"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="130"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="130"/>
-      <c r="T31" s="130"/>
-      <c r="U31" s="130"/>
-      <c r="V31" s="130"/>
-      <c r="W31" s="130"/>
-      <c r="X31" s="130"/>
-      <c r="Y31" s="130"/>
-      <c r="Z31" s="130"/>
-      <c r="AA31" s="130"/>
-      <c r="AB31" s="131"/>
-      <c r="AC31" s="129"/>
-      <c r="AD31" s="130"/>
-      <c r="AE31" s="131"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
+      <c r="N31" s="149"/>
+      <c r="O31" s="149"/>
+      <c r="P31" s="149"/>
+      <c r="Q31" s="149"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="149"/>
+      <c r="T31" s="149"/>
+      <c r="U31" s="149"/>
+      <c r="V31" s="149"/>
+      <c r="W31" s="149"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="149"/>
+      <c r="Z31" s="149"/>
+      <c r="AA31" s="149"/>
+      <c r="AB31" s="150"/>
+      <c r="AC31" s="148"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="150"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="130"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="130"/>
-      <c r="T32" s="130"/>
-      <c r="U32" s="130"/>
-      <c r="V32" s="130"/>
-      <c r="W32" s="130"/>
-      <c r="X32" s="130"/>
-      <c r="Y32" s="130"/>
-      <c r="Z32" s="130"/>
-      <c r="AA32" s="130"/>
-      <c r="AB32" s="131"/>
-      <c r="AC32" s="129"/>
-      <c r="AD32" s="130"/>
-      <c r="AE32" s="131"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
+      <c r="N32" s="149"/>
+      <c r="O32" s="149"/>
+      <c r="P32" s="149"/>
+      <c r="Q32" s="149"/>
+      <c r="R32" s="149"/>
+      <c r="S32" s="149"/>
+      <c r="T32" s="149"/>
+      <c r="U32" s="149"/>
+      <c r="V32" s="149"/>
+      <c r="W32" s="149"/>
+      <c r="X32" s="149"/>
+      <c r="Y32" s="149"/>
+      <c r="Z32" s="149"/>
+      <c r="AA32" s="149"/>
+      <c r="AB32" s="150"/>
+      <c r="AC32" s="148"/>
+      <c r="AD32" s="149"/>
+      <c r="AE32" s="150"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="130"/>
-      <c r="R33" s="130"/>
-      <c r="S33" s="130"/>
-      <c r="T33" s="130"/>
-      <c r="U33" s="130"/>
-      <c r="V33" s="130"/>
-      <c r="W33" s="130"/>
-      <c r="X33" s="130"/>
-      <c r="Y33" s="130"/>
-      <c r="Z33" s="130"/>
-      <c r="AA33" s="130"/>
-      <c r="AB33" s="131"/>
-      <c r="AC33" s="129"/>
-      <c r="AD33" s="130"/>
-      <c r="AE33" s="131"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="149"/>
+      <c r="O33" s="149"/>
+      <c r="P33" s="149"/>
+      <c r="Q33" s="149"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="149"/>
+      <c r="T33" s="149"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="149"/>
+      <c r="W33" s="149"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="149"/>
+      <c r="Z33" s="149"/>
+      <c r="AA33" s="149"/>
+      <c r="AB33" s="150"/>
+      <c r="AC33" s="148"/>
+      <c r="AD33" s="149"/>
+      <c r="AE33" s="150"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="131"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="130"/>
-      <c r="M34" s="130"/>
-      <c r="N34" s="130"/>
-      <c r="O34" s="130"/>
-      <c r="P34" s="130"/>
-      <c r="Q34" s="130"/>
-      <c r="R34" s="130"/>
-      <c r="S34" s="130"/>
-      <c r="T34" s="130"/>
-      <c r="U34" s="130"/>
-      <c r="V34" s="130"/>
-      <c r="W34" s="130"/>
-      <c r="X34" s="130"/>
-      <c r="Y34" s="130"/>
-      <c r="Z34" s="130"/>
-      <c r="AA34" s="130"/>
-      <c r="AB34" s="131"/>
-      <c r="AC34" s="129"/>
-      <c r="AD34" s="130"/>
-      <c r="AE34" s="131"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="149"/>
+      <c r="P34" s="149"/>
+      <c r="Q34" s="149"/>
+      <c r="R34" s="149"/>
+      <c r="S34" s="149"/>
+      <c r="T34" s="149"/>
+      <c r="U34" s="149"/>
+      <c r="V34" s="149"/>
+      <c r="W34" s="149"/>
+      <c r="X34" s="149"/>
+      <c r="Y34" s="149"/>
+      <c r="Z34" s="149"/>
+      <c r="AA34" s="149"/>
+      <c r="AB34" s="150"/>
+      <c r="AC34" s="148"/>
+      <c r="AD34" s="149"/>
+      <c r="AE34" s="150"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="130"/>
-      <c r="M35" s="130"/>
-      <c r="N35" s="130"/>
-      <c r="O35" s="130"/>
-      <c r="P35" s="130"/>
-      <c r="Q35" s="130"/>
-      <c r="R35" s="130"/>
-      <c r="S35" s="130"/>
-      <c r="T35" s="130"/>
-      <c r="U35" s="130"/>
-      <c r="V35" s="130"/>
-      <c r="W35" s="130"/>
-      <c r="X35" s="130"/>
-      <c r="Y35" s="130"/>
-      <c r="Z35" s="130"/>
-      <c r="AA35" s="130"/>
-      <c r="AB35" s="131"/>
-      <c r="AC35" s="129"/>
-      <c r="AD35" s="130"/>
-      <c r="AE35" s="131"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
+      <c r="N35" s="149"/>
+      <c r="O35" s="149"/>
+      <c r="P35" s="149"/>
+      <c r="Q35" s="149"/>
+      <c r="R35" s="149"/>
+      <c r="S35" s="149"/>
+      <c r="T35" s="149"/>
+      <c r="U35" s="149"/>
+      <c r="V35" s="149"/>
+      <c r="W35" s="149"/>
+      <c r="X35" s="149"/>
+      <c r="Y35" s="149"/>
+      <c r="Z35" s="149"/>
+      <c r="AA35" s="149"/>
+      <c r="AB35" s="150"/>
+      <c r="AC35" s="148"/>
+      <c r="AD35" s="149"/>
+      <c r="AE35" s="150"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="129"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="130"/>
-      <c r="O36" s="130"/>
-      <c r="P36" s="130"/>
-      <c r="Q36" s="130"/>
-      <c r="R36" s="130"/>
-      <c r="S36" s="130"/>
-      <c r="T36" s="130"/>
-      <c r="U36" s="130"/>
-      <c r="V36" s="130"/>
-      <c r="W36" s="130"/>
-      <c r="X36" s="130"/>
-      <c r="Y36" s="130"/>
-      <c r="Z36" s="130"/>
-      <c r="AA36" s="130"/>
-      <c r="AB36" s="131"/>
-      <c r="AC36" s="129"/>
-      <c r="AD36" s="130"/>
-      <c r="AE36" s="131"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
+      <c r="N36" s="149"/>
+      <c r="O36" s="149"/>
+      <c r="P36" s="149"/>
+      <c r="Q36" s="149"/>
+      <c r="R36" s="149"/>
+      <c r="S36" s="149"/>
+      <c r="T36" s="149"/>
+      <c r="U36" s="149"/>
+      <c r="V36" s="149"/>
+      <c r="W36" s="149"/>
+      <c r="X36" s="149"/>
+      <c r="Y36" s="149"/>
+      <c r="Z36" s="149"/>
+      <c r="AA36" s="149"/>
+      <c r="AB36" s="150"/>
+      <c r="AC36" s="148"/>
+      <c r="AD36" s="149"/>
+      <c r="AE36" s="150"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="129"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="129"/>
-      <c r="K37" s="130"/>
-      <c r="L37" s="130"/>
-      <c r="M37" s="130"/>
-      <c r="N37" s="130"/>
-      <c r="O37" s="130"/>
-      <c r="P37" s="130"/>
-      <c r="Q37" s="130"/>
-      <c r="R37" s="130"/>
-      <c r="S37" s="130"/>
-      <c r="T37" s="130"/>
-      <c r="U37" s="130"/>
-      <c r="V37" s="130"/>
-      <c r="W37" s="130"/>
-      <c r="X37" s="130"/>
-      <c r="Y37" s="130"/>
-      <c r="Z37" s="130"/>
-      <c r="AA37" s="130"/>
-      <c r="AB37" s="131"/>
-      <c r="AC37" s="129"/>
-      <c r="AD37" s="130"/>
-      <c r="AE37" s="131"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
+      <c r="N37" s="149"/>
+      <c r="O37" s="149"/>
+      <c r="P37" s="149"/>
+      <c r="Q37" s="149"/>
+      <c r="R37" s="149"/>
+      <c r="S37" s="149"/>
+      <c r="T37" s="149"/>
+      <c r="U37" s="149"/>
+      <c r="V37" s="149"/>
+      <c r="W37" s="149"/>
+      <c r="X37" s="149"/>
+      <c r="Y37" s="149"/>
+      <c r="Z37" s="149"/>
+      <c r="AA37" s="149"/>
+      <c r="AB37" s="150"/>
+      <c r="AC37" s="148"/>
+      <c r="AD37" s="149"/>
+      <c r="AE37" s="150"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -7155,17 +6904,62 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="B4:AE5"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="M12:AA13"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
     <mergeCell ref="J23:AB23"/>
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="AD11:AE11"/>
@@ -7182,62 +6976,17 @@
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="AC20:AE20"/>
     <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B4:AE5"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AB12:AC13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7272,171 +7021,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="227" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="211"/>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="211"/>
-      <c r="AD1" s="211"/>
-      <c r="AE1" s="211"/>
-      <c r="AF1" s="211"/>
-      <c r="AG1" s="211"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="227"/>
+      <c r="O1" s="227"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="227"/>
+      <c r="S1" s="227"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
+      <c r="Y1" s="227"/>
+      <c r="Z1" s="227"/>
+      <c r="AA1" s="227"/>
+      <c r="AB1" s="227"/>
+      <c r="AC1" s="227"/>
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="227"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="212" t="s">
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="212" t="s">
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
+      <c r="N2" s="229"/>
+      <c r="O2" s="229"/>
+      <c r="P2" s="229"/>
+      <c r="Q2" s="229"/>
+      <c r="R2" s="229"/>
+      <c r="S2" s="229"/>
+      <c r="T2" s="229"/>
+      <c r="U2" s="229"/>
+      <c r="V2" s="229"/>
+      <c r="W2" s="229"/>
+      <c r="X2" s="229"/>
+      <c r="Y2" s="229"/>
+      <c r="Z2" s="229"/>
+      <c r="AA2" s="229"/>
+      <c r="AB2" s="229"/>
+      <c r="AC2" s="230"/>
       <c r="AD2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="17"/>
-      <c r="AF2" s="212" t="s">
+      <c r="AF2" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="214"/>
+      <c r="AG2" s="230"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="205" t="str">
+      <c r="A3" s="221" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="205" t="str">
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="221" t="str">
         <f>表紙!G12</f>
         <v>勤怠情報・一覧登録</v>
       </c>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="205" t="str">
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="221" t="str">
         <f>表紙!M12</f>
         <v>勤怠管理情報詳細一覧 / 更新 / 削除</v>
       </c>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="206"/>
-      <c r="AD3" s="205" t="str">
+      <c r="N3" s="225"/>
+      <c r="O3" s="225"/>
+      <c r="P3" s="225"/>
+      <c r="Q3" s="225"/>
+      <c r="R3" s="225"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="225"/>
+      <c r="U3" s="225"/>
+      <c r="V3" s="225"/>
+      <c r="W3" s="225"/>
+      <c r="X3" s="225"/>
+      <c r="Y3" s="225"/>
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="225"/>
+      <c r="AB3" s="225"/>
+      <c r="AC3" s="222"/>
+      <c r="AD3" s="221" t="str">
         <f>表紙!AB12</f>
         <v>NTS</v>
       </c>
-      <c r="AE3" s="206"/>
-      <c r="AF3" s="205" t="str">
+      <c r="AE3" s="222"/>
+      <c r="AF3" s="221" t="str">
         <f>表紙!AD12</f>
         <v>司徒 健斌</v>
       </c>
-      <c r="AG3" s="206"/>
+      <c r="AG3" s="222"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="207"/>
-      <c r="B4" s="210"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
-      <c r="S4" s="210"/>
-      <c r="T4" s="210"/>
-      <c r="U4" s="210"/>
-      <c r="V4" s="210"/>
-      <c r="W4" s="210"/>
-      <c r="X4" s="210"/>
-      <c r="Y4" s="210"/>
-      <c r="Z4" s="210"/>
-      <c r="AA4" s="210"/>
-      <c r="AB4" s="210"/>
-      <c r="AC4" s="208"/>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="208"/>
-      <c r="AF4" s="207"/>
-      <c r="AG4" s="208"/>
+      <c r="A4" s="223"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="226"/>
+      <c r="J4" s="226"/>
+      <c r="K4" s="226"/>
+      <c r="L4" s="224"/>
+      <c r="M4" s="223"/>
+      <c r="N4" s="226"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="226"/>
+      <c r="T4" s="226"/>
+      <c r="U4" s="226"/>
+      <c r="V4" s="226"/>
+      <c r="W4" s="226"/>
+      <c r="X4" s="226"/>
+      <c r="Y4" s="226"/>
+      <c r="Z4" s="226"/>
+      <c r="AA4" s="226"/>
+      <c r="AB4" s="226"/>
+      <c r="AC4" s="224"/>
+      <c r="AD4" s="223"/>
+      <c r="AE4" s="224"/>
+      <c r="AF4" s="223"/>
+      <c r="AG4" s="224"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -7649,94 +7398,94 @@
     </row>
     <row r="7" spans="1:177" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="30"/>
-      <c r="B7" s="217" t="s">
+      <c r="B7" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="227"/>
-      <c r="D7" s="217" t="s">
+      <c r="C7" s="217"/>
+      <c r="D7" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="226"/>
-      <c r="F7" s="226"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="217" t="s">
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="226"/>
-      <c r="J7" s="227"/>
-      <c r="K7" s="217" t="s">
+      <c r="I7" s="216"/>
+      <c r="J7" s="217"/>
+      <c r="K7" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="226"/>
-      <c r="M7" s="227"/>
-      <c r="N7" s="217" t="s">
+      <c r="L7" s="216"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="218"/>
-      <c r="P7" s="219"/>
-      <c r="Q7" s="217" t="s">
+      <c r="O7" s="208"/>
+      <c r="P7" s="209"/>
+      <c r="Q7" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="219"/>
-      <c r="S7" s="217" t="s">
+      <c r="R7" s="209"/>
+      <c r="S7" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="218"/>
-      <c r="U7" s="219"/>
-      <c r="V7" s="217" t="s">
+      <c r="T7" s="208"/>
+      <c r="U7" s="209"/>
+      <c r="V7" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="218"/>
-      <c r="X7" s="219"/>
-      <c r="Y7" s="217" t="s">
+      <c r="W7" s="208"/>
+      <c r="X7" s="209"/>
+      <c r="Y7" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="Z7" s="218"/>
-      <c r="AA7" s="218"/>
-      <c r="AB7" s="218"/>
-      <c r="AC7" s="218"/>
-      <c r="AD7" s="218"/>
-      <c r="AE7" s="219"/>
+      <c r="Z7" s="208"/>
+      <c r="AA7" s="208"/>
+      <c r="AB7" s="208"/>
+      <c r="AC7" s="208"/>
+      <c r="AD7" s="208"/>
+      <c r="AE7" s="209"/>
       <c r="AG7" s="32"/>
     </row>
     <row r="8" spans="1:177" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="30"/>
-      <c r="B8" s="215" t="s">
+      <c r="B8" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="216"/>
+      <c r="C8" s="206"/>
       <c r="D8" s="30" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="32"/>
-      <c r="H8" s="220" t="s">
+      <c r="H8" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="221"/>
-      <c r="J8" s="222"/>
-      <c r="K8" s="223" t="s">
+      <c r="I8" s="211"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="213" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="224"/>
-      <c r="M8" s="225"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="215"/>
       <c r="N8" s="30" t="s">
         <v>19</v>
       </c>
       <c r="P8" s="32"/>
-      <c r="Q8" s="223" t="s">
+      <c r="Q8" s="213" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="225"/>
-      <c r="S8" s="228" t="s">
+      <c r="R8" s="215"/>
+      <c r="S8" s="218" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="229"/>
-      <c r="U8" s="230"/>
-      <c r="V8" s="220" t="s">
+      <c r="T8" s="219"/>
+      <c r="U8" s="220"/>
+      <c r="V8" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="221"/>
-      <c r="X8" s="222"/>
+      <c r="W8" s="211"/>
+      <c r="X8" s="212"/>
       <c r="Y8" s="33" t="s">
         <v>24</v>
       </c>
@@ -8399,6 +8148,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="Y7:AE7"/>
     <mergeCell ref="H8:J8"/>
@@ -8414,16 +8173,6 @@
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8458,178 +8207,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="211"/>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="211"/>
-      <c r="AD1" s="211"/>
-      <c r="AE1" s="211"/>
-      <c r="AF1" s="211"/>
-      <c r="AG1" s="211"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="227"/>
+      <c r="O1" s="227"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="227"/>
+      <c r="S1" s="227"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
+      <c r="Y1" s="227"/>
+      <c r="Z1" s="227"/>
+      <c r="AA1" s="227"/>
+      <c r="AB1" s="227"/>
+      <c r="AC1" s="227"/>
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="227"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="212" t="s">
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="212" t="s">
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="212" t="s">
+      <c r="O2" s="229"/>
+      <c r="P2" s="229"/>
+      <c r="Q2" s="229"/>
+      <c r="R2" s="229"/>
+      <c r="S2" s="229"/>
+      <c r="T2" s="229"/>
+      <c r="U2" s="229"/>
+      <c r="V2" s="229"/>
+      <c r="W2" s="229"/>
+      <c r="X2" s="230"/>
+      <c r="Y2" s="228" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="214"/>
+      <c r="Z2" s="229"/>
+      <c r="AA2" s="229"/>
+      <c r="AB2" s="229"/>
+      <c r="AC2" s="229"/>
+      <c r="AD2" s="230"/>
       <c r="AE2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="17"/>
-      <c r="AG2" s="212" t="s">
+      <c r="AG2" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="214"/>
+      <c r="AH2" s="230"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="205" t="str">
+      <c r="A3" s="221" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="205" t="str">
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="221" t="str">
         <f>表紙!G12</f>
         <v>勤怠情報・一覧登録</v>
       </c>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="205" t="str">
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="221" t="str">
         <f>表紙!M12</f>
         <v>勤怠管理情報詳細一覧 / 更新 / 削除</v>
       </c>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="205" t="s">
+      <c r="O3" s="225"/>
+      <c r="P3" s="225"/>
+      <c r="Q3" s="225"/>
+      <c r="R3" s="225"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="225"/>
+      <c r="U3" s="225"/>
+      <c r="V3" s="225"/>
+      <c r="W3" s="225"/>
+      <c r="X3" s="222"/>
+      <c r="Y3" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="206"/>
-      <c r="AE3" s="205" t="str">
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="225"/>
+      <c r="AB3" s="225"/>
+      <c r="AC3" s="225"/>
+      <c r="AD3" s="222"/>
+      <c r="AE3" s="221" t="str">
         <f>表紙!AB12</f>
         <v>NTS</v>
       </c>
-      <c r="AF3" s="206"/>
-      <c r="AG3" s="205" t="str">
+      <c r="AF3" s="222"/>
+      <c r="AG3" s="221" t="str">
         <f>表紙!AD12</f>
         <v>司徒 健斌</v>
       </c>
-      <c r="AH3" s="206"/>
+      <c r="AH3" s="222"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="207"/>
-      <c r="B4" s="210"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="210"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
-      <c r="S4" s="210"/>
-      <c r="T4" s="210"/>
-      <c r="U4" s="210"/>
-      <c r="V4" s="210"/>
-      <c r="W4" s="210"/>
-      <c r="X4" s="208"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="210"/>
-      <c r="AA4" s="210"/>
-      <c r="AB4" s="210"/>
-      <c r="AC4" s="210"/>
-      <c r="AD4" s="208"/>
-      <c r="AE4" s="207"/>
-      <c r="AF4" s="208"/>
-      <c r="AG4" s="207"/>
-      <c r="AH4" s="208"/>
+      <c r="A4" s="223"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="226"/>
+      <c r="J4" s="226"/>
+      <c r="K4" s="226"/>
+      <c r="L4" s="226"/>
+      <c r="M4" s="224"/>
+      <c r="N4" s="223"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="226"/>
+      <c r="T4" s="226"/>
+      <c r="U4" s="226"/>
+      <c r="V4" s="226"/>
+      <c r="W4" s="226"/>
+      <c r="X4" s="224"/>
+      <c r="Y4" s="223"/>
+      <c r="Z4" s="226"/>
+      <c r="AA4" s="226"/>
+      <c r="AB4" s="226"/>
+      <c r="AC4" s="226"/>
+      <c r="AD4" s="224"/>
+      <c r="AE4" s="223"/>
+      <c r="AF4" s="224"/>
+      <c r="AG4" s="223"/>
+      <c r="AH4" s="224"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -10067,18 +9816,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10147,136 +9896,136 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="132" t="s">
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="134"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="132"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="132"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="133" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="135" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="126"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="129"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="45"/>
@@ -10954,7 +10703,7 @@
       <c r="A19" s="88"/>
       <c r="B19" s="89"/>
       <c r="C19" s="89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="89"/>
       <c r="E19" s="89"/>
@@ -10992,7 +10741,7 @@
       <c r="A20" s="88"/>
       <c r="B20" s="89"/>
       <c r="C20" s="89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D20" s="89"/>
       <c r="E20" s="89"/>
@@ -11030,7 +10779,7 @@
       <c r="A21" s="88"/>
       <c r="B21" s="89"/>
       <c r="C21" s="89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D21" s="89"/>
       <c r="E21" s="89"/>
@@ -11068,7 +10817,7 @@
       <c r="A22" s="88"/>
       <c r="B22" s="89"/>
       <c r="C22" s="89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D22" s="89"/>
       <c r="E22" s="89"/>
@@ -11106,7 +10855,7 @@
       <c r="A23" s="88"/>
       <c r="B23" s="89"/>
       <c r="C23" s="92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D23" s="89"/>
       <c r="E23" s="89"/>
@@ -11144,7 +10893,7 @@
       <c r="A24" s="88"/>
       <c r="B24" s="89"/>
       <c r="C24" s="89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D24" s="89"/>
       <c r="E24" s="89"/>
@@ -11900,18 +11649,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11930,7 +11679,7 @@
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="AE33" sqref="AE33"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -11980,129 +11729,129 @@
       <c r="AG1" s="151"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="134"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="132"/>
       <c r="AD2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="87"/>
-      <c r="AF2" s="132" t="s">
+      <c r="AF2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="134"/>
+      <c r="AG2" s="132"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="135" t="s">
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="137"/>
-      <c r="AD3" s="135" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE3" s="137"/>
-      <c r="AF3" s="135" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG3" s="137"/>
+      <c r="AG3" s="126"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="140"/>
-      <c r="AD4" s="138"/>
-      <c r="AE4" s="140"/>
-      <c r="AF4" s="138"/>
-      <c r="AG4" s="140"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="127"/>
+      <c r="AG4" s="129"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="58"/>
@@ -13650,16 +13399,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13729,129 +13478,129 @@
       <c r="AG1" s="151"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="134"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="132"/>
       <c r="AD2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="87"/>
-      <c r="AF2" s="132" t="s">
+      <c r="AF2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="134"/>
+      <c r="AG2" s="132"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="135" t="s">
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="137"/>
-      <c r="AD3" s="135" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE3" s="137"/>
-      <c r="AF3" s="135" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG3" s="137"/>
+      <c r="AG3" s="126"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="140"/>
-      <c r="AD4" s="138"/>
-      <c r="AE4" s="140"/>
-      <c r="AF4" s="138"/>
-      <c r="AG4" s="140"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="127"/>
+      <c r="AG4" s="129"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -14179,12 +13928,12 @@
       <c r="B10" s="158"/>
       <c r="C10" s="158"/>
       <c r="D10" s="158"/>
-      <c r="E10" s="159">
+      <c r="E10" s="179">
         <v>1</v>
       </c>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
       <c r="I10" s="77"/>
       <c r="J10" s="78"/>
       <c r="K10" s="83"/>
@@ -14212,7 +13961,7 @@
       <c r="AG10" s="67"/>
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="180" t="s">
         <v>108</v>
       </c>
       <c r="B11" s="158"/>
@@ -14251,7 +14000,7 @@
       <c r="AG11" s="67"/>
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A12" s="160" t="s">
+      <c r="A12" s="180" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="158"/>
@@ -14373,17 +14122,17 @@
       <c r="K15" s="79"/>
       <c r="L15" s="79"/>
       <c r="M15" s="81"/>
-      <c r="N15" s="152" t="s">
+      <c r="N15" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="O15" s="152"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="153" t="s">
+      <c r="O15" s="173"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="R15" s="153"/>
-      <c r="S15" s="154"/>
-      <c r="T15" s="155"/>
+      <c r="R15" s="174"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="176"/>
       <c r="U15" s="79"/>
       <c r="V15" s="79"/>
       <c r="W15" s="79"/>
@@ -14412,13 +14161,13 @@
       <c r="K16" s="79"/>
       <c r="L16" s="79"/>
       <c r="M16" s="79"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="157"/>
+      <c r="N16" s="173"/>
+      <c r="O16" s="173"/>
+      <c r="P16" s="173"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="174"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="178"/>
       <c r="U16" s="79"/>
       <c r="V16" s="79"/>
       <c r="W16" s="79"/>
@@ -14433,11 +14182,11 @@
       <c r="AF16" s="68"/>
       <c r="AG16" s="67"/>
       <c r="AT16" s="117" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AU16" s="117"/>
       <c r="AV16" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="12.75" customHeight="1">
@@ -14477,105 +14226,105 @@
       <c r="AT17" s="118"/>
       <c r="AU17" s="119"/>
       <c r="AV17" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A18" s="164" t="s">
+      <c r="A18" s="170" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="165"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="164" t="s">
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="164" t="s">
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="170" t="s">
         <v>114</v>
       </c>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="164" t="s">
+      <c r="I18" s="171"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="170" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="164" t="s">
+      <c r="L18" s="171"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="O18" s="165"/>
-      <c r="P18" s="164" t="s">
+      <c r="O18" s="171"/>
+      <c r="P18" s="170" t="s">
         <v>96</v>
       </c>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="164" t="s">
+      <c r="Q18" s="171"/>
+      <c r="R18" s="170" t="s">
         <v>97</v>
       </c>
-      <c r="S18" s="165"/>
-      <c r="T18" s="164" t="s">
+      <c r="S18" s="171"/>
+      <c r="T18" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="U18" s="165"/>
-      <c r="V18" s="164" t="s">
+      <c r="U18" s="171"/>
+      <c r="V18" s="170" t="s">
         <v>98</v>
       </c>
-      <c r="W18" s="165"/>
-      <c r="X18" s="165"/>
-      <c r="Y18" s="165"/>
-      <c r="Z18" s="165"/>
-      <c r="AA18" s="165"/>
-      <c r="AB18" s="164" t="s">
+      <c r="W18" s="171"/>
+      <c r="X18" s="171"/>
+      <c r="Y18" s="171"/>
+      <c r="Z18" s="171"/>
+      <c r="AA18" s="171"/>
+      <c r="AB18" s="170" t="s">
         <v>99</v>
       </c>
-      <c r="AC18" s="164"/>
-      <c r="AD18" s="166" t="s">
+      <c r="AC18" s="170"/>
+      <c r="AD18" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="AE18" s="166"/>
+      <c r="AE18" s="172"/>
       <c r="AF18" s="68"/>
       <c r="AG18" s="67"/>
       <c r="AT18" s="118"/>
       <c r="AU18" s="119"/>
       <c r="AV18" s="71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A19" s="161">
+      <c r="A19" s="168">
         <v>2022090101</v>
       </c>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="168"/>
       <c r="D19" s="158" t="s">
         <v>101</v>
       </c>
       <c r="E19" s="158"/>
       <c r="F19" s="158"/>
       <c r="G19" s="158"/>
-      <c r="H19" s="162">
+      <c r="H19" s="169">
         <v>0.375</v>
       </c>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="162">
+      <c r="I19" s="169"/>
+      <c r="J19" s="169"/>
+      <c r="K19" s="169">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="163">
+      <c r="L19" s="169"/>
+      <c r="M19" s="169"/>
+      <c r="N19" s="161">
         <v>1</v>
       </c>
-      <c r="O19" s="163"/>
-      <c r="P19" s="163">
+      <c r="O19" s="161"/>
+      <c r="P19" s="161">
         <v>1</v>
       </c>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="163">
+      <c r="Q19" s="161"/>
+      <c r="R19" s="161">
         <v>9</v>
       </c>
-      <c r="S19" s="163"/>
+      <c r="S19" s="161"/>
       <c r="T19" s="158" t="s">
         <v>95</v>
       </c>
@@ -14588,54 +14337,54 @@
       <c r="Y19" s="158"/>
       <c r="Z19" s="158"/>
       <c r="AA19" s="158"/>
-      <c r="AB19" s="167"/>
-      <c r="AC19" s="167"/>
-      <c r="AD19" s="168"/>
-      <c r="AE19" s="168"/>
+      <c r="AB19" s="159"/>
+      <c r="AC19" s="159"/>
+      <c r="AD19" s="160"/>
+      <c r="AE19" s="160"/>
       <c r="AF19" s="68"/>
       <c r="AG19" s="67"/>
       <c r="AT19" s="119"/>
       <c r="AU19" s="119"/>
       <c r="AV19" s="119" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A20" s="161">
+      <c r="A20" s="168">
         <v>2022090201</v>
       </c>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="168"/>
       <c r="D20" s="158" t="s">
         <v>103</v>
       </c>
       <c r="E20" s="158"/>
       <c r="F20" s="158"/>
       <c r="G20" s="158"/>
-      <c r="H20" s="162">
+      <c r="H20" s="169">
         <v>0.375</v>
       </c>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="162">
+      <c r="I20" s="169"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169">
         <v>0.75</v>
       </c>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="163">
+      <c r="L20" s="169"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="161">
         <v>1</v>
       </c>
-      <c r="O20" s="163"/>
-      <c r="P20" s="163">
+      <c r="O20" s="161"/>
+      <c r="P20" s="161">
         <v>0</v>
       </c>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="163">
+      <c r="Q20" s="161"/>
+      <c r="R20" s="161">
         <v>8</v>
       </c>
-      <c r="S20" s="163"/>
+      <c r="S20" s="161"/>
       <c r="T20" s="158" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U20" s="158"/>
       <c r="V20" s="158" t="s">
@@ -14646,52 +14395,52 @@
       <c r="Y20" s="158"/>
       <c r="Z20" s="158"/>
       <c r="AA20" s="158"/>
-      <c r="AB20" s="167"/>
-      <c r="AC20" s="167"/>
-      <c r="AD20" s="168"/>
-      <c r="AE20" s="168"/>
+      <c r="AB20" s="159"/>
+      <c r="AC20" s="159"/>
+      <c r="AD20" s="160"/>
+      <c r="AE20" s="160"/>
       <c r="AF20" s="68"/>
       <c r="AG20" s="67"/>
       <c r="AT20" s="119"/>
       <c r="AU20" s="119"/>
       <c r="AV20" s="119" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A21" s="161">
+      <c r="A21" s="168">
         <v>2022090301</v>
       </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="168"/>
       <c r="D21" s="158" t="s">
         <v>105</v>
       </c>
       <c r="E21" s="158"/>
       <c r="F21" s="158"/>
       <c r="G21" s="158"/>
-      <c r="H21" s="162">
+      <c r="H21" s="169">
         <v>0.375</v>
       </c>
-      <c r="I21" s="162"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="162">
+      <c r="I21" s="169"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="169">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="163">
+      <c r="L21" s="169"/>
+      <c r="M21" s="169"/>
+      <c r="N21" s="161">
         <v>1</v>
       </c>
-      <c r="O21" s="163"/>
-      <c r="P21" s="163">
+      <c r="O21" s="161"/>
+      <c r="P21" s="161">
         <v>1</v>
       </c>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="163">
+      <c r="Q21" s="161"/>
+      <c r="R21" s="161">
         <v>9</v>
       </c>
-      <c r="S21" s="163"/>
+      <c r="S21" s="161"/>
       <c r="T21" s="158" t="s">
         <v>106</v>
       </c>
@@ -14704,19 +14453,19 @@
       <c r="Y21" s="158"/>
       <c r="Z21" s="158"/>
       <c r="AA21" s="158"/>
-      <c r="AB21" s="167"/>
-      <c r="AC21" s="167"/>
-      <c r="AD21" s="168"/>
-      <c r="AE21" s="168"/>
+      <c r="AB21" s="159"/>
+      <c r="AC21" s="159"/>
+      <c r="AD21" s="160"/>
+      <c r="AE21" s="160"/>
       <c r="AF21" s="68"/>
       <c r="AG21" s="67"/>
     </row>
     <row r="22" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A22" s="161">
+      <c r="A22" s="168">
         <v>2022090401</v>
       </c>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="168"/>
       <c r="D22" s="158"/>
       <c r="E22" s="158"/>
       <c r="F22" s="158"/>
@@ -14727,12 +14476,12 @@
       <c r="K22" s="158"/>
       <c r="L22" s="158"/>
       <c r="M22" s="158"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="169"/>
-      <c r="S22" s="169"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="157"/>
       <c r="T22" s="158"/>
       <c r="U22" s="158"/>
       <c r="V22" s="158"/>
@@ -14741,19 +14490,19 @@
       <c r="Y22" s="158"/>
       <c r="Z22" s="158"/>
       <c r="AA22" s="158"/>
-      <c r="AB22" s="167"/>
-      <c r="AC22" s="167"/>
-      <c r="AD22" s="168"/>
-      <c r="AE22" s="168"/>
+      <c r="AB22" s="159"/>
+      <c r="AC22" s="159"/>
+      <c r="AD22" s="160"/>
+      <c r="AE22" s="160"/>
       <c r="AF22" s="68"/>
       <c r="AG22" s="67"/>
     </row>
     <row r="23" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A23" s="161">
+      <c r="A23" s="168">
         <v>2022090501</v>
       </c>
-      <c r="B23" s="161"/>
-      <c r="C23" s="161"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
       <c r="D23" s="158"/>
       <c r="E23" s="158"/>
       <c r="F23" s="158"/>
@@ -14764,12 +14513,12 @@
       <c r="K23" s="158"/>
       <c r="L23" s="158"/>
       <c r="M23" s="158"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="169"/>
-      <c r="S23" s="169"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="157"/>
+      <c r="S23" s="157"/>
       <c r="T23" s="158"/>
       <c r="U23" s="158"/>
       <c r="V23" s="158"/>
@@ -14778,19 +14527,19 @@
       <c r="Y23" s="158"/>
       <c r="Z23" s="158"/>
       <c r="AA23" s="158"/>
-      <c r="AB23" s="167"/>
-      <c r="AC23" s="167"/>
-      <c r="AD23" s="168"/>
-      <c r="AE23" s="168"/>
+      <c r="AB23" s="159"/>
+      <c r="AC23" s="159"/>
+      <c r="AD23" s="160"/>
+      <c r="AE23" s="160"/>
       <c r="AF23" s="68"/>
       <c r="AG23" s="67"/>
     </row>
     <row r="24" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A24" s="161">
+      <c r="A24" s="168">
         <v>2022090601</v>
       </c>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="158"/>
       <c r="E24" s="158"/>
       <c r="F24" s="158"/>
@@ -14801,12 +14550,12 @@
       <c r="K24" s="158"/>
       <c r="L24" s="158"/>
       <c r="M24" s="158"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="169"/>
-      <c r="S24" s="169"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="157"/>
+      <c r="S24" s="157"/>
       <c r="T24" s="158"/>
       <c r="U24" s="158"/>
       <c r="V24" s="158"/>
@@ -14815,19 +14564,19 @@
       <c r="Y24" s="158"/>
       <c r="Z24" s="158"/>
       <c r="AA24" s="158"/>
-      <c r="AB24" s="167"/>
-      <c r="AC24" s="167"/>
-      <c r="AD24" s="168"/>
-      <c r="AE24" s="168"/>
+      <c r="AB24" s="159"/>
+      <c r="AC24" s="159"/>
+      <c r="AD24" s="160"/>
+      <c r="AE24" s="160"/>
       <c r="AF24" s="68"/>
       <c r="AG24" s="67"/>
     </row>
     <row r="25" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A25" s="161">
+      <c r="A25" s="168">
         <v>2022090701</v>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="158"/>
       <c r="E25" s="158"/>
       <c r="F25" s="158"/>
@@ -14838,12 +14587,12 @@
       <c r="K25" s="158"/>
       <c r="L25" s="158"/>
       <c r="M25" s="158"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="163"/>
-      <c r="Q25" s="163"/>
-      <c r="R25" s="169"/>
-      <c r="S25" s="169"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="157"/>
+      <c r="S25" s="157"/>
       <c r="T25" s="158"/>
       <c r="U25" s="158"/>
       <c r="V25" s="158"/>
@@ -14852,19 +14601,19 @@
       <c r="Y25" s="158"/>
       <c r="Z25" s="158"/>
       <c r="AA25" s="158"/>
-      <c r="AB25" s="167"/>
-      <c r="AC25" s="167"/>
-      <c r="AD25" s="168"/>
-      <c r="AE25" s="168"/>
+      <c r="AB25" s="159"/>
+      <c r="AC25" s="159"/>
+      <c r="AD25" s="160"/>
+      <c r="AE25" s="160"/>
       <c r="AF25" s="68"/>
       <c r="AG25" s="67"/>
     </row>
     <row r="26" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A26" s="161">
+      <c r="A26" s="168">
         <v>2022090801</v>
       </c>
-      <c r="B26" s="161"/>
-      <c r="C26" s="161"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
       <c r="D26" s="158"/>
       <c r="E26" s="158"/>
       <c r="F26" s="158"/>
@@ -14875,12 +14624,12 @@
       <c r="K26" s="158"/>
       <c r="L26" s="158"/>
       <c r="M26" s="158"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="163"/>
-      <c r="Q26" s="163"/>
-      <c r="R26" s="169"/>
-      <c r="S26" s="169"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="157"/>
+      <c r="S26" s="157"/>
       <c r="T26" s="158"/>
       <c r="U26" s="158"/>
       <c r="V26" s="158"/>
@@ -14889,19 +14638,19 @@
       <c r="Y26" s="158"/>
       <c r="Z26" s="158"/>
       <c r="AA26" s="158"/>
-      <c r="AB26" s="167"/>
-      <c r="AC26" s="167"/>
-      <c r="AD26" s="168"/>
-      <c r="AE26" s="168"/>
+      <c r="AB26" s="159"/>
+      <c r="AC26" s="159"/>
+      <c r="AD26" s="160"/>
+      <c r="AE26" s="160"/>
       <c r="AF26" s="68"/>
       <c r="AG26" s="67"/>
     </row>
     <row r="27" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A27" s="161">
+      <c r="A27" s="168">
         <v>2022090901</v>
       </c>
-      <c r="B27" s="161"/>
-      <c r="C27" s="161"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
       <c r="D27" s="158"/>
       <c r="E27" s="158"/>
       <c r="F27" s="158"/>
@@ -14912,12 +14661,12 @@
       <c r="K27" s="158"/>
       <c r="L27" s="158"/>
       <c r="M27" s="158"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="163"/>
-      <c r="Q27" s="163"/>
-      <c r="R27" s="169"/>
-      <c r="S27" s="169"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="157"/>
+      <c r="S27" s="157"/>
       <c r="T27" s="158"/>
       <c r="U27" s="158"/>
       <c r="V27" s="158"/>
@@ -14926,19 +14675,19 @@
       <c r="Y27" s="158"/>
       <c r="Z27" s="158"/>
       <c r="AA27" s="158"/>
-      <c r="AB27" s="167"/>
-      <c r="AC27" s="167"/>
-      <c r="AD27" s="168"/>
-      <c r="AE27" s="168"/>
+      <c r="AB27" s="159"/>
+      <c r="AC27" s="159"/>
+      <c r="AD27" s="160"/>
+      <c r="AE27" s="160"/>
       <c r="AF27" s="68"/>
       <c r="AG27" s="67"/>
     </row>
     <row r="28" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A28" s="161">
+      <c r="A28" s="168">
         <v>2022091001</v>
       </c>
-      <c r="B28" s="161"/>
-      <c r="C28" s="161"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="158"/>
       <c r="E28" s="158"/>
       <c r="F28" s="158"/>
@@ -14949,12 +14698,12 @@
       <c r="K28" s="158"/>
       <c r="L28" s="158"/>
       <c r="M28" s="158"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="163"/>
-      <c r="R28" s="169"/>
-      <c r="S28" s="169"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="161"/>
+      <c r="Q28" s="161"/>
+      <c r="R28" s="157"/>
+      <c r="S28" s="157"/>
       <c r="T28" s="158"/>
       <c r="U28" s="158"/>
       <c r="V28" s="158"/>
@@ -14963,19 +14712,19 @@
       <c r="Y28" s="158"/>
       <c r="Z28" s="158"/>
       <c r="AA28" s="158"/>
-      <c r="AB28" s="167"/>
-      <c r="AC28" s="167"/>
-      <c r="AD28" s="168"/>
-      <c r="AE28" s="168"/>
+      <c r="AB28" s="159"/>
+      <c r="AC28" s="159"/>
+      <c r="AD28" s="160"/>
+      <c r="AE28" s="160"/>
       <c r="AF28" s="68"/>
       <c r="AG28" s="67"/>
     </row>
     <row r="29" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A29" s="161">
+      <c r="A29" s="168">
         <v>2022091101</v>
       </c>
-      <c r="B29" s="161"/>
-      <c r="C29" s="161"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
       <c r="D29" s="158"/>
       <c r="E29" s="158"/>
       <c r="F29" s="158"/>
@@ -14986,12 +14735,12 @@
       <c r="K29" s="158"/>
       <c r="L29" s="158"/>
       <c r="M29" s="158"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
-      <c r="P29" s="163"/>
-      <c r="Q29" s="163"/>
-      <c r="R29" s="169"/>
-      <c r="S29" s="169"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="157"/>
+      <c r="S29" s="157"/>
       <c r="T29" s="158"/>
       <c r="U29" s="158"/>
       <c r="V29" s="158"/>
@@ -15000,19 +14749,19 @@
       <c r="Y29" s="158"/>
       <c r="Z29" s="158"/>
       <c r="AA29" s="158"/>
-      <c r="AB29" s="167"/>
-      <c r="AC29" s="167"/>
-      <c r="AD29" s="168"/>
-      <c r="AE29" s="168"/>
+      <c r="AB29" s="159"/>
+      <c r="AC29" s="159"/>
+      <c r="AD29" s="160"/>
+      <c r="AE29" s="160"/>
       <c r="AF29" s="68"/>
       <c r="AG29" s="67"/>
     </row>
     <row r="30" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A30" s="161">
+      <c r="A30" s="168">
         <v>2022091201</v>
       </c>
-      <c r="B30" s="161"/>
-      <c r="C30" s="161"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
       <c r="D30" s="158"/>
       <c r="E30" s="158"/>
       <c r="F30" s="158"/>
@@ -15023,12 +14772,12 @@
       <c r="K30" s="158"/>
       <c r="L30" s="158"/>
       <c r="M30" s="158"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-      <c r="P30" s="163"/>
-      <c r="Q30" s="163"/>
-      <c r="R30" s="169"/>
-      <c r="S30" s="169"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="161"/>
+      <c r="P30" s="161"/>
+      <c r="Q30" s="161"/>
+      <c r="R30" s="157"/>
+      <c r="S30" s="157"/>
       <c r="T30" s="158"/>
       <c r="U30" s="158"/>
       <c r="V30" s="158"/>
@@ -15037,19 +14786,19 @@
       <c r="Y30" s="158"/>
       <c r="Z30" s="158"/>
       <c r="AA30" s="158"/>
-      <c r="AB30" s="167"/>
-      <c r="AC30" s="167"/>
-      <c r="AD30" s="168"/>
-      <c r="AE30" s="168"/>
+      <c r="AB30" s="159"/>
+      <c r="AC30" s="159"/>
+      <c r="AD30" s="160"/>
+      <c r="AE30" s="160"/>
       <c r="AF30" s="68"/>
       <c r="AG30" s="67"/>
     </row>
     <row r="31" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A31" s="161">
+      <c r="A31" s="168">
         <v>2022091301</v>
       </c>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
       <c r="D31" s="158"/>
       <c r="E31" s="158"/>
       <c r="F31" s="158"/>
@@ -15060,12 +14809,12 @@
       <c r="K31" s="158"/>
       <c r="L31" s="158"/>
       <c r="M31" s="158"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="163"/>
-      <c r="Q31" s="163"/>
-      <c r="R31" s="169"/>
-      <c r="S31" s="169"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="161"/>
+      <c r="Q31" s="161"/>
+      <c r="R31" s="157"/>
+      <c r="S31" s="157"/>
       <c r="T31" s="158"/>
       <c r="U31" s="158"/>
       <c r="V31" s="158"/>
@@ -15074,19 +14823,19 @@
       <c r="Y31" s="158"/>
       <c r="Z31" s="158"/>
       <c r="AA31" s="158"/>
-      <c r="AB31" s="167"/>
-      <c r="AC31" s="167"/>
-      <c r="AD31" s="168"/>
-      <c r="AE31" s="168"/>
+      <c r="AB31" s="159"/>
+      <c r="AC31" s="159"/>
+      <c r="AD31" s="160"/>
+      <c r="AE31" s="160"/>
       <c r="AF31" s="68"/>
       <c r="AG31" s="67"/>
     </row>
     <row r="32" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A32" s="161">
+      <c r="A32" s="168">
         <v>2022091401</v>
       </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="168"/>
       <c r="D32" s="158"/>
       <c r="E32" s="158"/>
       <c r="F32" s="158"/>
@@ -15097,12 +14846,12 @@
       <c r="K32" s="158"/>
       <c r="L32" s="158"/>
       <c r="M32" s="158"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
-      <c r="P32" s="163"/>
-      <c r="Q32" s="163"/>
-      <c r="R32" s="169"/>
-      <c r="S32" s="169"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="161"/>
+      <c r="R32" s="157"/>
+      <c r="S32" s="157"/>
       <c r="T32" s="158"/>
       <c r="U32" s="158"/>
       <c r="V32" s="158"/>
@@ -15111,19 +14860,19 @@
       <c r="Y32" s="158"/>
       <c r="Z32" s="158"/>
       <c r="AA32" s="158"/>
-      <c r="AB32" s="167"/>
-      <c r="AC32" s="167"/>
-      <c r="AD32" s="168"/>
-      <c r="AE32" s="168"/>
+      <c r="AB32" s="159"/>
+      <c r="AC32" s="159"/>
+      <c r="AD32" s="160"/>
+      <c r="AE32" s="160"/>
       <c r="AF32" s="68"/>
       <c r="AG32" s="67"/>
     </row>
     <row r="33" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A33" s="161">
+      <c r="A33" s="168">
         <v>2022091501</v>
       </c>
-      <c r="B33" s="161"/>
-      <c r="C33" s="161"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
       <c r="D33" s="158"/>
       <c r="E33" s="158"/>
       <c r="F33" s="158"/>
@@ -15134,12 +14883,12 @@
       <c r="K33" s="158"/>
       <c r="L33" s="158"/>
       <c r="M33" s="158"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="163"/>
-      <c r="P33" s="163"/>
-      <c r="Q33" s="163"/>
-      <c r="R33" s="169"/>
-      <c r="S33" s="169"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="161"/>
+      <c r="Q33" s="161"/>
+      <c r="R33" s="157"/>
+      <c r="S33" s="157"/>
       <c r="T33" s="158"/>
       <c r="U33" s="158"/>
       <c r="V33" s="158"/>
@@ -15148,19 +14897,19 @@
       <c r="Y33" s="158"/>
       <c r="Z33" s="158"/>
       <c r="AA33" s="158"/>
-      <c r="AB33" s="167"/>
-      <c r="AC33" s="167"/>
-      <c r="AD33" s="168"/>
-      <c r="AE33" s="168"/>
+      <c r="AB33" s="159"/>
+      <c r="AC33" s="159"/>
+      <c r="AD33" s="160"/>
+      <c r="AE33" s="160"/>
       <c r="AF33" s="68"/>
       <c r="AG33" s="67"/>
     </row>
     <row r="34" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A34" s="161">
+      <c r="A34" s="168">
         <v>2022091601</v>
       </c>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
       <c r="D34" s="158"/>
       <c r="E34" s="158"/>
       <c r="F34" s="158"/>
@@ -15171,12 +14920,12 @@
       <c r="K34" s="158"/>
       <c r="L34" s="158"/>
       <c r="M34" s="158"/>
-      <c r="N34" s="163"/>
-      <c r="O34" s="163"/>
-      <c r="P34" s="163"/>
-      <c r="Q34" s="163"/>
-      <c r="R34" s="169"/>
-      <c r="S34" s="169"/>
+      <c r="N34" s="161"/>
+      <c r="O34" s="161"/>
+      <c r="P34" s="161"/>
+      <c r="Q34" s="161"/>
+      <c r="R34" s="157"/>
+      <c r="S34" s="157"/>
       <c r="T34" s="158"/>
       <c r="U34" s="158"/>
       <c r="V34" s="158"/>
@@ -15185,19 +14934,19 @@
       <c r="Y34" s="158"/>
       <c r="Z34" s="158"/>
       <c r="AA34" s="158"/>
-      <c r="AB34" s="167"/>
-      <c r="AC34" s="167"/>
-      <c r="AD34" s="168"/>
-      <c r="AE34" s="168"/>
+      <c r="AB34" s="159"/>
+      <c r="AC34" s="159"/>
+      <c r="AD34" s="160"/>
+      <c r="AE34" s="160"/>
       <c r="AF34" s="68"/>
       <c r="AG34" s="67"/>
     </row>
     <row r="35" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A35" s="161">
+      <c r="A35" s="168">
         <v>2022091701</v>
       </c>
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
       <c r="D35" s="158"/>
       <c r="E35" s="158"/>
       <c r="F35" s="158"/>
@@ -15208,12 +14957,12 @@
       <c r="K35" s="158"/>
       <c r="L35" s="158"/>
       <c r="M35" s="158"/>
-      <c r="N35" s="163"/>
-      <c r="O35" s="163"/>
-      <c r="P35" s="163"/>
-      <c r="Q35" s="163"/>
-      <c r="R35" s="169"/>
-      <c r="S35" s="169"/>
+      <c r="N35" s="161"/>
+      <c r="O35" s="161"/>
+      <c r="P35" s="161"/>
+      <c r="Q35" s="161"/>
+      <c r="R35" s="157"/>
+      <c r="S35" s="157"/>
       <c r="T35" s="158"/>
       <c r="U35" s="158"/>
       <c r="V35" s="158"/>
@@ -15222,53 +14971,53 @@
       <c r="Y35" s="158"/>
       <c r="Z35" s="158"/>
       <c r="AA35" s="158"/>
-      <c r="AB35" s="167"/>
-      <c r="AC35" s="167"/>
-      <c r="AD35" s="168"/>
-      <c r="AE35" s="168"/>
+      <c r="AB35" s="159"/>
+      <c r="AC35" s="159"/>
+      <c r="AD35" s="160"/>
+      <c r="AE35" s="160"/>
       <c r="AF35" s="68"/>
       <c r="AG35" s="67"/>
     </row>
     <row r="36" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A36" s="170" t="s">
+      <c r="A36" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="171"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="176"/>
-      <c r="K36" s="176"/>
-      <c r="L36" s="176"/>
-      <c r="M36" s="176"/>
-      <c r="N36" s="176"/>
-      <c r="O36" s="176"/>
-      <c r="P36" s="177">
+      <c r="B36" s="163"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="166"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="154"/>
+      <c r="P36" s="152">
         <f>SUM(P19:Q35)</f>
         <v>2</v>
       </c>
-      <c r="Q36" s="177"/>
-      <c r="R36" s="178">
+      <c r="Q36" s="152"/>
+      <c r="R36" s="153">
         <f>SUM(R19:S35)</f>
         <v>26</v>
       </c>
-      <c r="S36" s="178"/>
-      <c r="T36" s="176"/>
-      <c r="U36" s="176"/>
-      <c r="V36" s="176"/>
-      <c r="W36" s="176"/>
-      <c r="X36" s="176"/>
-      <c r="Y36" s="176"/>
-      <c r="Z36" s="176"/>
-      <c r="AA36" s="176"/>
-      <c r="AB36" s="179"/>
-      <c r="AC36" s="179"/>
-      <c r="AD36" s="180"/>
-      <c r="AE36" s="180"/>
+      <c r="S36" s="153"/>
+      <c r="T36" s="154"/>
+      <c r="U36" s="154"/>
+      <c r="V36" s="154"/>
+      <c r="W36" s="154"/>
+      <c r="X36" s="154"/>
+      <c r="Y36" s="154"/>
+      <c r="Z36" s="154"/>
+      <c r="AA36" s="154"/>
+      <c r="AB36" s="155"/>
+      <c r="AC36" s="155"/>
+      <c r="AD36" s="156"/>
+      <c r="AE36" s="156"/>
       <c r="AF36" s="68"/>
       <c r="AG36" s="67"/>
     </row>
@@ -15554,191 +15303,25 @@
     </row>
   </sheetData>
   <mergeCells count="228">
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="Q15:R16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="H20:J20"/>
@@ -15763,25 +15346,191 @@
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="R20:S20"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="N15:P16"/>
-    <mergeCell ref="Q15:R16"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="P35:Q35"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="3">
@@ -15812,7 +15561,7 @@
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:A22"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -15863,136 +15612,136 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="132" t="s">
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="134"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="132"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="132"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="135" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="135" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="126"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="129"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="93"/>
@@ -17182,18 +16931,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="G3:M4"/>
     <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="N2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -17210,7 +16959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:FV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
       <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
@@ -17264,132 +17013,132 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="134"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="132"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="132"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="135" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="126"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="129"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="93" t="s">
@@ -17587,7 +17336,7 @@
       <c r="E6" s="99"/>
       <c r="F6" s="100"/>
       <c r="G6" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H6" s="99"/>
       <c r="I6" s="99"/>
@@ -17691,7 +17440,7 @@
     </row>
     <row r="9" spans="1:178" ht="12.75" customHeight="1">
       <c r="A9" s="98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9" s="99"/>
       <c r="C9" s="99"/>
@@ -17766,7 +17515,7 @@
     </row>
     <row r="11" spans="1:178" ht="12.75" customHeight="1">
       <c r="A11" s="98" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="99"/>
       <c r="C11" s="99"/>
@@ -17840,7 +17589,7 @@
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="99"/>
       <c r="C13" s="99"/>
@@ -17848,7 +17597,7 @@
       <c r="E13" s="99"/>
       <c r="F13" s="102"/>
       <c r="G13" s="98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H13" s="99"/>
       <c r="I13" s="99"/>
@@ -17918,7 +17667,7 @@
     </row>
     <row r="15" spans="1:178" ht="12.75" customHeight="1">
       <c r="A15" s="98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15" s="99"/>
       <c r="C15" s="99"/>
@@ -17993,7 +17742,7 @@
     </row>
     <row r="17" spans="1:34" ht="12.75" customHeight="1">
       <c r="A17" s="98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="99"/>
       <c r="C17" s="99"/>
@@ -18022,7 +17771,7 @@
       <c r="AA17" s="99"/>
       <c r="AB17" s="100"/>
       <c r="AC17" s="99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AD17" s="99"/>
       <c r="AE17" s="99"/>
@@ -18061,7 +17810,7 @@
       <c r="AB18" s="102"/>
       <c r="AC18" s="99"/>
       <c r="AD18" s="99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AE18" s="99"/>
       <c r="AF18" s="99"/>
@@ -18099,7 +17848,7 @@
       <c r="AC19" s="99"/>
       <c r="AD19" s="99"/>
       <c r="AE19" s="99" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF19" s="99"/>
       <c r="AG19" s="99"/>
@@ -18136,7 +17885,7 @@
       <c r="AB20" s="100"/>
       <c r="AC20" s="99"/>
       <c r="AD20" s="99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AE20" s="99"/>
       <c r="AF20" s="99"/>
@@ -18174,7 +17923,7 @@
       <c r="AC21" s="99"/>
       <c r="AD21" s="99"/>
       <c r="AE21" s="99" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF21" s="99"/>
       <c r="AG21" s="99"/>
@@ -18254,16 +18003,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
     <mergeCell ref="N3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -18331,132 +18080,132 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="133"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="132"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="135" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="126"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="139"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="129"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="181" t="s">
@@ -19416,17 +19165,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="N3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="A5:F6"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -19494,136 +19243,136 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="132" t="s">
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="134"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="132"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="132"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="124" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="135" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="126"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="129"/>
     </row>
     <row r="5" spans="1:178" ht="14.25" customHeight="1">
       <c r="A5" s="187" t="s">
@@ -19879,7 +19628,7 @@
       <c r="G7" s="101"/>
       <c r="H7" s="101"/>
       <c r="I7" s="99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J7" s="100"/>
       <c r="K7" s="98" t="s">
@@ -19917,7 +19666,7 @@
     </row>
     <row r="8" spans="1:178" ht="12.75" customHeight="1">
       <c r="A8" s="110" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="99"/>
       <c r="C8" s="99"/>
@@ -19929,11 +19678,11 @@
       <c r="G8" s="101"/>
       <c r="H8" s="101"/>
       <c r="I8" s="99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J8" s="100"/>
       <c r="K8" s="98" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L8" s="99"/>
       <c r="M8" s="99"/>
@@ -19948,7 +19697,7 @@
       <c r="T8" s="99"/>
       <c r="U8" s="99"/>
       <c r="V8" s="98" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W8" s="99"/>
       <c r="X8" s="99"/>
@@ -19956,7 +19705,7 @@
       <c r="Z8" s="100"/>
       <c r="AA8" s="84"/>
       <c r="AB8" s="110" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AC8" s="99"/>
       <c r="AD8" s="99"/>
@@ -19967,7 +19716,7 @@
     </row>
     <row r="9" spans="1:178" ht="12.75" customHeight="1">
       <c r="A9" s="110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="99"/>
       <c r="C9" s="99"/>
@@ -19979,7 +19728,7 @@
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
       <c r="I9" s="99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J9" s="100"/>
       <c r="K9" s="98" t="s">
@@ -19991,14 +19740,14 @@
       <c r="O9" s="99"/>
       <c r="P9" s="100"/>
       <c r="Q9" s="98" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R9" s="99"/>
       <c r="S9" s="99"/>
       <c r="T9" s="99"/>
       <c r="U9" s="99"/>
       <c r="V9" s="98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W9" s="99"/>
       <c r="X9" s="99"/>
@@ -20006,7 +19755,7 @@
       <c r="Z9" s="100"/>
       <c r="AA9" s="84"/>
       <c r="AB9" s="110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC9" s="99"/>
       <c r="AD9" s="99"/>
@@ -20017,7 +19766,7 @@
     </row>
     <row r="10" spans="1:178" ht="12.75" customHeight="1">
       <c r="A10" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="99"/>
       <c r="C10" s="99"/>
@@ -20029,7 +19778,7 @@
       <c r="G10" s="101"/>
       <c r="H10" s="101"/>
       <c r="I10" s="99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J10" s="100"/>
       <c r="K10" s="98" t="s">
@@ -20058,7 +19807,7 @@
         <v>41</v>
       </c>
       <c r="AB10" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC10" s="99"/>
       <c r="AD10" s="99"/>
@@ -20069,7 +19818,7 @@
     </row>
     <row r="11" spans="1:178" ht="12.75" customHeight="1">
       <c r="A11" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="99"/>
       <c r="C11" s="99"/>
@@ -20081,7 +19830,7 @@
       <c r="G11" s="101"/>
       <c r="H11" s="101"/>
       <c r="I11" s="99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J11" s="100"/>
       <c r="K11" s="98" t="s">
@@ -20110,7 +19859,7 @@
         <v>41</v>
       </c>
       <c r="AB11" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC11" s="99"/>
       <c r="AD11" s="99"/>
@@ -20121,7 +19870,7 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" s="99"/>
       <c r="C12" s="99"/>
@@ -20133,7 +19882,7 @@
       <c r="G12" s="101"/>
       <c r="H12" s="101"/>
       <c r="I12" s="99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J12" s="100"/>
       <c r="K12" s="98" t="s">
@@ -20162,7 +19911,7 @@
         <v>41</v>
       </c>
       <c r="AB12" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC12" s="99"/>
       <c r="AD12" s="99"/>
@@ -20173,7 +19922,7 @@
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" s="99"/>
       <c r="C13" s="99"/>
@@ -20185,7 +19934,7 @@
       <c r="G13" s="101"/>
       <c r="H13" s="101"/>
       <c r="I13" s="99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J13" s="100"/>
       <c r="K13" s="98" t="s">
@@ -20214,7 +19963,7 @@
         <v>41</v>
       </c>
       <c r="AB13" s="110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC13" s="99"/>
       <c r="AD13" s="99"/>
@@ -20225,7 +19974,7 @@
     </row>
     <row r="14" spans="1:178" ht="12.75" customHeight="1">
       <c r="A14" s="110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" s="99"/>
       <c r="C14" s="99"/>
@@ -20237,7 +19986,7 @@
       <c r="G14" s="101"/>
       <c r="H14" s="101"/>
       <c r="I14" s="99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J14" s="100"/>
       <c r="K14" s="98" t="s">
@@ -20266,7 +20015,7 @@
         <v>41</v>
       </c>
       <c r="AB14" s="110" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC14" s="99"/>
       <c r="AD14" s="99"/>
@@ -20277,7 +20026,7 @@
     </row>
     <row r="15" spans="1:178" ht="12.75" customHeight="1">
       <c r="A15" s="110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="99"/>
       <c r="C15" s="99"/>
@@ -20289,7 +20038,7 @@
       <c r="G15" s="101"/>
       <c r="H15" s="101"/>
       <c r="I15" s="99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J15" s="100"/>
       <c r="K15" s="98" t="s">
@@ -20318,7 +20067,7 @@
         <v>41</v>
       </c>
       <c r="AB15" s="110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC15" s="99"/>
       <c r="AD15" s="99"/>
@@ -20329,7 +20078,7 @@
     </row>
     <row r="16" spans="1:178" ht="12.75" customHeight="1">
       <c r="A16" s="110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="99"/>
       <c r="C16" s="99"/>
@@ -20341,11 +20090,11 @@
       <c r="G16" s="101"/>
       <c r="H16" s="101"/>
       <c r="I16" s="99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J16" s="100"/>
       <c r="K16" s="98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L16" s="99"/>
       <c r="M16" s="99"/>
@@ -20360,7 +20109,7 @@
       <c r="T16" s="99"/>
       <c r="U16" s="99"/>
       <c r="V16" s="98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W16" s="99"/>
       <c r="X16" s="99"/>
@@ -20370,7 +20119,7 @@
         <v>41</v>
       </c>
       <c r="AB16" s="110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC16" s="99"/>
       <c r="AD16" s="99"/>
@@ -20381,7 +20130,7 @@
     </row>
     <row r="17" spans="1:34" ht="12.75" customHeight="1">
       <c r="A17" s="110" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="99"/>
       <c r="C17" s="99"/>
@@ -20393,11 +20142,11 @@
       <c r="G17" s="101"/>
       <c r="H17" s="101"/>
       <c r="I17" s="99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J17" s="100"/>
       <c r="K17" s="98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L17" s="99"/>
       <c r="M17" s="99"/>
@@ -20412,7 +20161,7 @@
       <c r="T17" s="99"/>
       <c r="U17" s="99"/>
       <c r="V17" s="98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W17" s="99"/>
       <c r="X17" s="99"/>
@@ -20422,7 +20171,7 @@
         <v>41</v>
       </c>
       <c r="AB17" s="110" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC17" s="99"/>
       <c r="AD17" s="99"/>
@@ -20433,7 +20182,7 @@
     </row>
     <row r="18" spans="1:34" ht="12.75" customHeight="1">
       <c r="A18" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" s="99"/>
       <c r="C18" s="99"/>
@@ -20445,11 +20194,11 @@
       <c r="G18" s="101"/>
       <c r="H18" s="101"/>
       <c r="I18" s="99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J18" s="100"/>
       <c r="K18" s="98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L18" s="99"/>
       <c r="M18" s="99"/>
@@ -20464,7 +20213,7 @@
       <c r="T18" s="99"/>
       <c r="U18" s="99"/>
       <c r="V18" s="98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W18" s="99"/>
       <c r="X18" s="99"/>
@@ -20474,7 +20223,7 @@
         <v>41</v>
       </c>
       <c r="AB18" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC18" s="99"/>
       <c r="AD18" s="99"/>
@@ -20485,7 +20234,7 @@
     </row>
     <row r="19" spans="1:34" ht="12.75" customHeight="1">
       <c r="A19" s="110" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" s="99"/>
       <c r="C19" s="99"/>
@@ -20497,11 +20246,11 @@
       <c r="G19" s="101"/>
       <c r="H19" s="101"/>
       <c r="I19" s="99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J19" s="100"/>
       <c r="K19" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L19" s="99"/>
       <c r="M19" s="99"/>
@@ -20516,7 +20265,7 @@
       <c r="T19" s="99"/>
       <c r="U19" s="99"/>
       <c r="V19" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W19" s="99"/>
       <c r="X19" s="99"/>
@@ -20526,7 +20275,7 @@
         <v>41</v>
       </c>
       <c r="AB19" s="110" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC19" s="99"/>
       <c r="AD19" s="99"/>
@@ -20537,7 +20286,7 @@
     </row>
     <row r="20" spans="1:34" ht="12.75" customHeight="1">
       <c r="A20" s="110" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="99"/>
       <c r="C20" s="99"/>
@@ -20549,11 +20298,11 @@
       <c r="G20" s="101"/>
       <c r="H20" s="101"/>
       <c r="I20" s="99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J20" s="100"/>
       <c r="K20" s="98" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L20" s="99"/>
       <c r="M20" s="99"/>
@@ -20568,7 +20317,7 @@
       <c r="T20" s="99"/>
       <c r="U20" s="99"/>
       <c r="V20" s="98" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W20" s="99"/>
       <c r="X20" s="99"/>
@@ -20578,12 +20327,12 @@
         <v>41</v>
       </c>
       <c r="AB20" s="110" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC20" s="99"/>
       <c r="AD20" s="99"/>
       <c r="AE20" s="99" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF20" s="99"/>
       <c r="AG20" s="99"/>
@@ -20591,7 +20340,7 @@
     </row>
     <row r="21" spans="1:34" ht="12.75" customHeight="1">
       <c r="A21" s="110" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21" s="99"/>
       <c r="C21" s="99"/>
@@ -20603,11 +20352,11 @@
       <c r="G21" s="101"/>
       <c r="H21" s="101"/>
       <c r="I21" s="99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J21" s="100"/>
       <c r="K21" s="98" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L21" s="99"/>
       <c r="M21" s="99"/>
@@ -20622,7 +20371,7 @@
       <c r="T21" s="99"/>
       <c r="U21" s="99"/>
       <c r="V21" s="98" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W21" s="99"/>
       <c r="X21" s="99"/>
@@ -20632,7 +20381,7 @@
         <v>41</v>
       </c>
       <c r="AB21" s="110" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AC21" s="99"/>
       <c r="AD21" s="99"/>
@@ -20859,12 +20608,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="Q6:U6"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="AB5:AH6"/>
@@ -20877,6 +20620,12 @@
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="N2:X2"/>
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="Q6:U6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -20893,8 +20642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:FV41"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -20945,136 +20694,136 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="132" t="s">
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="134"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="132"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="132"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="124" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="135" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="135" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="126"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="129"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="111"/>
@@ -21448,7 +21197,7 @@
       <c r="A11" s="65"/>
       <c r="B11" s="73"/>
       <c r="C11" s="71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" s="71"/>
       <c r="E11" s="73"/>
@@ -21487,7 +21236,7 @@
       <c r="B12" s="73"/>
       <c r="C12" s="71"/>
       <c r="D12" s="71" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="E12" s="73"/>
       <c r="F12" s="73"/>
@@ -22566,18 +22315,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/02_詳細設計書/02_内部レビュー/チーム2/詳細設計書_勤怠情報詳細.xlsx
+++ b/02_詳細設計書/02_内部レビュー/チーム2/詳細設計書_勤怠情報詳細.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14139DED-830E-364D-8001-A98B7639D40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A6BA68-DA2E-C947-A7E9-2637A64C03F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" tabRatio="774" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" tabRatio="774" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -2238,7 +2238,34 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2259,13 +2286,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2286,59 +2316,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2346,7 +2370,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2367,44 +2391,20 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2422,24 +2422,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2460,6 +2442,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2477,6 +2468,45 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2522,36 +2552,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="標準 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2583,14 +2583,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2605,7 +2605,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="273050" y="2733675"/>
+          <a:off x="273050" y="3000375"/>
           <a:ext cx="730250" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -3241,72 +3241,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>5154</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06E82A1-AD21-504B-B95C-2563F45374E8}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{689D7005-639B-6D1F-942C-9CC6F35F8E51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}" end="{00000000-0000-0000-0000-000000000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1003300" y="1605354"/>
-          <a:ext cx="4337050" cy="1685534"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -3347,6 +3281,118 @@
           <a:ext cx="1917700" cy="917575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>5154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直线箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE578BD8-504F-6AF6-EACF-80DB76702CD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1003300" y="1605354"/>
+          <a:ext cx="4337050" cy="1799834"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>250824</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>134187</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直线箭头连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A1F30F-5EA2-1D4D-A366-60DF58BFFBFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1003300" y="3405188"/>
+          <a:ext cx="4327524" cy="5599"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -5683,72 +5729,72 @@
     </row>
     <row r="4" spans="1:176" ht="15" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="123"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123"/>
-      <c r="AE4" s="123"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="144"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="144"/>
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="144"/>
+      <c r="AC4" s="144"/>
+      <c r="AD4" s="144"/>
+      <c r="AE4" s="144"/>
       <c r="AF4" s="12"/>
     </row>
     <row r="5" spans="1:176" ht="15" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="123"/>
-      <c r="U5" s="123"/>
-      <c r="V5" s="123"/>
-      <c r="W5" s="123"/>
-      <c r="X5" s="123"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="123"/>
-      <c r="AA5" s="123"/>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="123"/>
-      <c r="AD5" s="123"/>
-      <c r="AE5" s="123"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="144"/>
+      <c r="AA5" s="144"/>
+      <c r="AB5" s="144"/>
+      <c r="AC5" s="144"/>
+      <c r="AD5" s="144"/>
+      <c r="AE5" s="144"/>
       <c r="AF5" s="12"/>
     </row>
     <row r="6" spans="1:176" ht="15" customHeight="1">
@@ -5920,124 +5966,124 @@
     </row>
     <row r="11" spans="1:176" ht="15" customHeight="1">
       <c r="A11" s="11"/>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="130" t="s">
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="130" t="s">
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="131"/>
-      <c r="U11" s="131"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="131"/>
-      <c r="X11" s="131"/>
-      <c r="Y11" s="131"/>
-      <c r="Z11" s="131"/>
-      <c r="AA11" s="132"/>
-      <c r="AB11" s="130" t="s">
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
+      <c r="AA11" s="134"/>
+      <c r="AB11" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="130" t="s">
+      <c r="AC11" s="134"/>
+      <c r="AD11" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AE11" s="132"/>
+      <c r="AE11" s="134"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="11"/>
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="124" t="s">
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="133" t="s">
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="134"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="134"/>
-      <c r="V12" s="134"/>
-      <c r="W12" s="134"/>
-      <c r="X12" s="134"/>
-      <c r="Y12" s="134"/>
-      <c r="Z12" s="134"/>
-      <c r="AA12" s="135"/>
-      <c r="AB12" s="133" t="s">
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="146"/>
+      <c r="S12" s="146"/>
+      <c r="T12" s="146"/>
+      <c r="U12" s="146"/>
+      <c r="V12" s="146"/>
+      <c r="W12" s="146"/>
+      <c r="X12" s="146"/>
+      <c r="Y12" s="146"/>
+      <c r="Z12" s="146"/>
+      <c r="AA12" s="147"/>
+      <c r="AB12" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="AC12" s="135"/>
-      <c r="AD12" s="124" t="s">
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="AE12" s="126"/>
+      <c r="AE12" s="137"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="137"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="137"/>
-      <c r="R13" s="137"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="137"/>
-      <c r="U13" s="137"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="137"/>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="138"/>
-      <c r="AB13" s="136"/>
-      <c r="AC13" s="138"/>
-      <c r="AD13" s="127"/>
-      <c r="AE13" s="129"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="149"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="150"/>
+      <c r="AB13" s="148"/>
+      <c r="AC13" s="150"/>
+      <c r="AD13" s="138"/>
+      <c r="AE13" s="140"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
@@ -6242,54 +6288,54 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="142" t="s">
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="142" t="s">
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="143"/>
-      <c r="S20" s="143"/>
-      <c r="T20" s="143"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="143"/>
-      <c r="W20" s="143"/>
-      <c r="X20" s="143"/>
-      <c r="Y20" s="143"/>
-      <c r="Z20" s="143"/>
-      <c r="AA20" s="143"/>
-      <c r="AB20" s="144"/>
-      <c r="AC20" s="142" t="s">
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
+      <c r="S20" s="142"/>
+      <c r="T20" s="142"/>
+      <c r="U20" s="142"/>
+      <c r="V20" s="142"/>
+      <c r="W20" s="142"/>
+      <c r="X20" s="142"/>
+      <c r="Y20" s="142"/>
+      <c r="Z20" s="142"/>
+      <c r="AA20" s="142"/>
+      <c r="AB20" s="143"/>
+      <c r="AC20" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="AD20" s="143"/>
-      <c r="AE20" s="144"/>
+      <c r="AD20" s="142"/>
+      <c r="AE20" s="143"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="141"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
       <c r="F21" s="120" t="s">
         <v>89</v>
       </c>
@@ -6326,10 +6372,10 @@
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="141"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="120"/>
       <c r="G22" s="121"/>
       <c r="H22" s="121"/>
@@ -6360,10 +6406,10 @@
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="141"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
       <c r="F23" s="120"/>
       <c r="G23" s="121"/>
       <c r="H23" s="121"/>
@@ -6394,10 +6440,10 @@
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="141"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
       <c r="F24" s="120"/>
       <c r="G24" s="121"/>
       <c r="H24" s="121"/>
@@ -6428,10 +6474,10 @@
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="141"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="125"/>
       <c r="F25" s="120"/>
       <c r="G25" s="121"/>
       <c r="H25" s="121"/>
@@ -6462,10 +6508,10 @@
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="141"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="125"/>
       <c r="F26" s="120"/>
       <c r="G26" s="121"/>
       <c r="H26" s="121"/>
@@ -6496,10 +6542,10 @@
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="141"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
       <c r="F27" s="120"/>
       <c r="G27" s="121"/>
       <c r="H27" s="121"/>
@@ -6530,10 +6576,10 @@
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="141"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="125"/>
       <c r="F28" s="120"/>
       <c r="G28" s="121"/>
       <c r="H28" s="121"/>
@@ -6564,10 +6610,10 @@
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="141"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="125"/>
       <c r="F29" s="120"/>
       <c r="G29" s="121"/>
       <c r="H29" s="121"/>
@@ -6598,274 +6644,274 @@
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-      <c r="N30" s="149"/>
-      <c r="O30" s="149"/>
-      <c r="P30" s="149"/>
-      <c r="Q30" s="149"/>
-      <c r="R30" s="149"/>
-      <c r="S30" s="149"/>
-      <c r="T30" s="149"/>
-      <c r="U30" s="149"/>
-      <c r="V30" s="149"/>
-      <c r="W30" s="149"/>
-      <c r="X30" s="149"/>
-      <c r="Y30" s="149"/>
-      <c r="Z30" s="149"/>
-      <c r="AA30" s="149"/>
-      <c r="AB30" s="150"/>
-      <c r="AC30" s="148"/>
-      <c r="AD30" s="149"/>
-      <c r="AE30" s="150"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="130"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="130"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="130"/>
+      <c r="R30" s="130"/>
+      <c r="S30" s="130"/>
+      <c r="T30" s="130"/>
+      <c r="U30" s="130"/>
+      <c r="V30" s="130"/>
+      <c r="W30" s="130"/>
+      <c r="X30" s="130"/>
+      <c r="Y30" s="130"/>
+      <c r="Z30" s="130"/>
+      <c r="AA30" s="130"/>
+      <c r="AB30" s="131"/>
+      <c r="AC30" s="129"/>
+      <c r="AD30" s="130"/>
+      <c r="AE30" s="131"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="148"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-      <c r="N31" s="149"/>
-      <c r="O31" s="149"/>
-      <c r="P31" s="149"/>
-      <c r="Q31" s="149"/>
-      <c r="R31" s="149"/>
-      <c r="S31" s="149"/>
-      <c r="T31" s="149"/>
-      <c r="U31" s="149"/>
-      <c r="V31" s="149"/>
-      <c r="W31" s="149"/>
-      <c r="X31" s="149"/>
-      <c r="Y31" s="149"/>
-      <c r="Z31" s="149"/>
-      <c r="AA31" s="149"/>
-      <c r="AB31" s="150"/>
-      <c r="AC31" s="148"/>
-      <c r="AD31" s="149"/>
-      <c r="AE31" s="150"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="130"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="130"/>
+      <c r="T31" s="130"/>
+      <c r="U31" s="130"/>
+      <c r="V31" s="130"/>
+      <c r="W31" s="130"/>
+      <c r="X31" s="130"/>
+      <c r="Y31" s="130"/>
+      <c r="Z31" s="130"/>
+      <c r="AA31" s="130"/>
+      <c r="AB31" s="131"/>
+      <c r="AC31" s="129"/>
+      <c r="AD31" s="130"/>
+      <c r="AE31" s="131"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="148"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-      <c r="N32" s="149"/>
-      <c r="O32" s="149"/>
-      <c r="P32" s="149"/>
-      <c r="Q32" s="149"/>
-      <c r="R32" s="149"/>
-      <c r="S32" s="149"/>
-      <c r="T32" s="149"/>
-      <c r="U32" s="149"/>
-      <c r="V32" s="149"/>
-      <c r="W32" s="149"/>
-      <c r="X32" s="149"/>
-      <c r="Y32" s="149"/>
-      <c r="Z32" s="149"/>
-      <c r="AA32" s="149"/>
-      <c r="AB32" s="150"/>
-      <c r="AC32" s="148"/>
-      <c r="AD32" s="149"/>
-      <c r="AE32" s="150"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="130"/>
+      <c r="N32" s="130"/>
+      <c r="O32" s="130"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="130"/>
+      <c r="R32" s="130"/>
+      <c r="S32" s="130"/>
+      <c r="T32" s="130"/>
+      <c r="U32" s="130"/>
+      <c r="V32" s="130"/>
+      <c r="W32" s="130"/>
+      <c r="X32" s="130"/>
+      <c r="Y32" s="130"/>
+      <c r="Z32" s="130"/>
+      <c r="AA32" s="130"/>
+      <c r="AB32" s="131"/>
+      <c r="AC32" s="129"/>
+      <c r="AD32" s="130"/>
+      <c r="AE32" s="131"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
-      <c r="N33" s="149"/>
-      <c r="O33" s="149"/>
-      <c r="P33" s="149"/>
-      <c r="Q33" s="149"/>
-      <c r="R33" s="149"/>
-      <c r="S33" s="149"/>
-      <c r="T33" s="149"/>
-      <c r="U33" s="149"/>
-      <c r="V33" s="149"/>
-      <c r="W33" s="149"/>
-      <c r="X33" s="149"/>
-      <c r="Y33" s="149"/>
-      <c r="Z33" s="149"/>
-      <c r="AA33" s="149"/>
-      <c r="AB33" s="150"/>
-      <c r="AC33" s="148"/>
-      <c r="AD33" s="149"/>
-      <c r="AE33" s="150"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="130"/>
+      <c r="R33" s="130"/>
+      <c r="S33" s="130"/>
+      <c r="T33" s="130"/>
+      <c r="U33" s="130"/>
+      <c r="V33" s="130"/>
+      <c r="W33" s="130"/>
+      <c r="X33" s="130"/>
+      <c r="Y33" s="130"/>
+      <c r="Z33" s="130"/>
+      <c r="AA33" s="130"/>
+      <c r="AB33" s="131"/>
+      <c r="AC33" s="129"/>
+      <c r="AD33" s="130"/>
+      <c r="AE33" s="131"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="145"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="149"/>
-      <c r="P34" s="149"/>
-      <c r="Q34" s="149"/>
-      <c r="R34" s="149"/>
-      <c r="S34" s="149"/>
-      <c r="T34" s="149"/>
-      <c r="U34" s="149"/>
-      <c r="V34" s="149"/>
-      <c r="W34" s="149"/>
-      <c r="X34" s="149"/>
-      <c r="Y34" s="149"/>
-      <c r="Z34" s="149"/>
-      <c r="AA34" s="149"/>
-      <c r="AB34" s="150"/>
-      <c r="AC34" s="148"/>
-      <c r="AD34" s="149"/>
-      <c r="AE34" s="150"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="130"/>
+      <c r="L34" s="130"/>
+      <c r="M34" s="130"/>
+      <c r="N34" s="130"/>
+      <c r="O34" s="130"/>
+      <c r="P34" s="130"/>
+      <c r="Q34" s="130"/>
+      <c r="R34" s="130"/>
+      <c r="S34" s="130"/>
+      <c r="T34" s="130"/>
+      <c r="U34" s="130"/>
+      <c r="V34" s="130"/>
+      <c r="W34" s="130"/>
+      <c r="X34" s="130"/>
+      <c r="Y34" s="130"/>
+      <c r="Z34" s="130"/>
+      <c r="AA34" s="130"/>
+      <c r="AB34" s="131"/>
+      <c r="AC34" s="129"/>
+      <c r="AD34" s="130"/>
+      <c r="AE34" s="131"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
-      <c r="N35" s="149"/>
-      <c r="O35" s="149"/>
-      <c r="P35" s="149"/>
-      <c r="Q35" s="149"/>
-      <c r="R35" s="149"/>
-      <c r="S35" s="149"/>
-      <c r="T35" s="149"/>
-      <c r="U35" s="149"/>
-      <c r="V35" s="149"/>
-      <c r="W35" s="149"/>
-      <c r="X35" s="149"/>
-      <c r="Y35" s="149"/>
-      <c r="Z35" s="149"/>
-      <c r="AA35" s="149"/>
-      <c r="AB35" s="150"/>
-      <c r="AC35" s="148"/>
-      <c r="AD35" s="149"/>
-      <c r="AE35" s="150"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="130"/>
+      <c r="O35" s="130"/>
+      <c r="P35" s="130"/>
+      <c r="Q35" s="130"/>
+      <c r="R35" s="130"/>
+      <c r="S35" s="130"/>
+      <c r="T35" s="130"/>
+      <c r="U35" s="130"/>
+      <c r="V35" s="130"/>
+      <c r="W35" s="130"/>
+      <c r="X35" s="130"/>
+      <c r="Y35" s="130"/>
+      <c r="Z35" s="130"/>
+      <c r="AA35" s="130"/>
+      <c r="AB35" s="131"/>
+      <c r="AC35" s="129"/>
+      <c r="AD35" s="130"/>
+      <c r="AE35" s="131"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="145"/>
-      <c r="C36" s="146"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
-      <c r="N36" s="149"/>
-      <c r="O36" s="149"/>
-      <c r="P36" s="149"/>
-      <c r="Q36" s="149"/>
-      <c r="R36" s="149"/>
-      <c r="S36" s="149"/>
-      <c r="T36" s="149"/>
-      <c r="U36" s="149"/>
-      <c r="V36" s="149"/>
-      <c r="W36" s="149"/>
-      <c r="X36" s="149"/>
-      <c r="Y36" s="149"/>
-      <c r="Z36" s="149"/>
-      <c r="AA36" s="149"/>
-      <c r="AB36" s="150"/>
-      <c r="AC36" s="148"/>
-      <c r="AD36" s="149"/>
-      <c r="AE36" s="150"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="130"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="130"/>
+      <c r="O36" s="130"/>
+      <c r="P36" s="130"/>
+      <c r="Q36" s="130"/>
+      <c r="R36" s="130"/>
+      <c r="S36" s="130"/>
+      <c r="T36" s="130"/>
+      <c r="U36" s="130"/>
+      <c r="V36" s="130"/>
+      <c r="W36" s="130"/>
+      <c r="X36" s="130"/>
+      <c r="Y36" s="130"/>
+      <c r="Z36" s="130"/>
+      <c r="AA36" s="130"/>
+      <c r="AB36" s="131"/>
+      <c r="AC36" s="129"/>
+      <c r="AD36" s="130"/>
+      <c r="AE36" s="131"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-      <c r="N37" s="149"/>
-      <c r="O37" s="149"/>
-      <c r="P37" s="149"/>
-      <c r="Q37" s="149"/>
-      <c r="R37" s="149"/>
-      <c r="S37" s="149"/>
-      <c r="T37" s="149"/>
-      <c r="U37" s="149"/>
-      <c r="V37" s="149"/>
-      <c r="W37" s="149"/>
-      <c r="X37" s="149"/>
-      <c r="Y37" s="149"/>
-      <c r="Z37" s="149"/>
-      <c r="AA37" s="149"/>
-      <c r="AB37" s="150"/>
-      <c r="AC37" s="148"/>
-      <c r="AD37" s="149"/>
-      <c r="AE37" s="150"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="129"/>
+      <c r="K37" s="130"/>
+      <c r="L37" s="130"/>
+      <c r="M37" s="130"/>
+      <c r="N37" s="130"/>
+      <c r="O37" s="130"/>
+      <c r="P37" s="130"/>
+      <c r="Q37" s="130"/>
+      <c r="R37" s="130"/>
+      <c r="S37" s="130"/>
+      <c r="T37" s="130"/>
+      <c r="U37" s="130"/>
+      <c r="V37" s="130"/>
+      <c r="W37" s="130"/>
+      <c r="X37" s="130"/>
+      <c r="Y37" s="130"/>
+      <c r="Z37" s="130"/>
+      <c r="AA37" s="130"/>
+      <c r="AB37" s="131"/>
+      <c r="AC37" s="129"/>
+      <c r="AD37" s="130"/>
+      <c r="AE37" s="131"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -6904,62 +6950,17 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B4:AE5"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AB12:AC13"/>
     <mergeCell ref="J23:AB23"/>
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="AD11:AE11"/>
@@ -6976,17 +6977,62 @@
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="AC20:AE20"/>
     <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="B4:AE5"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="M12:AA13"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7021,171 +7067,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="227"/>
-      <c r="S1" s="227"/>
-      <c r="T1" s="227"/>
-      <c r="U1" s="227"/>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
-      <c r="Y1" s="227"/>
-      <c r="Z1" s="227"/>
-      <c r="AA1" s="227"/>
-      <c r="AB1" s="227"/>
-      <c r="AC1" s="227"/>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="227"/>
-      <c r="AG1" s="227"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="211"/>
+      <c r="AB1" s="211"/>
+      <c r="AC1" s="211"/>
+      <c r="AD1" s="211"/>
+      <c r="AE1" s="211"/>
+      <c r="AF1" s="211"/>
+      <c r="AG1" s="211"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="228" t="s">
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="228" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="229"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="229"/>
-      <c r="Q2" s="229"/>
-      <c r="R2" s="229"/>
-      <c r="S2" s="229"/>
-      <c r="T2" s="229"/>
-      <c r="U2" s="229"/>
-      <c r="V2" s="229"/>
-      <c r="W2" s="229"/>
-      <c r="X2" s="229"/>
-      <c r="Y2" s="229"/>
-      <c r="Z2" s="229"/>
-      <c r="AA2" s="229"/>
-      <c r="AB2" s="229"/>
-      <c r="AC2" s="230"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="213"/>
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
       <c r="AD2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="17"/>
-      <c r="AF2" s="228" t="s">
+      <c r="AF2" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="230"/>
+      <c r="AG2" s="214"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="221" t="str">
+      <c r="A3" s="205" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="221" t="str">
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="205" t="str">
         <f>表紙!G12</f>
         <v>勤怠情報・一覧登録</v>
       </c>
-      <c r="H3" s="225"/>
-      <c r="I3" s="225"/>
-      <c r="J3" s="225"/>
-      <c r="K3" s="225"/>
-      <c r="L3" s="222"/>
-      <c r="M3" s="221" t="str">
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="205" t="str">
         <f>表紙!M12</f>
         <v>勤怠管理情報詳細一覧 / 更新 / 削除</v>
       </c>
-      <c r="N3" s="225"/>
-      <c r="O3" s="225"/>
-      <c r="P3" s="225"/>
-      <c r="Q3" s="225"/>
-      <c r="R3" s="225"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="225"/>
-      <c r="U3" s="225"/>
-      <c r="V3" s="225"/>
-      <c r="W3" s="225"/>
-      <c r="X3" s="225"/>
-      <c r="Y3" s="225"/>
-      <c r="Z3" s="225"/>
-      <c r="AA3" s="225"/>
-      <c r="AB3" s="225"/>
-      <c r="AC3" s="222"/>
-      <c r="AD3" s="221" t="str">
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="209"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="206"/>
+      <c r="AD3" s="205" t="str">
         <f>表紙!AB12</f>
         <v>NTS</v>
       </c>
-      <c r="AE3" s="222"/>
-      <c r="AF3" s="221" t="str">
+      <c r="AE3" s="206"/>
+      <c r="AF3" s="205" t="str">
         <f>表紙!AD12</f>
         <v>司徒 健斌</v>
       </c>
-      <c r="AG3" s="222"/>
+      <c r="AG3" s="206"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="223"/>
-      <c r="B4" s="226"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="226"/>
-      <c r="J4" s="226"/>
-      <c r="K4" s="226"/>
-      <c r="L4" s="224"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="226"/>
-      <c r="U4" s="226"/>
-      <c r="V4" s="226"/>
-      <c r="W4" s="226"/>
-      <c r="X4" s="226"/>
-      <c r="Y4" s="226"/>
-      <c r="Z4" s="226"/>
-      <c r="AA4" s="226"/>
-      <c r="AB4" s="226"/>
-      <c r="AC4" s="224"/>
-      <c r="AD4" s="223"/>
-      <c r="AE4" s="224"/>
-      <c r="AF4" s="223"/>
-      <c r="AG4" s="224"/>
+      <c r="A4" s="207"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="210"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="210"/>
+      <c r="O4" s="210"/>
+      <c r="P4" s="210"/>
+      <c r="Q4" s="210"/>
+      <c r="R4" s="210"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="210"/>
+      <c r="U4" s="210"/>
+      <c r="V4" s="210"/>
+      <c r="W4" s="210"/>
+      <c r="X4" s="210"/>
+      <c r="Y4" s="210"/>
+      <c r="Z4" s="210"/>
+      <c r="AA4" s="210"/>
+      <c r="AB4" s="210"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="208"/>
+      <c r="AF4" s="207"/>
+      <c r="AG4" s="208"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -7398,94 +7444,94 @@
     </row>
     <row r="7" spans="1:177" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="30"/>
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="217" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="217"/>
-      <c r="D7" s="207" t="s">
+      <c r="C7" s="227"/>
+      <c r="D7" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="217"/>
-      <c r="H7" s="207" t="s">
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="217" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="216"/>
-      <c r="J7" s="217"/>
-      <c r="K7" s="207" t="s">
+      <c r="I7" s="226"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="216"/>
-      <c r="M7" s="217"/>
-      <c r="N7" s="207" t="s">
+      <c r="L7" s="226"/>
+      <c r="M7" s="227"/>
+      <c r="N7" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="208"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="207" t="s">
+      <c r="O7" s="218"/>
+      <c r="P7" s="219"/>
+      <c r="Q7" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="209"/>
-      <c r="S7" s="207" t="s">
+      <c r="R7" s="219"/>
+      <c r="S7" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="208"/>
-      <c r="U7" s="209"/>
-      <c r="V7" s="207" t="s">
+      <c r="T7" s="218"/>
+      <c r="U7" s="219"/>
+      <c r="V7" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="208"/>
-      <c r="X7" s="209"/>
-      <c r="Y7" s="207" t="s">
+      <c r="W7" s="218"/>
+      <c r="X7" s="219"/>
+      <c r="Y7" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="Z7" s="208"/>
-      <c r="AA7" s="208"/>
-      <c r="AB7" s="208"/>
-      <c r="AC7" s="208"/>
-      <c r="AD7" s="208"/>
-      <c r="AE7" s="209"/>
+      <c r="Z7" s="218"/>
+      <c r="AA7" s="218"/>
+      <c r="AB7" s="218"/>
+      <c r="AC7" s="218"/>
+      <c r="AD7" s="218"/>
+      <c r="AE7" s="219"/>
       <c r="AG7" s="32"/>
     </row>
     <row r="8" spans="1:177" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="30"/>
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="206"/>
+      <c r="C8" s="216"/>
       <c r="D8" s="30" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="32"/>
-      <c r="H8" s="210" t="s">
+      <c r="H8" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="211"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="213" t="s">
+      <c r="I8" s="221"/>
+      <c r="J8" s="222"/>
+      <c r="K8" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="214"/>
-      <c r="M8" s="215"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="225"/>
       <c r="N8" s="30" t="s">
         <v>19</v>
       </c>
       <c r="P8" s="32"/>
-      <c r="Q8" s="213" t="s">
+      <c r="Q8" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="215"/>
-      <c r="S8" s="218" t="s">
+      <c r="R8" s="225"/>
+      <c r="S8" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="219"/>
-      <c r="U8" s="220"/>
-      <c r="V8" s="210" t="s">
+      <c r="T8" s="229"/>
+      <c r="U8" s="230"/>
+      <c r="V8" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="211"/>
-      <c r="X8" s="212"/>
+      <c r="W8" s="221"/>
+      <c r="X8" s="222"/>
       <c r="Y8" s="33" t="s">
         <v>24</v>
       </c>
@@ -8148,16 +8194,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="Y7:AE7"/>
     <mergeCell ref="H8:J8"/>
@@ -8173,6 +8209,16 @@
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8207,178 +8253,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="227"/>
-      <c r="S1" s="227"/>
-      <c r="T1" s="227"/>
-      <c r="U1" s="227"/>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
-      <c r="Y1" s="227"/>
-      <c r="Z1" s="227"/>
-      <c r="AA1" s="227"/>
-      <c r="AB1" s="227"/>
-      <c r="AC1" s="227"/>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="227"/>
-      <c r="AG1" s="227"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="211"/>
+      <c r="AB1" s="211"/>
+      <c r="AC1" s="211"/>
+      <c r="AD1" s="211"/>
+      <c r="AE1" s="211"/>
+      <c r="AF1" s="211"/>
+      <c r="AG1" s="211"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="228" t="s">
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="228" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="229"/>
-      <c r="P2" s="229"/>
-      <c r="Q2" s="229"/>
-      <c r="R2" s="229"/>
-      <c r="S2" s="229"/>
-      <c r="T2" s="229"/>
-      <c r="U2" s="229"/>
-      <c r="V2" s="229"/>
-      <c r="W2" s="229"/>
-      <c r="X2" s="230"/>
-      <c r="Y2" s="228" t="s">
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="212" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="229"/>
-      <c r="AA2" s="229"/>
-      <c r="AB2" s="229"/>
-      <c r="AC2" s="229"/>
-      <c r="AD2" s="230"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="213"/>
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="213"/>
+      <c r="AD2" s="214"/>
       <c r="AE2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="17"/>
-      <c r="AG2" s="228" t="s">
+      <c r="AG2" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="230"/>
+      <c r="AH2" s="214"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="221" t="str">
+      <c r="A3" s="205" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="221" t="str">
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="205" t="str">
         <f>表紙!G12</f>
         <v>勤怠情報・一覧登録</v>
       </c>
-      <c r="H3" s="225"/>
-      <c r="I3" s="225"/>
-      <c r="J3" s="225"/>
-      <c r="K3" s="225"/>
-      <c r="L3" s="225"/>
-      <c r="M3" s="222"/>
-      <c r="N3" s="221" t="str">
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="205" t="str">
         <f>表紙!M12</f>
         <v>勤怠管理情報詳細一覧 / 更新 / 削除</v>
       </c>
-      <c r="O3" s="225"/>
-      <c r="P3" s="225"/>
-      <c r="Q3" s="225"/>
-      <c r="R3" s="225"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="225"/>
-      <c r="U3" s="225"/>
-      <c r="V3" s="225"/>
-      <c r="W3" s="225"/>
-      <c r="X3" s="222"/>
-      <c r="Y3" s="221" t="s">
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="225"/>
-      <c r="AA3" s="225"/>
-      <c r="AB3" s="225"/>
-      <c r="AC3" s="225"/>
-      <c r="AD3" s="222"/>
-      <c r="AE3" s="221" t="str">
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="209"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="209"/>
+      <c r="AD3" s="206"/>
+      <c r="AE3" s="205" t="str">
         <f>表紙!AB12</f>
         <v>NTS</v>
       </c>
-      <c r="AF3" s="222"/>
-      <c r="AG3" s="221" t="str">
+      <c r="AF3" s="206"/>
+      <c r="AG3" s="205" t="str">
         <f>表紙!AD12</f>
         <v>司徒 健斌</v>
       </c>
-      <c r="AH3" s="222"/>
+      <c r="AH3" s="206"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="223"/>
-      <c r="B4" s="226"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="226"/>
-      <c r="J4" s="226"/>
-      <c r="K4" s="226"/>
-      <c r="L4" s="226"/>
-      <c r="M4" s="224"/>
-      <c r="N4" s="223"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="226"/>
-      <c r="U4" s="226"/>
-      <c r="V4" s="226"/>
-      <c r="W4" s="226"/>
-      <c r="X4" s="224"/>
-      <c r="Y4" s="223"/>
-      <c r="Z4" s="226"/>
-      <c r="AA4" s="226"/>
-      <c r="AB4" s="226"/>
-      <c r="AC4" s="226"/>
-      <c r="AD4" s="224"/>
-      <c r="AE4" s="223"/>
-      <c r="AF4" s="224"/>
-      <c r="AG4" s="223"/>
-      <c r="AH4" s="224"/>
+      <c r="A4" s="207"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="210"/>
+      <c r="L4" s="210"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="210"/>
+      <c r="P4" s="210"/>
+      <c r="Q4" s="210"/>
+      <c r="R4" s="210"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="210"/>
+      <c r="U4" s="210"/>
+      <c r="V4" s="210"/>
+      <c r="W4" s="210"/>
+      <c r="X4" s="208"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="210"/>
+      <c r="AA4" s="210"/>
+      <c r="AB4" s="210"/>
+      <c r="AC4" s="210"/>
+      <c r="AD4" s="208"/>
+      <c r="AE4" s="207"/>
+      <c r="AF4" s="208"/>
+      <c r="AG4" s="207"/>
+      <c r="AH4" s="208"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -9816,18 +9862,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9896,136 +9942,136 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="130" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="130" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="130" t="s">
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="132"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="134"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="130" t="s">
+      <c r="AG2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="132"/>
+      <c r="AH2" s="134"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="145" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="124" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="124" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="124" t="s">
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="124" t="s">
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="124" t="s">
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="126"/>
+      <c r="AH3" s="137"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="127"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="127"/>
-      <c r="AH4" s="129"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="140"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="45"/>
@@ -11649,18 +11695,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11676,10 +11722,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -11729,129 +11775,129 @@
       <c r="AG1" s="151"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="130" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="130" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="132"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="134"/>
       <c r="AD2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="87"/>
-      <c r="AF2" s="130" t="s">
+      <c r="AF2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="132"/>
+      <c r="AG2" s="134"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="124" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="124" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="124" t="s">
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="137"/>
+      <c r="AD3" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="124" t="s">
+      <c r="AE3" s="137"/>
+      <c r="AF3" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="AG3" s="126"/>
+      <c r="AG3" s="137"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="127"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="129"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="140"/>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="140"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="140"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="58"/>
@@ -13399,16 +13445,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13478,129 +13524,129 @@
       <c r="AG1" s="151"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="130" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="130" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="132"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="134"/>
       <c r="AD2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="87"/>
-      <c r="AF2" s="130" t="s">
+      <c r="AF2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="132"/>
+      <c r="AG2" s="134"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="124" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="124" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="124" t="s">
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="137"/>
+      <c r="AD3" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="124" t="s">
+      <c r="AE3" s="137"/>
+      <c r="AF3" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="AG3" s="126"/>
+      <c r="AG3" s="137"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="127"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="129"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="140"/>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="140"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="140"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -13928,12 +13974,12 @@
       <c r="B10" s="158"/>
       <c r="C10" s="158"/>
       <c r="D10" s="158"/>
-      <c r="E10" s="179">
+      <c r="E10" s="159">
         <v>1</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
       <c r="I10" s="77"/>
       <c r="J10" s="78"/>
       <c r="K10" s="83"/>
@@ -13961,7 +14007,7 @@
       <c r="AG10" s="67"/>
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A11" s="180" t="s">
+      <c r="A11" s="160" t="s">
         <v>108</v>
       </c>
       <c r="B11" s="158"/>
@@ -14000,7 +14046,7 @@
       <c r="AG11" s="67"/>
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="160" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="158"/>
@@ -14122,17 +14168,17 @@
       <c r="K15" s="79"/>
       <c r="L15" s="79"/>
       <c r="M15" s="81"/>
-      <c r="N15" s="173" t="s">
+      <c r="N15" s="152" t="s">
         <v>94</v>
       </c>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="174" t="s">
+      <c r="O15" s="152"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="R15" s="174"/>
-      <c r="S15" s="175"/>
-      <c r="T15" s="176"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="154"/>
+      <c r="T15" s="155"/>
       <c r="U15" s="79"/>
       <c r="V15" s="79"/>
       <c r="W15" s="79"/>
@@ -14161,13 +14207,13 @@
       <c r="K16" s="79"/>
       <c r="L16" s="79"/>
       <c r="M16" s="79"/>
-      <c r="N16" s="173"/>
-      <c r="O16" s="173"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="174"/>
-      <c r="R16" s="174"/>
-      <c r="S16" s="177"/>
-      <c r="T16" s="178"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="152"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="157"/>
       <c r="U16" s="79"/>
       <c r="V16" s="79"/>
       <c r="W16" s="79"/>
@@ -14230,59 +14276,59 @@
       </c>
     </row>
     <row r="18" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A18" s="170" t="s">
+      <c r="A18" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="170" t="s">
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="164" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="170" t="s">
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="170" t="s">
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="170" t="s">
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="164" t="s">
         <v>116</v>
       </c>
-      <c r="O18" s="171"/>
-      <c r="P18" s="170" t="s">
+      <c r="O18" s="165"/>
+      <c r="P18" s="164" t="s">
         <v>96</v>
       </c>
-      <c r="Q18" s="171"/>
-      <c r="R18" s="170" t="s">
+      <c r="Q18" s="165"/>
+      <c r="R18" s="164" t="s">
         <v>97</v>
       </c>
-      <c r="S18" s="171"/>
-      <c r="T18" s="170" t="s">
+      <c r="S18" s="165"/>
+      <c r="T18" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="U18" s="171"/>
-      <c r="V18" s="170" t="s">
+      <c r="U18" s="165"/>
+      <c r="V18" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="W18" s="171"/>
-      <c r="X18" s="171"/>
-      <c r="Y18" s="171"/>
-      <c r="Z18" s="171"/>
-      <c r="AA18" s="171"/>
-      <c r="AB18" s="170" t="s">
+      <c r="W18" s="165"/>
+      <c r="X18" s="165"/>
+      <c r="Y18" s="165"/>
+      <c r="Z18" s="165"/>
+      <c r="AA18" s="165"/>
+      <c r="AB18" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="AC18" s="170"/>
-      <c r="AD18" s="172" t="s">
+      <c r="AC18" s="164"/>
+      <c r="AD18" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="AE18" s="172"/>
+      <c r="AE18" s="166"/>
       <c r="AF18" s="68"/>
       <c r="AG18" s="67"/>
       <c r="AT18" s="118"/>
@@ -14292,39 +14338,39 @@
       </c>
     </row>
     <row r="19" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A19" s="168">
+      <c r="A19" s="161">
         <v>2022090101</v>
       </c>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
       <c r="D19" s="158" t="s">
         <v>101</v>
       </c>
       <c r="E19" s="158"/>
       <c r="F19" s="158"/>
       <c r="G19" s="158"/>
-      <c r="H19" s="169">
+      <c r="H19" s="162">
         <v>0.375</v>
       </c>
-      <c r="I19" s="169"/>
-      <c r="J19" s="169"/>
-      <c r="K19" s="169">
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
+      <c r="K19" s="162">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L19" s="169"/>
-      <c r="M19" s="169"/>
-      <c r="N19" s="161">
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="163">
         <v>1</v>
       </c>
-      <c r="O19" s="161"/>
-      <c r="P19" s="161">
+      <c r="O19" s="163"/>
+      <c r="P19" s="163">
         <v>1</v>
       </c>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="161">
+      <c r="Q19" s="163"/>
+      <c r="R19" s="163">
         <v>9</v>
       </c>
-      <c r="S19" s="161"/>
+      <c r="S19" s="163"/>
       <c r="T19" s="158" t="s">
         <v>95</v>
       </c>
@@ -14337,10 +14383,10 @@
       <c r="Y19" s="158"/>
       <c r="Z19" s="158"/>
       <c r="AA19" s="158"/>
-      <c r="AB19" s="159"/>
-      <c r="AC19" s="159"/>
-      <c r="AD19" s="160"/>
-      <c r="AE19" s="160"/>
+      <c r="AB19" s="167"/>
+      <c r="AC19" s="167"/>
+      <c r="AD19" s="168"/>
+      <c r="AE19" s="168"/>
       <c r="AF19" s="68"/>
       <c r="AG19" s="67"/>
       <c r="AT19" s="119"/>
@@ -14350,39 +14396,39 @@
       </c>
     </row>
     <row r="20" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A20" s="168">
+      <c r="A20" s="161">
         <v>2022090201</v>
       </c>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
       <c r="D20" s="158" t="s">
         <v>103</v>
       </c>
       <c r="E20" s="158"/>
       <c r="F20" s="158"/>
       <c r="G20" s="158"/>
-      <c r="H20" s="169">
+      <c r="H20" s="162">
         <v>0.375</v>
       </c>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="169">
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162">
         <v>0.75</v>
       </c>
-      <c r="L20" s="169"/>
-      <c r="M20" s="169"/>
-      <c r="N20" s="161">
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="163">
         <v>1</v>
       </c>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161">
+      <c r="O20" s="163"/>
+      <c r="P20" s="163">
         <v>0</v>
       </c>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="161">
+      <c r="Q20" s="163"/>
+      <c r="R20" s="163">
         <v>8</v>
       </c>
-      <c r="S20" s="161"/>
+      <c r="S20" s="163"/>
       <c r="T20" s="158" t="s">
         <v>225</v>
       </c>
@@ -14395,10 +14441,10 @@
       <c r="Y20" s="158"/>
       <c r="Z20" s="158"/>
       <c r="AA20" s="158"/>
-      <c r="AB20" s="159"/>
-      <c r="AC20" s="159"/>
-      <c r="AD20" s="160"/>
-      <c r="AE20" s="160"/>
+      <c r="AB20" s="167"/>
+      <c r="AC20" s="167"/>
+      <c r="AD20" s="168"/>
+      <c r="AE20" s="168"/>
       <c r="AF20" s="68"/>
       <c r="AG20" s="67"/>
       <c r="AT20" s="119"/>
@@ -14408,39 +14454,39 @@
       </c>
     </row>
     <row r="21" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A21" s="168">
+      <c r="A21" s="161">
         <v>2022090301</v>
       </c>
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
       <c r="D21" s="158" t="s">
         <v>105</v>
       </c>
       <c r="E21" s="158"/>
       <c r="F21" s="158"/>
       <c r="G21" s="158"/>
-      <c r="H21" s="169">
+      <c r="H21" s="162">
         <v>0.375</v>
       </c>
-      <c r="I21" s="169"/>
-      <c r="J21" s="169"/>
-      <c r="K21" s="169">
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="162">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L21" s="169"/>
-      <c r="M21" s="169"/>
-      <c r="N21" s="161">
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="163">
         <v>1</v>
       </c>
-      <c r="O21" s="161"/>
-      <c r="P21" s="161">
+      <c r="O21" s="163"/>
+      <c r="P21" s="163">
         <v>1</v>
       </c>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="161">
+      <c r="Q21" s="163"/>
+      <c r="R21" s="163">
         <v>9</v>
       </c>
-      <c r="S21" s="161"/>
+      <c r="S21" s="163"/>
       <c r="T21" s="158" t="s">
         <v>106</v>
       </c>
@@ -14453,19 +14499,19 @@
       <c r="Y21" s="158"/>
       <c r="Z21" s="158"/>
       <c r="AA21" s="158"/>
-      <c r="AB21" s="159"/>
-      <c r="AC21" s="159"/>
-      <c r="AD21" s="160"/>
-      <c r="AE21" s="160"/>
+      <c r="AB21" s="167"/>
+      <c r="AC21" s="167"/>
+      <c r="AD21" s="168"/>
+      <c r="AE21" s="168"/>
       <c r="AF21" s="68"/>
       <c r="AG21" s="67"/>
     </row>
     <row r="22" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A22" s="168">
+      <c r="A22" s="161">
         <v>2022090401</v>
       </c>
-      <c r="B22" s="168"/>
-      <c r="C22" s="168"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
       <c r="D22" s="158"/>
       <c r="E22" s="158"/>
       <c r="F22" s="158"/>
@@ -14476,12 +14522,12 @@
       <c r="K22" s="158"/>
       <c r="L22" s="158"/>
       <c r="M22" s="158"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="157"/>
-      <c r="S22" s="157"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="163"/>
+      <c r="P22" s="163"/>
+      <c r="Q22" s="163"/>
+      <c r="R22" s="169"/>
+      <c r="S22" s="169"/>
       <c r="T22" s="158"/>
       <c r="U22" s="158"/>
       <c r="V22" s="158"/>
@@ -14490,19 +14536,19 @@
       <c r="Y22" s="158"/>
       <c r="Z22" s="158"/>
       <c r="AA22" s="158"/>
-      <c r="AB22" s="159"/>
-      <c r="AC22" s="159"/>
-      <c r="AD22" s="160"/>
-      <c r="AE22" s="160"/>
+      <c r="AB22" s="167"/>
+      <c r="AC22" s="167"/>
+      <c r="AD22" s="168"/>
+      <c r="AE22" s="168"/>
       <c r="AF22" s="68"/>
       <c r="AG22" s="67"/>
     </row>
     <row r="23" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A23" s="168">
+      <c r="A23" s="161">
         <v>2022090501</v>
       </c>
-      <c r="B23" s="168"/>
-      <c r="C23" s="168"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="161"/>
       <c r="D23" s="158"/>
       <c r="E23" s="158"/>
       <c r="F23" s="158"/>
@@ -14513,12 +14559,12 @@
       <c r="K23" s="158"/>
       <c r="L23" s="158"/>
       <c r="M23" s="158"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="157"/>
-      <c r="S23" s="157"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="163"/>
+      <c r="R23" s="169"/>
+      <c r="S23" s="169"/>
       <c r="T23" s="158"/>
       <c r="U23" s="158"/>
       <c r="V23" s="158"/>
@@ -14527,19 +14573,19 @@
       <c r="Y23" s="158"/>
       <c r="Z23" s="158"/>
       <c r="AA23" s="158"/>
-      <c r="AB23" s="159"/>
-      <c r="AC23" s="159"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="160"/>
+      <c r="AB23" s="167"/>
+      <c r="AC23" s="167"/>
+      <c r="AD23" s="168"/>
+      <c r="AE23" s="168"/>
       <c r="AF23" s="68"/>
       <c r="AG23" s="67"/>
     </row>
     <row r="24" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A24" s="168">
+      <c r="A24" s="161">
         <v>2022090601</v>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="161"/>
       <c r="D24" s="158"/>
       <c r="E24" s="158"/>
       <c r="F24" s="158"/>
@@ -14550,12 +14596,12 @@
       <c r="K24" s="158"/>
       <c r="L24" s="158"/>
       <c r="M24" s="158"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="157"/>
-      <c r="S24" s="157"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="163"/>
+      <c r="R24" s="169"/>
+      <c r="S24" s="169"/>
       <c r="T24" s="158"/>
       <c r="U24" s="158"/>
       <c r="V24" s="158"/>
@@ -14564,19 +14610,19 @@
       <c r="Y24" s="158"/>
       <c r="Z24" s="158"/>
       <c r="AA24" s="158"/>
-      <c r="AB24" s="159"/>
-      <c r="AC24" s="159"/>
-      <c r="AD24" s="160"/>
-      <c r="AE24" s="160"/>
+      <c r="AB24" s="167"/>
+      <c r="AC24" s="167"/>
+      <c r="AD24" s="168"/>
+      <c r="AE24" s="168"/>
       <c r="AF24" s="68"/>
       <c r="AG24" s="67"/>
     </row>
     <row r="25" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A25" s="168">
+      <c r="A25" s="161">
         <v>2022090701</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
       <c r="D25" s="158"/>
       <c r="E25" s="158"/>
       <c r="F25" s="158"/>
@@ -14587,12 +14633,12 @@
       <c r="K25" s="158"/>
       <c r="L25" s="158"/>
       <c r="M25" s="158"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="161"/>
-      <c r="P25" s="161"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="157"/>
-      <c r="S25" s="157"/>
+      <c r="N25" s="163"/>
+      <c r="O25" s="163"/>
+      <c r="P25" s="163"/>
+      <c r="Q25" s="163"/>
+      <c r="R25" s="169"/>
+      <c r="S25" s="169"/>
       <c r="T25" s="158"/>
       <c r="U25" s="158"/>
       <c r="V25" s="158"/>
@@ -14601,19 +14647,19 @@
       <c r="Y25" s="158"/>
       <c r="Z25" s="158"/>
       <c r="AA25" s="158"/>
-      <c r="AB25" s="159"/>
-      <c r="AC25" s="159"/>
-      <c r="AD25" s="160"/>
-      <c r="AE25" s="160"/>
+      <c r="AB25" s="167"/>
+      <c r="AC25" s="167"/>
+      <c r="AD25" s="168"/>
+      <c r="AE25" s="168"/>
       <c r="AF25" s="68"/>
       <c r="AG25" s="67"/>
     </row>
     <row r="26" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A26" s="168">
+      <c r="A26" s="161">
         <v>2022090801</v>
       </c>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
       <c r="D26" s="158"/>
       <c r="E26" s="158"/>
       <c r="F26" s="158"/>
@@ -14624,12 +14670,12 @@
       <c r="K26" s="158"/>
       <c r="L26" s="158"/>
       <c r="M26" s="158"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="157"/>
-      <c r="S26" s="157"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="163"/>
+      <c r="Q26" s="163"/>
+      <c r="R26" s="169"/>
+      <c r="S26" s="169"/>
       <c r="T26" s="158"/>
       <c r="U26" s="158"/>
       <c r="V26" s="158"/>
@@ -14638,19 +14684,19 @@
       <c r="Y26" s="158"/>
       <c r="Z26" s="158"/>
       <c r="AA26" s="158"/>
-      <c r="AB26" s="159"/>
-      <c r="AC26" s="159"/>
-      <c r="AD26" s="160"/>
-      <c r="AE26" s="160"/>
+      <c r="AB26" s="167"/>
+      <c r="AC26" s="167"/>
+      <c r="AD26" s="168"/>
+      <c r="AE26" s="168"/>
       <c r="AF26" s="68"/>
       <c r="AG26" s="67"/>
     </row>
     <row r="27" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A27" s="168">
+      <c r="A27" s="161">
         <v>2022090901</v>
       </c>
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="161"/>
       <c r="D27" s="158"/>
       <c r="E27" s="158"/>
       <c r="F27" s="158"/>
@@ -14661,12 +14707,12 @@
       <c r="K27" s="158"/>
       <c r="L27" s="158"/>
       <c r="M27" s="158"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="161"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="157"/>
-      <c r="S27" s="157"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="163"/>
+      <c r="P27" s="163"/>
+      <c r="Q27" s="163"/>
+      <c r="R27" s="169"/>
+      <c r="S27" s="169"/>
       <c r="T27" s="158"/>
       <c r="U27" s="158"/>
       <c r="V27" s="158"/>
@@ -14675,19 +14721,19 @@
       <c r="Y27" s="158"/>
       <c r="Z27" s="158"/>
       <c r="AA27" s="158"/>
-      <c r="AB27" s="159"/>
-      <c r="AC27" s="159"/>
-      <c r="AD27" s="160"/>
-      <c r="AE27" s="160"/>
+      <c r="AB27" s="167"/>
+      <c r="AC27" s="167"/>
+      <c r="AD27" s="168"/>
+      <c r="AE27" s="168"/>
       <c r="AF27" s="68"/>
       <c r="AG27" s="67"/>
     </row>
     <row r="28" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A28" s="168">
+      <c r="A28" s="161">
         <v>2022091001</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="161"/>
       <c r="D28" s="158"/>
       <c r="E28" s="158"/>
       <c r="F28" s="158"/>
@@ -14698,12 +14744,12 @@
       <c r="K28" s="158"/>
       <c r="L28" s="158"/>
       <c r="M28" s="158"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="161"/>
-      <c r="P28" s="161"/>
-      <c r="Q28" s="161"/>
-      <c r="R28" s="157"/>
-      <c r="S28" s="157"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="163"/>
+      <c r="P28" s="163"/>
+      <c r="Q28" s="163"/>
+      <c r="R28" s="169"/>
+      <c r="S28" s="169"/>
       <c r="T28" s="158"/>
       <c r="U28" s="158"/>
       <c r="V28" s="158"/>
@@ -14712,19 +14758,19 @@
       <c r="Y28" s="158"/>
       <c r="Z28" s="158"/>
       <c r="AA28" s="158"/>
-      <c r="AB28" s="159"/>
-      <c r="AC28" s="159"/>
-      <c r="AD28" s="160"/>
-      <c r="AE28" s="160"/>
+      <c r="AB28" s="167"/>
+      <c r="AC28" s="167"/>
+      <c r="AD28" s="168"/>
+      <c r="AE28" s="168"/>
       <c r="AF28" s="68"/>
       <c r="AG28" s="67"/>
     </row>
     <row r="29" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A29" s="168">
+      <c r="A29" s="161">
         <v>2022091101</v>
       </c>
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="161"/>
       <c r="D29" s="158"/>
       <c r="E29" s="158"/>
       <c r="F29" s="158"/>
@@ -14735,12 +14781,12 @@
       <c r="K29" s="158"/>
       <c r="L29" s="158"/>
       <c r="M29" s="158"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="161"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="157"/>
-      <c r="S29" s="157"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="163"/>
+      <c r="P29" s="163"/>
+      <c r="Q29" s="163"/>
+      <c r="R29" s="169"/>
+      <c r="S29" s="169"/>
       <c r="T29" s="158"/>
       <c r="U29" s="158"/>
       <c r="V29" s="158"/>
@@ -14749,19 +14795,19 @@
       <c r="Y29" s="158"/>
       <c r="Z29" s="158"/>
       <c r="AA29" s="158"/>
-      <c r="AB29" s="159"/>
-      <c r="AC29" s="159"/>
-      <c r="AD29" s="160"/>
-      <c r="AE29" s="160"/>
+      <c r="AB29" s="167"/>
+      <c r="AC29" s="167"/>
+      <c r="AD29" s="168"/>
+      <c r="AE29" s="168"/>
       <c r="AF29" s="68"/>
       <c r="AG29" s="67"/>
     </row>
     <row r="30" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A30" s="168">
+      <c r="A30" s="161">
         <v>2022091201</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
       <c r="D30" s="158"/>
       <c r="E30" s="158"/>
       <c r="F30" s="158"/>
@@ -14772,12 +14818,12 @@
       <c r="K30" s="158"/>
       <c r="L30" s="158"/>
       <c r="M30" s="158"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="161"/>
-      <c r="Q30" s="161"/>
-      <c r="R30" s="157"/>
-      <c r="S30" s="157"/>
+      <c r="N30" s="163"/>
+      <c r="O30" s="163"/>
+      <c r="P30" s="163"/>
+      <c r="Q30" s="163"/>
+      <c r="R30" s="169"/>
+      <c r="S30" s="169"/>
       <c r="T30" s="158"/>
       <c r="U30" s="158"/>
       <c r="V30" s="158"/>
@@ -14786,19 +14832,19 @@
       <c r="Y30" s="158"/>
       <c r="Z30" s="158"/>
       <c r="AA30" s="158"/>
-      <c r="AB30" s="159"/>
-      <c r="AC30" s="159"/>
-      <c r="AD30" s="160"/>
-      <c r="AE30" s="160"/>
+      <c r="AB30" s="167"/>
+      <c r="AC30" s="167"/>
+      <c r="AD30" s="168"/>
+      <c r="AE30" s="168"/>
       <c r="AF30" s="68"/>
       <c r="AG30" s="67"/>
     </row>
     <row r="31" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A31" s="168">
+      <c r="A31" s="161">
         <v>2022091301</v>
       </c>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
       <c r="D31" s="158"/>
       <c r="E31" s="158"/>
       <c r="F31" s="158"/>
@@ -14809,12 +14855,12 @@
       <c r="K31" s="158"/>
       <c r="L31" s="158"/>
       <c r="M31" s="158"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="161"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="157"/>
-      <c r="S31" s="157"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="163"/>
+      <c r="P31" s="163"/>
+      <c r="Q31" s="163"/>
+      <c r="R31" s="169"/>
+      <c r="S31" s="169"/>
       <c r="T31" s="158"/>
       <c r="U31" s="158"/>
       <c r="V31" s="158"/>
@@ -14823,19 +14869,19 @@
       <c r="Y31" s="158"/>
       <c r="Z31" s="158"/>
       <c r="AA31" s="158"/>
-      <c r="AB31" s="159"/>
-      <c r="AC31" s="159"/>
-      <c r="AD31" s="160"/>
-      <c r="AE31" s="160"/>
+      <c r="AB31" s="167"/>
+      <c r="AC31" s="167"/>
+      <c r="AD31" s="168"/>
+      <c r="AE31" s="168"/>
       <c r="AF31" s="68"/>
       <c r="AG31" s="67"/>
     </row>
     <row r="32" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A32" s="168">
+      <c r="A32" s="161">
         <v>2022091401</v>
       </c>
-      <c r="B32" s="168"/>
-      <c r="C32" s="168"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
       <c r="D32" s="158"/>
       <c r="E32" s="158"/>
       <c r="F32" s="158"/>
@@ -14846,12 +14892,12 @@
       <c r="K32" s="158"/>
       <c r="L32" s="158"/>
       <c r="M32" s="158"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="161"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="157"/>
-      <c r="S32" s="157"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="163"/>
+      <c r="P32" s="163"/>
+      <c r="Q32" s="163"/>
+      <c r="R32" s="169"/>
+      <c r="S32" s="169"/>
       <c r="T32" s="158"/>
       <c r="U32" s="158"/>
       <c r="V32" s="158"/>
@@ -14860,19 +14906,19 @@
       <c r="Y32" s="158"/>
       <c r="Z32" s="158"/>
       <c r="AA32" s="158"/>
-      <c r="AB32" s="159"/>
-      <c r="AC32" s="159"/>
-      <c r="AD32" s="160"/>
-      <c r="AE32" s="160"/>
+      <c r="AB32" s="167"/>
+      <c r="AC32" s="167"/>
+      <c r="AD32" s="168"/>
+      <c r="AE32" s="168"/>
       <c r="AF32" s="68"/>
       <c r="AG32" s="67"/>
     </row>
     <row r="33" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A33" s="168">
+      <c r="A33" s="161">
         <v>2022091501</v>
       </c>
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="161"/>
       <c r="D33" s="158"/>
       <c r="E33" s="158"/>
       <c r="F33" s="158"/>
@@ -14883,12 +14929,12 @@
       <c r="K33" s="158"/>
       <c r="L33" s="158"/>
       <c r="M33" s="158"/>
-      <c r="N33" s="161"/>
-      <c r="O33" s="161"/>
-      <c r="P33" s="161"/>
-      <c r="Q33" s="161"/>
-      <c r="R33" s="157"/>
-      <c r="S33" s="157"/>
+      <c r="N33" s="163"/>
+      <c r="O33" s="163"/>
+      <c r="P33" s="163"/>
+      <c r="Q33" s="163"/>
+      <c r="R33" s="169"/>
+      <c r="S33" s="169"/>
       <c r="T33" s="158"/>
       <c r="U33" s="158"/>
       <c r="V33" s="158"/>
@@ -14897,19 +14943,19 @@
       <c r="Y33" s="158"/>
       <c r="Z33" s="158"/>
       <c r="AA33" s="158"/>
-      <c r="AB33" s="159"/>
-      <c r="AC33" s="159"/>
-      <c r="AD33" s="160"/>
-      <c r="AE33" s="160"/>
+      <c r="AB33" s="167"/>
+      <c r="AC33" s="167"/>
+      <c r="AD33" s="168"/>
+      <c r="AE33" s="168"/>
       <c r="AF33" s="68"/>
       <c r="AG33" s="67"/>
     </row>
     <row r="34" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A34" s="168">
+      <c r="A34" s="161">
         <v>2022091601</v>
       </c>
-      <c r="B34" s="168"/>
-      <c r="C34" s="168"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
       <c r="D34" s="158"/>
       <c r="E34" s="158"/>
       <c r="F34" s="158"/>
@@ -14920,12 +14966,12 @@
       <c r="K34" s="158"/>
       <c r="L34" s="158"/>
       <c r="M34" s="158"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="161"/>
-      <c r="P34" s="161"/>
-      <c r="Q34" s="161"/>
-      <c r="R34" s="157"/>
-      <c r="S34" s="157"/>
+      <c r="N34" s="163"/>
+      <c r="O34" s="163"/>
+      <c r="P34" s="163"/>
+      <c r="Q34" s="163"/>
+      <c r="R34" s="169"/>
+      <c r="S34" s="169"/>
       <c r="T34" s="158"/>
       <c r="U34" s="158"/>
       <c r="V34" s="158"/>
@@ -14934,19 +14980,19 @@
       <c r="Y34" s="158"/>
       <c r="Z34" s="158"/>
       <c r="AA34" s="158"/>
-      <c r="AB34" s="159"/>
-      <c r="AC34" s="159"/>
-      <c r="AD34" s="160"/>
-      <c r="AE34" s="160"/>
+      <c r="AB34" s="167"/>
+      <c r="AC34" s="167"/>
+      <c r="AD34" s="168"/>
+      <c r="AE34" s="168"/>
       <c r="AF34" s="68"/>
       <c r="AG34" s="67"/>
     </row>
     <row r="35" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A35" s="168">
+      <c r="A35" s="161">
         <v>2022091701</v>
       </c>
-      <c r="B35" s="168"/>
-      <c r="C35" s="168"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
       <c r="D35" s="158"/>
       <c r="E35" s="158"/>
       <c r="F35" s="158"/>
@@ -14957,12 +15003,12 @@
       <c r="K35" s="158"/>
       <c r="L35" s="158"/>
       <c r="M35" s="158"/>
-      <c r="N35" s="161"/>
-      <c r="O35" s="161"/>
-      <c r="P35" s="161"/>
-      <c r="Q35" s="161"/>
-      <c r="R35" s="157"/>
-      <c r="S35" s="157"/>
+      <c r="N35" s="163"/>
+      <c r="O35" s="163"/>
+      <c r="P35" s="163"/>
+      <c r="Q35" s="163"/>
+      <c r="R35" s="169"/>
+      <c r="S35" s="169"/>
       <c r="T35" s="158"/>
       <c r="U35" s="158"/>
       <c r="V35" s="158"/>
@@ -14971,53 +15017,53 @@
       <c r="Y35" s="158"/>
       <c r="Z35" s="158"/>
       <c r="AA35" s="158"/>
-      <c r="AB35" s="159"/>
-      <c r="AC35" s="159"/>
-      <c r="AD35" s="160"/>
-      <c r="AE35" s="160"/>
+      <c r="AB35" s="167"/>
+      <c r="AC35" s="167"/>
+      <c r="AD35" s="168"/>
+      <c r="AE35" s="168"/>
       <c r="AF35" s="68"/>
       <c r="AG35" s="67"/>
     </row>
     <row r="36" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A36" s="162" t="s">
+      <c r="A36" s="170" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="163"/>
-      <c r="C36" s="164"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="166"/>
-      <c r="F36" s="166"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="154"/>
-      <c r="N36" s="154"/>
-      <c r="O36" s="154"/>
-      <c r="P36" s="152">
+      <c r="B36" s="171"/>
+      <c r="C36" s="172"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="176"/>
+      <c r="K36" s="176"/>
+      <c r="L36" s="176"/>
+      <c r="M36" s="176"/>
+      <c r="N36" s="176"/>
+      <c r="O36" s="176"/>
+      <c r="P36" s="177">
         <f>SUM(P19:Q35)</f>
         <v>2</v>
       </c>
-      <c r="Q36" s="152"/>
-      <c r="R36" s="153">
+      <c r="Q36" s="177"/>
+      <c r="R36" s="178">
         <f>SUM(R19:S35)</f>
         <v>26</v>
       </c>
-      <c r="S36" s="153"/>
-      <c r="T36" s="154"/>
-      <c r="U36" s="154"/>
-      <c r="V36" s="154"/>
-      <c r="W36" s="154"/>
-      <c r="X36" s="154"/>
-      <c r="Y36" s="154"/>
-      <c r="Z36" s="154"/>
-      <c r="AA36" s="154"/>
-      <c r="AB36" s="155"/>
-      <c r="AC36" s="155"/>
-      <c r="AD36" s="156"/>
-      <c r="AE36" s="156"/>
+      <c r="S36" s="178"/>
+      <c r="T36" s="176"/>
+      <c r="U36" s="176"/>
+      <c r="V36" s="176"/>
+      <c r="W36" s="176"/>
+      <c r="X36" s="176"/>
+      <c r="Y36" s="176"/>
+      <c r="Z36" s="176"/>
+      <c r="AA36" s="176"/>
+      <c r="AB36" s="179"/>
+      <c r="AC36" s="179"/>
+      <c r="AD36" s="180"/>
+      <c r="AE36" s="180"/>
       <c r="AF36" s="68"/>
       <c r="AG36" s="67"/>
     </row>
@@ -15303,25 +15349,191 @@
     </row>
   </sheetData>
   <mergeCells count="228">
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="N15:P16"/>
-    <mergeCell ref="Q15:R16"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="H20:J20"/>
@@ -15346,191 +15558,25 @@
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="Q15:R16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="3">
@@ -15612,136 +15658,136 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="130" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="130" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="130" t="s">
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="132"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="134"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="130" t="s">
+      <c r="AG2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="132"/>
+      <c r="AH2" s="134"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="124" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="124" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="124" t="s">
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="124" t="s">
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="124" t="s">
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="126"/>
+      <c r="AH3" s="137"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="127"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="127"/>
-      <c r="AH4" s="129"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="140"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="93"/>
@@ -16931,18 +16977,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="G3:M4"/>
+    <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="G3:M4"/>
-    <mergeCell ref="AE3:AF4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -17013,132 +17059,132 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="130" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="130" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="132"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="134"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="130" t="s">
+      <c r="AG2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="132"/>
+      <c r="AH2" s="134"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="124" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="124" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="124" t="s">
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="124" t="s">
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="126"/>
+      <c r="AH3" s="137"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="127"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="127"/>
-      <c r="AH4" s="129"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="140"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="93" t="s">
@@ -18003,16 +18049,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
+    <mergeCell ref="N3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:AD2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
-    <mergeCell ref="N3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -18080,132 +18126,132 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="130" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="130" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="131"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="133"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="130" t="s">
+      <c r="AG2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="132"/>
+      <c r="AH2" s="134"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="124" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="124" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="124" t="s">
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="124" t="s">
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="126"/>
+      <c r="AH3" s="137"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="127"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="127"/>
-      <c r="AH4" s="129"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="139"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="140"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="181" t="s">
@@ -19165,17 +19211,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="N3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="A5:F6"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -19243,189 +19289,189 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="130" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="130" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="130" t="s">
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="132"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="134"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="130" t="s">
+      <c r="AG2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="132"/>
+      <c r="AH2" s="134"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="124" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="124" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="124" t="s">
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="135" t="s">
         <v>210</v>
       </c>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="124" t="s">
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="124" t="s">
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="126"/>
+      <c r="AH3" s="137"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="127"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="127"/>
-      <c r="AH4" s="129"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="140"/>
     </row>
     <row r="5" spans="1:178" ht="14.25" customHeight="1">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="193" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="188"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="189"/>
-      <c r="K5" s="199" t="s">
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="195"/>
+      <c r="K5" s="196" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="200"/>
-      <c r="M5" s="200"/>
-      <c r="N5" s="200"/>
-      <c r="O5" s="200"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="187" t="s">
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="198"/>
+      <c r="Q5" s="193" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="188"/>
-      <c r="S5" s="188"/>
-      <c r="T5" s="188"/>
-      <c r="U5" s="188"/>
-      <c r="V5" s="188"/>
-      <c r="W5" s="188"/>
-      <c r="X5" s="188"/>
-      <c r="Y5" s="188"/>
-      <c r="Z5" s="188"/>
-      <c r="AA5" s="189"/>
-      <c r="AB5" s="193" t="s">
+      <c r="R5" s="194"/>
+      <c r="S5" s="194"/>
+      <c r="T5" s="194"/>
+      <c r="U5" s="194"/>
+      <c r="V5" s="194"/>
+      <c r="W5" s="194"/>
+      <c r="X5" s="194"/>
+      <c r="Y5" s="194"/>
+      <c r="Z5" s="194"/>
+      <c r="AA5" s="195"/>
+      <c r="AB5" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="194"/>
-      <c r="AD5" s="194"/>
-      <c r="AE5" s="194"/>
-      <c r="AF5" s="194"/>
-      <c r="AG5" s="194"/>
-      <c r="AH5" s="195"/>
+      <c r="AC5" s="188"/>
+      <c r="AD5" s="188"/>
+      <c r="AE5" s="188"/>
+      <c r="AF5" s="188"/>
+      <c r="AG5" s="188"/>
+      <c r="AH5" s="189"/>
     </row>
     <row r="6" spans="1:178" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="190" t="s">
+      <c r="A6" s="202" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="192"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="204"/>
       <c r="F6" s="109" t="s">
         <v>37</v>
       </c>
@@ -19439,19 +19485,19 @@
         <v>56</v>
       </c>
       <c r="J6" s="95"/>
-      <c r="K6" s="202"/>
-      <c r="L6" s="203"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="203"/>
-      <c r="O6" s="203"/>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="190" t="s">
+      <c r="K6" s="199"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="201"/>
+      <c r="Q6" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="191"/>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="192"/>
+      <c r="R6" s="203"/>
+      <c r="S6" s="203"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="204"/>
       <c r="V6" s="93" t="s">
         <v>61</v>
       </c>
@@ -19462,13 +19508,13 @@
       <c r="AA6" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" s="196"/>
-      <c r="AC6" s="197"/>
-      <c r="AD6" s="197"/>
-      <c r="AE6" s="197"/>
-      <c r="AF6" s="197"/>
-      <c r="AG6" s="197"/>
-      <c r="AH6" s="198"/>
+      <c r="AB6" s="190"/>
+      <c r="AC6" s="191"/>
+      <c r="AD6" s="191"/>
+      <c r="AE6" s="191"/>
+      <c r="AF6" s="191"/>
+      <c r="AG6" s="191"/>
+      <c r="AH6" s="192"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="23"/>
       <c r="AK6" s="23"/>
@@ -20608,6 +20654,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="Q6:U6"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="AB5:AH6"/>
@@ -20624,8 +20672,6 @@
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="Q6:U6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -20642,8 +20688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:FV41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -20694,136 +20740,136 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="130" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="130" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="130" t="s">
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="132"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="134"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="130" t="s">
+      <c r="AG2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="132"/>
+      <c r="AH2" s="134"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="124" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="124" t="s">
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="124" t="s">
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="135" t="s">
         <v>211</v>
       </c>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="124" t="s">
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="124" t="s">
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="126"/>
+      <c r="AH3" s="137"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="127"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="127"/>
-      <c r="AH4" s="129"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="138"/>
+      <c r="AH4" s="140"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="111"/>
@@ -22315,18 +22361,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/02_詳細設計書/02_内部レビュー/チーム2/詳細設計書_勤怠情報詳細.xlsx
+++ b/02_詳細設計書/02_内部レビュー/チーム2/詳細設計書_勤怠情報詳細.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A6BA68-DA2E-C947-A7E9-2637A64C03F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52347DB7-469A-774C-9A82-07C579402A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" tabRatio="774" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14140" yWindow="960" windowWidth="33600" windowHeight="19520" tabRatio="774" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="234">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -1507,6 +1507,24 @@
   </si>
   <si>
     <t>データがありません</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>元インプラントデータ</t>
+  </si>
+  <si>
+    <t>元インプラントデータ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>計算したデータ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データベースから読み込み</t>
+  </si>
+  <si>
+    <t>データベースから読み込み</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2238,34 +2256,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2286,16 +2277,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2316,7 +2304,100 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2337,74 +2418,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2422,6 +2440,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2469,45 +2496,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2551,6 +2539,36 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5729,72 +5747,72 @@
     </row>
     <row r="4" spans="1:176" ht="15" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="144"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123"/>
+      <c r="AE4" s="123"/>
       <c r="AF4" s="12"/>
     </row>
     <row r="5" spans="1:176" ht="15" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="144"/>
-      <c r="AA5" s="144"/>
-      <c r="AB5" s="144"/>
-      <c r="AC5" s="144"/>
-      <c r="AD5" s="144"/>
-      <c r="AE5" s="144"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="123"/>
+      <c r="W5" s="123"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="123"/>
+      <c r="AA5" s="123"/>
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="123"/>
+      <c r="AD5" s="123"/>
+      <c r="AE5" s="123"/>
       <c r="AF5" s="12"/>
     </row>
     <row r="6" spans="1:176" ht="15" customHeight="1">
@@ -5966,124 +5984,124 @@
     </row>
     <row r="11" spans="1:176" ht="15" customHeight="1">
       <c r="A11" s="11"/>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="132" t="s">
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="132" t="s">
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="133"/>
-      <c r="U11" s="133"/>
-      <c r="V11" s="133"/>
-      <c r="W11" s="133"/>
-      <c r="X11" s="133"/>
-      <c r="Y11" s="133"/>
-      <c r="Z11" s="133"/>
-      <c r="AA11" s="134"/>
-      <c r="AB11" s="132" t="s">
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="131"/>
+      <c r="Y11" s="131"/>
+      <c r="Z11" s="131"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="AC11" s="134"/>
-      <c r="AD11" s="132" t="s">
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AE11" s="134"/>
+      <c r="AE11" s="132"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="11"/>
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="135" t="s">
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="145" t="s">
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="146"/>
-      <c r="U12" s="146"/>
-      <c r="V12" s="146"/>
-      <c r="W12" s="146"/>
-      <c r="X12" s="146"/>
-      <c r="Y12" s="146"/>
-      <c r="Z12" s="146"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="145" t="s">
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="134"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="134"/>
+      <c r="Y12" s="134"/>
+      <c r="Z12" s="134"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="135" t="s">
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="AE12" s="137"/>
+      <c r="AE12" s="126"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="149"/>
-      <c r="R13" s="149"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="149"/>
-      <c r="U13" s="149"/>
-      <c r="V13" s="149"/>
-      <c r="W13" s="149"/>
-      <c r="X13" s="149"/>
-      <c r="Y13" s="149"/>
-      <c r="Z13" s="149"/>
-      <c r="AA13" s="150"/>
-      <c r="AB13" s="148"/>
-      <c r="AC13" s="150"/>
-      <c r="AD13" s="138"/>
-      <c r="AE13" s="140"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="138"/>
+      <c r="AB13" s="136"/>
+      <c r="AC13" s="138"/>
+      <c r="AD13" s="127"/>
+      <c r="AE13" s="129"/>
       <c r="AF13" s="12"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
@@ -6288,54 +6306,54 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="11"/>
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="141" t="s">
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="141" t="s">
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
-      <c r="S20" s="142"/>
-      <c r="T20" s="142"/>
-      <c r="U20" s="142"/>
-      <c r="V20" s="142"/>
-      <c r="W20" s="142"/>
-      <c r="X20" s="142"/>
-      <c r="Y20" s="142"/>
-      <c r="Z20" s="142"/>
-      <c r="AA20" s="142"/>
-      <c r="AB20" s="143"/>
-      <c r="AC20" s="141" t="s">
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="143"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="143"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="143"/>
+      <c r="X20" s="143"/>
+      <c r="Y20" s="143"/>
+      <c r="Z20" s="143"/>
+      <c r="AA20" s="143"/>
+      <c r="AB20" s="144"/>
+      <c r="AC20" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="AD20" s="142"/>
-      <c r="AE20" s="143"/>
+      <c r="AD20" s="143"/>
+      <c r="AE20" s="144"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="139" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="141"/>
       <c r="F21" s="120" t="s">
         <v>89</v>
       </c>
@@ -6372,10 +6390,10 @@
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="125"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="141"/>
       <c r="F22" s="120"/>
       <c r="G22" s="121"/>
       <c r="H22" s="121"/>
@@ -6406,10 +6424,10 @@
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="11"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="141"/>
       <c r="F23" s="120"/>
       <c r="G23" s="121"/>
       <c r="H23" s="121"/>
@@ -6440,10 +6458,10 @@
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="125"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="141"/>
       <c r="F24" s="120"/>
       <c r="G24" s="121"/>
       <c r="H24" s="121"/>
@@ -6474,10 +6492,10 @@
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="125"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="141"/>
       <c r="F25" s="120"/>
       <c r="G25" s="121"/>
       <c r="H25" s="121"/>
@@ -6508,10 +6526,10 @@
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="11"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="125"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="141"/>
       <c r="F26" s="120"/>
       <c r="G26" s="121"/>
       <c r="H26" s="121"/>
@@ -6542,10 +6560,10 @@
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="11"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="125"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="141"/>
       <c r="F27" s="120"/>
       <c r="G27" s="121"/>
       <c r="H27" s="121"/>
@@ -6576,10 +6594,10 @@
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="11"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="125"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="141"/>
       <c r="F28" s="120"/>
       <c r="G28" s="121"/>
       <c r="H28" s="121"/>
@@ -6610,10 +6628,10 @@
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="11"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="125"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="141"/>
       <c r="F29" s="120"/>
       <c r="G29" s="121"/>
       <c r="H29" s="121"/>
@@ -6644,274 +6662,274 @@
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="11"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="130"/>
-      <c r="R30" s="130"/>
-      <c r="S30" s="130"/>
-      <c r="T30" s="130"/>
-      <c r="U30" s="130"/>
-      <c r="V30" s="130"/>
-      <c r="W30" s="130"/>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="130"/>
-      <c r="AA30" s="130"/>
-      <c r="AB30" s="131"/>
-      <c r="AC30" s="129"/>
-      <c r="AD30" s="130"/>
-      <c r="AE30" s="131"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="149"/>
+      <c r="P30" s="149"/>
+      <c r="Q30" s="149"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="149"/>
+      <c r="T30" s="149"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="149"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="149"/>
+      <c r="Z30" s="149"/>
+      <c r="AA30" s="149"/>
+      <c r="AB30" s="150"/>
+      <c r="AC30" s="148"/>
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="150"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="11"/>
-      <c r="B31" s="126"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="130"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="130"/>
-      <c r="T31" s="130"/>
-      <c r="U31" s="130"/>
-      <c r="V31" s="130"/>
-      <c r="W31" s="130"/>
-      <c r="X31" s="130"/>
-      <c r="Y31" s="130"/>
-      <c r="Z31" s="130"/>
-      <c r="AA31" s="130"/>
-      <c r="AB31" s="131"/>
-      <c r="AC31" s="129"/>
-      <c r="AD31" s="130"/>
-      <c r="AE31" s="131"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
+      <c r="N31" s="149"/>
+      <c r="O31" s="149"/>
+      <c r="P31" s="149"/>
+      <c r="Q31" s="149"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="149"/>
+      <c r="T31" s="149"/>
+      <c r="U31" s="149"/>
+      <c r="V31" s="149"/>
+      <c r="W31" s="149"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="149"/>
+      <c r="Z31" s="149"/>
+      <c r="AA31" s="149"/>
+      <c r="AB31" s="150"/>
+      <c r="AC31" s="148"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="150"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="130"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="130"/>
-      <c r="R32" s="130"/>
-      <c r="S32" s="130"/>
-      <c r="T32" s="130"/>
-      <c r="U32" s="130"/>
-      <c r="V32" s="130"/>
-      <c r="W32" s="130"/>
-      <c r="X32" s="130"/>
-      <c r="Y32" s="130"/>
-      <c r="Z32" s="130"/>
-      <c r="AA32" s="130"/>
-      <c r="AB32" s="131"/>
-      <c r="AC32" s="129"/>
-      <c r="AD32" s="130"/>
-      <c r="AE32" s="131"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
+      <c r="N32" s="149"/>
+      <c r="O32" s="149"/>
+      <c r="P32" s="149"/>
+      <c r="Q32" s="149"/>
+      <c r="R32" s="149"/>
+      <c r="S32" s="149"/>
+      <c r="T32" s="149"/>
+      <c r="U32" s="149"/>
+      <c r="V32" s="149"/>
+      <c r="W32" s="149"/>
+      <c r="X32" s="149"/>
+      <c r="Y32" s="149"/>
+      <c r="Z32" s="149"/>
+      <c r="AA32" s="149"/>
+      <c r="AB32" s="150"/>
+      <c r="AC32" s="148"/>
+      <c r="AD32" s="149"/>
+      <c r="AE32" s="150"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="11"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="130"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="130"/>
-      <c r="R33" s="130"/>
-      <c r="S33" s="130"/>
-      <c r="T33" s="130"/>
-      <c r="U33" s="130"/>
-      <c r="V33" s="130"/>
-      <c r="W33" s="130"/>
-      <c r="X33" s="130"/>
-      <c r="Y33" s="130"/>
-      <c r="Z33" s="130"/>
-      <c r="AA33" s="130"/>
-      <c r="AB33" s="131"/>
-      <c r="AC33" s="129"/>
-      <c r="AD33" s="130"/>
-      <c r="AE33" s="131"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="149"/>
+      <c r="O33" s="149"/>
+      <c r="P33" s="149"/>
+      <c r="Q33" s="149"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="149"/>
+      <c r="T33" s="149"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="149"/>
+      <c r="W33" s="149"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="149"/>
+      <c r="Z33" s="149"/>
+      <c r="AA33" s="149"/>
+      <c r="AB33" s="150"/>
+      <c r="AC33" s="148"/>
+      <c r="AD33" s="149"/>
+      <c r="AE33" s="150"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="131"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="130"/>
-      <c r="M34" s="130"/>
-      <c r="N34" s="130"/>
-      <c r="O34" s="130"/>
-      <c r="P34" s="130"/>
-      <c r="Q34" s="130"/>
-      <c r="R34" s="130"/>
-      <c r="S34" s="130"/>
-      <c r="T34" s="130"/>
-      <c r="U34" s="130"/>
-      <c r="V34" s="130"/>
-      <c r="W34" s="130"/>
-      <c r="X34" s="130"/>
-      <c r="Y34" s="130"/>
-      <c r="Z34" s="130"/>
-      <c r="AA34" s="130"/>
-      <c r="AB34" s="131"/>
-      <c r="AC34" s="129"/>
-      <c r="AD34" s="130"/>
-      <c r="AE34" s="131"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="149"/>
+      <c r="P34" s="149"/>
+      <c r="Q34" s="149"/>
+      <c r="R34" s="149"/>
+      <c r="S34" s="149"/>
+      <c r="T34" s="149"/>
+      <c r="U34" s="149"/>
+      <c r="V34" s="149"/>
+      <c r="W34" s="149"/>
+      <c r="X34" s="149"/>
+      <c r="Y34" s="149"/>
+      <c r="Z34" s="149"/>
+      <c r="AA34" s="149"/>
+      <c r="AB34" s="150"/>
+      <c r="AC34" s="148"/>
+      <c r="AD34" s="149"/>
+      <c r="AE34" s="150"/>
       <c r="AF34" s="12"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="11"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="130"/>
-      <c r="M35" s="130"/>
-      <c r="N35" s="130"/>
-      <c r="O35" s="130"/>
-      <c r="P35" s="130"/>
-      <c r="Q35" s="130"/>
-      <c r="R35" s="130"/>
-      <c r="S35" s="130"/>
-      <c r="T35" s="130"/>
-      <c r="U35" s="130"/>
-      <c r="V35" s="130"/>
-      <c r="W35" s="130"/>
-      <c r="X35" s="130"/>
-      <c r="Y35" s="130"/>
-      <c r="Z35" s="130"/>
-      <c r="AA35" s="130"/>
-      <c r="AB35" s="131"/>
-      <c r="AC35" s="129"/>
-      <c r="AD35" s="130"/>
-      <c r="AE35" s="131"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
+      <c r="N35" s="149"/>
+      <c r="O35" s="149"/>
+      <c r="P35" s="149"/>
+      <c r="Q35" s="149"/>
+      <c r="R35" s="149"/>
+      <c r="S35" s="149"/>
+      <c r="T35" s="149"/>
+      <c r="U35" s="149"/>
+      <c r="V35" s="149"/>
+      <c r="W35" s="149"/>
+      <c r="X35" s="149"/>
+      <c r="Y35" s="149"/>
+      <c r="Z35" s="149"/>
+      <c r="AA35" s="149"/>
+      <c r="AB35" s="150"/>
+      <c r="AC35" s="148"/>
+      <c r="AD35" s="149"/>
+      <c r="AE35" s="150"/>
       <c r="AF35" s="12"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="129"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="130"/>
-      <c r="O36" s="130"/>
-      <c r="P36" s="130"/>
-      <c r="Q36" s="130"/>
-      <c r="R36" s="130"/>
-      <c r="S36" s="130"/>
-      <c r="T36" s="130"/>
-      <c r="U36" s="130"/>
-      <c r="V36" s="130"/>
-      <c r="W36" s="130"/>
-      <c r="X36" s="130"/>
-      <c r="Y36" s="130"/>
-      <c r="Z36" s="130"/>
-      <c r="AA36" s="130"/>
-      <c r="AB36" s="131"/>
-      <c r="AC36" s="129"/>
-      <c r="AD36" s="130"/>
-      <c r="AE36" s="131"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
+      <c r="N36" s="149"/>
+      <c r="O36" s="149"/>
+      <c r="P36" s="149"/>
+      <c r="Q36" s="149"/>
+      <c r="R36" s="149"/>
+      <c r="S36" s="149"/>
+      <c r="T36" s="149"/>
+      <c r="U36" s="149"/>
+      <c r="V36" s="149"/>
+      <c r="W36" s="149"/>
+      <c r="X36" s="149"/>
+      <c r="Y36" s="149"/>
+      <c r="Z36" s="149"/>
+      <c r="AA36" s="149"/>
+      <c r="AB36" s="150"/>
+      <c r="AC36" s="148"/>
+      <c r="AD36" s="149"/>
+      <c r="AE36" s="150"/>
       <c r="AF36" s="12"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="11"/>
-      <c r="B37" s="129"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="129"/>
-      <c r="K37" s="130"/>
-      <c r="L37" s="130"/>
-      <c r="M37" s="130"/>
-      <c r="N37" s="130"/>
-      <c r="O37" s="130"/>
-      <c r="P37" s="130"/>
-      <c r="Q37" s="130"/>
-      <c r="R37" s="130"/>
-      <c r="S37" s="130"/>
-      <c r="T37" s="130"/>
-      <c r="U37" s="130"/>
-      <c r="V37" s="130"/>
-      <c r="W37" s="130"/>
-      <c r="X37" s="130"/>
-      <c r="Y37" s="130"/>
-      <c r="Z37" s="130"/>
-      <c r="AA37" s="130"/>
-      <c r="AB37" s="131"/>
-      <c r="AC37" s="129"/>
-      <c r="AD37" s="130"/>
-      <c r="AE37" s="131"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
+      <c r="N37" s="149"/>
+      <c r="O37" s="149"/>
+      <c r="P37" s="149"/>
+      <c r="Q37" s="149"/>
+      <c r="R37" s="149"/>
+      <c r="S37" s="149"/>
+      <c r="T37" s="149"/>
+      <c r="U37" s="149"/>
+      <c r="V37" s="149"/>
+      <c r="W37" s="149"/>
+      <c r="X37" s="149"/>
+      <c r="Y37" s="149"/>
+      <c r="Z37" s="149"/>
+      <c r="AA37" s="149"/>
+      <c r="AB37" s="150"/>
+      <c r="AC37" s="148"/>
+      <c r="AD37" s="149"/>
+      <c r="AE37" s="150"/>
       <c r="AF37" s="12"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -6950,17 +6968,62 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="B4:AE5"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="M12:AA13"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
     <mergeCell ref="J23:AB23"/>
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="AD11:AE11"/>
@@ -6977,62 +7040,17 @@
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="AC20:AE20"/>
     <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B4:AE5"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AB12:AC13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7067,171 +7085,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="227" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="211"/>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="211"/>
-      <c r="AD1" s="211"/>
-      <c r="AE1" s="211"/>
-      <c r="AF1" s="211"/>
-      <c r="AG1" s="211"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="227"/>
+      <c r="O1" s="227"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="227"/>
+      <c r="S1" s="227"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
+      <c r="Y1" s="227"/>
+      <c r="Z1" s="227"/>
+      <c r="AA1" s="227"/>
+      <c r="AB1" s="227"/>
+      <c r="AC1" s="227"/>
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="227"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="212" t="s">
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="212" t="s">
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
+      <c r="N2" s="229"/>
+      <c r="O2" s="229"/>
+      <c r="P2" s="229"/>
+      <c r="Q2" s="229"/>
+      <c r="R2" s="229"/>
+      <c r="S2" s="229"/>
+      <c r="T2" s="229"/>
+      <c r="U2" s="229"/>
+      <c r="V2" s="229"/>
+      <c r="W2" s="229"/>
+      <c r="X2" s="229"/>
+      <c r="Y2" s="229"/>
+      <c r="Z2" s="229"/>
+      <c r="AA2" s="229"/>
+      <c r="AB2" s="229"/>
+      <c r="AC2" s="230"/>
       <c r="AD2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="17"/>
-      <c r="AF2" s="212" t="s">
+      <c r="AF2" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="214"/>
+      <c r="AG2" s="230"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="205" t="str">
+      <c r="A3" s="221" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="205" t="str">
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="221" t="str">
         <f>表紙!G12</f>
         <v>勤怠情報・一覧登録</v>
       </c>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="205" t="str">
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="221" t="str">
         <f>表紙!M12</f>
         <v>勤怠管理情報詳細一覧 / 更新 / 削除</v>
       </c>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="206"/>
-      <c r="AD3" s="205" t="str">
+      <c r="N3" s="225"/>
+      <c r="O3" s="225"/>
+      <c r="P3" s="225"/>
+      <c r="Q3" s="225"/>
+      <c r="R3" s="225"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="225"/>
+      <c r="U3" s="225"/>
+      <c r="V3" s="225"/>
+      <c r="W3" s="225"/>
+      <c r="X3" s="225"/>
+      <c r="Y3" s="225"/>
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="225"/>
+      <c r="AB3" s="225"/>
+      <c r="AC3" s="222"/>
+      <c r="AD3" s="221" t="str">
         <f>表紙!AB12</f>
         <v>NTS</v>
       </c>
-      <c r="AE3" s="206"/>
-      <c r="AF3" s="205" t="str">
+      <c r="AE3" s="222"/>
+      <c r="AF3" s="221" t="str">
         <f>表紙!AD12</f>
         <v>司徒 健斌</v>
       </c>
-      <c r="AG3" s="206"/>
+      <c r="AG3" s="222"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="207"/>
-      <c r="B4" s="210"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
-      <c r="S4" s="210"/>
-      <c r="T4" s="210"/>
-      <c r="U4" s="210"/>
-      <c r="V4" s="210"/>
-      <c r="W4" s="210"/>
-      <c r="X4" s="210"/>
-      <c r="Y4" s="210"/>
-      <c r="Z4" s="210"/>
-      <c r="AA4" s="210"/>
-      <c r="AB4" s="210"/>
-      <c r="AC4" s="208"/>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="208"/>
-      <c r="AF4" s="207"/>
-      <c r="AG4" s="208"/>
+      <c r="A4" s="223"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="226"/>
+      <c r="J4" s="226"/>
+      <c r="K4" s="226"/>
+      <c r="L4" s="224"/>
+      <c r="M4" s="223"/>
+      <c r="N4" s="226"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="226"/>
+      <c r="T4" s="226"/>
+      <c r="U4" s="226"/>
+      <c r="V4" s="226"/>
+      <c r="W4" s="226"/>
+      <c r="X4" s="226"/>
+      <c r="Y4" s="226"/>
+      <c r="Z4" s="226"/>
+      <c r="AA4" s="226"/>
+      <c r="AB4" s="226"/>
+      <c r="AC4" s="224"/>
+      <c r="AD4" s="223"/>
+      <c r="AE4" s="224"/>
+      <c r="AF4" s="223"/>
+      <c r="AG4" s="224"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -7444,94 +7462,94 @@
     </row>
     <row r="7" spans="1:177" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="30"/>
-      <c r="B7" s="217" t="s">
+      <c r="B7" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="227"/>
-      <c r="D7" s="217" t="s">
+      <c r="C7" s="217"/>
+      <c r="D7" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="226"/>
-      <c r="F7" s="226"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="217" t="s">
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="226"/>
-      <c r="J7" s="227"/>
-      <c r="K7" s="217" t="s">
+      <c r="I7" s="216"/>
+      <c r="J7" s="217"/>
+      <c r="K7" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="226"/>
-      <c r="M7" s="227"/>
-      <c r="N7" s="217" t="s">
+      <c r="L7" s="216"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="218"/>
-      <c r="P7" s="219"/>
-      <c r="Q7" s="217" t="s">
+      <c r="O7" s="208"/>
+      <c r="P7" s="209"/>
+      <c r="Q7" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="219"/>
-      <c r="S7" s="217" t="s">
+      <c r="R7" s="209"/>
+      <c r="S7" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="218"/>
-      <c r="U7" s="219"/>
-      <c r="V7" s="217" t="s">
+      <c r="T7" s="208"/>
+      <c r="U7" s="209"/>
+      <c r="V7" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="218"/>
-      <c r="X7" s="219"/>
-      <c r="Y7" s="217" t="s">
+      <c r="W7" s="208"/>
+      <c r="X7" s="209"/>
+      <c r="Y7" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="Z7" s="218"/>
-      <c r="AA7" s="218"/>
-      <c r="AB7" s="218"/>
-      <c r="AC7" s="218"/>
-      <c r="AD7" s="218"/>
-      <c r="AE7" s="219"/>
+      <c r="Z7" s="208"/>
+      <c r="AA7" s="208"/>
+      <c r="AB7" s="208"/>
+      <c r="AC7" s="208"/>
+      <c r="AD7" s="208"/>
+      <c r="AE7" s="209"/>
       <c r="AG7" s="32"/>
     </row>
     <row r="8" spans="1:177" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="30"/>
-      <c r="B8" s="215" t="s">
+      <c r="B8" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="216"/>
+      <c r="C8" s="206"/>
       <c r="D8" s="30" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="32"/>
-      <c r="H8" s="220" t="s">
+      <c r="H8" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="221"/>
-      <c r="J8" s="222"/>
-      <c r="K8" s="223" t="s">
+      <c r="I8" s="211"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="213" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="224"/>
-      <c r="M8" s="225"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="215"/>
       <c r="N8" s="30" t="s">
         <v>19</v>
       </c>
       <c r="P8" s="32"/>
-      <c r="Q8" s="223" t="s">
+      <c r="Q8" s="213" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="225"/>
-      <c r="S8" s="228" t="s">
+      <c r="R8" s="215"/>
+      <c r="S8" s="218" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="229"/>
-      <c r="U8" s="230"/>
-      <c r="V8" s="220" t="s">
+      <c r="T8" s="219"/>
+      <c r="U8" s="220"/>
+      <c r="V8" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="221"/>
-      <c r="X8" s="222"/>
+      <c r="W8" s="211"/>
+      <c r="X8" s="212"/>
       <c r="Y8" s="33" t="s">
         <v>24</v>
       </c>
@@ -8194,6 +8212,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="Y7:AE7"/>
     <mergeCell ref="H8:J8"/>
@@ -8209,16 +8237,6 @@
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -8253,178 +8271,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="211"/>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="211"/>
-      <c r="AD1" s="211"/>
-      <c r="AE1" s="211"/>
-      <c r="AF1" s="211"/>
-      <c r="AG1" s="211"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="227"/>
+      <c r="O1" s="227"/>
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="227"/>
+      <c r="S1" s="227"/>
+      <c r="T1" s="227"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
+      <c r="Y1" s="227"/>
+      <c r="Z1" s="227"/>
+      <c r="AA1" s="227"/>
+      <c r="AB1" s="227"/>
+      <c r="AC1" s="227"/>
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="227"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="212" t="s">
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="212" t="s">
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="212" t="s">
+      <c r="O2" s="229"/>
+      <c r="P2" s="229"/>
+      <c r="Q2" s="229"/>
+      <c r="R2" s="229"/>
+      <c r="S2" s="229"/>
+      <c r="T2" s="229"/>
+      <c r="U2" s="229"/>
+      <c r="V2" s="229"/>
+      <c r="W2" s="229"/>
+      <c r="X2" s="230"/>
+      <c r="Y2" s="228" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="214"/>
+      <c r="Z2" s="229"/>
+      <c r="AA2" s="229"/>
+      <c r="AB2" s="229"/>
+      <c r="AC2" s="229"/>
+      <c r="AD2" s="230"/>
       <c r="AE2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="17"/>
-      <c r="AG2" s="212" t="s">
+      <c r="AG2" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="214"/>
+      <c r="AH2" s="230"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="205" t="str">
+      <c r="A3" s="221" t="str">
         <f>表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="205" t="str">
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="221" t="str">
         <f>表紙!G12</f>
         <v>勤怠情報・一覧登録</v>
       </c>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="205" t="str">
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="221" t="str">
         <f>表紙!M12</f>
         <v>勤怠管理情報詳細一覧 / 更新 / 削除</v>
       </c>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="205" t="s">
+      <c r="O3" s="225"/>
+      <c r="P3" s="225"/>
+      <c r="Q3" s="225"/>
+      <c r="R3" s="225"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="225"/>
+      <c r="U3" s="225"/>
+      <c r="V3" s="225"/>
+      <c r="W3" s="225"/>
+      <c r="X3" s="222"/>
+      <c r="Y3" s="221" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="206"/>
-      <c r="AE3" s="205" t="str">
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="225"/>
+      <c r="AB3" s="225"/>
+      <c r="AC3" s="225"/>
+      <c r="AD3" s="222"/>
+      <c r="AE3" s="221" t="str">
         <f>表紙!AB12</f>
         <v>NTS</v>
       </c>
-      <c r="AF3" s="206"/>
-      <c r="AG3" s="205" t="str">
+      <c r="AF3" s="222"/>
+      <c r="AG3" s="221" t="str">
         <f>表紙!AD12</f>
         <v>司徒 健斌</v>
       </c>
-      <c r="AH3" s="206"/>
+      <c r="AH3" s="222"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="207"/>
-      <c r="B4" s="210"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="210"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
-      <c r="S4" s="210"/>
-      <c r="T4" s="210"/>
-      <c r="U4" s="210"/>
-      <c r="V4" s="210"/>
-      <c r="W4" s="210"/>
-      <c r="X4" s="208"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="210"/>
-      <c r="AA4" s="210"/>
-      <c r="AB4" s="210"/>
-      <c r="AC4" s="210"/>
-      <c r="AD4" s="208"/>
-      <c r="AE4" s="207"/>
-      <c r="AF4" s="208"/>
-      <c r="AG4" s="207"/>
-      <c r="AH4" s="208"/>
+      <c r="A4" s="223"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="226"/>
+      <c r="J4" s="226"/>
+      <c r="K4" s="226"/>
+      <c r="L4" s="226"/>
+      <c r="M4" s="224"/>
+      <c r="N4" s="223"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
+      <c r="Q4" s="226"/>
+      <c r="R4" s="226"/>
+      <c r="S4" s="226"/>
+      <c r="T4" s="226"/>
+      <c r="U4" s="226"/>
+      <c r="V4" s="226"/>
+      <c r="W4" s="226"/>
+      <c r="X4" s="224"/>
+      <c r="Y4" s="223"/>
+      <c r="Z4" s="226"/>
+      <c r="AA4" s="226"/>
+      <c r="AB4" s="226"/>
+      <c r="AC4" s="226"/>
+      <c r="AD4" s="224"/>
+      <c r="AE4" s="223"/>
+      <c r="AF4" s="224"/>
+      <c r="AG4" s="223"/>
+      <c r="AH4" s="224"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -9862,18 +9880,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9942,136 +9960,136 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="132" t="s">
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="134"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="132"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="132"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="133" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="135" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="135" t="s">
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="126"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="129"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="45"/>
@@ -11695,18 +11713,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -11722,7 +11740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
       <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
@@ -11775,129 +11793,129 @@
       <c r="AG1" s="151"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="134"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="132"/>
       <c r="AD2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="87"/>
-      <c r="AF2" s="132" t="s">
+      <c r="AF2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="134"/>
+      <c r="AG2" s="132"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="135" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="137"/>
-      <c r="AD3" s="135" t="s">
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="137"/>
-      <c r="AF3" s="135" t="s">
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="AG3" s="137"/>
+      <c r="AG3" s="126"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="140"/>
-      <c r="AD4" s="138"/>
-      <c r="AE4" s="140"/>
-      <c r="AF4" s="138"/>
-      <c r="AG4" s="140"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="127"/>
+      <c r="AG4" s="129"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="58"/>
@@ -13445,16 +13463,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13524,129 +13542,129 @@
       <c r="AG1" s="151"/>
     </row>
     <row r="2" spans="1:177" ht="14">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="134"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="132"/>
       <c r="AD2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AE2" s="87"/>
-      <c r="AF2" s="132" t="s">
+      <c r="AF2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="134"/>
+      <c r="AG2" s="132"/>
     </row>
     <row r="3" spans="1:177" ht="14">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="135" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="137"/>
-      <c r="AD3" s="135" t="s">
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="137"/>
-      <c r="AF3" s="135" t="s">
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="AG3" s="137"/>
+      <c r="AG3" s="126"/>
     </row>
     <row r="4" spans="1:177" ht="14">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="140"/>
-      <c r="AD4" s="138"/>
-      <c r="AE4" s="140"/>
-      <c r="AF4" s="138"/>
-      <c r="AG4" s="140"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="127"/>
+      <c r="AG4" s="129"/>
     </row>
     <row r="5" spans="1:177" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="18"/>
@@ -13974,12 +13992,12 @@
       <c r="B10" s="158"/>
       <c r="C10" s="158"/>
       <c r="D10" s="158"/>
-      <c r="E10" s="159">
+      <c r="E10" s="179">
         <v>1</v>
       </c>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
       <c r="I10" s="77"/>
       <c r="J10" s="78"/>
       <c r="K10" s="83"/>
@@ -14007,7 +14025,7 @@
       <c r="AG10" s="67"/>
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="180" t="s">
         <v>108</v>
       </c>
       <c r="B11" s="158"/>
@@ -14046,7 +14064,7 @@
       <c r="AG11" s="67"/>
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A12" s="160" t="s">
+      <c r="A12" s="180" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="158"/>
@@ -14168,17 +14186,17 @@
       <c r="K15" s="79"/>
       <c r="L15" s="79"/>
       <c r="M15" s="81"/>
-      <c r="N15" s="152" t="s">
+      <c r="N15" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="O15" s="152"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="153" t="s">
+      <c r="O15" s="173"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="R15" s="153"/>
-      <c r="S15" s="154"/>
-      <c r="T15" s="155"/>
+      <c r="R15" s="174"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="176"/>
       <c r="U15" s="79"/>
       <c r="V15" s="79"/>
       <c r="W15" s="79"/>
@@ -14207,13 +14225,13 @@
       <c r="K16" s="79"/>
       <c r="L16" s="79"/>
       <c r="M16" s="79"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="157"/>
+      <c r="N16" s="173"/>
+      <c r="O16" s="173"/>
+      <c r="P16" s="173"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="174"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="178"/>
       <c r="U16" s="79"/>
       <c r="V16" s="79"/>
       <c r="W16" s="79"/>
@@ -14276,59 +14294,59 @@
       </c>
     </row>
     <row r="18" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A18" s="164" t="s">
+      <c r="A18" s="170" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="165"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="164" t="s">
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="164" t="s">
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="170" t="s">
         <v>114</v>
       </c>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="164" t="s">
+      <c r="I18" s="171"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="170" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="164" t="s">
+      <c r="L18" s="171"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="O18" s="165"/>
-      <c r="P18" s="164" t="s">
+      <c r="O18" s="171"/>
+      <c r="P18" s="170" t="s">
         <v>96</v>
       </c>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="164" t="s">
+      <c r="Q18" s="171"/>
+      <c r="R18" s="170" t="s">
         <v>97</v>
       </c>
-      <c r="S18" s="165"/>
-      <c r="T18" s="164" t="s">
+      <c r="S18" s="171"/>
+      <c r="T18" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="U18" s="165"/>
-      <c r="V18" s="164" t="s">
+      <c r="U18" s="171"/>
+      <c r="V18" s="170" t="s">
         <v>98</v>
       </c>
-      <c r="W18" s="165"/>
-      <c r="X18" s="165"/>
-      <c r="Y18" s="165"/>
-      <c r="Z18" s="165"/>
-      <c r="AA18" s="165"/>
-      <c r="AB18" s="164" t="s">
+      <c r="W18" s="171"/>
+      <c r="X18" s="171"/>
+      <c r="Y18" s="171"/>
+      <c r="Z18" s="171"/>
+      <c r="AA18" s="171"/>
+      <c r="AB18" s="170" t="s">
         <v>99</v>
       </c>
-      <c r="AC18" s="164"/>
-      <c r="AD18" s="166" t="s">
+      <c r="AC18" s="170"/>
+      <c r="AD18" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="AE18" s="166"/>
+      <c r="AE18" s="172"/>
       <c r="AF18" s="68"/>
       <c r="AG18" s="67"/>
       <c r="AT18" s="118"/>
@@ -14338,39 +14356,39 @@
       </c>
     </row>
     <row r="19" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A19" s="161">
+      <c r="A19" s="168">
         <v>2022090101</v>
       </c>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="168"/>
       <c r="D19" s="158" t="s">
         <v>101</v>
       </c>
       <c r="E19" s="158"/>
       <c r="F19" s="158"/>
       <c r="G19" s="158"/>
-      <c r="H19" s="162">
+      <c r="H19" s="169">
         <v>0.375</v>
       </c>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="162">
+      <c r="I19" s="169"/>
+      <c r="J19" s="169"/>
+      <c r="K19" s="169">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="163">
+      <c r="L19" s="169"/>
+      <c r="M19" s="169"/>
+      <c r="N19" s="161">
         <v>1</v>
       </c>
-      <c r="O19" s="163"/>
-      <c r="P19" s="163">
+      <c r="O19" s="161"/>
+      <c r="P19" s="161">
         <v>1</v>
       </c>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="163">
+      <c r="Q19" s="161"/>
+      <c r="R19" s="161">
         <v>9</v>
       </c>
-      <c r="S19" s="163"/>
+      <c r="S19" s="161"/>
       <c r="T19" s="158" t="s">
         <v>95</v>
       </c>
@@ -14383,10 +14401,10 @@
       <c r="Y19" s="158"/>
       <c r="Z19" s="158"/>
       <c r="AA19" s="158"/>
-      <c r="AB19" s="167"/>
-      <c r="AC19" s="167"/>
-      <c r="AD19" s="168"/>
-      <c r="AE19" s="168"/>
+      <c r="AB19" s="159"/>
+      <c r="AC19" s="159"/>
+      <c r="AD19" s="160"/>
+      <c r="AE19" s="160"/>
       <c r="AF19" s="68"/>
       <c r="AG19" s="67"/>
       <c r="AT19" s="119"/>
@@ -14396,39 +14414,39 @@
       </c>
     </row>
     <row r="20" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A20" s="161">
+      <c r="A20" s="168">
         <v>2022090201</v>
       </c>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="168"/>
       <c r="D20" s="158" t="s">
         <v>103</v>
       </c>
       <c r="E20" s="158"/>
       <c r="F20" s="158"/>
       <c r="G20" s="158"/>
-      <c r="H20" s="162">
+      <c r="H20" s="169">
         <v>0.375</v>
       </c>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="162">
+      <c r="I20" s="169"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169">
         <v>0.75</v>
       </c>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="163">
+      <c r="L20" s="169"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="161">
         <v>1</v>
       </c>
-      <c r="O20" s="163"/>
-      <c r="P20" s="163">
+      <c r="O20" s="161"/>
+      <c r="P20" s="161">
         <v>0</v>
       </c>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="163">
+      <c r="Q20" s="161"/>
+      <c r="R20" s="161">
         <v>8</v>
       </c>
-      <c r="S20" s="163"/>
+      <c r="S20" s="161"/>
       <c r="T20" s="158" t="s">
         <v>225</v>
       </c>
@@ -14441,10 +14459,10 @@
       <c r="Y20" s="158"/>
       <c r="Z20" s="158"/>
       <c r="AA20" s="158"/>
-      <c r="AB20" s="167"/>
-      <c r="AC20" s="167"/>
-      <c r="AD20" s="168"/>
-      <c r="AE20" s="168"/>
+      <c r="AB20" s="159"/>
+      <c r="AC20" s="159"/>
+      <c r="AD20" s="160"/>
+      <c r="AE20" s="160"/>
       <c r="AF20" s="68"/>
       <c r="AG20" s="67"/>
       <c r="AT20" s="119"/>
@@ -14454,39 +14472,39 @@
       </c>
     </row>
     <row r="21" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A21" s="161">
+      <c r="A21" s="168">
         <v>2022090301</v>
       </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="168"/>
       <c r="D21" s="158" t="s">
         <v>105</v>
       </c>
       <c r="E21" s="158"/>
       <c r="F21" s="158"/>
       <c r="G21" s="158"/>
-      <c r="H21" s="162">
+      <c r="H21" s="169">
         <v>0.375</v>
       </c>
-      <c r="I21" s="162"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="162">
+      <c r="I21" s="169"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="169">
         <v>0.79166666666666663</v>
       </c>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="163">
+      <c r="L21" s="169"/>
+      <c r="M21" s="169"/>
+      <c r="N21" s="161">
         <v>1</v>
       </c>
-      <c r="O21" s="163"/>
-      <c r="P21" s="163">
+      <c r="O21" s="161"/>
+      <c r="P21" s="161">
         <v>1</v>
       </c>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="163">
+      <c r="Q21" s="161"/>
+      <c r="R21" s="161">
         <v>9</v>
       </c>
-      <c r="S21" s="163"/>
+      <c r="S21" s="161"/>
       <c r="T21" s="158" t="s">
         <v>106</v>
       </c>
@@ -14499,19 +14517,19 @@
       <c r="Y21" s="158"/>
       <c r="Z21" s="158"/>
       <c r="AA21" s="158"/>
-      <c r="AB21" s="167"/>
-      <c r="AC21" s="167"/>
-      <c r="AD21" s="168"/>
-      <c r="AE21" s="168"/>
+      <c r="AB21" s="159"/>
+      <c r="AC21" s="159"/>
+      <c r="AD21" s="160"/>
+      <c r="AE21" s="160"/>
       <c r="AF21" s="68"/>
       <c r="AG21" s="67"/>
     </row>
     <row r="22" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A22" s="161">
+      <c r="A22" s="168">
         <v>2022090401</v>
       </c>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="168"/>
       <c r="D22" s="158"/>
       <c r="E22" s="158"/>
       <c r="F22" s="158"/>
@@ -14522,12 +14540,12 @@
       <c r="K22" s="158"/>
       <c r="L22" s="158"/>
       <c r="M22" s="158"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="169"/>
-      <c r="S22" s="169"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="157"/>
       <c r="T22" s="158"/>
       <c r="U22" s="158"/>
       <c r="V22" s="158"/>
@@ -14536,19 +14554,19 @@
       <c r="Y22" s="158"/>
       <c r="Z22" s="158"/>
       <c r="AA22" s="158"/>
-      <c r="AB22" s="167"/>
-      <c r="AC22" s="167"/>
-      <c r="AD22" s="168"/>
-      <c r="AE22" s="168"/>
+      <c r="AB22" s="159"/>
+      <c r="AC22" s="159"/>
+      <c r="AD22" s="160"/>
+      <c r="AE22" s="160"/>
       <c r="AF22" s="68"/>
       <c r="AG22" s="67"/>
     </row>
     <row r="23" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A23" s="161">
+      <c r="A23" s="168">
         <v>2022090501</v>
       </c>
-      <c r="B23" s="161"/>
-      <c r="C23" s="161"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
       <c r="D23" s="158"/>
       <c r="E23" s="158"/>
       <c r="F23" s="158"/>
@@ -14559,12 +14577,12 @@
       <c r="K23" s="158"/>
       <c r="L23" s="158"/>
       <c r="M23" s="158"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="169"/>
-      <c r="S23" s="169"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="157"/>
+      <c r="S23" s="157"/>
       <c r="T23" s="158"/>
       <c r="U23" s="158"/>
       <c r="V23" s="158"/>
@@ -14573,19 +14591,19 @@
       <c r="Y23" s="158"/>
       <c r="Z23" s="158"/>
       <c r="AA23" s="158"/>
-      <c r="AB23" s="167"/>
-      <c r="AC23" s="167"/>
-      <c r="AD23" s="168"/>
-      <c r="AE23" s="168"/>
+      <c r="AB23" s="159"/>
+      <c r="AC23" s="159"/>
+      <c r="AD23" s="160"/>
+      <c r="AE23" s="160"/>
       <c r="AF23" s="68"/>
       <c r="AG23" s="67"/>
     </row>
     <row r="24" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A24" s="161">
+      <c r="A24" s="168">
         <v>2022090601</v>
       </c>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="158"/>
       <c r="E24" s="158"/>
       <c r="F24" s="158"/>
@@ -14596,12 +14614,12 @@
       <c r="K24" s="158"/>
       <c r="L24" s="158"/>
       <c r="M24" s="158"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="169"/>
-      <c r="S24" s="169"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="157"/>
+      <c r="S24" s="157"/>
       <c r="T24" s="158"/>
       <c r="U24" s="158"/>
       <c r="V24" s="158"/>
@@ -14610,19 +14628,19 @@
       <c r="Y24" s="158"/>
       <c r="Z24" s="158"/>
       <c r="AA24" s="158"/>
-      <c r="AB24" s="167"/>
-      <c r="AC24" s="167"/>
-      <c r="AD24" s="168"/>
-      <c r="AE24" s="168"/>
+      <c r="AB24" s="159"/>
+      <c r="AC24" s="159"/>
+      <c r="AD24" s="160"/>
+      <c r="AE24" s="160"/>
       <c r="AF24" s="68"/>
       <c r="AG24" s="67"/>
     </row>
     <row r="25" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A25" s="161">
+      <c r="A25" s="168">
         <v>2022090701</v>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="158"/>
       <c r="E25" s="158"/>
       <c r="F25" s="158"/>
@@ -14633,12 +14651,12 @@
       <c r="K25" s="158"/>
       <c r="L25" s="158"/>
       <c r="M25" s="158"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="163"/>
-      <c r="Q25" s="163"/>
-      <c r="R25" s="169"/>
-      <c r="S25" s="169"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="157"/>
+      <c r="S25" s="157"/>
       <c r="T25" s="158"/>
       <c r="U25" s="158"/>
       <c r="V25" s="158"/>
@@ -14647,19 +14665,19 @@
       <c r="Y25" s="158"/>
       <c r="Z25" s="158"/>
       <c r="AA25" s="158"/>
-      <c r="AB25" s="167"/>
-      <c r="AC25" s="167"/>
-      <c r="AD25" s="168"/>
-      <c r="AE25" s="168"/>
+      <c r="AB25" s="159"/>
+      <c r="AC25" s="159"/>
+      <c r="AD25" s="160"/>
+      <c r="AE25" s="160"/>
       <c r="AF25" s="68"/>
       <c r="AG25" s="67"/>
     </row>
     <row r="26" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A26" s="161">
+      <c r="A26" s="168">
         <v>2022090801</v>
       </c>
-      <c r="B26" s="161"/>
-      <c r="C26" s="161"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
       <c r="D26" s="158"/>
       <c r="E26" s="158"/>
       <c r="F26" s="158"/>
@@ -14670,12 +14688,12 @@
       <c r="K26" s="158"/>
       <c r="L26" s="158"/>
       <c r="M26" s="158"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="163"/>
-      <c r="Q26" s="163"/>
-      <c r="R26" s="169"/>
-      <c r="S26" s="169"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="157"/>
+      <c r="S26" s="157"/>
       <c r="T26" s="158"/>
       <c r="U26" s="158"/>
       <c r="V26" s="158"/>
@@ -14684,19 +14702,19 @@
       <c r="Y26" s="158"/>
       <c r="Z26" s="158"/>
       <c r="AA26" s="158"/>
-      <c r="AB26" s="167"/>
-      <c r="AC26" s="167"/>
-      <c r="AD26" s="168"/>
-      <c r="AE26" s="168"/>
+      <c r="AB26" s="159"/>
+      <c r="AC26" s="159"/>
+      <c r="AD26" s="160"/>
+      <c r="AE26" s="160"/>
       <c r="AF26" s="68"/>
       <c r="AG26" s="67"/>
     </row>
     <row r="27" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A27" s="161">
+      <c r="A27" s="168">
         <v>2022090901</v>
       </c>
-      <c r="B27" s="161"/>
-      <c r="C27" s="161"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
       <c r="D27" s="158"/>
       <c r="E27" s="158"/>
       <c r="F27" s="158"/>
@@ -14707,12 +14725,12 @@
       <c r="K27" s="158"/>
       <c r="L27" s="158"/>
       <c r="M27" s="158"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="163"/>
-      <c r="Q27" s="163"/>
-      <c r="R27" s="169"/>
-      <c r="S27" s="169"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="157"/>
+      <c r="S27" s="157"/>
       <c r="T27" s="158"/>
       <c r="U27" s="158"/>
       <c r="V27" s="158"/>
@@ -14721,19 +14739,19 @@
       <c r="Y27" s="158"/>
       <c r="Z27" s="158"/>
       <c r="AA27" s="158"/>
-      <c r="AB27" s="167"/>
-      <c r="AC27" s="167"/>
-      <c r="AD27" s="168"/>
-      <c r="AE27" s="168"/>
+      <c r="AB27" s="159"/>
+      <c r="AC27" s="159"/>
+      <c r="AD27" s="160"/>
+      <c r="AE27" s="160"/>
       <c r="AF27" s="68"/>
       <c r="AG27" s="67"/>
     </row>
     <row r="28" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A28" s="161">
+      <c r="A28" s="168">
         <v>2022091001</v>
       </c>
-      <c r="B28" s="161"/>
-      <c r="C28" s="161"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="158"/>
       <c r="E28" s="158"/>
       <c r="F28" s="158"/>
@@ -14744,12 +14762,12 @@
       <c r="K28" s="158"/>
       <c r="L28" s="158"/>
       <c r="M28" s="158"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="163"/>
-      <c r="R28" s="169"/>
-      <c r="S28" s="169"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="161"/>
+      <c r="Q28" s="161"/>
+      <c r="R28" s="157"/>
+      <c r="S28" s="157"/>
       <c r="T28" s="158"/>
       <c r="U28" s="158"/>
       <c r="V28" s="158"/>
@@ -14758,19 +14776,19 @@
       <c r="Y28" s="158"/>
       <c r="Z28" s="158"/>
       <c r="AA28" s="158"/>
-      <c r="AB28" s="167"/>
-      <c r="AC28" s="167"/>
-      <c r="AD28" s="168"/>
-      <c r="AE28" s="168"/>
+      <c r="AB28" s="159"/>
+      <c r="AC28" s="159"/>
+      <c r="AD28" s="160"/>
+      <c r="AE28" s="160"/>
       <c r="AF28" s="68"/>
       <c r="AG28" s="67"/>
     </row>
     <row r="29" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A29" s="161">
+      <c r="A29" s="168">
         <v>2022091101</v>
       </c>
-      <c r="B29" s="161"/>
-      <c r="C29" s="161"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
       <c r="D29" s="158"/>
       <c r="E29" s="158"/>
       <c r="F29" s="158"/>
@@ -14781,12 +14799,12 @@
       <c r="K29" s="158"/>
       <c r="L29" s="158"/>
       <c r="M29" s="158"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
-      <c r="P29" s="163"/>
-      <c r="Q29" s="163"/>
-      <c r="R29" s="169"/>
-      <c r="S29" s="169"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="157"/>
+      <c r="S29" s="157"/>
       <c r="T29" s="158"/>
       <c r="U29" s="158"/>
       <c r="V29" s="158"/>
@@ -14795,19 +14813,19 @@
       <c r="Y29" s="158"/>
       <c r="Z29" s="158"/>
       <c r="AA29" s="158"/>
-      <c r="AB29" s="167"/>
-      <c r="AC29" s="167"/>
-      <c r="AD29" s="168"/>
-      <c r="AE29" s="168"/>
+      <c r="AB29" s="159"/>
+      <c r="AC29" s="159"/>
+      <c r="AD29" s="160"/>
+      <c r="AE29" s="160"/>
       <c r="AF29" s="68"/>
       <c r="AG29" s="67"/>
     </row>
     <row r="30" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A30" s="161">
+      <c r="A30" s="168">
         <v>2022091201</v>
       </c>
-      <c r="B30" s="161"/>
-      <c r="C30" s="161"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
       <c r="D30" s="158"/>
       <c r="E30" s="158"/>
       <c r="F30" s="158"/>
@@ -14818,12 +14836,12 @@
       <c r="K30" s="158"/>
       <c r="L30" s="158"/>
       <c r="M30" s="158"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-      <c r="P30" s="163"/>
-      <c r="Q30" s="163"/>
-      <c r="R30" s="169"/>
-      <c r="S30" s="169"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="161"/>
+      <c r="P30" s="161"/>
+      <c r="Q30" s="161"/>
+      <c r="R30" s="157"/>
+      <c r="S30" s="157"/>
       <c r="T30" s="158"/>
       <c r="U30" s="158"/>
       <c r="V30" s="158"/>
@@ -14832,19 +14850,19 @@
       <c r="Y30" s="158"/>
       <c r="Z30" s="158"/>
       <c r="AA30" s="158"/>
-      <c r="AB30" s="167"/>
-      <c r="AC30" s="167"/>
-      <c r="AD30" s="168"/>
-      <c r="AE30" s="168"/>
+      <c r="AB30" s="159"/>
+      <c r="AC30" s="159"/>
+      <c r="AD30" s="160"/>
+      <c r="AE30" s="160"/>
       <c r="AF30" s="68"/>
       <c r="AG30" s="67"/>
     </row>
     <row r="31" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A31" s="161">
+      <c r="A31" s="168">
         <v>2022091301</v>
       </c>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
       <c r="D31" s="158"/>
       <c r="E31" s="158"/>
       <c r="F31" s="158"/>
@@ -14855,12 +14873,12 @@
       <c r="K31" s="158"/>
       <c r="L31" s="158"/>
       <c r="M31" s="158"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="163"/>
-      <c r="Q31" s="163"/>
-      <c r="R31" s="169"/>
-      <c r="S31" s="169"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="161"/>
+      <c r="Q31" s="161"/>
+      <c r="R31" s="157"/>
+      <c r="S31" s="157"/>
       <c r="T31" s="158"/>
       <c r="U31" s="158"/>
       <c r="V31" s="158"/>
@@ -14869,19 +14887,19 @@
       <c r="Y31" s="158"/>
       <c r="Z31" s="158"/>
       <c r="AA31" s="158"/>
-      <c r="AB31" s="167"/>
-      <c r="AC31" s="167"/>
-      <c r="AD31" s="168"/>
-      <c r="AE31" s="168"/>
+      <c r="AB31" s="159"/>
+      <c r="AC31" s="159"/>
+      <c r="AD31" s="160"/>
+      <c r="AE31" s="160"/>
       <c r="AF31" s="68"/>
       <c r="AG31" s="67"/>
     </row>
     <row r="32" spans="1:48" ht="12.75" customHeight="1">
-      <c r="A32" s="161">
+      <c r="A32" s="168">
         <v>2022091401</v>
       </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="168"/>
       <c r="D32" s="158"/>
       <c r="E32" s="158"/>
       <c r="F32" s="158"/>
@@ -14892,12 +14910,12 @@
       <c r="K32" s="158"/>
       <c r="L32" s="158"/>
       <c r="M32" s="158"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
-      <c r="P32" s="163"/>
-      <c r="Q32" s="163"/>
-      <c r="R32" s="169"/>
-      <c r="S32" s="169"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="161"/>
+      <c r="R32" s="157"/>
+      <c r="S32" s="157"/>
       <c r="T32" s="158"/>
       <c r="U32" s="158"/>
       <c r="V32" s="158"/>
@@ -14906,19 +14924,19 @@
       <c r="Y32" s="158"/>
       <c r="Z32" s="158"/>
       <c r="AA32" s="158"/>
-      <c r="AB32" s="167"/>
-      <c r="AC32" s="167"/>
-      <c r="AD32" s="168"/>
-      <c r="AE32" s="168"/>
+      <c r="AB32" s="159"/>
+      <c r="AC32" s="159"/>
+      <c r="AD32" s="160"/>
+      <c r="AE32" s="160"/>
       <c r="AF32" s="68"/>
       <c r="AG32" s="67"/>
     </row>
     <row r="33" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A33" s="161">
+      <c r="A33" s="168">
         <v>2022091501</v>
       </c>
-      <c r="B33" s="161"/>
-      <c r="C33" s="161"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
       <c r="D33" s="158"/>
       <c r="E33" s="158"/>
       <c r="F33" s="158"/>
@@ -14929,12 +14947,12 @@
       <c r="K33" s="158"/>
       <c r="L33" s="158"/>
       <c r="M33" s="158"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="163"/>
-      <c r="P33" s="163"/>
-      <c r="Q33" s="163"/>
-      <c r="R33" s="169"/>
-      <c r="S33" s="169"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="161"/>
+      <c r="Q33" s="161"/>
+      <c r="R33" s="157"/>
+      <c r="S33" s="157"/>
       <c r="T33" s="158"/>
       <c r="U33" s="158"/>
       <c r="V33" s="158"/>
@@ -14943,19 +14961,19 @@
       <c r="Y33" s="158"/>
       <c r="Z33" s="158"/>
       <c r="AA33" s="158"/>
-      <c r="AB33" s="167"/>
-      <c r="AC33" s="167"/>
-      <c r="AD33" s="168"/>
-      <c r="AE33" s="168"/>
+      <c r="AB33" s="159"/>
+      <c r="AC33" s="159"/>
+      <c r="AD33" s="160"/>
+      <c r="AE33" s="160"/>
       <c r="AF33" s="68"/>
       <c r="AG33" s="67"/>
     </row>
     <row r="34" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A34" s="161">
+      <c r="A34" s="168">
         <v>2022091601</v>
       </c>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
       <c r="D34" s="158"/>
       <c r="E34" s="158"/>
       <c r="F34" s="158"/>
@@ -14966,12 +14984,12 @@
       <c r="K34" s="158"/>
       <c r="L34" s="158"/>
       <c r="M34" s="158"/>
-      <c r="N34" s="163"/>
-      <c r="O34" s="163"/>
-      <c r="P34" s="163"/>
-      <c r="Q34" s="163"/>
-      <c r="R34" s="169"/>
-      <c r="S34" s="169"/>
+      <c r="N34" s="161"/>
+      <c r="O34" s="161"/>
+      <c r="P34" s="161"/>
+      <c r="Q34" s="161"/>
+      <c r="R34" s="157"/>
+      <c r="S34" s="157"/>
       <c r="T34" s="158"/>
       <c r="U34" s="158"/>
       <c r="V34" s="158"/>
@@ -14980,19 +14998,19 @@
       <c r="Y34" s="158"/>
       <c r="Z34" s="158"/>
       <c r="AA34" s="158"/>
-      <c r="AB34" s="167"/>
-      <c r="AC34" s="167"/>
-      <c r="AD34" s="168"/>
-      <c r="AE34" s="168"/>
+      <c r="AB34" s="159"/>
+      <c r="AC34" s="159"/>
+      <c r="AD34" s="160"/>
+      <c r="AE34" s="160"/>
       <c r="AF34" s="68"/>
       <c r="AG34" s="67"/>
     </row>
     <row r="35" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A35" s="161">
+      <c r="A35" s="168">
         <v>2022091701</v>
       </c>
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
       <c r="D35" s="158"/>
       <c r="E35" s="158"/>
       <c r="F35" s="158"/>
@@ -15003,12 +15021,12 @@
       <c r="K35" s="158"/>
       <c r="L35" s="158"/>
       <c r="M35" s="158"/>
-      <c r="N35" s="163"/>
-      <c r="O35" s="163"/>
-      <c r="P35" s="163"/>
-      <c r="Q35" s="163"/>
-      <c r="R35" s="169"/>
-      <c r="S35" s="169"/>
+      <c r="N35" s="161"/>
+      <c r="O35" s="161"/>
+      <c r="P35" s="161"/>
+      <c r="Q35" s="161"/>
+      <c r="R35" s="157"/>
+      <c r="S35" s="157"/>
       <c r="T35" s="158"/>
       <c r="U35" s="158"/>
       <c r="V35" s="158"/>
@@ -15017,53 +15035,53 @@
       <c r="Y35" s="158"/>
       <c r="Z35" s="158"/>
       <c r="AA35" s="158"/>
-      <c r="AB35" s="167"/>
-      <c r="AC35" s="167"/>
-      <c r="AD35" s="168"/>
-      <c r="AE35" s="168"/>
+      <c r="AB35" s="159"/>
+      <c r="AC35" s="159"/>
+      <c r="AD35" s="160"/>
+      <c r="AE35" s="160"/>
       <c r="AF35" s="68"/>
       <c r="AG35" s="67"/>
     </row>
     <row r="36" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A36" s="170" t="s">
+      <c r="A36" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="171"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="176"/>
-      <c r="K36" s="176"/>
-      <c r="L36" s="176"/>
-      <c r="M36" s="176"/>
-      <c r="N36" s="176"/>
-      <c r="O36" s="176"/>
-      <c r="P36" s="177">
+      <c r="B36" s="163"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="166"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="154"/>
+      <c r="P36" s="152">
         <f>SUM(P19:Q35)</f>
         <v>2</v>
       </c>
-      <c r="Q36" s="177"/>
-      <c r="R36" s="178">
+      <c r="Q36" s="152"/>
+      <c r="R36" s="153">
         <f>SUM(R19:S35)</f>
         <v>26</v>
       </c>
-      <c r="S36" s="178"/>
-      <c r="T36" s="176"/>
-      <c r="U36" s="176"/>
-      <c r="V36" s="176"/>
-      <c r="W36" s="176"/>
-      <c r="X36" s="176"/>
-      <c r="Y36" s="176"/>
-      <c r="Z36" s="176"/>
-      <c r="AA36" s="176"/>
-      <c r="AB36" s="179"/>
-      <c r="AC36" s="179"/>
-      <c r="AD36" s="180"/>
-      <c r="AE36" s="180"/>
+      <c r="S36" s="153"/>
+      <c r="T36" s="154"/>
+      <c r="U36" s="154"/>
+      <c r="V36" s="154"/>
+      <c r="W36" s="154"/>
+      <c r="X36" s="154"/>
+      <c r="Y36" s="154"/>
+      <c r="Z36" s="154"/>
+      <c r="AA36" s="154"/>
+      <c r="AB36" s="155"/>
+      <c r="AC36" s="155"/>
+      <c r="AD36" s="156"/>
+      <c r="AE36" s="156"/>
       <c r="AF36" s="68"/>
       <c r="AG36" s="67"/>
     </row>
@@ -15349,191 +15367,25 @@
     </row>
   </sheetData>
   <mergeCells count="228">
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="Q15:R16"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="H20:J20"/>
@@ -15558,25 +15410,191 @@
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="R20:S20"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="N15:P16"/>
-    <mergeCell ref="Q15:R16"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="V32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="P35:Q35"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="3">
@@ -15604,10 +15622,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:FV28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomLeft" activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -15658,136 +15676,136 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="132" t="s">
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="134"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="132"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="132"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="135" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="135" t="s">
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="126"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="129"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="93"/>
@@ -16000,8 +16018,12 @@
       <c r="F6" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
+      <c r="G6" s="101">
+        <v>10</v>
+      </c>
+      <c r="H6" s="101" t="s">
+        <v>41</v>
+      </c>
       <c r="I6" s="101"/>
       <c r="J6" s="101"/>
       <c r="K6" s="98" t="s">
@@ -16018,7 +16040,9 @@
       <c r="R6" s="99"/>
       <c r="S6" s="99"/>
       <c r="T6" s="100"/>
-      <c r="U6" s="99"/>
+      <c r="U6" s="99" t="s">
+        <v>233</v>
+      </c>
       <c r="V6" s="99"/>
       <c r="W6" s="99"/>
       <c r="X6" s="99"/>
@@ -16044,8 +16068,12 @@
       <c r="F7" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
+      <c r="G7" s="101">
+        <v>50</v>
+      </c>
+      <c r="H7" s="101" t="s">
+        <v>41</v>
+      </c>
       <c r="I7" s="101"/>
       <c r="J7" s="101"/>
       <c r="K7" s="98" t="s">
@@ -16062,7 +16090,9 @@
       <c r="R7" s="99"/>
       <c r="S7" s="99"/>
       <c r="T7" s="100"/>
-      <c r="U7" s="99"/>
+      <c r="U7" s="99" t="s">
+        <v>232</v>
+      </c>
       <c r="V7" s="99"/>
       <c r="W7" s="99"/>
       <c r="X7" s="99"/>
@@ -16088,8 +16118,12 @@
       <c r="F8" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="G8" s="101">
+        <v>50</v>
+      </c>
+      <c r="H8" s="101" t="s">
+        <v>41</v>
+      </c>
       <c r="I8" s="101"/>
       <c r="J8" s="101"/>
       <c r="K8" s="98" t="s">
@@ -16106,7 +16140,9 @@
       <c r="R8" s="99"/>
       <c r="S8" s="99"/>
       <c r="T8" s="100"/>
-      <c r="U8" s="99"/>
+      <c r="U8" s="99" t="s">
+        <v>232</v>
+      </c>
       <c r="V8" s="99"/>
       <c r="W8" s="99"/>
       <c r="X8" s="99"/>
@@ -16132,8 +16168,12 @@
       <c r="F9" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
+      <c r="G9" s="101">
+        <v>12</v>
+      </c>
+      <c r="H9" s="101" t="s">
+        <v>41</v>
+      </c>
       <c r="I9" s="101"/>
       <c r="J9" s="101"/>
       <c r="K9" s="98" t="s">
@@ -16194,7 +16234,9 @@
       <c r="R10" s="87"/>
       <c r="S10" s="87"/>
       <c r="T10" s="102"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="87" t="s">
+        <v>230</v>
+      </c>
       <c r="V10" s="87"/>
       <c r="W10" s="87"/>
       <c r="X10" s="99"/>
@@ -16238,7 +16280,9 @@
       <c r="R11" s="99"/>
       <c r="S11" s="99"/>
       <c r="T11" s="100"/>
-      <c r="U11" s="99"/>
+      <c r="U11" s="99" t="s">
+        <v>229</v>
+      </c>
       <c r="V11" s="99"/>
       <c r="W11" s="99"/>
       <c r="X11" s="99"/>
@@ -16282,7 +16326,9 @@
       <c r="R12" s="99"/>
       <c r="S12" s="99"/>
       <c r="T12" s="100"/>
-      <c r="U12" s="99"/>
+      <c r="U12" s="99" t="s">
+        <v>229</v>
+      </c>
       <c r="V12" s="99"/>
       <c r="W12" s="99"/>
       <c r="X12" s="99"/>
@@ -16326,7 +16372,9 @@
       <c r="R13" s="99"/>
       <c r="S13" s="99"/>
       <c r="T13" s="102"/>
-      <c r="U13" s="99"/>
+      <c r="U13" s="99" t="s">
+        <v>229</v>
+      </c>
       <c r="V13" s="99"/>
       <c r="W13" s="99"/>
       <c r="X13" s="99"/>
@@ -16370,7 +16418,9 @@
       <c r="R14" s="87"/>
       <c r="S14" s="87"/>
       <c r="T14" s="102"/>
-      <c r="U14" s="99"/>
+      <c r="U14" s="99" t="s">
+        <v>231</v>
+      </c>
       <c r="V14" s="87"/>
       <c r="W14" s="87"/>
       <c r="X14" s="99"/>
@@ -16414,7 +16464,9 @@
       <c r="R15" s="87"/>
       <c r="S15" s="87"/>
       <c r="T15" s="102"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="87" t="s">
+        <v>231</v>
+      </c>
       <c r="V15" s="87"/>
       <c r="W15" s="87"/>
       <c r="X15" s="99"/>
@@ -16458,7 +16510,9 @@
       <c r="R16" s="87"/>
       <c r="S16" s="87"/>
       <c r="T16" s="102"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="87" t="s">
+        <v>229</v>
+      </c>
       <c r="V16" s="87"/>
       <c r="W16" s="87"/>
       <c r="X16" s="99"/>
@@ -16502,7 +16556,9 @@
       <c r="R17" s="87"/>
       <c r="S17" s="87"/>
       <c r="T17" s="102"/>
-      <c r="U17" s="87"/>
+      <c r="U17" s="87" t="s">
+        <v>229</v>
+      </c>
       <c r="V17" s="87"/>
       <c r="W17" s="87"/>
       <c r="X17" s="99"/>
@@ -16632,7 +16688,9 @@
       <c r="R20" s="99"/>
       <c r="S20" s="99"/>
       <c r="T20" s="100"/>
-      <c r="U20" s="99"/>
+      <c r="U20" s="99" t="s">
+        <v>231</v>
+      </c>
       <c r="V20" s="99"/>
       <c r="W20" s="99"/>
       <c r="X20" s="99"/>
@@ -16977,18 +17035,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="G3:M4"/>
     <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="N2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -17059,132 +17117,132 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="134"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="132"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="132"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="135" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="126"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="129"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="93" t="s">
@@ -18049,16 +18107,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
     <mergeCell ref="N3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -18126,132 +18184,132 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="133"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="132"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="135" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="126"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="139"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="129"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="181" t="s">
@@ -19211,17 +19269,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:AD2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="N3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="A5:F6"/>
     <mergeCell ref="AG3:AH4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:M4"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:AD2"/>
-    <mergeCell ref="AG2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -19289,189 +19347,189 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="132" t="s">
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="134"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="132"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="132"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="135" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="124" t="s">
         <v>210</v>
       </c>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="135" t="s">
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="126"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="129"/>
     </row>
     <row r="5" spans="1:178" ht="14.25" customHeight="1">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="196" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="195"/>
-      <c r="K5" s="196" t="s">
+      <c r="B5" s="197"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="197"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="193" t="s">
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="201"/>
+      <c r="Q5" s="196" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="194"/>
-      <c r="S5" s="194"/>
-      <c r="T5" s="194"/>
-      <c r="U5" s="194"/>
-      <c r="V5" s="194"/>
-      <c r="W5" s="194"/>
-      <c r="X5" s="194"/>
-      <c r="Y5" s="194"/>
-      <c r="Z5" s="194"/>
-      <c r="AA5" s="195"/>
-      <c r="AB5" s="187" t="s">
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="197"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="197"/>
+      <c r="AA5" s="198"/>
+      <c r="AB5" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="188"/>
-      <c r="AD5" s="188"/>
-      <c r="AE5" s="188"/>
-      <c r="AF5" s="188"/>
-      <c r="AG5" s="188"/>
-      <c r="AH5" s="189"/>
+      <c r="AC5" s="191"/>
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="192"/>
     </row>
     <row r="6" spans="1:178" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="202" t="s">
+      <c r="A6" s="187" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="204"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="189"/>
       <c r="F6" s="109" t="s">
         <v>37</v>
       </c>
@@ -19485,19 +19543,19 @@
         <v>56</v>
       </c>
       <c r="J6" s="95"/>
-      <c r="K6" s="199"/>
-      <c r="L6" s="200"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="200"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="202" t="s">
+      <c r="K6" s="202"/>
+      <c r="L6" s="203"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="204"/>
+      <c r="Q6" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="203"/>
-      <c r="S6" s="203"/>
-      <c r="T6" s="203"/>
-      <c r="U6" s="204"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
+      <c r="T6" s="188"/>
+      <c r="U6" s="189"/>
       <c r="V6" s="93" t="s">
         <v>61</v>
       </c>
@@ -19508,13 +19566,13 @@
       <c r="AA6" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" s="190"/>
-      <c r="AC6" s="191"/>
-      <c r="AD6" s="191"/>
-      <c r="AE6" s="191"/>
-      <c r="AF6" s="191"/>
-      <c r="AG6" s="191"/>
-      <c r="AH6" s="192"/>
+      <c r="AB6" s="193"/>
+      <c r="AC6" s="194"/>
+      <c r="AD6" s="194"/>
+      <c r="AE6" s="194"/>
+      <c r="AF6" s="194"/>
+      <c r="AG6" s="194"/>
+      <c r="AH6" s="195"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="23"/>
       <c r="AK6" s="23"/>
@@ -20654,6 +20712,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="Q6:U6"/>
     <mergeCell ref="A1:AH1"/>
@@ -20670,8 +20730,6 @@
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="N3:X4"/>
     <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -20740,136 +20798,136 @@
       <c r="AH1" s="151"/>
     </row>
     <row r="2" spans="1:178" ht="14">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="132" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="132" t="s">
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="134"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="132"/>
       <c r="AE2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="AF2" s="87"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AG2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="132"/>
     </row>
     <row r="3" spans="1:178" ht="14">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="135" t="s">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="135" t="s">
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="135" t="s">
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="135" t="s">
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135" t="s">
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="137"/>
+      <c r="AH3" s="126"/>
     </row>
     <row r="4" spans="1:178" ht="14">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="140"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="140"/>
-      <c r="AG4" s="138"/>
-      <c r="AH4" s="140"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="129"/>
     </row>
     <row r="5" spans="1:178" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="111"/>
@@ -22361,18 +22419,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N3:X4"/>
+    <mergeCell ref="Y3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:M4"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:X2"/>
     <mergeCell ref="Y2:AD2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="N3:X4"/>
-    <mergeCell ref="Y3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
